--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -2326,9 +2326,6 @@
     <t>23-07-2018 11:20:39</t>
   </si>
   <si>
-    <t>/tmp/plots</t>
-  </si>
-  <si>
     <t>/tmp</t>
   </si>
   <si>
@@ -2347,85 +2344,95 @@
     <t>PE-TR</t>
   </si>
   <si>
+    <t>1_2</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B3_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B4_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B5_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B6_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B7_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B8_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B9_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B10_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B11_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_B12_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C1_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C2_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C3_P3.fcs</t>
+  </si>
+  <si>
+    <t>LacI-CAGop_C4_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_blank_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_EYFP_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_mkate_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_ebfp2_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_mkate_EBFP2_EYFP_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_Beads_P3.fcs</t>
+  </si>
+  <si>
+    <t>2012-03-12_Beads2_P3.fcs</t>
+  </si>
+  <si>
+    <t>\tmp\plots</t>
+  </si>
+  <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
   </si>
   <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
-  </si>
-  <si>
-    <t>1_2</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B3_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B4_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B5_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B6_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B7_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B8_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B9_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B10_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B11_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_B12_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C1_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C2_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C3_P3.fcs</t>
-  </si>
-  <si>
-    <t>LacI-CAGop_C4_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_blank_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_EYFP_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_mkate_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_ebfp2_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_mkate_EBFP2_EYFP_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_Beads_P3.fcs</t>
-  </si>
-  <si>
-    <t>2012-03-12_Beads2_P3.fcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3339,22 +3346,22 @@
   <cellXfs count="311">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3370,7 +3377,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3381,28 +3388,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3424,62 +3431,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3490,20 +3497,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3512,35 +3519,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3558,19 +3562,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3579,46 +3583,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3636,83 +3640,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3727,37 +3731,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3766,53 +3770,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3827,20 +3831,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3863,65 +3867,129 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3929,14 +3997,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3947,139 +4051,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4100,22 +4114,49 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4127,94 +4168,60 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5044,231 +5051,231 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="157" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="87" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="87" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="87" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="143" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="87" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="87" customWidth="1"/>
-    <col min="9" max="9" width="20" style="87" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="87" customWidth="1"/>
-    <col min="11" max="11" width="6" style="87" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="87" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="87"/>
+    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
+    <col min="9" max="9" width="20" style="86" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
+    <col min="11" max="11" width="6" style="86" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="86"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="224" t="s">
+      <c r="A1" s="238" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="225"/>
-      <c r="C1" s="225"/>
-      <c r="D1" s="225"/>
-      <c r="E1" s="225"/>
-      <c r="F1" s="225"/>
-      <c r="G1" s="225"/>
-      <c r="H1" s="225"/>
-      <c r="I1" s="225"/>
-      <c r="J1" s="225"/>
-      <c r="K1" s="226"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="88"/>
+      <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="240" t="s">
+      <c r="A3" s="217" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="241"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="238" t="s">
+      <c r="A4" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="239"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="255"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="88"/>
+      <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="240" t="s">
+      <c r="A7" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="242"/>
-      <c r="C7" s="242"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="242"/>
-      <c r="F7" s="242"/>
-      <c r="G7" s="242"/>
-      <c r="H7" s="242"/>
-      <c r="I7" s="242"/>
-      <c r="J7" s="242"/>
-      <c r="K7" s="241"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="227" t="s">
+      <c r="A8" s="241" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="228"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="228"/>
-      <c r="F8" s="228"/>
-      <c r="G8" s="228"/>
-      <c r="H8" s="228"/>
-      <c r="I8" s="228"/>
-      <c r="J8" s="228"/>
-      <c r="K8" s="229"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="230"/>
-      <c r="B9" s="231"/>
-      <c r="C9" s="231"/>
-      <c r="D9" s="231"/>
-      <c r="E9" s="231"/>
-      <c r="F9" s="231"/>
-      <c r="G9" s="231"/>
-      <c r="H9" s="231"/>
-      <c r="I9" s="231"/>
-      <c r="J9" s="231"/>
-      <c r="K9" s="232"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="158"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="144"/>
+      <c r="A10" s="157"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="243" t="s">
+      <c r="A11" s="220" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="244"/>
-      <c r="C11" s="244"/>
-      <c r="D11" s="245"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="144"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="246" t="s">
+      <c r="A12" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="247"/>
-      <c r="C12" s="248" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="249"/>
-      <c r="E12" s="89"/>
-      <c r="F12" s="144"/>
+      <c r="D12" s="226"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="250"/>
-      <c r="B13" s="251"/>
-      <c r="C13" s="252"/>
-      <c r="D13" s="253"/>
-      <c r="E13" s="89"/>
-      <c r="F13" s="144"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="243" t="s">
+      <c r="A15" s="220" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="245"/>
-      <c r="E15" s="243" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="244"/>
-      <c r="G15" s="244"/>
-      <c r="H15" s="244"/>
-      <c r="I15" s="245"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="239"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="233" t="s">
+      <c r="B16" s="232"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="234"/>
-      <c r="G16" s="234"/>
-      <c r="H16" s="234"/>
-      <c r="I16" s="235"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="159" t="s">
+      <c r="A17" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="117" t="s">
+      <c r="B17" s="116" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="E17" s="236" t="s">
+      <c r="C17" s="90"/>
+      <c r="E17" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="237"/>
-      <c r="G17" s="84" t="s">
+      <c r="F17" s="251"/>
+      <c r="G17" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="84" t="s">
+      <c r="H17" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="197" t="s">
+      <c r="I17" s="196" t="s">
         <v>353</v>
       </c>
       <c r="J17" s="82"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="160" t="s">
+      <c r="A18" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="91"/>
-      <c r="E18" s="85">
+      <c r="C18" s="90"/>
+      <c r="E18" s="84">
         <v>1</v>
       </c>
-      <c r="F18" s="95" t="s">
+      <c r="F18" s="94" t="s">
         <v>169</v>
       </c>
       <c r="G18" s="34"/>
       <c r="H18" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="214" t="s">
-        <v>463</v>
+      <c r="I18" s="235" t="s">
+        <v>485</v>
       </c>
       <c r="J18" s="82"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="160" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="91"/>
-      <c r="E19" s="85">
+      <c r="B19" s="117"/>
+      <c r="C19" s="90"/>
+      <c r="E19" s="84">
         <v>2</v>
       </c>
-      <c r="F19" s="95" t="s">
+      <c r="F19" s="94" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="34" t="s">
@@ -5277,107 +5284,107 @@
       <c r="H19" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="214"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="160" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="118"/>
-      <c r="C20" s="93"/>
-      <c r="E20" s="86">
+      <c r="B20" s="117"/>
+      <c r="C20" s="92"/>
+      <c r="E20" s="85">
         <v>3</v>
       </c>
-      <c r="F20" s="142" t="s">
+      <c r="F20" s="141" t="s">
         <v>170</v>
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="215"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="160" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="118"/>
+      <c r="B21" s="117"/>
       <c r="C21" s="33"/>
       <c r="I21" s="82"/>
       <c r="J21" s="82"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="162"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="91"/>
+      <c r="A22" s="161"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="90"/>
       <c r="J22" s="82"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="163"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="93"/>
-      <c r="E23" s="216" t="s">
+      <c r="A23" s="162"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="92"/>
+      <c r="E23" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="215" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="218"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="222" t="s">
+      <c r="E24" s="255" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="223"/>
-      <c r="G24" s="83" t="s">
+      <c r="F24" s="256"/>
+      <c r="G24" s="213" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="83" t="s">
+      <c r="H24" s="213" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="197" t="s">
+      <c r="I24" s="196" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="159" t="s">
+      <c r="A25" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>279</v>
       </c>
       <c r="C25" s="33"/>
-      <c r="E25" s="85">
+      <c r="E25" s="84">
         <v>1</v>
       </c>
-      <c r="F25" s="95" t="s">
+      <c r="F25" s="94" t="s">
         <v>214</v>
       </c>
       <c r="G25" s="34"/>
       <c r="H25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="219" t="s">
-        <v>464</v>
+      <c r="I25" s="252" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="160" t="s">
+      <c r="A26" s="159" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="91"/>
-      <c r="E26" s="85">
+      <c r="C26" s="90"/>
+      <c r="E26" s="84">
         <v>2</v>
       </c>
-      <c r="F26" s="95" t="s">
+      <c r="F26" s="94" t="s">
         <v>7</v>
       </c>
       <c r="G26" s="34" t="s">
@@ -5386,251 +5393,265 @@
       <c r="H26" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="220"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="160" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="118"/>
-      <c r="C27" s="93"/>
-      <c r="E27" s="86">
+      <c r="B27" s="117"/>
+      <c r="C27" s="92"/>
+      <c r="E27" s="85">
         <v>3</v>
       </c>
-      <c r="F27" s="142" t="s">
+      <c r="F27" s="141" t="s">
         <v>170</v>
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="221"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="160" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="118"/>
+      <c r="B28" s="117"/>
       <c r="C28" s="33"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
       <c r="I28" s="82"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="161"/>
-      <c r="B29" s="118"/>
+      <c r="A29" s="160"/>
+      <c r="B29" s="117"/>
       <c r="C29" s="33"/>
       <c r="I29" s="82"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="91"/>
-      <c r="E30" s="216" t="s">
+      <c r="A30" s="161"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="90"/>
+      <c r="E30" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="218"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="163"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="93"/>
-      <c r="E31" s="308" t="s">
-        <v>465</v>
-      </c>
-      <c r="F31" s="309"/>
-      <c r="G31" s="213" t="s">
+      <c r="A31" s="162"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="92"/>
+      <c r="E31" s="257" t="s">
+        <v>462</v>
+      </c>
+      <c r="F31" s="258"/>
+      <c r="G31" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="213" t="s">
+      <c r="H31" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="197" t="s">
+      <c r="I31" s="196" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="218"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
-      <c r="E32" s="85">
+      <c r="E32" s="84">
         <v>1</v>
       </c>
-      <c r="F32" s="95" t="s">
+      <c r="F32" s="94" t="s">
         <v>169</v>
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="214"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="159" t="s">
+      <c r="A33" s="158" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="117" t="s">
+      <c r="B33" s="116" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="91"/>
-      <c r="E33" s="85">
+      <c r="C33" s="90"/>
+      <c r="E33" s="84">
         <v>2</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="94" t="s">
         <v>7</v>
       </c>
       <c r="G33" s="34" t="s">
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="214"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="160" t="s">
+      <c r="A34" s="159" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="91" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="84">
         <v>3</v>
       </c>
-      <c r="F34" s="95"/>
+      <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="214"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="161" t="s">
+      <c r="A35" s="160" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="118"/>
-      <c r="E35" s="85">
+      <c r="B35" s="117"/>
+      <c r="E35" s="84">
         <v>4</v>
       </c>
-      <c r="F35" s="95"/>
+      <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="214"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="161" t="s">
+      <c r="A36" s="160" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="E36" s="85">
+      <c r="B36" s="117"/>
+      <c r="E36" s="84">
         <v>5</v>
       </c>
-      <c r="F36" s="95"/>
+      <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="214"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="161" t="s">
+      <c r="A37" s="160" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="118"/>
-      <c r="E37" s="86">
+      <c r="B37" s="117"/>
+      <c r="E37" s="85">
         <v>6</v>
       </c>
-      <c r="F37" s="142"/>
+      <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="215"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="162" t="s">
+      <c r="A38" s="161" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="119"/>
+      <c r="B38" s="118"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="164"/>
-      <c r="B39" s="123"/>
+      <c r="A39" s="163"/>
+      <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="218"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="222"/>
-      <c r="F41" s="223"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="83" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="197" t="s">
+      <c r="I41" s="196" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="85">
+      <c r="E42" s="84">
         <v>1</v>
       </c>
-      <c r="F42" s="95"/>
+      <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="214"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="85">
+      <c r="E43" s="84">
         <v>2</v>
       </c>
-      <c r="F43" s="95"/>
+      <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="214"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="85">
+      <c r="E44" s="84">
         <v>3</v>
       </c>
-      <c r="F44" s="95"/>
+      <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="214"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="85">
+      <c r="E45" s="84">
         <v>4</v>
       </c>
-      <c r="F45" s="95"/>
+      <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="214"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="85">
+      <c r="E46" s="84">
         <v>5</v>
       </c>
-      <c r="F46" s="95"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="214"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="86">
+      <c r="E47" s="85">
         <v>6</v>
       </c>
-      <c r="F47" s="142"/>
+      <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="215"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5646,20 +5667,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5673,7 +5680,7 @@
   </sheetPr>
   <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
@@ -5699,32 +5706,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="261" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="260"/>
+      <c r="B1" s="262"/>
+      <c r="C1" s="262"/>
+      <c r="D1" s="262"/>
+      <c r="E1" s="262"/>
+      <c r="F1" s="262"/>
+      <c r="G1" s="262"/>
+      <c r="H1" s="262"/>
+      <c r="I1" s="262"/>
+      <c r="J1" s="263"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="261" t="s">
+      <c r="A2" s="264" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="262"/>
-      <c r="C2" s="262"/>
-      <c r="D2" s="262"/>
-      <c r="E2" s="262"/>
-      <c r="F2" s="262"/>
-      <c r="G2" s="262"/>
-      <c r="H2" s="262"/>
-      <c r="I2" s="262"/>
-      <c r="J2" s="263"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="266"/>
       <c r="K2" s="80"/>
       <c r="L2" s="80"/>
       <c r="M2" s="76"/>
@@ -5732,26 +5739,26 @@
       <c r="O2" s="77"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="179" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="183" t="s">
+      <c r="B3" s="182" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="267" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="265"/>
-      <c r="E3" s="265"/>
-      <c r="F3" s="265"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="183" t="s">
+      <c r="D3" s="268"/>
+      <c r="E3" s="268"/>
+      <c r="F3" s="268"/>
+      <c r="G3" s="269"/>
+      <c r="H3" s="182" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="183" t="s">
+      <c r="I3" s="182" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="184" t="s">
+      <c r="J3" s="183" t="s">
         <v>315</v>
       </c>
       <c r="K3" s="80"/>
@@ -5761,488 +5768,488 @@
       <c r="O3" s="77"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="140" t="s">
+      <c r="A4" s="139" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="141" t="s">
+      <c r="C4" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="140" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="141" t="s">
+      <c r="E4" s="140" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="141" t="s">
+      <c r="F4" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="140" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="141" t="s">
+      <c r="H4" s="140" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="141" t="s">
+      <c r="I4" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="201" t="s">
+      <c r="J4" s="200" t="s">
         <v>405</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="110">
+      <c r="A5" s="109">
         <v>1</v>
       </c>
       <c r="B5" s="79" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="111">
+      <c r="C5" s="110">
         <v>0.1</v>
       </c>
-      <c r="D5" s="111" t="s">
+      <c r="D5" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="111" t="s">
+      <c r="E5" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="111" t="s">
+      <c r="F5" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="111">
+      <c r="G5" s="110">
         <v>0.1</v>
       </c>
-      <c r="H5" s="112">
+      <c r="H5" s="111">
         <v>1</v>
       </c>
-      <c r="I5" s="113" t="s">
+      <c r="I5" s="112" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="114"/>
-      <c r="K5" s="310" t="s">
-        <v>466</v>
+      <c r="J5" s="113"/>
+      <c r="K5" s="212" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="110">
+      <c r="A6" s="109">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="111">
+      <c r="C6" s="110">
         <v>0.2</v>
       </c>
-      <c r="D6" s="111" t="s">
+      <c r="D6" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="111" t="s">
+      <c r="E6" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="111" t="s">
+      <c r="F6" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="111">
+      <c r="G6" s="110">
         <v>0.2</v>
       </c>
-      <c r="H6" s="112">
+      <c r="H6" s="111">
         <v>1</v>
       </c>
-      <c r="I6" s="113" t="s">
+      <c r="I6" s="112" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="114"/>
-      <c r="K6" s="310" t="s">
-        <v>467</v>
+      <c r="J6" s="113"/>
+      <c r="K6" s="212" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="110">
+      <c r="A7" s="109">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="111">
+      <c r="C7" s="110">
         <v>0.5</v>
       </c>
-      <c r="D7" s="111" t="s">
+      <c r="D7" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="111" t="s">
+      <c r="E7" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="111"/>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112">
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="111">
         <v>1</v>
       </c>
-      <c r="I7" s="113" t="s">
+      <c r="I7" s="112" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="114"/>
-      <c r="K7" s="310" t="s">
-        <v>468</v>
+      <c r="J7" s="113"/>
+      <c r="K7" s="212" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="110">
+      <c r="A8" s="109">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="111">
+      <c r="C8" s="110">
         <v>1</v>
       </c>
-      <c r="D8" s="111" t="s">
+      <c r="D8" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="111" t="s">
+      <c r="E8" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="111" t="s">
+      <c r="F8" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="110">
         <v>0.1</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="111">
         <v>1</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="112" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="114"/>
-      <c r="K8" s="310" t="s">
-        <v>469</v>
+      <c r="J8" s="113"/>
+      <c r="K8" s="212" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="110">
+      <c r="A9" s="109">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="79" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="111">
+      <c r="C9" s="110">
         <v>2</v>
       </c>
-      <c r="D9" s="111" t="s">
+      <c r="D9" s="110" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111" t="s">
+      <c r="E9" s="110"/>
+      <c r="F9" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="111">
+      <c r="G9" s="110">
         <v>0.2</v>
       </c>
-      <c r="H9" s="112">
+      <c r="H9" s="111">
         <v>1</v>
       </c>
-      <c r="I9" s="113" t="s">
+      <c r="I9" s="112" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="114"/>
-      <c r="K9" s="310" t="s">
-        <v>470</v>
+      <c r="J9" s="113"/>
+      <c r="K9" s="212" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="110">
+      <c r="A10" s="109">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="79" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="111">
+      <c r="C10" s="110">
         <v>5</v>
       </c>
-      <c r="D10" s="111" t="s">
+      <c r="D10" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="111" t="s">
+      <c r="E10" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="111"/>
-      <c r="G10" s="111"/>
-      <c r="H10" s="112">
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111">
         <v>1</v>
       </c>
-      <c r="I10" s="113" t="s">
+      <c r="I10" s="112" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="114"/>
-      <c r="K10" s="310" t="s">
-        <v>471</v>
+      <c r="J10" s="113"/>
+      <c r="K10" s="212" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="110">
+      <c r="A11" s="109">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="111">
+      <c r="C11" s="110">
         <v>10</v>
       </c>
-      <c r="D11" s="111" t="s">
+      <c r="D11" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="111" t="s">
+      <c r="E11" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="112">
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="111">
         <v>1</v>
       </c>
-      <c r="I11" s="113" t="s">
+      <c r="I11" s="112" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="114"/>
-      <c r="K11" s="310" t="s">
-        <v>472</v>
+      <c r="J11" s="113"/>
+      <c r="K11" s="212" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110">
+      <c r="A12" s="109">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="111">
+      <c r="C12" s="110">
         <v>20</v>
       </c>
-      <c r="D12" s="111" t="s">
+      <c r="D12" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="111" t="s">
+      <c r="E12" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="111"/>
-      <c r="G12" s="111"/>
-      <c r="H12" s="112">
+      <c r="F12" s="110"/>
+      <c r="G12" s="110"/>
+      <c r="H12" s="111">
         <v>1</v>
       </c>
-      <c r="I12" s="113" t="s">
+      <c r="I12" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="114"/>
-      <c r="K12" s="310" t="s">
-        <v>473</v>
+      <c r="J12" s="113"/>
+      <c r="K12" s="212" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="110">
+      <c r="A13" s="109">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="111">
+      <c r="C13" s="110">
         <v>50</v>
       </c>
-      <c r="D13" s="111" t="s">
+      <c r="D13" s="110" t="s">
         <v>287</v>
       </c>
-      <c r="E13" s="111" t="s">
+      <c r="E13" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="111"/>
-      <c r="G13" s="111"/>
-      <c r="H13" s="112">
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111">
         <v>1</v>
       </c>
-      <c r="I13" s="113" t="s">
+      <c r="I13" s="112" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="114"/>
-      <c r="K13" s="310" t="s">
-        <v>474</v>
+      <c r="J13" s="113"/>
+      <c r="K13" s="212" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="110">
+      <c r="A14" s="109">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="79" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="111">
+      <c r="C14" s="110">
         <v>100</v>
       </c>
-      <c r="D14" s="111" t="s">
+      <c r="D14" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="111"/>
-      <c r="F14" s="111" t="s">
+      <c r="E14" s="110"/>
+      <c r="F14" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="111">
+      <c r="G14" s="110">
         <v>100</v>
       </c>
-      <c r="H14" s="112">
+      <c r="H14" s="111">
         <v>1</v>
       </c>
-      <c r="I14" s="113" t="s">
+      <c r="I14" s="112" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="114"/>
-      <c r="K14" s="310" t="s">
-        <v>475</v>
+      <c r="J14" s="113"/>
+      <c r="K14" s="212" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="110">
+      <c r="A15" s="109">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="79" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="111">
+      <c r="C15" s="110">
         <v>200</v>
       </c>
-      <c r="D15" s="111" t="s">
+      <c r="D15" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="111" t="s">
+      <c r="E15" s="110" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="111" t="s">
+      <c r="F15" s="110" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="111">
+      <c r="G15" s="110">
         <v>200</v>
       </c>
-      <c r="H15" s="112">
+      <c r="H15" s="111">
         <v>1</v>
       </c>
-      <c r="I15" s="113" t="s">
+      <c r="I15" s="112" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="114"/>
-      <c r="K15" s="310" t="s">
-        <v>476</v>
+      <c r="J15" s="113"/>
+      <c r="K15" s="212" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="110">
+      <c r="A16" s="109">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="79" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="111">
+      <c r="C16" s="110">
         <v>500</v>
       </c>
-      <c r="D16" s="111" t="s">
+      <c r="D16" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="111" t="s">
+      <c r="E16" s="110" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="112">
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111">
         <v>1</v>
       </c>
-      <c r="I16" s="113" t="s">
+      <c r="I16" s="112" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="114"/>
-      <c r="K16" s="310" t="s">
-        <v>477</v>
+      <c r="J16" s="113"/>
+      <c r="K16" s="212" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="110">
+      <c r="A17" s="109">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="79" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="111">
+      <c r="C17" s="110">
         <v>1000</v>
       </c>
-      <c r="D17" s="111" t="s">
+      <c r="D17" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="111" t="s">
+      <c r="E17" s="110" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="111" t="s">
+      <c r="F17" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="G17" s="111">
+      <c r="G17" s="110">
         <v>100</v>
       </c>
-      <c r="H17" s="112">
+      <c r="H17" s="111">
         <v>1</v>
       </c>
-      <c r="I17" s="113" t="s">
+      <c r="I17" s="112" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="114"/>
-      <c r="K17" s="310" t="s">
-        <v>478</v>
+      <c r="J17" s="113"/>
+      <c r="K17" s="212" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="110">
+      <c r="A18" s="109">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="79" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="111">
+      <c r="C18" s="110">
         <v>2000</v>
       </c>
-      <c r="D18" s="111" t="s">
+      <c r="D18" s="110" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="111" t="s">
+      <c r="E18" s="110" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="111" t="s">
+      <c r="F18" s="110" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="111">
+      <c r="G18" s="110">
         <v>200</v>
       </c>
-      <c r="H18" s="112">
+      <c r="H18" s="111">
         <v>1</v>
       </c>
-      <c r="I18" s="113" t="s">
+      <c r="I18" s="112" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="114"/>
-      <c r="K18" s="310" t="s">
-        <v>479</v>
+      <c r="J18" s="113"/>
+      <c r="K18" s="212" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="110">
+      <c r="A19" s="109">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6250,23 +6257,23 @@
         <v>210</v>
       </c>
       <c r="C19" s="78"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="165"/>
-      <c r="F19" s="111"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112">
+      <c r="D19" s="110"/>
+      <c r="E19" s="164"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
+      <c r="H19" s="111">
         <v>2</v>
       </c>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114" t="s">
+      <c r="I19" s="112"/>
+      <c r="J19" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="310" t="s">
-        <v>480</v>
+      <c r="K19" s="212" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="110">
+      <c r="A20" s="109">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6274,23 +6281,23 @@
         <v>172</v>
       </c>
       <c r="C20" s="78"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="165"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="112">
+      <c r="D20" s="110"/>
+      <c r="E20" s="164"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="111">
         <v>2</v>
       </c>
-      <c r="I20" s="113"/>
-      <c r="J20" s="114" t="s">
+      <c r="I20" s="112"/>
+      <c r="J20" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="310" t="s">
-        <v>481</v>
+      <c r="K20" s="212" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="110">
+      <c r="A21" s="109">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6298,23 +6305,23 @@
         <v>211</v>
       </c>
       <c r="C21" s="78"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="112">
+      <c r="D21" s="110"/>
+      <c r="E21" s="164"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111">
         <v>2</v>
       </c>
-      <c r="I21" s="113"/>
-      <c r="J21" s="114" t="s">
+      <c r="I21" s="112"/>
+      <c r="J21" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="310" t="s">
-        <v>482</v>
+      <c r="K21" s="212" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="110">
+      <c r="A22" s="109">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6322,324 +6329,324 @@
         <v>212</v>
       </c>
       <c r="C22" s="78"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="165"/>
-      <c r="F22" s="111"/>
-      <c r="G22" s="111"/>
-      <c r="H22" s="112">
+      <c r="D22" s="110"/>
+      <c r="E22" s="164"/>
+      <c r="F22" s="110"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="111">
         <v>2</v>
       </c>
-      <c r="I22" s="113"/>
-      <c r="J22" s="114" t="s">
+      <c r="I22" s="112"/>
+      <c r="J22" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="310" t="s">
-        <v>483</v>
+      <c r="K22" s="212" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="110">
+      <c r="A23" s="109">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="79" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="111"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="165"/>
-      <c r="F23" s="111"/>
-      <c r="G23" s="111"/>
-      <c r="H23" s="112">
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
+      <c r="E23" s="164"/>
+      <c r="F23" s="110"/>
+      <c r="G23" s="110"/>
+      <c r="H23" s="111">
         <v>2</v>
       </c>
-      <c r="I23" s="113"/>
-      <c r="J23" s="114" t="s">
+      <c r="I23" s="112"/>
+      <c r="J23" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="310" t="s">
-        <v>484</v>
+      <c r="K23" s="212" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="110">
+      <c r="A24" s="109">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="79" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="165"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112">
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="164"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="111">
         <v>2</v>
       </c>
-      <c r="I24" s="113"/>
-      <c r="J24" s="114" t="s">
+      <c r="I24" s="112"/>
+      <c r="J24" s="113" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="310" t="s">
-        <v>485</v>
+      <c r="K24" s="212" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="174">
+      <c r="A25" s="173">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="174" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="176"/>
-      <c r="D25" s="176"/>
-      <c r="E25" s="176"/>
-      <c r="F25" s="176"/>
-      <c r="G25" s="176"/>
-      <c r="H25" s="177">
+      <c r="C25" s="175"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="176">
         <v>2</v>
       </c>
-      <c r="I25" s="178"/>
-      <c r="J25" s="179" t="s">
+      <c r="I25" s="177"/>
+      <c r="J25" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="310" t="s">
-        <v>486</v>
+      <c r="K25" s="212" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="276" t="s">
+      <c r="A27" s="279" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="277"/>
-      <c r="C27" s="277"/>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="277"/>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
-      <c r="P27" s="277"/>
-      <c r="Q27" s="278"/>
+      <c r="B27" s="280"/>
+      <c r="C27" s="280"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280"/>
+      <c r="P27" s="280"/>
+      <c r="Q27" s="281"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="139" t="s">
+      <c r="A28" s="138" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="197" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="196" t="s">
+      <c r="C28" s="195" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="196" t="s">
+      <c r="D28" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="E28" s="196" t="s">
+      <c r="E28" s="195" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="196" t="s">
+      <c r="F28" s="195" t="s">
         <v>378</v>
       </c>
-      <c r="G28" s="196" t="s">
+      <c r="G28" s="195" t="s">
         <v>432</v>
       </c>
-      <c r="H28" s="200" t="s">
+      <c r="H28" s="199" t="s">
         <v>263</v>
       </c>
-      <c r="I28" s="200" t="s">
+      <c r="I28" s="199" t="s">
         <v>432</v>
       </c>
-      <c r="J28" s="200" t="s">
+      <c r="J28" s="199" t="s">
         <v>444</v>
       </c>
-      <c r="K28" s="200" t="s">
+      <c r="K28" s="199" t="s">
         <v>432</v>
       </c>
-      <c r="L28" s="125" t="s">
+      <c r="L28" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="125" t="s">
+      <c r="M28" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="N28" s="125" t="s">
+      <c r="N28" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="196" t="s">
+      <c r="O28" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="196" t="s">
+      <c r="P28" s="195" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="199" t="s">
+      <c r="Q28" s="198" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="147"/>
-      <c r="B29" s="98" t="s">
+      <c r="A29" s="146"/>
+      <c r="B29" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="98" t="s">
+      <c r="C29" s="97" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="98" t="s">
+      <c r="D29" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="E29" s="98" t="s">
+      <c r="E29" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="98" t="s">
+      <c r="F29" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="98" t="s">
+      <c r="G29" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="H29" s="98" t="s">
+      <c r="H29" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="I29" s="98" t="s">
+      <c r="I29" s="97" t="s">
         <v>436</v>
       </c>
-      <c r="J29" s="98" t="s">
+      <c r="J29" s="97" t="s">
         <v>438</v>
       </c>
-      <c r="K29" s="98" t="s">
+      <c r="K29" s="97" t="s">
         <v>439</v>
       </c>
-      <c r="L29" s="98" t="s">
+      <c r="L29" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="98" t="s">
+      <c r="M29" s="97" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="98" t="s">
+      <c r="N29" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="98" t="s">
+      <c r="O29" s="97" t="s">
         <v>248</v>
       </c>
-      <c r="P29" s="98" t="s">
+      <c r="P29" s="97" t="s">
         <v>249</v>
       </c>
-      <c r="Q29" s="120" t="s">
+      <c r="Q29" s="119" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="148"/>
-      <c r="B30" s="210" t="s">
+      <c r="A30" s="147"/>
+      <c r="B30" s="209" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="155"/>
-      <c r="F30" s="155"/>
-      <c r="G30" s="155" t="s">
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="154"/>
+      <c r="G30" s="154" t="s">
         <v>434</v>
       </c>
-      <c r="H30" s="155"/>
-      <c r="I30" s="155" t="s">
+      <c r="H30" s="154"/>
+      <c r="I30" s="154" t="s">
         <v>437</v>
       </c>
-      <c r="J30" s="155">
+      <c r="J30" s="154">
         <v>3</v>
       </c>
-      <c r="K30" s="155" t="s">
+      <c r="K30" s="154" t="s">
         <v>440</v>
       </c>
-      <c r="L30" s="155">
+      <c r="L30" s="154">
         <v>100</v>
       </c>
-      <c r="M30" s="155">
+      <c r="M30" s="154">
         <v>0</v>
       </c>
-      <c r="N30" s="155"/>
-      <c r="O30" s="155">
+      <c r="N30" s="154"/>
+      <c r="O30" s="154">
         <v>4</v>
       </c>
-      <c r="P30" s="155">
+      <c r="P30" s="154">
         <v>10</v>
       </c>
-      <c r="Q30" s="156">
+      <c r="Q30" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="273" t="s">
+      <c r="A32" s="276" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="274"/>
-      <c r="C32" s="274"/>
-      <c r="D32" s="274"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="274"/>
-      <c r="G32" s="274"/>
-      <c r="H32" s="275"/>
+      <c r="B32" s="277"/>
+      <c r="C32" s="277"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="278"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="270" t="s">
         <v>358</v>
       </c>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="269"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="272"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="267"/>
-      <c r="B34" s="268"/>
-      <c r="C34" s="268"/>
-      <c r="D34" s="268"/>
-      <c r="E34" s="268"/>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="269"/>
+      <c r="A34" s="270"/>
+      <c r="B34" s="271"/>
+      <c r="C34" s="271"/>
+      <c r="D34" s="271"/>
+      <c r="E34" s="271"/>
+      <c r="F34" s="271"/>
+      <c r="G34" s="271"/>
+      <c r="H34" s="272"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="267"/>
-      <c r="B35" s="268"/>
-      <c r="C35" s="268"/>
-      <c r="D35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="268"/>
-      <c r="G35" s="268"/>
-      <c r="H35" s="269"/>
+      <c r="A35" s="270"/>
+      <c r="B35" s="271"/>
+      <c r="C35" s="271"/>
+      <c r="D35" s="271"/>
+      <c r="E35" s="271"/>
+      <c r="F35" s="271"/>
+      <c r="G35" s="271"/>
+      <c r="H35" s="272"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="270"/>
-      <c r="B36" s="271"/>
-      <c r="C36" s="271"/>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="272"/>
+      <c r="A36" s="273"/>
+      <c r="B36" s="274"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="274"/>
+      <c r="H36" s="275"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="257" t="s">
+      <c r="A38" s="260" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="257"/>
-      <c r="C38" s="257"/>
-      <c r="D38" s="257"/>
-      <c r="E38" s="257"/>
-      <c r="F38" s="257"/>
-      <c r="G38" s="257"/>
+      <c r="B38" s="260"/>
+      <c r="C38" s="260"/>
+      <c r="D38" s="260"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
+      <c r="G38" s="260"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
@@ -6651,12 +6658,12 @@
       <c r="C39" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="256" t="s">
+      <c r="D39" s="259" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="256"/>
-      <c r="F39" s="256"/>
-      <c r="G39" s="256"/>
+      <c r="E39" s="259"/>
+      <c r="F39" s="259"/>
+      <c r="G39" s="259"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6668,7 +6675,7 @@
       <c r="C40" t="s">
         <v>442</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6682,7 +6689,7 @@
       <c r="C41" t="s">
         <v>442</v>
       </c>
-      <c r="D41" s="195" t="s">
+      <c r="D41" s="194" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6696,7 +6703,7 @@
       <c r="C42" t="s">
         <v>442</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6710,7 +6717,7 @@
       <c r="C43" t="s">
         <v>442</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6724,7 +6731,7 @@
       <c r="C44" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="185" t="s">
+      <c r="D44" s="184" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6738,7 +6745,7 @@
       <c r="C45" t="s">
         <v>442</v>
       </c>
-      <c r="D45" s="195" t="s">
+      <c r="D45" s="194" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6752,7 +6759,7 @@
       <c r="C46" t="s">
         <v>442</v>
       </c>
-      <c r="D46" s="195" t="s">
+      <c r="D46" s="194" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6766,7 +6773,7 @@
       <c r="C47" t="s">
         <v>442</v>
       </c>
-      <c r="D47" s="195" t="s">
+      <c r="D47" s="194" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6780,7 +6787,7 @@
       <c r="C48" t="s">
         <v>442</v>
       </c>
-      <c r="D48" s="195" t="s">
+      <c r="D48" s="194" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6794,7 +6801,7 @@
       <c r="C49" t="s">
         <v>442</v>
       </c>
-      <c r="D49" s="195" t="s">
+      <c r="D49" s="194" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6808,7 +6815,7 @@
       <c r="C50" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="195" t="s">
+      <c r="D50" s="194" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6822,7 +6829,7 @@
       <c r="C51" t="s">
         <v>442</v>
       </c>
-      <c r="D51" s="195" t="s">
+      <c r="D51" s="194" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6836,7 +6843,7 @@
       <c r="C52" t="s">
         <v>442</v>
       </c>
-      <c r="D52" s="182" t="s">
+      <c r="D52" s="181" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6850,7 +6857,7 @@
       <c r="C53" t="s">
         <v>442</v>
       </c>
-      <c r="D53" s="195" t="s">
+      <c r="D53" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6864,7 +6871,7 @@
       <c r="C54" t="s">
         <v>442</v>
       </c>
-      <c r="D54" s="195" t="s">
+      <c r="D54" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6878,7 +6885,7 @@
       <c r="C55" t="s">
         <v>442</v>
       </c>
-      <c r="D55" s="195" t="s">
+      <c r="D55" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6892,7 +6899,7 @@
       <c r="C56" t="s">
         <v>442</v>
       </c>
-      <c r="D56" s="195" t="s">
+      <c r="D56" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6906,7 +6913,7 @@
       <c r="C57" t="s">
         <v>442</v>
       </c>
-      <c r="D57" s="195" t="s">
+      <c r="D57" s="194" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6920,7 +6927,7 @@
       <c r="C58" t="s">
         <v>442</v>
       </c>
-      <c r="D58" s="182" t="s">
+      <c r="D58" s="181" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6934,7 +6941,7 @@
       <c r="C59" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="182" t="s">
+      <c r="D59" s="181" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6948,7 +6955,7 @@
       <c r="C60" t="s">
         <v>442</v>
       </c>
-      <c r="D60" s="182" t="s">
+      <c r="D60" s="181" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6962,7 +6969,7 @@
       <c r="C61" t="s">
         <v>442</v>
       </c>
-      <c r="D61" s="182" t="s">
+      <c r="D61" s="181" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6976,7 +6983,7 @@
       <c r="C62" t="s">
         <v>442</v>
       </c>
-      <c r="D62" s="182" t="s">
+      <c r="D62" s="181" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6990,7 +6997,7 @@
       <c r="C63" t="s">
         <v>442</v>
       </c>
-      <c r="D63" s="182" t="s">
+      <c r="D63" s="181" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7004,7 +7011,7 @@
       <c r="C64" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="182" t="s">
+      <c r="D64" s="181" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7018,7 +7025,7 @@
       <c r="C65" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="182" t="s">
+      <c r="D65" s="181" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7032,7 +7039,7 @@
       <c r="C66" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="182" t="s">
+      <c r="D66" s="181" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7046,7 +7053,7 @@
       <c r="C67" t="s">
         <v>442</v>
       </c>
-      <c r="D67" s="182" t="s">
+      <c r="D67" s="181" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7060,7 +7067,7 @@
       <c r="C68" t="s">
         <v>442</v>
       </c>
-      <c r="D68" s="182" t="s">
+      <c r="D68" s="181" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7074,7 +7081,7 @@
       <c r="C69" t="s">
         <v>442</v>
       </c>
-      <c r="D69" s="182" t="s">
+      <c r="D69" s="181" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7088,7 +7095,7 @@
       <c r="C70" t="s">
         <v>442</v>
       </c>
-      <c r="D70" s="182" t="s">
+      <c r="D70" s="181" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7102,7 +7109,7 @@
       <c r="C71" t="s">
         <v>442</v>
       </c>
-      <c r="D71" s="182" t="s">
+      <c r="D71" s="181" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7181,8 +7188,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7200,91 +7207,91 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="279" t="s">
+    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="282" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
-      <c r="I1" s="280"/>
-      <c r="J1" s="281"/>
-    </row>
-    <row r="2" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="276" t="s">
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="284"/>
+    </row>
+    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="279" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="277"/>
-      <c r="C2" s="277"/>
-      <c r="D2" s="277"/>
-      <c r="E2" s="277"/>
-      <c r="F2" s="277"/>
-      <c r="G2" s="277"/>
-      <c r="H2" s="277"/>
-      <c r="I2" s="277"/>
-      <c r="J2" s="278"/>
-    </row>
-    <row r="3" spans="1:10" s="115" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="133" t="s">
+      <c r="B2" s="280"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
+      <c r="F2" s="280"/>
+      <c r="G2" s="280"/>
+      <c r="H2" s="280"/>
+      <c r="I2" s="280"/>
+      <c r="J2" s="281"/>
+    </row>
+    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="132" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="129" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="127" t="s">
+      <c r="E3" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="128" t="s">
+      <c r="F3" s="127" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="134" t="s">
+      <c r="G3" s="133" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="172" t="s">
+      <c r="H3" s="171" t="s">
         <v>299</v>
       </c>
-      <c r="I3" s="130"/>
-      <c r="J3" s="132"/>
-    </row>
-    <row r="4" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="100" t="s">
+      <c r="I3" s="129"/>
+      <c r="J3" s="131"/>
+    </row>
+    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="101" t="s">
+      <c r="B4" s="100" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="102" t="s">
+      <c r="C4" s="101" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="102" t="s">
+      <c r="D4" s="101" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="102" t="s">
+      <c r="E4" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="102" t="s">
+      <c r="F4" s="101" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="101" t="s">
+      <c r="G4" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="172" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="103"/>
-      <c r="J4" s="104"/>
-    </row>
-    <row r="5" spans="1:10" s="115" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4" s="102"/>
+      <c r="J4" s="103"/>
+    </row>
+    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="74" t="s">
         <v>171</v>
       </c>
@@ -7299,62 +7306,62 @@
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="G5" s="212" t="s">
+        <v>461</v>
+      </c>
+      <c r="G5" s="210" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="171"/>
-      <c r="I5" s="171"/>
-      <c r="J5" s="171"/>
-    </row>
-    <row r="6" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="276" t="s">
+      <c r="H5" s="170"/>
+      <c r="I5" s="170"/>
+      <c r="J5" s="170"/>
+    </row>
+    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="279" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="277"/>
-      <c r="C6" s="277"/>
-      <c r="D6" s="277"/>
-      <c r="E6" s="277"/>
-      <c r="F6" s="277"/>
-      <c r="G6" s="277"/>
-      <c r="H6" s="277"/>
-      <c r="I6" s="277"/>
-      <c r="J6" s="278"/>
-    </row>
-    <row r="7" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="126" t="s">
+      <c r="B6" s="280"/>
+      <c r="C6" s="280"/>
+      <c r="D6" s="280"/>
+      <c r="E6" s="280"/>
+      <c r="F6" s="280"/>
+      <c r="G6" s="280"/>
+      <c r="H6" s="280"/>
+      <c r="I6" s="280"/>
+      <c r="J6" s="281"/>
+    </row>
+    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="133" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="132"/>
-    </row>
-    <row r="8" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="129"/>
+      <c r="J7" s="131"/>
+    </row>
+    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="96" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="101" t="s">
+      <c r="B8" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="105"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
-      <c r="J8" s="107"/>
-    </row>
-    <row r="9" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="104"/>
+      <c r="D8" s="104"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="104"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
+      <c r="J8" s="106"/>
+    </row>
+    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="69" t="s">
         <v>0</v>
       </c>
@@ -7370,76 +7377,76 @@
       <c r="I9" s="72"/>
       <c r="J9" s="73"/>
     </row>
-    <row r="10" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="276" t="s">
+    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="279" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="277"/>
-      <c r="C10" s="277"/>
-      <c r="D10" s="277"/>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="278"/>
-    </row>
-    <row r="11" spans="1:10" s="115" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="129"/>
-      <c r="B11" s="130" t="s">
+      <c r="B10" s="280"/>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+      <c r="J10" s="281"/>
+    </row>
+    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="128"/>
+      <c r="B11" s="129" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="130" t="s">
+      <c r="C11" s="129" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="181" t="s">
+      <c r="D11" s="180" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="130" t="s">
+      <c r="E11" s="129" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="135" t="s">
+      <c r="F11" s="134" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="130"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="1:10" s="115" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="I11" s="129"/>
+      <c r="J11" s="131"/>
+    </row>
+    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="101" t="s">
+      <c r="B12" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="98" t="s">
+      <c r="E12" s="97" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="98" t="s">
+      <c r="F12" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="136" t="s">
+      <c r="G12" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="101" t="s">
+      <c r="H12" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-    </row>
-    <row r="13" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108" t="s">
+      <c r="I12" s="120"/>
+      <c r="J12" s="121"/>
+    </row>
+    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7464,8 +7471,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="107">
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
@@ -7478,8 +7485,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="107">
         <v>3</v>
       </c>
       <c r="B15" s="4"/>
@@ -7492,8 +7499,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="107">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7506,8 +7513,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="107">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7520,8 +7527,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="107">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7534,8 +7541,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="107">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7548,8 +7555,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="115" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="109">
+    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="108">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7562,61 +7569,61 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="115" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="276" t="s">
+    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="279" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="277"/>
-      <c r="C21" s="277"/>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="278"/>
-    </row>
-    <row r="22" spans="1:10" s="115" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="133" t="s">
+      <c r="B21" s="280"/>
+      <c r="C21" s="280"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="281"/>
+    </row>
+    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="134" t="s">
+      <c r="B22" s="133" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="134" t="s">
+      <c r="C22" s="133" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="134" t="s">
+      <c r="D22" s="133" t="s">
         <v>324</v>
       </c>
-      <c r="E22" s="130"/>
-      <c r="F22" s="131"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:10" s="115" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="97" t="s">
+      <c r="E22" s="129"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="129"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="131"/>
+    </row>
+    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="97" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="98" t="s">
+      <c r="C23" s="97" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="101" t="s">
+      <c r="D23" s="100" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
-      <c r="J23" s="107"/>
-    </row>
-    <row r="24" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="115"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="106"/>
+    </row>
+    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="31">
         <v>1</v>
       </c>
@@ -7626,7 +7633,7 @@
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="155" t="s">
+      <c r="D24" s="154" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="8"/>
@@ -7636,71 +7643,71 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="115" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="276" t="s">
+    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="279" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="277"/>
-      <c r="C25" s="277"/>
-      <c r="D25" s="277"/>
-      <c r="E25" s="277"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="277"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="278"/>
-    </row>
-    <row r="26" spans="1:10" s="115" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="133" t="s">
+      <c r="B25" s="280"/>
+      <c r="C25" s="280"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="281"/>
+    </row>
+    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="200" t="s">
+      <c r="B26" s="199" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="134" t="s">
+      <c r="C26" s="133" t="s">
         <v>325</v>
       </c>
-      <c r="D26" s="134" t="s">
+      <c r="D26" s="133" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="196" t="s">
+      <c r="E26" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="130"/>
-      <c r="G26" s="130"/>
-      <c r="H26" s="130"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="153"/>
-    </row>
-    <row r="27" spans="1:10" s="115" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="150"/>
-      <c r="B27" s="149" t="s">
+      <c r="F26" s="129"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="129"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="152"/>
+    </row>
+    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="149"/>
+      <c r="B27" s="148" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C27" s="148" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="98" t="s">
+      <c r="D27" s="97" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="98" t="s">
+      <c r="E27" s="97" t="s">
         <v>364</v>
       </c>
-      <c r="F27" s="149"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="152"/>
-      <c r="I27" s="152"/>
-      <c r="J27" s="154"/>
-    </row>
-    <row r="28" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="148"/>
-      <c r="B28" s="211" t="s">
+      <c r="F27" s="148"/>
+      <c r="G27" s="148"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="153"/>
+    </row>
+    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="147"/>
+      <c r="B28" s="214" t="s">
+        <v>484</v>
+      </c>
+      <c r="C28" s="191"/>
+      <c r="D28" s="123"/>
+      <c r="E28" s="154" t="s">
         <v>456</v>
-      </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="124"/>
-      <c r="E28" s="155" t="s">
-        <v>457</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7708,74 +7715,74 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="115" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="115" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="273" t="s">
+    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="276" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="274"/>
-      <c r="C30" s="274"/>
-      <c r="D30" s="274"/>
-      <c r="E30" s="274"/>
-      <c r="F30" s="274"/>
-      <c r="G30" s="274"/>
-      <c r="H30" s="275"/>
-    </row>
-    <row r="31" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="267" t="s">
+      <c r="B30" s="277"/>
+      <c r="C30" s="277"/>
+      <c r="D30" s="277"/>
+      <c r="E30" s="277"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="277"/>
+      <c r="H30" s="278"/>
+    </row>
+    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="270" t="s">
         <v>357</v>
       </c>
-      <c r="B31" s="268"/>
-      <c r="C31" s="268"/>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="269"/>
-    </row>
-    <row r="32" spans="1:10" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="267"/>
-      <c r="B32" s="268"/>
-      <c r="C32" s="268"/>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="269"/>
-    </row>
-    <row r="33" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="267"/>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="269"/>
-    </row>
-    <row r="34" spans="1:8" s="115" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
-    </row>
-    <row r="35" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="115" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="257" t="s">
+      <c r="B31" s="271"/>
+      <c r="C31" s="271"/>
+      <c r="D31" s="271"/>
+      <c r="E31" s="271"/>
+      <c r="F31" s="271"/>
+      <c r="G31" s="271"/>
+      <c r="H31" s="272"/>
+    </row>
+    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="270"/>
+      <c r="B32" s="271"/>
+      <c r="C32" s="271"/>
+      <c r="D32" s="271"/>
+      <c r="E32" s="271"/>
+      <c r="F32" s="271"/>
+      <c r="G32" s="271"/>
+      <c r="H32" s="272"/>
+    </row>
+    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="270"/>
+      <c r="B33" s="271"/>
+      <c r="C33" s="271"/>
+      <c r="D33" s="271"/>
+      <c r="E33" s="271"/>
+      <c r="F33" s="271"/>
+      <c r="G33" s="271"/>
+      <c r="H33" s="272"/>
+    </row>
+    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="273"/>
+      <c r="B34" s="274"/>
+      <c r="C34" s="274"/>
+      <c r="D34" s="274"/>
+      <c r="E34" s="274"/>
+      <c r="F34" s="274"/>
+      <c r="G34" s="274"/>
+      <c r="H34" s="275"/>
+    </row>
+    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="260" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="257"/>
-      <c r="C36" s="257"/>
-      <c r="D36" s="257"/>
-      <c r="E36" s="257"/>
-      <c r="F36" s="257"/>
-      <c r="G36" s="257"/>
-    </row>
-    <row r="37" spans="1:8" s="115" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="260"/>
+      <c r="C36" s="260"/>
+      <c r="D36" s="260"/>
+      <c r="E36" s="260"/>
+      <c r="F36" s="260"/>
+      <c r="G36" s="260"/>
+    </row>
+    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>309</v>
       </c>
@@ -7785,12 +7792,12 @@
       <c r="C37" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D37" s="256" t="s">
+      <c r="D37" s="259" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="256"/>
-      <c r="F37" s="256"/>
-      <c r="G37" s="256"/>
+      <c r="E37" s="259"/>
+      <c r="F37" s="259"/>
+      <c r="G37" s="259"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7800,9 +7807,9 @@
         <v>307</v>
       </c>
       <c r="C38" t="s">
-        <v>459</v>
-      </c>
-      <c r="D38" s="182" t="s">
+        <v>458</v>
+      </c>
+      <c r="D38" s="181" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7814,9 +7821,9 @@
         <v>332</v>
       </c>
       <c r="C39" t="s">
-        <v>459</v>
-      </c>
-      <c r="D39" s="195" t="s">
+        <v>458</v>
+      </c>
+      <c r="D39" s="194" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7828,9 +7835,9 @@
         <v>333</v>
       </c>
       <c r="C40" t="s">
-        <v>459</v>
-      </c>
-      <c r="D40" s="182" t="s">
+        <v>458</v>
+      </c>
+      <c r="D40" s="181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7842,9 +7849,9 @@
         <v>334</v>
       </c>
       <c r="C41" t="s">
-        <v>459</v>
-      </c>
-      <c r="D41" s="182" t="s">
+        <v>458</v>
+      </c>
+      <c r="D41" s="181" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7856,9 +7863,9 @@
         <v>335</v>
       </c>
       <c r="C42" t="s">
-        <v>459</v>
-      </c>
-      <c r="D42" s="185" t="s">
+        <v>458</v>
+      </c>
+      <c r="D42" s="184" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7870,9 +7877,9 @@
         <v>308</v>
       </c>
       <c r="C43" t="s">
-        <v>459</v>
-      </c>
-      <c r="D43" s="195" t="s">
+        <v>458</v>
+      </c>
+      <c r="D43" s="194" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7884,9 +7891,9 @@
         <v>369</v>
       </c>
       <c r="C44" t="s">
-        <v>459</v>
-      </c>
-      <c r="D44" s="195" t="s">
+        <v>458</v>
+      </c>
+      <c r="D44" s="194" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7898,10 +7905,10 @@
         <v>369</v>
       </c>
       <c r="C45" t="s">
-        <v>459</v>
-      </c>
-      <c r="D45" s="195" t="s">
         <v>458</v>
+      </c>
+      <c r="D45" s="194" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -7912,9 +7919,9 @@
         <v>369</v>
       </c>
       <c r="C46" t="s">
-        <v>459</v>
-      </c>
-      <c r="D46" s="195" t="s">
+        <v>458</v>
+      </c>
+      <c r="D46" s="194" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7926,9 +7933,9 @@
         <v>369</v>
       </c>
       <c r="C47" t="s">
-        <v>459</v>
-      </c>
-      <c r="D47" s="195" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" s="194" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7937,13 +7944,13 @@
         <v>328</v>
       </c>
       <c r="B48" t="s">
+        <v>459</v>
+      </c>
+      <c r="C48" t="s">
+        <v>458</v>
+      </c>
+      <c r="D48" s="184" t="s">
         <v>460</v>
-      </c>
-      <c r="C48" t="s">
-        <v>459</v>
-      </c>
-      <c r="D48" s="185" t="s">
-        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -8048,345 +8055,345 @@
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="204" t="s">
+      <c r="A2" s="203" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="282" t="s">
+      <c r="B2" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="90"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="203" t="s">
+      <c r="A3" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="287" t="s">
+      <c r="B3" s="289" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="202" t="s">
         <v>295</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>363</v>
       </c>
-      <c r="O3" s="205" t="s">
+      <c r="O3" s="204" t="s">
         <v>363</v>
       </c>
-      <c r="P3" s="208"/>
+      <c r="P3" s="207"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="206">
+      <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="283" t="s">
+      <c r="B4" s="288" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="168" t="s">
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>364</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="193"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
+      <c r="A5" s="192"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="202"/>
-      <c r="N5" s="202" t="s">
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201" t="s">
         <v>381</v>
       </c>
-      <c r="O5" s="209" t="s">
+      <c r="O5" s="208" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="193"/>
-      <c r="B6" s="284" t="s">
+      <c r="A6" s="192"/>
+      <c r="B6" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202" t="s">
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201" t="s">
         <v>382</v>
       </c>
-      <c r="O6" s="209" t="s">
+      <c r="O6" s="208" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="193"/>
-      <c r="B7" s="284" t="s">
+      <c r="A7" s="192"/>
+      <c r="B7" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="166"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="193"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284" t="s">
+      <c r="A8" s="192"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="166"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="194"/>
-      <c r="L11" s="194"/>
+      <c r="K11" s="193"/>
+      <c r="L11" s="193"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="276" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="278"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="270" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="272"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="272"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="270"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="272"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="275"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="260" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
@@ -8398,12 +8405,12 @@
       <c r="C22" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="259" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8415,7 +8422,7 @@
       <c r="C23" t="s">
         <v>445</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8429,7 +8436,7 @@
       <c r="C24" t="s">
         <v>445</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8443,7 +8450,7 @@
       <c r="C25" t="s">
         <v>445</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8457,7 +8464,7 @@
       <c r="C26" t="s">
         <v>445</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8471,7 +8478,7 @@
       <c r="C27" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8485,7 +8492,7 @@
       <c r="C28" t="s">
         <v>445</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8499,7 +8506,7 @@
       <c r="C29" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8513,7 +8520,7 @@
       <c r="C30" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8527,7 +8534,7 @@
       <c r="C31" t="s">
         <v>445</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8541,7 +8548,7 @@
       <c r="C32" t="s">
         <v>445</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8555,7 +8562,7 @@
       <c r="C33" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="195" t="s">
+      <c r="D33" s="194" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8569,7 +8576,7 @@
       <c r="C34" t="s">
         <v>445</v>
       </c>
-      <c r="D34" s="182" t="s">
+      <c r="D34" s="181" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8583,7 +8590,7 @@
       <c r="C35" t="s">
         <v>445</v>
       </c>
-      <c r="D35" s="182" t="s">
+      <c r="D35" s="181" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8597,7 +8604,7 @@
       <c r="C36" t="s">
         <v>445</v>
       </c>
-      <c r="D36" s="182" t="s">
+      <c r="D36" s="181" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8611,7 +8618,7 @@
       <c r="C37" t="s">
         <v>445</v>
       </c>
-      <c r="D37" s="182" t="s">
+      <c r="D37" s="181" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8625,7 +8632,7 @@
       <c r="C38" t="s">
         <v>445</v>
       </c>
-      <c r="D38" s="182" t="s">
+      <c r="D38" s="181" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8639,7 +8646,7 @@
       <c r="C39" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="182" t="s">
+      <c r="D39" s="181" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8653,7 +8660,7 @@
       <c r="C40" t="s">
         <v>445</v>
       </c>
-      <c r="D40" s="182" t="s">
+      <c r="D40" s="181" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8667,7 +8674,7 @@
       <c r="C41" t="s">
         <v>445</v>
       </c>
-      <c r="D41" s="182" t="s">
+      <c r="D41" s="181" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8681,7 +8688,7 @@
       <c r="C42" t="s">
         <v>445</v>
       </c>
-      <c r="D42" s="182" t="s">
+      <c r="D42" s="181" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8695,7 +8702,7 @@
       <c r="C43" t="s">
         <v>445</v>
       </c>
-      <c r="D43" s="182" t="s">
+      <c r="D43" s="181" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8709,7 +8716,7 @@
       <c r="C44" t="s">
         <v>445</v>
       </c>
-      <c r="D44" s="182" t="s">
+      <c r="D44" s="181" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8723,7 +8730,7 @@
       <c r="C45" t="s">
         <v>445</v>
       </c>
-      <c r="D45" s="182" t="s">
+      <c r="D45" s="181" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8737,7 +8744,7 @@
       <c r="C46" t="s">
         <v>445</v>
       </c>
-      <c r="D46" s="182" t="s">
+      <c r="D46" s="181" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8751,7 +8758,7 @@
       <c r="C47" t="s">
         <v>445</v>
       </c>
-      <c r="D47" s="182" t="s">
+      <c r="D47" s="181" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8765,7 +8772,7 @@
       <c r="C48" t="s">
         <v>445</v>
       </c>
-      <c r="D48" s="182" t="s">
+      <c r="D48" s="181" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8779,7 +8786,7 @@
       <c r="C49" t="s">
         <v>445</v>
       </c>
-      <c r="D49" s="182" t="s">
+      <c r="D49" s="181" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8793,7 +8800,7 @@
       <c r="C50" t="s">
         <v>445</v>
       </c>
-      <c r="D50" s="182" t="s">
+      <c r="D50" s="181" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8807,7 +8814,7 @@
       <c r="C51" t="s">
         <v>445</v>
       </c>
-      <c r="D51" s="182" t="s">
+      <c r="D51" s="181" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8821,7 +8828,7 @@
       <c r="C52" t="s">
         <v>445</v>
       </c>
-      <c r="D52" s="195" t="s">
+      <c r="D52" s="194" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8835,18 +8842,21 @@
       <c r="C53" t="s">
         <v>445</v>
       </c>
-      <c r="D53" s="182" t="s">
+      <c r="D53" s="181" t="s">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8863,15 +8873,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8984,330 +8991,330 @@
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="282" t="s">
+      <c r="A2" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="282"/>
-      <c r="C2" s="282"/>
-      <c r="D2" s="282"/>
-      <c r="E2" s="282"/>
-      <c r="F2" s="282"/>
-      <c r="G2" s="282" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="282"/>
-      <c r="I2" s="282"/>
-      <c r="J2" s="282"/>
-      <c r="K2" s="282"/>
-      <c r="L2" s="282"/>
-      <c r="M2" s="285" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="90"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="287" t="s">
+      <c r="A3" s="289" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="287"/>
-      <c r="G3" s="287" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="287"/>
-      <c r="I3" s="287"/>
-      <c r="J3" s="287"/>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="203" t="s">
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
+      <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="203" t="s">
+      <c r="N3" s="202" t="s">
         <v>293</v>
       </c>
-      <c r="O3" s="203" t="s">
+      <c r="O3" s="202" t="s">
         <v>363</v>
       </c>
-      <c r="P3" s="203" t="s">
+      <c r="P3" s="202" t="s">
         <v>363</v>
       </c>
-      <c r="Q3" s="207"/>
+      <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
+      <c r="A4" s="288" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="168" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
+      <c r="M4" s="167" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="168" t="s">
+      <c r="N4" s="167" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="168" t="s">
+      <c r="O4" s="167" t="s">
         <v>364</v>
       </c>
-      <c r="P4" s="168" t="s">
+      <c r="P4" s="167" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="291" t="s">
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="202" t="s">
+      <c r="H5" s="294"/>
+      <c r="I5" s="294"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="294"/>
+      <c r="L5" s="294"/>
+      <c r="M5" s="201" t="s">
         <v>285</v>
       </c>
-      <c r="N5" s="202"/>
-      <c r="O5" s="202" t="s">
+      <c r="N5" s="201"/>
+      <c r="O5" s="201" t="s">
         <v>385</v>
       </c>
-      <c r="P5" s="202" t="s">
+      <c r="P5" s="201" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="291"/>
-      <c r="H6" s="291"/>
-      <c r="I6" s="291"/>
-      <c r="J6" s="291"/>
-      <c r="K6" s="291"/>
-      <c r="L6" s="291"/>
-      <c r="M6" s="202"/>
-      <c r="N6" s="202"/>
-      <c r="O6" s="202"/>
-      <c r="P6" s="169"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="294"/>
+      <c r="H6" s="294"/>
+      <c r="I6" s="294"/>
+      <c r="J6" s="294"/>
+      <c r="K6" s="294"/>
+      <c r="L6" s="294"/>
+      <c r="M6" s="201"/>
+      <c r="N6" s="201"/>
+      <c r="O6" s="201"/>
+      <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="291"/>
-      <c r="H7" s="291"/>
-      <c r="I7" s="291"/>
-      <c r="J7" s="291"/>
-      <c r="K7" s="291"/>
-      <c r="L7" s="291"/>
-      <c r="M7" s="202"/>
-      <c r="N7" s="202"/>
-      <c r="O7" s="202"/>
-      <c r="P7" s="167"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294"/>
+      <c r="K7" s="294"/>
+      <c r="L7" s="294"/>
+      <c r="M7" s="201"/>
+      <c r="N7" s="201"/>
+      <c r="O7" s="201"/>
+      <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="291"/>
-      <c r="H8" s="291"/>
-      <c r="I8" s="291"/>
-      <c r="J8" s="291"/>
-      <c r="K8" s="291"/>
-      <c r="L8" s="291"/>
-      <c r="M8" s="202"/>
-      <c r="N8" s="202"/>
-      <c r="O8" s="202"/>
-      <c r="P8" s="167"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="294"/>
+      <c r="H8" s="294"/>
+      <c r="I8" s="294"/>
+      <c r="J8" s="294"/>
+      <c r="K8" s="294"/>
+      <c r="L8" s="294"/>
+      <c r="M8" s="201"/>
+      <c r="N8" s="201"/>
+      <c r="O8" s="201"/>
+      <c r="P8" s="166"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="133" t="s">
+      <c r="A11" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="133" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="196" t="s">
+      <c r="C11" s="195" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="127" t="s">
+      <c r="F11" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="134" t="s">
+      <c r="G11" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="134" t="s">
+      <c r="H11" s="133" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="146" t="s">
+      <c r="I11" s="145" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="150"/>
-      <c r="B12" s="149" t="s">
+      <c r="A12" s="149"/>
+      <c r="B12" s="148" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="97" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="149" t="s">
+      <c r="D12" s="148" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="149" t="s">
+      <c r="E12" s="148" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="149" t="s">
+      <c r="F12" s="148" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="149" t="s">
+      <c r="G12" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="149" t="s">
+      <c r="H12" s="148" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="151" t="s">
+      <c r="I12" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="K12" s="170"/>
+      <c r="K12" s="169"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="148"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="155">
+      <c r="A13" s="147"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="154">
         <v>100</v>
       </c>
-      <c r="E13" s="155">
+      <c r="E13" s="154">
         <v>0</v>
       </c>
-      <c r="F13" s="155"/>
-      <c r="G13" s="155">
+      <c r="F13" s="154"/>
+      <c r="G13" s="154">
         <v>4</v>
       </c>
-      <c r="H13" s="155">
+      <c r="H13" s="154">
         <v>10</v>
       </c>
-      <c r="I13" s="156">
+      <c r="I13" s="155">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="273" t="s">
+      <c r="A15" s="276" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="274"/>
-      <c r="C15" s="274"/>
-      <c r="D15" s="274"/>
-      <c r="E15" s="274"/>
-      <c r="F15" s="274"/>
-      <c r="G15" s="274"/>
-      <c r="H15" s="275"/>
+      <c r="B15" s="277"/>
+      <c r="C15" s="277"/>
+      <c r="D15" s="277"/>
+      <c r="E15" s="277"/>
+      <c r="F15" s="277"/>
+      <c r="G15" s="277"/>
+      <c r="H15" s="278"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="267" t="s">
+      <c r="A16" s="270" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="268"/>
-      <c r="C16" s="268"/>
-      <c r="D16" s="268"/>
-      <c r="E16" s="268"/>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="269"/>
+      <c r="B16" s="271"/>
+      <c r="C16" s="271"/>
+      <c r="D16" s="271"/>
+      <c r="E16" s="271"/>
+      <c r="F16" s="271"/>
+      <c r="G16" s="271"/>
+      <c r="H16" s="272"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="267"/>
-      <c r="B17" s="268"/>
-      <c r="C17" s="268"/>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="269"/>
+      <c r="A17" s="270"/>
+      <c r="B17" s="271"/>
+      <c r="C17" s="271"/>
+      <c r="D17" s="271"/>
+      <c r="E17" s="271"/>
+      <c r="F17" s="271"/>
+      <c r="G17" s="271"/>
+      <c r="H17" s="272"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="267"/>
-      <c r="B18" s="268"/>
-      <c r="C18" s="268"/>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="269"/>
+      <c r="A18" s="270"/>
+      <c r="B18" s="271"/>
+      <c r="C18" s="271"/>
+      <c r="D18" s="271"/>
+      <c r="E18" s="271"/>
+      <c r="F18" s="271"/>
+      <c r="G18" s="271"/>
+      <c r="H18" s="272"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="270"/>
-      <c r="B19" s="271"/>
-      <c r="C19" s="271"/>
-      <c r="D19" s="271"/>
-      <c r="E19" s="271"/>
-      <c r="F19" s="271"/>
-      <c r="G19" s="271"/>
-      <c r="H19" s="272"/>
+      <c r="A19" s="273"/>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="274"/>
+      <c r="H19" s="275"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="257" t="s">
+      <c r="A21" s="260" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="257"/>
-      <c r="C21" s="257"/>
-      <c r="D21" s="257"/>
-      <c r="E21" s="257"/>
-      <c r="F21" s="257"/>
-      <c r="G21" s="257"/>
+      <c r="B21" s="260"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="260"/>
+      <c r="E21" s="260"/>
+      <c r="F21" s="260"/>
+      <c r="G21" s="260"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
@@ -9319,12 +9326,12 @@
       <c r="C22" s="79" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="259" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="256"/>
-      <c r="F22" s="256"/>
-      <c r="G22" s="256"/>
+      <c r="E22" s="259"/>
+      <c r="F22" s="259"/>
+      <c r="G22" s="259"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9336,7 +9343,7 @@
       <c r="C23" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="182" t="s">
+      <c r="D23" s="181" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9350,7 +9357,7 @@
       <c r="C24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="194" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9364,7 +9371,7 @@
       <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="182" t="s">
+      <c r="D25" s="181" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9378,7 +9385,7 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="182" t="s">
+      <c r="D26" s="181" t="s">
         <v>352</v>
       </c>
     </row>
@@ -9392,7 +9399,7 @@
       <c r="C27" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="185" t="s">
+      <c r="D27" s="184" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9406,7 +9413,7 @@
       <c r="C28" t="s">
         <v>455</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9420,7 +9427,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="195" t="s">
+      <c r="D29" s="194" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9434,7 +9441,7 @@
       <c r="C30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="195" t="s">
+      <c r="D30" s="194" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9448,7 +9455,7 @@
       <c r="C31" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="195" t="s">
+      <c r="D31" s="194" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9462,7 +9469,7 @@
       <c r="C32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="195" t="s">
+      <c r="D32" s="194" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9476,7 +9483,7 @@
       <c r="C33" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="182" t="s">
+      <c r="D33" s="181" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9490,12 +9497,22 @@
       <c r="C34" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="195" t="s">
+      <c r="D34" s="194" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9512,16 +9529,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9595,7 +9602,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="191" customWidth="1"/>
+    <col min="3" max="3" width="16" style="190" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9603,12 +9610,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="295" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="293"/>
-      <c r="C1" s="293"/>
-      <c r="D1" s="294"/>
+      <c r="B1" s="296"/>
+      <c r="C1" s="296"/>
+      <c r="D1" s="297"/>
       <c r="E1" s="67"/>
       <c r="F1" s="67"/>
       <c r="G1" s="67"/>
@@ -9632,7 +9639,7 @@
       <c r="D2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="137" t="s">
+      <c r="F2" s="136" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9643,9 +9650,9 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="188"/>
+      <c r="C3" s="187"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="138" t="s">
+      <c r="F3" s="137" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9656,7 +9663,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="189"/>
+      <c r="C4" s="188"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9671,7 +9678,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="189"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9683,7 +9690,7 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="189"/>
+      <c r="C6" s="188"/>
       <c r="D6" s="24">
         <v>0</v>
       </c>
@@ -9695,7 +9702,7 @@
       <c r="B7" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="189"/>
+      <c r="C7" s="188"/>
       <c r="D7" s="24"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -9705,7 +9712,7 @@
       <c r="B8" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="188"/>
+      <c r="C8" s="187"/>
       <c r="D8" s="23"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -9715,7 +9722,7 @@
       <c r="B9" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="189"/>
+      <c r="C9" s="188"/>
       <c r="D9" s="24">
         <v>0</v>
       </c>
@@ -9727,7 +9734,7 @@
       <c r="B10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="189"/>
+      <c r="C10" s="188"/>
       <c r="D10" s="25" t="s">
         <v>66</v>
       </c>
@@ -9739,7 +9746,7 @@
       <c r="B11" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C11" s="189"/>
+      <c r="C11" s="188"/>
       <c r="D11" s="25" t="s">
         <v>67</v>
       </c>
@@ -9751,7 +9758,7 @@
       <c r="B12" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="189"/>
+      <c r="C12" s="188"/>
       <c r="D12" s="24">
         <v>0</v>
       </c>
@@ -9763,7 +9770,7 @@
       <c r="B13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="189"/>
+      <c r="C13" s="188"/>
       <c r="D13" s="24" t="s">
         <v>29</v>
       </c>
@@ -9775,7 +9782,7 @@
       <c r="B14" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="188"/>
+      <c r="C14" s="187"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -9785,7 +9792,7 @@
       <c r="B15" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="189"/>
+      <c r="C15" s="188"/>
       <c r="D15" s="24"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -9795,7 +9802,7 @@
       <c r="B16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="189"/>
+      <c r="C16" s="188"/>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9805,7 +9812,7 @@
       <c r="B17" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="189"/>
+      <c r="C17" s="188"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9815,7 +9822,7 @@
       <c r="B18" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="189"/>
+      <c r="C18" s="188"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9825,7 +9832,7 @@
       <c r="B19" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="189"/>
+      <c r="C19" s="188"/>
       <c r="D19" s="24">
         <v>1</v>
       </c>
@@ -9837,7 +9844,7 @@
       <c r="B20" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="189"/>
+      <c r="C20" s="188"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9847,7 +9854,7 @@
       <c r="B21" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="189"/>
+      <c r="C21" s="188"/>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -9857,7 +9864,7 @@
       <c r="B22" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="189"/>
+      <c r="C22" s="188"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9867,7 +9874,7 @@
       <c r="B23" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="188"/>
+      <c r="C23" s="187"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9877,7 +9884,7 @@
       <c r="B24" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="189"/>
+      <c r="C24" s="188"/>
       <c r="D24" s="24">
         <v>100</v>
       </c>
@@ -9889,7 +9896,7 @@
       <c r="B25" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="189"/>
+      <c r="C25" s="188"/>
       <c r="D25" s="24">
         <v>65535</v>
       </c>
@@ -9901,7 +9908,7 @@
       <c r="B26" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="189"/>
+      <c r="C26" s="188"/>
       <c r="D26" s="24">
         <v>10</v>
       </c>
@@ -9913,7 +9920,7 @@
       <c r="B27" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C27" s="189"/>
+      <c r="C27" s="188"/>
       <c r="D27" s="24">
         <v>0.1</v>
       </c>
@@ -9925,7 +9932,7 @@
       <c r="B28" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C28" s="189"/>
+      <c r="C28" s="188"/>
       <c r="D28" s="24"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -9935,7 +9942,7 @@
       <c r="B29" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="189"/>
+      <c r="C29" s="188"/>
       <c r="D29" s="24"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -9945,7 +9952,7 @@
       <c r="B30" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="189"/>
+      <c r="C30" s="188"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9955,7 +9962,7 @@
       <c r="B31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C31" s="188"/>
+      <c r="C31" s="187"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9965,7 +9972,7 @@
       <c r="B32" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="189"/>
+      <c r="C32" s="188"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9975,7 +9982,7 @@
       <c r="B33" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C33" s="189"/>
+      <c r="C33" s="188"/>
       <c r="D33" s="24">
         <v>0.02</v>
       </c>
@@ -9987,7 +9994,7 @@
       <c r="B34" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C34" s="189"/>
+      <c r="C34" s="188"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -9997,7 +10004,7 @@
       <c r="B35" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="189"/>
+      <c r="C35" s="188"/>
       <c r="D35" s="24"/>
     </row>
     <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10007,7 +10014,7 @@
       <c r="B36" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C36" s="189"/>
+      <c r="C36" s="188"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10017,7 +10024,7 @@
       <c r="B37" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="189"/>
+      <c r="C37" s="188"/>
       <c r="D37" s="25" t="s">
         <v>70</v>
       </c>
@@ -10029,7 +10036,7 @@
       <c r="B38" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="189"/>
+      <c r="C38" s="188"/>
       <c r="D38" s="25">
         <v>0</v>
       </c>
@@ -10041,7 +10048,7 @@
       <c r="B39" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="188"/>
+      <c r="C39" s="187"/>
       <c r="D39" s="23"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -10049,7 +10056,7 @@
         <v>127</v>
       </c>
       <c r="B40" s="15"/>
-      <c r="C40" s="189"/>
+      <c r="C40" s="188"/>
       <c r="D40" s="24"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -10059,7 +10066,7 @@
       <c r="B41" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C41" s="189"/>
+      <c r="C41" s="188"/>
       <c r="D41" s="24"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10069,7 +10076,7 @@
       <c r="B42" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C42" s="189"/>
+      <c r="C42" s="188"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10079,7 +10086,7 @@
       <c r="B43" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="189"/>
+      <c r="C43" s="188"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10089,7 +10096,7 @@
       <c r="B44" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C44" s="189"/>
+      <c r="C44" s="188"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10099,7 +10106,7 @@
       <c r="B45" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="189"/>
+      <c r="C45" s="188"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10109,7 +10116,7 @@
       <c r="B46" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C46" s="189"/>
+      <c r="C46" s="188"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10119,7 +10126,7 @@
       <c r="B47" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="189"/>
+      <c r="C47" s="188"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10129,7 +10136,7 @@
       <c r="B48" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C48" s="189"/>
+      <c r="C48" s="188"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10139,7 +10146,7 @@
       <c r="B49" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="189"/>
+      <c r="C49" s="188"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10149,7 +10156,7 @@
       <c r="B50" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C50" s="189"/>
+      <c r="C50" s="188"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10159,7 +10166,7 @@
       <c r="B51" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="189"/>
+      <c r="C51" s="188"/>
       <c r="D51" s="24">
         <v>1</v>
       </c>
@@ -10171,7 +10178,7 @@
       <c r="B52" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="189"/>
+      <c r="C52" s="188"/>
       <c r="D52" s="24">
         <v>1</v>
       </c>
@@ -10183,7 +10190,7 @@
       <c r="B53" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="189"/>
+      <c r="C53" s="188"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10195,7 +10202,7 @@
       <c r="B54" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="189"/>
+      <c r="C54" s="188"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10207,7 +10214,7 @@
       <c r="B55" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="189"/>
+      <c r="C55" s="188"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10219,7 +10226,7 @@
       <c r="B56" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="189"/>
+      <c r="C56" s="188"/>
       <c r="D56" s="24">
         <v>0</v>
       </c>
@@ -10231,7 +10238,7 @@
       <c r="B57" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C57" s="189"/>
+      <c r="C57" s="188"/>
       <c r="D57" s="24"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -10241,7 +10248,7 @@
       <c r="B58" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="189"/>
+      <c r="C58" s="188"/>
       <c r="D58" s="24"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -10251,7 +10258,7 @@
       <c r="B59" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="188"/>
+      <c r="C59" s="187"/>
       <c r="D59" s="26"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10261,7 +10268,7 @@
       <c r="B60" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="189"/>
+      <c r="C60" s="188"/>
       <c r="D60" s="27">
         <v>0</v>
       </c>
@@ -10270,9 +10277,9 @@
       <c r="A61" s="22" t="s">
         <v>345</v>
       </c>
-      <c r="B61" s="186"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="187"/>
+      <c r="B61" s="185"/>
+      <c r="C61" s="187"/>
+      <c r="D61" s="186"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10281,7 +10288,7 @@
       <c r="B62" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="C62" s="189"/>
+      <c r="C62" s="188"/>
       <c r="D62" s="27">
         <v>0</v>
       </c>
@@ -10293,7 +10300,7 @@
       <c r="B63" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="188"/>
+      <c r="C63" s="187"/>
       <c r="D63" s="26"/>
     </row>
     <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -10303,7 +10310,7 @@
       <c r="B64" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="190"/>
+      <c r="C64" s="189"/>
       <c r="D64" s="30">
         <v>0</v>
       </c>
@@ -10343,23 +10350,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="298" t="s">
+      <c r="A1" s="301" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="299"/>
-      <c r="C1" s="299"/>
-      <c r="D1" s="299"/>
-      <c r="E1" s="299"/>
-      <c r="F1" s="299"/>
-      <c r="G1" s="299"/>
-      <c r="H1" s="299"/>
-      <c r="I1" s="299"/>
-      <c r="J1" s="299"/>
-      <c r="K1" s="299"/>
-      <c r="L1" s="299"/>
-      <c r="M1" s="299"/>
-      <c r="N1" s="299"/>
-      <c r="O1" s="299"/>
+      <c r="B1" s="302"/>
+      <c r="C1" s="302"/>
+      <c r="D1" s="302"/>
+      <c r="E1" s="302"/>
+      <c r="F1" s="302"/>
+      <c r="G1" s="302"/>
+      <c r="H1" s="302"/>
+      <c r="I1" s="302"/>
+      <c r="J1" s="302"/>
+      <c r="K1" s="302"/>
+      <c r="L1" s="302"/>
+      <c r="M1" s="302"/>
+      <c r="N1" s="302"/>
+      <c r="O1" s="302"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10377,17 +10384,17 @@
       <c r="M2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="300"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="38"/>
@@ -10578,21 +10585,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="295" t="s">
+      <c r="B19" s="298" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="296"/>
-      <c r="D19" s="296"/>
-      <c r="E19" s="296"/>
-      <c r="F19" s="296"/>
-      <c r="G19" s="296"/>
-      <c r="H19" s="296"/>
-      <c r="I19" s="296"/>
-      <c r="J19" s="296"/>
-      <c r="K19" s="296"/>
-      <c r="L19" s="296"/>
-      <c r="M19" s="296"/>
-      <c r="N19" s="297"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="299"/>
+      <c r="F19" s="299"/>
+      <c r="G19" s="299"/>
+      <c r="H19" s="299"/>
+      <c r="I19" s="299"/>
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+      <c r="L19" s="299"/>
+      <c r="M19" s="299"/>
+      <c r="N19" s="300"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="38"/>
@@ -10794,27 +10801,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="306" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="304"/>
-      <c r="K1" s="304"/>
-      <c r="L1" s="304"/>
-      <c r="M1" s="304"/>
-      <c r="N1" s="304"/>
-      <c r="O1" s="304"/>
-      <c r="P1" s="304"/>
-      <c r="Q1" s="304"/>
-      <c r="R1" s="304"/>
-      <c r="S1" s="304"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
+      <c r="P1" s="307"/>
+      <c r="Q1" s="307"/>
+      <c r="R1" s="307"/>
+      <c r="S1" s="307"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="36"/>
@@ -10828,26 +10835,26 @@
       <c r="I2" s="36"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="296"/>
-      <c r="I3" s="296"/>
-      <c r="J3" s="297"/>
-      <c r="L3" s="300" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="299"/>
+      <c r="I3" s="299"/>
+      <c r="J3" s="300"/>
+      <c r="L3" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="301"/>
-      <c r="N3" s="301"/>
-      <c r="O3" s="301"/>
-      <c r="P3" s="301"/>
-      <c r="Q3" s="301"/>
-      <c r="R3" s="302"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="304"/>
+      <c r="P3" s="304"/>
+      <c r="Q3" s="304"/>
+      <c r="R3" s="305"/>
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
     </row>
@@ -11078,23 +11085,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="308" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="309"/>
+      <c r="C1" s="309"/>
+      <c r="D1" s="309"/>
+      <c r="E1" s="309"/>
+      <c r="F1" s="309"/>
+      <c r="G1" s="309"/>
+      <c r="H1" s="309"/>
+      <c r="I1" s="309"/>
+      <c r="J1" s="309"/>
+      <c r="K1" s="309"/>
+      <c r="L1" s="309"/>
+      <c r="M1" s="309"/>
+      <c r="N1" s="309"/>
+      <c r="O1" s="310"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -11107,22 +11114,22 @@
       <c r="H2" s="53"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="295" t="s">
+      <c r="B3" s="298" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="297"/>
-      <c r="J3" s="300" t="s">
+      <c r="C3" s="299"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="299"/>
+      <c r="H3" s="300"/>
+      <c r="J3" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="301"/>
-      <c r="L3" s="301"/>
-      <c r="M3" s="301"/>
-      <c r="N3" s="302"/>
+      <c r="K3" s="304"/>
+      <c r="L3" s="304"/>
+      <c r="M3" s="304"/>
+      <c r="N3" s="305"/>
       <c r="O3" s="37"/>
       <c r="P3" s="37"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -2413,10 +2413,10 @@
     <t>\tmp\plots</t>
   </si>
   <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3931,10 +3931,88 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,89 +4057,11 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4141,31 +4141,31 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5052,7 +5052,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5073,86 +5073,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="227" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="228"/>
+      <c r="C1" s="228"/>
+      <c r="D1" s="228"/>
+      <c r="E1" s="228"/>
+      <c r="F1" s="228"/>
+      <c r="G1" s="228"/>
+      <c r="H1" s="228"/>
+      <c r="I1" s="228"/>
+      <c r="J1" s="228"/>
+      <c r="K1" s="229"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="243" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="244"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="241" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="242"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="257" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="258"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="243" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="245"/>
+      <c r="E7" s="245"/>
+      <c r="F7" s="245"/>
+      <c r="G7" s="245"/>
+      <c r="H7" s="245"/>
+      <c r="I7" s="245"/>
+      <c r="J7" s="245"/>
+      <c r="K7" s="244"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="230" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="231"/>
+      <c r="D8" s="231"/>
+      <c r="E8" s="231"/>
+      <c r="F8" s="231"/>
+      <c r="G8" s="231"/>
+      <c r="H8" s="231"/>
+      <c r="I8" s="231"/>
+      <c r="J8" s="231"/>
+      <c r="K8" s="232"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="233"/>
+      <c r="B9" s="234"/>
+      <c r="C9" s="234"/>
+      <c r="D9" s="234"/>
+      <c r="E9" s="234"/>
+      <c r="F9" s="234"/>
+      <c r="G9" s="234"/>
+      <c r="H9" s="234"/>
+      <c r="I9" s="234"/>
+      <c r="J9" s="234"/>
+      <c r="K9" s="235"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5163,62 +5163,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="246" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
+      <c r="B11" s="247"/>
+      <c r="C11" s="247"/>
+      <c r="D11" s="248"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="249" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="250"/>
+      <c r="C12" s="251" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="226"/>
+      <c r="D12" s="252"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
+      <c r="A13" s="253"/>
+      <c r="B13" s="254"/>
+      <c r="C13" s="255"/>
+      <c r="D13" s="256"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="246" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="248"/>
+      <c r="E15" s="246" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="248"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="241" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="232"/>
+      <c r="B16" s="242"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="247" t="s">
+      <c r="E16" s="236" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="237"/>
+      <c r="G16" s="237"/>
+      <c r="H16" s="237"/>
+      <c r="I16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5228,10 +5228,10 @@
         <v>274</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="250" t="s">
+      <c r="E17" s="239" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="251"/>
+      <c r="F17" s="240"/>
       <c r="G17" s="213" t="s">
         <v>157</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="H18" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="215" t="s">
         <v>485</v>
       </c>
       <c r="J18" s="82"/>
@@ -5284,7 +5284,7 @@
       <c r="H19" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="235"/>
+      <c r="I19" s="215"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
+      <c r="I20" s="216"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5323,24 +5323,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="217" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="218"/>
+      <c r="G23" s="218"/>
+      <c r="H23" s="218"/>
+      <c r="I23" s="219"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="217" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="216"/>
+      <c r="B24" s="219"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="E24" s="223" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="256"/>
+      <c r="F24" s="224"/>
       <c r="G24" s="213" t="s">
         <v>157</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="H25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="220" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="H26" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="221"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="I27" s="222"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5433,22 +5433,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="217" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="219"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="257" t="s">
+      <c r="E31" s="225" t="s">
         <v>462</v>
       </c>
-      <c r="F31" s="258"/>
+      <c r="F31" s="226"/>
       <c r="G31" s="211" t="s">
         <v>157</v>
       </c>
@@ -5460,10 +5460,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="217" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="216"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5493,7 +5493,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5508,7 +5508,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5521,7 +5521,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5534,7 +5534,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5547,7 +5547,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="I37" s="216"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5560,17 +5560,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="217" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="219"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="224"/>
       <c r="G41" s="83" t="s">
         <v>157</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="I42" s="215"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5597,7 +5597,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="I43" s="215"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5606,7 +5606,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="I44" s="215"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5615,7 +5615,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="I45" s="215"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5624,7 +5624,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="I46" s="215"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5633,25 +5633,11 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="I47" s="216"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5667,6 +5653,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8034,23 +8034,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8058,26 +8058,26 @@
       <c r="A2" s="203" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="292" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8085,21 +8085,21 @@
       <c r="A3" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="293" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>295</v>
       </c>
@@ -8115,25 +8115,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="285" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>152</v>
       </c>
@@ -8146,21 +8146,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>381</v>
@@ -8171,23 +8171,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>382</v>
@@ -8198,57 +8198,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8848,15 +8848,12 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8873,12 +8870,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8970,68 +8970,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="291" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
+      <c r="F1" s="291"/>
+      <c r="G1" s="291"/>
+      <c r="H1" s="291"/>
+      <c r="I1" s="291"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="291"/>
+      <c r="P1" s="291"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="292" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="292"/>
+      <c r="C2" s="292"/>
+      <c r="D2" s="292"/>
+      <c r="E2" s="292"/>
+      <c r="F2" s="292"/>
+      <c r="G2" s="292" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="292"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="287" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
+      <c r="N2" s="287"/>
+      <c r="O2" s="287"/>
+      <c r="P2" s="287"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="293" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="293"/>
+      <c r="C3" s="293"/>
+      <c r="D3" s="293"/>
+      <c r="E3" s="293"/>
+      <c r="F3" s="293"/>
+      <c r="G3" s="293" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="293"/>
+      <c r="J3" s="293"/>
+      <c r="K3" s="293"/>
+      <c r="L3" s="293"/>
       <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
@@ -9047,24 +9047,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="285" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="285"/>
+      <c r="C4" s="285"/>
+      <c r="D4" s="285" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="285"/>
+      <c r="F4" s="285"/>
+      <c r="G4" s="285" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
+      <c r="H4" s="285"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="M4" s="167" t="s">
         <v>247</v>
       </c>
@@ -9079,12 +9079,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9105,12 +9105,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9123,12 +9123,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9141,12 +9141,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9160,17 +9160,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="288" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="289"/>
+      <c r="C10" s="289"/>
+      <c r="D10" s="289"/>
+      <c r="E10" s="289"/>
+      <c r="F10" s="289"/>
+      <c r="G10" s="289"/>
+      <c r="H10" s="289"/>
+      <c r="I10" s="290"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9503,16 +9503,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9529,6 +9519,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -2413,10 +2413,10 @@
     <t>\tmp\plots</t>
   </si>
   <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_assay</t>
-  </si>
-  <si>
-    <t>../../TASBEFlowAnalytics-Tutorial/example_controls</t>
+    <t>../TASBEFlowAnalytics-Tutorial/example_assay</t>
+  </si>
+  <si>
+    <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
   </si>
 </sst>
 </file>
@@ -3931,20 +3931,116 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3967,102 +4063,6 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4141,12 +4141,21 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4157,15 +4166,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5052,7 +5052,7 @@
   <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5073,86 +5073,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="227" t="s">
+      <c r="A1" s="238" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="228"/>
-      <c r="C1" s="228"/>
-      <c r="D1" s="228"/>
-      <c r="E1" s="228"/>
-      <c r="F1" s="228"/>
-      <c r="G1" s="228"/>
-      <c r="H1" s="228"/>
-      <c r="I1" s="228"/>
-      <c r="J1" s="228"/>
-      <c r="K1" s="229"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="240"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="87"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="243" t="s">
+      <c r="A3" s="217" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="244"/>
+      <c r="B3" s="218"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="231" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="242"/>
+      <c r="B4" s="232"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="257" t="s">
+      <c r="A5" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="258"/>
+      <c r="B5" s="234"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="243" t="s">
+      <c r="A7" s="217" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="245"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="245"/>
-      <c r="E7" s="245"/>
-      <c r="F7" s="245"/>
-      <c r="G7" s="245"/>
-      <c r="H7" s="245"/>
-      <c r="I7" s="245"/>
-      <c r="J7" s="245"/>
-      <c r="K7" s="244"/>
+      <c r="B7" s="219"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="218"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="241" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="231"/>
-      <c r="C8" s="231"/>
-      <c r="D8" s="231"/>
-      <c r="E8" s="231"/>
-      <c r="F8" s="231"/>
-      <c r="G8" s="231"/>
-      <c r="H8" s="231"/>
-      <c r="I8" s="231"/>
-      <c r="J8" s="231"/>
-      <c r="K8" s="232"/>
+      <c r="B8" s="242"/>
+      <c r="C8" s="242"/>
+      <c r="D8" s="242"/>
+      <c r="E8" s="242"/>
+      <c r="F8" s="242"/>
+      <c r="G8" s="242"/>
+      <c r="H8" s="242"/>
+      <c r="I8" s="242"/>
+      <c r="J8" s="242"/>
+      <c r="K8" s="243"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="233"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="234"/>
-      <c r="D9" s="234"/>
-      <c r="E9" s="234"/>
-      <c r="F9" s="234"/>
-      <c r="G9" s="234"/>
-      <c r="H9" s="234"/>
-      <c r="I9" s="234"/>
-      <c r="J9" s="234"/>
-      <c r="K9" s="235"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
+      <c r="D9" s="245"/>
+      <c r="E9" s="245"/>
+      <c r="F9" s="245"/>
+      <c r="G9" s="245"/>
+      <c r="H9" s="245"/>
+      <c r="I9" s="245"/>
+      <c r="J9" s="245"/>
+      <c r="K9" s="246"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="157"/>
@@ -5163,62 +5163,62 @@
       <c r="F10" s="143"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="246" t="s">
+      <c r="A11" s="220" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="247"/>
-      <c r="C11" s="247"/>
-      <c r="D11" s="248"/>
+      <c r="B11" s="221"/>
+      <c r="C11" s="221"/>
+      <c r="D11" s="222"/>
       <c r="E11" s="88"/>
       <c r="F11" s="143"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="249" t="s">
+      <c r="A12" s="223" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="250"/>
-      <c r="C12" s="251" t="s">
+      <c r="B12" s="224"/>
+      <c r="C12" s="225" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="252"/>
+      <c r="D12" s="226"/>
       <c r="E12" s="88"/>
       <c r="F12" s="143"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="253"/>
-      <c r="B13" s="254"/>
-      <c r="C13" s="255"/>
-      <c r="D13" s="256"/>
+      <c r="A13" s="227"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="229"/>
+      <c r="D13" s="230"/>
       <c r="E13" s="88"/>
       <c r="F13" s="143"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="246" t="s">
+      <c r="A15" s="220" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="248"/>
-      <c r="E15" s="246" t="s">
+      <c r="B15" s="222"/>
+      <c r="E15" s="220" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="248"/>
+      <c r="F15" s="221"/>
+      <c r="G15" s="221"/>
+      <c r="H15" s="221"/>
+      <c r="I15" s="222"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="241" t="s">
+      <c r="A16" s="231" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="242"/>
+      <c r="B16" s="232"/>
       <c r="D16" s="89"/>
-      <c r="E16" s="236" t="s">
+      <c r="E16" s="247" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="237"/>
-      <c r="G16" s="237"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="238"/>
+      <c r="F16" s="248"/>
+      <c r="G16" s="248"/>
+      <c r="H16" s="248"/>
+      <c r="I16" s="249"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="158" t="s">
@@ -5228,10 +5228,10 @@
         <v>274</v>
       </c>
       <c r="C17" s="90"/>
-      <c r="E17" s="239" t="s">
+      <c r="E17" s="250" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="240"/>
+      <c r="F17" s="251"/>
       <c r="G17" s="213" t="s">
         <v>157</v>
       </c>
@@ -5261,7 +5261,7 @@
       <c r="H18" s="34" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="215" t="s">
+      <c r="I18" s="235" t="s">
         <v>485</v>
       </c>
       <c r="J18" s="82"/>
@@ -5284,7 +5284,7 @@
       <c r="H19" s="75" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="215"/>
+      <c r="I19" s="235"/>
       <c r="J19" s="82"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5301,7 +5301,7 @@
       </c>
       <c r="G20" s="72"/>
       <c r="H20" s="72"/>
-      <c r="I20" s="216"/>
+      <c r="I20" s="236"/>
       <c r="J20" s="82"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5323,24 +5323,24 @@
       <c r="A23" s="162"/>
       <c r="B23" s="93"/>
       <c r="C23" s="92"/>
-      <c r="E23" s="217" t="s">
+      <c r="E23" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="218"/>
-      <c r="G23" s="218"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="F23" s="237"/>
+      <c r="G23" s="237"/>
+      <c r="H23" s="237"/>
+      <c r="I23" s="216"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="217" t="s">
+      <c r="A24" s="215" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="219"/>
+      <c r="B24" s="216"/>
       <c r="C24" s="33"/>
-      <c r="E24" s="223" t="s">
+      <c r="E24" s="255" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="224"/>
+      <c r="F24" s="256"/>
       <c r="G24" s="213" t="s">
         <v>157</v>
       </c>
@@ -5369,7 +5369,7 @@
       <c r="H25" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="220" t="s">
+      <c r="I25" s="252" t="s">
         <v>486</v>
       </c>
     </row>
@@ -5393,7 +5393,7 @@
       <c r="H26" s="75" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="221"/>
+      <c r="I26" s="253"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="160" t="s">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="G27" s="72"/>
       <c r="H27" s="72"/>
-      <c r="I27" s="222"/>
+      <c r="I27" s="254"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="160" t="s">
@@ -5433,22 +5433,22 @@
       <c r="A30" s="161"/>
       <c r="B30" s="118"/>
       <c r="C30" s="90"/>
-      <c r="E30" s="217" t="s">
+      <c r="E30" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="218"/>
-      <c r="G30" s="218"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="F30" s="237"/>
+      <c r="G30" s="237"/>
+      <c r="H30" s="237"/>
+      <c r="I30" s="216"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="162"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
-      <c r="E31" s="225" t="s">
+      <c r="E31" s="257" t="s">
         <v>462</v>
       </c>
-      <c r="F31" s="226"/>
+      <c r="F31" s="258"/>
       <c r="G31" s="211" t="s">
         <v>157</v>
       </c>
@@ -5460,10 +5460,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="217" t="s">
+      <c r="A32" s="215" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="219"/>
+      <c r="B32" s="216"/>
       <c r="C32" s="33"/>
       <c r="E32" s="84">
         <v>1</v>
@@ -5473,7 +5473,7 @@
       </c>
       <c r="G32" s="34"/>
       <c r="H32" s="75"/>
-      <c r="I32" s="215"/>
+      <c r="I32" s="235"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="158" t="s">
@@ -5493,7 +5493,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="34"/>
-      <c r="I33" s="215"/>
+      <c r="I33" s="235"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="159" t="s">
@@ -5508,7 +5508,7 @@
       <c r="F34" s="94"/>
       <c r="G34" s="34"/>
       <c r="H34" s="75"/>
-      <c r="I34" s="215"/>
+      <c r="I34" s="235"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="160" t="s">
@@ -5521,7 +5521,7 @@
       <c r="F35" s="94"/>
       <c r="G35" s="34"/>
       <c r="H35" s="34"/>
-      <c r="I35" s="215"/>
+      <c r="I35" s="235"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="160" t="s">
@@ -5534,7 +5534,7 @@
       <c r="F36" s="94"/>
       <c r="G36" s="34"/>
       <c r="H36" s="34"/>
-      <c r="I36" s="215"/>
+      <c r="I36" s="235"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="160" t="s">
@@ -5547,7 +5547,7 @@
       <c r="F37" s="141"/>
       <c r="G37" s="72"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="216"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="161" t="s">
@@ -5560,17 +5560,17 @@
       <c r="B39" s="122"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="217" t="s">
+      <c r="E40" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="F40" s="237"/>
+      <c r="G40" s="237"/>
+      <c r="H40" s="237"/>
+      <c r="I40" s="216"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="223"/>
-      <c r="F41" s="224"/>
+      <c r="E41" s="255"/>
+      <c r="F41" s="256"/>
       <c r="G41" s="83" t="s">
         <v>157</v>
       </c>
@@ -5588,7 +5588,7 @@
       <c r="F42" s="94"/>
       <c r="G42" s="34"/>
       <c r="H42" s="75"/>
-      <c r="I42" s="215"/>
+      <c r="I42" s="235"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="84">
@@ -5597,7 +5597,7 @@
       <c r="F43" s="94"/>
       <c r="G43" s="34"/>
       <c r="H43" s="34"/>
-      <c r="I43" s="215"/>
+      <c r="I43" s="235"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="84">
@@ -5606,7 +5606,7 @@
       <c r="F44" s="94"/>
       <c r="G44" s="34"/>
       <c r="H44" s="75"/>
-      <c r="I44" s="215"/>
+      <c r="I44" s="235"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="84">
@@ -5615,7 +5615,7 @@
       <c r="F45" s="94"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
-      <c r="I45" s="215"/>
+      <c r="I45" s="235"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="84">
@@ -5624,7 +5624,7 @@
       <c r="F46" s="94"/>
       <c r="G46" s="34"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="215"/>
+      <c r="I46" s="235"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="85">
@@ -5633,11 +5633,25 @@
       <c r="F47" s="141"/>
       <c r="G47" s="72"/>
       <c r="H47" s="72"/>
-      <c r="I47" s="216"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5653,20 +5667,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8034,23 +8034,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
       <c r="P1" s="32"/>
       <c r="Q1" s="32"/>
     </row>
@@ -8058,26 +8058,26 @@
       <c r="A2" s="203" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="292" t="s">
+      <c r="B2" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
       <c r="P2" s="89"/>
       <c r="Q2" s="89"/>
     </row>
@@ -8085,21 +8085,21 @@
       <c r="A3" s="202" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="293" t="s">
+      <c r="B3" s="289" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>295</v>
       </c>
@@ -8115,25 +8115,25 @@
       <c r="A4" s="205">
         <v>8</v>
       </c>
-      <c r="B4" s="285" t="s">
+      <c r="B4" s="288" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285" t="s">
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>152</v>
       </c>
@@ -8146,21 +8146,21 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="192"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
+      <c r="G5" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="285"/>
+      <c r="I5" s="285"/>
+      <c r="J5" s="285" t="s">
         <v>286</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
+      <c r="K5" s="285"/>
+      <c r="L5" s="285"/>
       <c r="M5" s="201"/>
       <c r="N5" s="201" t="s">
         <v>381</v>
@@ -8171,23 +8171,23 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="192"/>
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="C6" s="285"/>
+      <c r="D6" s="285" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
+      <c r="G6" s="285" t="s">
         <v>279</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
+      <c r="H6" s="285"/>
+      <c r="I6" s="285"/>
+      <c r="J6" s="285"/>
+      <c r="K6" s="285"/>
+      <c r="L6" s="285"/>
       <c r="M6" s="201"/>
       <c r="N6" s="201" t="s">
         <v>382</v>
@@ -8198,57 +8198,57 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="192"/>
-      <c r="B7" s="286" t="s">
+      <c r="B7" s="285" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="C7" s="285"/>
+      <c r="D7" s="285" t="s">
         <v>283</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
+      <c r="G7" s="285"/>
+      <c r="H7" s="285"/>
+      <c r="I7" s="285"/>
+      <c r="J7" s="285"/>
+      <c r="K7" s="285"/>
+      <c r="L7" s="285"/>
       <c r="M7" s="201"/>
       <c r="N7" s="201"/>
       <c r="O7" s="165"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="192"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
+      <c r="G8" s="285"/>
+      <c r="H8" s="285"/>
+      <c r="I8" s="285"/>
+      <c r="J8" s="285"/>
+      <c r="K8" s="285"/>
+      <c r="L8" s="285"/>
       <c r="M8" s="201"/>
       <c r="N8" s="201"/>
       <c r="O8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -8848,12 +8848,15 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8870,15 +8873,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8970,68 +8970,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="291"/>
-      <c r="C1" s="291"/>
-      <c r="D1" s="291"/>
-      <c r="E1" s="291"/>
-      <c r="F1" s="291"/>
-      <c r="G1" s="291"/>
-      <c r="H1" s="291"/>
-      <c r="I1" s="291"/>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="291"/>
-      <c r="P1" s="291"/>
+      <c r="B1" s="286"/>
+      <c r="C1" s="286"/>
+      <c r="D1" s="286"/>
+      <c r="E1" s="286"/>
+      <c r="F1" s="286"/>
+      <c r="G1" s="286"/>
+      <c r="H1" s="286"/>
+      <c r="I1" s="286"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
+      <c r="P1" s="286"/>
       <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="292" t="s">
+      <c r="A2" s="287" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="292"/>
-      <c r="C2" s="292"/>
-      <c r="D2" s="292"/>
-      <c r="E2" s="292"/>
-      <c r="F2" s="292"/>
-      <c r="G2" s="292" t="s">
+      <c r="B2" s="287"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
+      <c r="E2" s="287"/>
+      <c r="F2" s="287"/>
+      <c r="G2" s="287" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="292"/>
-      <c r="I2" s="292"/>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="287" t="s">
+      <c r="H2" s="287"/>
+      <c r="I2" s="287"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="287"/>
+      <c r="L2" s="287"/>
+      <c r="M2" s="290" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="287"/>
-      <c r="O2" s="287"/>
-      <c r="P2" s="287"/>
+      <c r="N2" s="290"/>
+      <c r="O2" s="290"/>
+      <c r="P2" s="290"/>
       <c r="Q2" s="89"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="293" t="s">
+      <c r="A3" s="289" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="293"/>
-      <c r="C3" s="293"/>
-      <c r="D3" s="293"/>
-      <c r="E3" s="293"/>
-      <c r="F3" s="293"/>
-      <c r="G3" s="293" t="s">
+      <c r="B3" s="289"/>
+      <c r="C3" s="289"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="289" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="293"/>
-      <c r="I3" s="293"/>
-      <c r="J3" s="293"/>
-      <c r="K3" s="293"/>
-      <c r="L3" s="293"/>
+      <c r="H3" s="289"/>
+      <c r="I3" s="289"/>
+      <c r="J3" s="289"/>
+      <c r="K3" s="289"/>
+      <c r="L3" s="289"/>
       <c r="M3" s="202" t="s">
         <v>294</v>
       </c>
@@ -9047,24 +9047,24 @@
       <c r="Q3" s="206"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="285" t="s">
+      <c r="A4" s="288" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="285"/>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285" t="s">
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285" t="s">
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="288" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="285"/>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="H4" s="288"/>
+      <c r="I4" s="288"/>
+      <c r="J4" s="288"/>
+      <c r="K4" s="288"/>
+      <c r="L4" s="288"/>
       <c r="M4" s="167" t="s">
         <v>247</v>
       </c>
@@ -9079,12 +9079,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
+      <c r="A5" s="285"/>
+      <c r="B5" s="285"/>
+      <c r="C5" s="285"/>
+      <c r="D5" s="285"/>
+      <c r="E5" s="285"/>
+      <c r="F5" s="285"/>
       <c r="G5" s="294" t="s">
         <v>4</v>
       </c>
@@ -9105,12 +9105,12 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
+      <c r="A6" s="285"/>
+      <c r="B6" s="285"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="285"/>
+      <c r="E6" s="285"/>
+      <c r="F6" s="285"/>
       <c r="G6" s="294"/>
       <c r="H6" s="294"/>
       <c r="I6" s="294"/>
@@ -9123,12 +9123,12 @@
       <c r="P6" s="168"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
+      <c r="A7" s="285"/>
+      <c r="B7" s="285"/>
+      <c r="C7" s="285"/>
+      <c r="D7" s="285"/>
+      <c r="E7" s="285"/>
+      <c r="F7" s="285"/>
       <c r="G7" s="294"/>
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
@@ -9141,12 +9141,12 @@
       <c r="P7" s="166"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
+      <c r="A8" s="285"/>
+      <c r="B8" s="285"/>
+      <c r="C8" s="285"/>
+      <c r="D8" s="285"/>
+      <c r="E8" s="285"/>
+      <c r="F8" s="285"/>
       <c r="G8" s="294"/>
       <c r="H8" s="294"/>
       <c r="I8" s="294"/>
@@ -9160,17 +9160,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="288" t="s">
+      <c r="A10" s="291" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="289"/>
-      <c r="C10" s="289"/>
-      <c r="D10" s="289"/>
-      <c r="E10" s="289"/>
-      <c r="F10" s="289"/>
-      <c r="G10" s="289"/>
-      <c r="H10" s="289"/>
-      <c r="I10" s="290"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="292"/>
+      <c r="I10" s="293"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="132" t="s">
@@ -9503,6 +9503,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9519,16 +9529,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="7" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="491">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2417,6 +2417,18 @@
   </si>
   <si>
     <t>../TASBEFlowAnalytics-Tutorial/example_controls</t>
+  </si>
+  <si>
+    <t>flow.outputHistogramFile</t>
+  </si>
+  <si>
+    <t>if true, output histogram file for batch analysis</t>
+  </si>
+  <si>
+    <t>flow.outputStatisticsFile</t>
+  </si>
+  <si>
+    <t>if true, output statistics file for batch analysis</t>
   </si>
 </sst>
 </file>
@@ -2752,7 +2764,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -3339,11 +3351,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3418,7 +3439,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3931,10 +3951,88 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3979,89 +4077,11 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4141,31 +4161,31 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4221,6 +4241,13 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5051,607 +5078,593 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="156" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="86" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="86" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="86" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="142" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="86" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="86" customWidth="1"/>
-    <col min="9" max="9" width="20" style="86" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="86" customWidth="1"/>
-    <col min="11" max="11" width="6" style="86" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="86" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="86"/>
+    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
+    <col min="9" max="9" width="20" style="85" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
+    <col min="11" max="11" width="6" style="85" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="238" t="s">
+      <c r="A1" s="226" t="s">
         <v>375</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="240"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
+      <c r="D1" s="227"/>
+      <c r="E1" s="227"/>
+      <c r="F1" s="227"/>
+      <c r="G1" s="227"/>
+      <c r="H1" s="227"/>
+      <c r="I1" s="227"/>
+      <c r="J1" s="227"/>
+      <c r="K1" s="228"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="87"/>
+      <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="217" t="s">
+      <c r="A3" s="242" t="s">
         <v>311</v>
       </c>
-      <c r="B3" s="218"/>
+      <c r="B3" s="243"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="231" t="s">
+      <c r="A4" s="240" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="232"/>
+      <c r="B4" s="241"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="233" t="s">
+      <c r="A5" s="256" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="234"/>
+      <c r="B5" s="257"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="87"/>
+      <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
+      <c r="A7" s="242" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="219"/>
-      <c r="E7" s="219"/>
-      <c r="F7" s="219"/>
-      <c r="G7" s="219"/>
-      <c r="H7" s="219"/>
-      <c r="I7" s="219"/>
-      <c r="J7" s="219"/>
-      <c r="K7" s="218"/>
+      <c r="B7" s="244"/>
+      <c r="C7" s="244"/>
+      <c r="D7" s="244"/>
+      <c r="E7" s="244"/>
+      <c r="F7" s="244"/>
+      <c r="G7" s="244"/>
+      <c r="H7" s="244"/>
+      <c r="I7" s="244"/>
+      <c r="J7" s="244"/>
+      <c r="K7" s="243"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="241" t="s">
+      <c r="A8" s="229" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="242"/>
-      <c r="C8" s="242"/>
-      <c r="D8" s="242"/>
-      <c r="E8" s="242"/>
-      <c r="F8" s="242"/>
-      <c r="G8" s="242"/>
-      <c r="H8" s="242"/>
-      <c r="I8" s="242"/>
-      <c r="J8" s="242"/>
-      <c r="K8" s="243"/>
+      <c r="B8" s="230"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="230"/>
+      <c r="E8" s="230"/>
+      <c r="F8" s="230"/>
+      <c r="G8" s="230"/>
+      <c r="H8" s="230"/>
+      <c r="I8" s="230"/>
+      <c r="J8" s="230"/>
+      <c r="K8" s="231"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="245"/>
-      <c r="C9" s="245"/>
-      <c r="D9" s="245"/>
-      <c r="E9" s="245"/>
-      <c r="F9" s="245"/>
-      <c r="G9" s="245"/>
-      <c r="H9" s="245"/>
-      <c r="I9" s="245"/>
-      <c r="J9" s="245"/>
-      <c r="K9" s="246"/>
+      <c r="A9" s="232"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="233"/>
+      <c r="E9" s="233"/>
+      <c r="F9" s="233"/>
+      <c r="G9" s="233"/>
+      <c r="H9" s="233"/>
+      <c r="I9" s="233"/>
+      <c r="J9" s="233"/>
+      <c r="K9" s="234"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="157"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="143"/>
+      <c r="A10" s="156"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="220" t="s">
+      <c r="A11" s="245" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="221"/>
-      <c r="C11" s="221"/>
-      <c r="D11" s="222"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="143"/>
+      <c r="B11" s="246"/>
+      <c r="C11" s="246"/>
+      <c r="D11" s="247"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="223" t="s">
+      <c r="A12" s="248" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="224"/>
-      <c r="C12" s="225" t="s">
+      <c r="B12" s="249"/>
+      <c r="C12" s="250" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="226"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="143"/>
+      <c r="D12" s="251"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="227"/>
-      <c r="B13" s="228"/>
-      <c r="C13" s="229"/>
-      <c r="D13" s="230"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="143"/>
+      <c r="A13" s="252"/>
+      <c r="B13" s="253"/>
+      <c r="C13" s="254"/>
+      <c r="D13" s="255"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="220" t="s">
+      <c r="A15" s="245" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="222"/>
-      <c r="E15" s="220" t="s">
+      <c r="B15" s="247"/>
+      <c r="E15" s="245" t="s">
         <v>310</v>
       </c>
-      <c r="F15" s="221"/>
-      <c r="G15" s="221"/>
-      <c r="H15" s="221"/>
-      <c r="I15" s="222"/>
+      <c r="F15" s="246"/>
+      <c r="G15" s="246"/>
+      <c r="H15" s="246"/>
+      <c r="I15" s="247"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="231" t="s">
+      <c r="A16" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="232"/>
-      <c r="D16" s="89"/>
-      <c r="E16" s="247" t="s">
+      <c r="B16" s="241"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="235" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="248"/>
-      <c r="G16" s="248"/>
-      <c r="H16" s="248"/>
-      <c r="I16" s="249"/>
+      <c r="F16" s="236"/>
+      <c r="G16" s="236"/>
+      <c r="H16" s="236"/>
+      <c r="I16" s="237"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="158" t="s">
+      <c r="A17" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="115" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="90"/>
-      <c r="E17" s="250" t="s">
+      <c r="C17" s="89"/>
+      <c r="E17" s="238" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="251"/>
-      <c r="G17" s="213" t="s">
+      <c r="F17" s="239"/>
+      <c r="G17" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="213" t="s">
+      <c r="H17" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="196" t="s">
+      <c r="I17" s="195" t="s">
         <v>353</v>
       </c>
-      <c r="J17" s="82"/>
+      <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="159" t="s">
+      <c r="A18" s="158" t="s">
         <v>264</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="E18" s="84">
+      <c r="C18" s="89"/>
+      <c r="E18" s="83">
         <v>1</v>
       </c>
-      <c r="F18" s="94" t="s">
+      <c r="F18" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34" t="s">
+      <c r="G18" s="33"/>
+      <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="235" t="s">
+      <c r="I18" s="214" t="s">
         <v>485</v>
       </c>
-      <c r="J18" s="82"/>
+      <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
         <v>282</v>
       </c>
-      <c r="B19" s="117"/>
-      <c r="C19" s="90"/>
-      <c r="E19" s="84">
+      <c r="B19" s="116"/>
+      <c r="C19" s="89"/>
+      <c r="E19" s="83">
         <v>2</v>
       </c>
-      <c r="F19" s="94" t="s">
+      <c r="F19" s="93" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="34" t="s">
+      <c r="G19" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="75" t="s">
+      <c r="H19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="235"/>
-      <c r="J19" s="82"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="160" t="s">
+      <c r="A20" s="159" t="s">
         <v>283</v>
       </c>
-      <c r="B20" s="117"/>
-      <c r="C20" s="92"/>
-      <c r="E20" s="85">
+      <c r="B20" s="116"/>
+      <c r="C20" s="91"/>
+      <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="141" t="s">
+      <c r="F20" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="236"/>
-      <c r="J20" s="82"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="215"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="159" t="s">
         <v>287</v>
       </c>
-      <c r="B21" s="117"/>
-      <c r="C21" s="33"/>
-      <c r="I21" s="82"/>
-      <c r="J21" s="82"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="32"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="161"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="90"/>
-      <c r="J22" s="82"/>
+      <c r="A22" s="160"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="89"/>
+      <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="162"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="92"/>
-      <c r="E23" s="215" t="s">
+      <c r="A23" s="161"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="91"/>
+      <c r="E23" s="216" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="237"/>
-      <c r="G23" s="237"/>
-      <c r="H23" s="237"/>
-      <c r="I23" s="216"/>
+      <c r="F23" s="217"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="217"/>
+      <c r="I23" s="218"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="216" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="216"/>
-      <c r="C24" s="33"/>
-      <c r="E24" s="255" t="s">
+      <c r="B24" s="218"/>
+      <c r="C24" s="32"/>
+      <c r="E24" s="222" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="256"/>
-      <c r="G24" s="213" t="s">
+      <c r="F24" s="223"/>
+      <c r="G24" s="212" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="213" t="s">
+      <c r="H24" s="212" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="196" t="s">
+      <c r="I24" s="195" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="158" t="s">
+      <c r="A25" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="E25" s="84">
+      <c r="C25" s="32"/>
+      <c r="E25" s="83">
         <v>1</v>
       </c>
-      <c r="F25" s="94" t="s">
+      <c r="F25" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="252" t="s">
+      <c r="I25" s="219" t="s">
         <v>486</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="158" t="s">
         <v>264</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="90"/>
-      <c r="E26" s="84">
+      <c r="C26" s="89"/>
+      <c r="E26" s="83">
         <v>2</v>
       </c>
-      <c r="F26" s="94" t="s">
+      <c r="F26" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="34" t="s">
+      <c r="G26" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="75" t="s">
+      <c r="H26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="253"/>
+      <c r="I26" s="220"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="160" t="s">
+      <c r="A27" s="159" t="s">
         <v>280</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="92"/>
-      <c r="E27" s="85">
+      <c r="B27" s="116"/>
+      <c r="C27" s="91"/>
+      <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="141" t="s">
+      <c r="F27" s="140" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="254"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+      <c r="I27" s="221"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="160" t="s">
+      <c r="A28" s="159" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="117"/>
-      <c r="C28" s="33"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="144"/>
-      <c r="G28" s="95"/>
-      <c r="H28" s="95"/>
-      <c r="I28" s="82"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="32"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="143"/>
+      <c r="G28" s="94"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="160"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="33"/>
-      <c r="I29" s="82"/>
+      <c r="A29" s="159"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="32"/>
+      <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="161"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="90"/>
-      <c r="E30" s="215" t="s">
+      <c r="A30" s="160"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="89"/>
+      <c r="E30" s="216" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="237"/>
-      <c r="G30" s="237"/>
-      <c r="H30" s="237"/>
-      <c r="I30" s="216"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="218"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="E31" s="257" t="s">
+      <c r="A31" s="161"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="E31" s="224" t="s">
         <v>462</v>
       </c>
-      <c r="F31" s="258"/>
-      <c r="G31" s="211" t="s">
+      <c r="F31" s="225"/>
+      <c r="G31" s="210" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="211" t="s">
+      <c r="H31" s="210" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="196" t="s">
+      <c r="I31" s="195" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="216" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="216"/>
-      <c r="C32" s="33"/>
-      <c r="E32" s="84">
+      <c r="B32" s="218"/>
+      <c r="C32" s="32"/>
+      <c r="E32" s="83">
         <v>1</v>
       </c>
-      <c r="F32" s="94" t="s">
+      <c r="F32" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="34"/>
-      <c r="H32" s="75"/>
-      <c r="I32" s="235"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="214"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="158" t="s">
+      <c r="A33" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="116" t="s">
+      <c r="B33" s="115" t="s">
         <v>286</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="E33" s="84">
+      <c r="C33" s="89"/>
+      <c r="E33" s="83">
         <v>2</v>
       </c>
-      <c r="F33" s="94" t="s">
+      <c r="F33" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="34" t="s">
+      <c r="G33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="235"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="214"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="159" t="s">
+      <c r="A34" s="158" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="91" t="s">
+      <c r="B34" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>3</v>
       </c>
-      <c r="F34" s="94"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="75"/>
-      <c r="I34" s="235"/>
+      <c r="F34" s="93"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="74"/>
+      <c r="I34" s="214"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="160" t="s">
+      <c r="A35" s="159" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="117"/>
-      <c r="E35" s="84">
+      <c r="B35" s="116"/>
+      <c r="E35" s="83">
         <v>4</v>
       </c>
-      <c r="F35" s="94"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="235"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="214"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="160" t="s">
+      <c r="A36" s="159" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="E36" s="84">
+      <c r="B36" s="116"/>
+      <c r="E36" s="83">
         <v>5</v>
       </c>
-      <c r="F36" s="94"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="235"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="214"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="160" t="s">
+      <c r="A37" s="159" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="117"/>
-      <c r="E37" s="85">
+      <c r="B37" s="116"/>
+      <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="141"/>
-      <c r="G37" s="72"/>
-      <c r="H37" s="72"/>
-      <c r="I37" s="236"/>
+      <c r="F37" s="140"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="215"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="160" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="118"/>
+      <c r="B38" s="117"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="163"/>
-      <c r="B39" s="122"/>
+      <c r="A39" s="162"/>
+      <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="237"/>
-      <c r="G40" s="237"/>
-      <c r="H40" s="237"/>
-      <c r="I40" s="216"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="217"/>
+      <c r="I40" s="218"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="255"/>
-      <c r="F41" s="256"/>
-      <c r="G41" s="83" t="s">
+      <c r="E41" s="222"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="83" t="s">
+      <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="196" t="s">
+      <c r="I41" s="195" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="84">
+      <c r="E42" s="83">
         <v>1</v>
       </c>
-      <c r="F42" s="94"/>
-      <c r="G42" s="34"/>
-      <c r="H42" s="75"/>
-      <c r="I42" s="235"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="214"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="84">
+      <c r="E43" s="83">
         <v>2</v>
       </c>
-      <c r="F43" s="94"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="235"/>
+      <c r="F43" s="93"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="214"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="84">
+      <c r="E44" s="83">
         <v>3</v>
       </c>
-      <c r="F44" s="94"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="75"/>
-      <c r="I44" s="235"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="74"/>
+      <c r="I44" s="214"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="84">
+      <c r="E45" s="83">
         <v>4</v>
       </c>
-      <c r="F45" s="94"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="235"/>
+      <c r="F45" s="93"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="214"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="84">
+      <c r="E46" s="83">
         <v>5</v>
       </c>
-      <c r="F46" s="94"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="235"/>
+      <c r="F46" s="93"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="214"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="85">
+      <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="141"/>
-      <c r="G47" s="72"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="236"/>
+      <c r="F47" s="140"/>
+      <c r="G47" s="71"/>
+      <c r="H47" s="71"/>
+      <c r="I47" s="215"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5667,6 +5680,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5706,964 +5733,964 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="261" t="s">
+      <c r="A1" s="260" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="262"/>
-      <c r="C1" s="262"/>
-      <c r="D1" s="262"/>
-      <c r="E1" s="262"/>
-      <c r="F1" s="262"/>
-      <c r="G1" s="262"/>
-      <c r="H1" s="262"/>
-      <c r="I1" s="262"/>
-      <c r="J1" s="263"/>
+      <c r="B1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="261"/>
+      <c r="G1" s="261"/>
+      <c r="H1" s="261"/>
+      <c r="I1" s="261"/>
+      <c r="J1" s="262"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="264" t="s">
+      <c r="A2" s="263" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="266"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
+      <c r="B2" s="264"/>
+      <c r="C2" s="264"/>
+      <c r="D2" s="264"/>
+      <c r="E2" s="264"/>
+      <c r="F2" s="264"/>
+      <c r="G2" s="264"/>
+      <c r="H2" s="264"/>
+      <c r="I2" s="264"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="179" t="s">
+      <c r="A3" s="178" t="s">
         <v>245</v>
       </c>
-      <c r="B3" s="182" t="s">
+      <c r="B3" s="181" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="266" t="s">
         <v>284</v>
       </c>
-      <c r="D3" s="268"/>
-      <c r="E3" s="268"/>
-      <c r="F3" s="268"/>
-      <c r="G3" s="269"/>
-      <c r="H3" s="182" t="s">
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="268"/>
+      <c r="H3" s="181" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="182" t="s">
+      <c r="I3" s="181" t="s">
         <v>314</v>
       </c>
-      <c r="J3" s="183" t="s">
+      <c r="J3" s="182" t="s">
         <v>315</v>
       </c>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="139" t="s">
+      <c r="A4" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="140" t="s">
+      <c r="B4" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="140" t="s">
+      <c r="C4" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="140" t="s">
+      <c r="D4" s="139" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="140" t="s">
+      <c r="E4" s="139" t="s">
         <v>286</v>
       </c>
-      <c r="F4" s="140" t="s">
+      <c r="F4" s="139" t="s">
         <v>279</v>
       </c>
-      <c r="G4" s="140" t="s">
+      <c r="G4" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="H4" s="140" t="s">
+      <c r="H4" s="139" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="200" t="s">
+      <c r="J4" s="199" t="s">
         <v>405</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109">
+      <c r="A5" s="108">
         <v>1</v>
       </c>
-      <c r="B5" s="79" t="s">
+      <c r="B5" s="78" t="s">
         <v>404</v>
       </c>
-      <c r="C5" s="110">
+      <c r="C5" s="109">
         <v>0.1</v>
       </c>
-      <c r="D5" s="110" t="s">
+      <c r="D5" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="E5" s="110" t="s">
+      <c r="E5" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="109">
         <v>0.1</v>
       </c>
-      <c r="H5" s="111">
+      <c r="H5" s="110">
         <v>1</v>
       </c>
-      <c r="I5" s="112" t="s">
+      <c r="I5" s="111" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="113"/>
-      <c r="K5" s="212" t="s">
+      <c r="J5" s="112"/>
+      <c r="K5" s="211" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="109">
+      <c r="A6" s="108">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="79" t="s">
+      <c r="B6" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="110">
+      <c r="C6" s="109">
         <v>0.2</v>
       </c>
-      <c r="D6" s="110" t="s">
+      <c r="D6" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="E6" s="110" t="s">
+      <c r="E6" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="110" t="s">
+      <c r="F6" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="G6" s="110">
+      <c r="G6" s="109">
         <v>0.2</v>
       </c>
-      <c r="H6" s="111">
+      <c r="H6" s="110">
         <v>1</v>
       </c>
-      <c r="I6" s="112" t="s">
+      <c r="I6" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="113"/>
-      <c r="K6" s="212" t="s">
+      <c r="J6" s="112"/>
+      <c r="K6" s="211" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="109">
+      <c r="A7" s="108">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="110">
+      <c r="C7" s="109">
         <v>0.5</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="110" t="s">
+      <c r="E7" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="111">
+      <c r="F7" s="109"/>
+      <c r="G7" s="109"/>
+      <c r="H7" s="110">
         <v>1</v>
       </c>
-      <c r="I7" s="112" t="s">
+      <c r="I7" s="111" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="113"/>
-      <c r="K7" s="212" t="s">
+      <c r="J7" s="112"/>
+      <c r="K7" s="211" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="109">
+      <c r="A8" s="108">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="110">
+      <c r="C8" s="109">
         <v>1</v>
       </c>
-      <c r="D8" s="110" t="s">
+      <c r="D8" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="G8" s="110">
+      <c r="G8" s="109">
         <v>0.1</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="110">
         <v>1</v>
       </c>
-      <c r="I8" s="112" t="s">
+      <c r="I8" s="111" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="212" t="s">
+      <c r="J8" s="112"/>
+      <c r="K8" s="211" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="109">
+      <c r="A9" s="108">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="110">
+      <c r="C9" s="109">
         <v>2</v>
       </c>
-      <c r="D9" s="110" t="s">
+      <c r="D9" s="109" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110" t="s">
+      <c r="E9" s="109"/>
+      <c r="F9" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="G9" s="110">
+      <c r="G9" s="109">
         <v>0.2</v>
       </c>
-      <c r="H9" s="111">
+      <c r="H9" s="110">
         <v>1</v>
       </c>
-      <c r="I9" s="112" t="s">
+      <c r="I9" s="111" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="113"/>
-      <c r="K9" s="212" t="s">
+      <c r="J9" s="112"/>
+      <c r="K9" s="211" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="109">
+      <c r="A10" s="108">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="79" t="s">
+      <c r="B10" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="110">
+      <c r="C10" s="109">
         <v>5</v>
       </c>
-      <c r="D10" s="110" t="s">
+      <c r="D10" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="111">
+      <c r="F10" s="109"/>
+      <c r="G10" s="109"/>
+      <c r="H10" s="110">
         <v>1</v>
       </c>
-      <c r="I10" s="112" t="s">
+      <c r="I10" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="113"/>
-      <c r="K10" s="212" t="s">
+      <c r="J10" s="112"/>
+      <c r="K10" s="211" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="109">
+      <c r="A11" s="108">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="79" t="s">
+      <c r="B11" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="110">
+      <c r="C11" s="109">
         <v>10</v>
       </c>
-      <c r="D11" s="110" t="s">
+      <c r="D11" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="111">
+      <c r="F11" s="109"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="110">
         <v>1</v>
       </c>
-      <c r="I11" s="112" t="s">
+      <c r="I11" s="111" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="113"/>
-      <c r="K11" s="212" t="s">
+      <c r="J11" s="112"/>
+      <c r="K11" s="211" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="109">
+      <c r="A12" s="108">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="110">
+      <c r="C12" s="109">
         <v>20</v>
       </c>
-      <c r="D12" s="110" t="s">
+      <c r="D12" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="111">
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="110">
         <v>1</v>
       </c>
-      <c r="I12" s="112" t="s">
+      <c r="I12" s="111" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="113"/>
-      <c r="K12" s="212" t="s">
+      <c r="J12" s="112"/>
+      <c r="K12" s="211" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="109">
+      <c r="A13" s="108">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="79" t="s">
+      <c r="B13" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="110">
+      <c r="C13" s="109">
         <v>50</v>
       </c>
-      <c r="D13" s="110" t="s">
+      <c r="D13" s="109" t="s">
         <v>287</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111">
+      <c r="F13" s="109"/>
+      <c r="G13" s="109"/>
+      <c r="H13" s="110">
         <v>1</v>
       </c>
-      <c r="I13" s="112" t="s">
+      <c r="I13" s="111" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="113"/>
-      <c r="K13" s="212" t="s">
+      <c r="J13" s="112"/>
+      <c r="K13" s="211" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="109">
+      <c r="A14" s="108">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="110">
+      <c r="C14" s="109">
         <v>100</v>
       </c>
-      <c r="D14" s="110" t="s">
+      <c r="D14" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="110"/>
-      <c r="F14" s="110" t="s">
+      <c r="E14" s="109"/>
+      <c r="F14" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="G14" s="110">
+      <c r="G14" s="109">
         <v>100</v>
       </c>
-      <c r="H14" s="111">
+      <c r="H14" s="110">
         <v>1</v>
       </c>
-      <c r="I14" s="112" t="s">
+      <c r="I14" s="111" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="113"/>
-      <c r="K14" s="212" t="s">
+      <c r="J14" s="112"/>
+      <c r="K14" s="211" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="109">
+      <c r="A15" s="108">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="79" t="s">
+      <c r="B15" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="110">
+      <c r="C15" s="109">
         <v>200</v>
       </c>
-      <c r="D15" s="110" t="s">
+      <c r="D15" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="109" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="110" t="s">
+      <c r="F15" s="109" t="s">
         <v>281</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="109">
         <v>200</v>
       </c>
-      <c r="H15" s="111">
+      <c r="H15" s="110">
         <v>1</v>
       </c>
-      <c r="I15" s="112" t="s">
+      <c r="I15" s="111" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="113"/>
-      <c r="K15" s="212" t="s">
+      <c r="J15" s="112"/>
+      <c r="K15" s="211" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="109">
+      <c r="A16" s="108">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="110">
+      <c r="C16" s="109">
         <v>500</v>
       </c>
-      <c r="D16" s="110" t="s">
+      <c r="D16" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="109" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111">
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="110">
         <v>1</v>
       </c>
-      <c r="I16" s="112" t="s">
+      <c r="I16" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="113"/>
-      <c r="K16" s="212" t="s">
+      <c r="J16" s="112"/>
+      <c r="K16" s="211" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="109">
+      <c r="A17" s="108">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="110">
+      <c r="C17" s="109">
         <v>1000</v>
       </c>
-      <c r="D17" s="110" t="s">
+      <c r="D17" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="109" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="110" t="s">
+      <c r="F17" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="109">
         <v>100</v>
       </c>
-      <c r="H17" s="111">
+      <c r="H17" s="110">
         <v>1</v>
       </c>
-      <c r="I17" s="112" t="s">
+      <c r="I17" s="111" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="113"/>
-      <c r="K17" s="212" t="s">
+      <c r="J17" s="112"/>
+      <c r="K17" s="211" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="109">
+      <c r="A18" s="108">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="110">
+      <c r="C18" s="109">
         <v>2000</v>
       </c>
-      <c r="D18" s="110" t="s">
+      <c r="D18" s="109" t="s">
         <v>283</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="109" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="110" t="s">
+      <c r="F18" s="109" t="s">
         <v>280</v>
       </c>
-      <c r="G18" s="110">
+      <c r="G18" s="109">
         <v>200</v>
       </c>
-      <c r="H18" s="111">
+      <c r="H18" s="110">
         <v>1</v>
       </c>
-      <c r="I18" s="112" t="s">
+      <c r="I18" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="113"/>
-      <c r="K18" s="212" t="s">
+      <c r="J18" s="112"/>
+      <c r="K18" s="211" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="109">
+      <c r="A19" s="108">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="164"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
-      <c r="H19" s="111">
+      <c r="C19" s="77"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="163"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="110">
         <v>2</v>
       </c>
-      <c r="I19" s="112"/>
-      <c r="J19" s="113" t="s">
+      <c r="I19" s="111"/>
+      <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="212" t="s">
+      <c r="K19" s="211" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="109">
+      <c r="A20" s="108">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="164"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="111">
+      <c r="C20" s="77"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="163"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="110">
         <v>2</v>
       </c>
-      <c r="I20" s="112"/>
-      <c r="J20" s="113" t="s">
+      <c r="I20" s="111"/>
+      <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="212" t="s">
+      <c r="K20" s="211" t="s">
         <v>478</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="109">
+      <c r="A21" s="108">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="164"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="111">
+      <c r="C21" s="77"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="163"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="109"/>
+      <c r="H21" s="110">
         <v>2</v>
       </c>
-      <c r="I21" s="112"/>
-      <c r="J21" s="113" t="s">
+      <c r="I21" s="111"/>
+      <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="212" t="s">
+      <c r="K21" s="211" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109">
+      <c r="A22" s="108">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="164"/>
-      <c r="F22" s="110"/>
-      <c r="G22" s="110"/>
-      <c r="H22" s="111">
+      <c r="C22" s="77"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="163"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="109"/>
+      <c r="H22" s="110">
         <v>2</v>
       </c>
-      <c r="I22" s="112"/>
-      <c r="J22" s="113" t="s">
+      <c r="I22" s="111"/>
+      <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="212" t="s">
+      <c r="K22" s="211" t="s">
         <v>480</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="109">
+      <c r="A23" s="108">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="110"/>
-      <c r="D23" s="110"/>
-      <c r="E23" s="164"/>
-      <c r="F23" s="110"/>
-      <c r="G23" s="110"/>
-      <c r="H23" s="111">
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="163"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="110">
         <v>2</v>
       </c>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113" t="s">
+      <c r="I23" s="111"/>
+      <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="212" t="s">
+      <c r="K23" s="211" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="109">
+      <c r="A24" s="108">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="164"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="110"/>
-      <c r="H24" s="111">
+      <c r="C24" s="109"/>
+      <c r="D24" s="109"/>
+      <c r="E24" s="163"/>
+      <c r="F24" s="109"/>
+      <c r="G24" s="109"/>
+      <c r="H24" s="110">
         <v>2</v>
       </c>
-      <c r="I24" s="112"/>
-      <c r="J24" s="113" t="s">
+      <c r="I24" s="111"/>
+      <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="212" t="s">
+      <c r="K24" s="211" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="173">
+      <c r="A25" s="172">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="174" t="s">
+      <c r="B25" s="173" t="s">
         <v>301</v>
       </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="176">
+      <c r="C25" s="174"/>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174"/>
+      <c r="F25" s="174"/>
+      <c r="G25" s="174"/>
+      <c r="H25" s="175">
         <v>2</v>
       </c>
-      <c r="I25" s="177"/>
-      <c r="J25" s="178" t="s">
+      <c r="I25" s="176"/>
+      <c r="J25" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="212" t="s">
+      <c r="K25" s="211" t="s">
         <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="279" t="s">
+      <c r="A27" s="278" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="280"/>
-      <c r="C27" s="280"/>
-      <c r="D27" s="280"/>
-      <c r="E27" s="280"/>
-      <c r="F27" s="280"/>
-      <c r="G27" s="280"/>
-      <c r="H27" s="280"/>
-      <c r="I27" s="280"/>
-      <c r="J27" s="280"/>
-      <c r="K27" s="280"/>
-      <c r="L27" s="280"/>
-      <c r="M27" s="280"/>
-      <c r="N27" s="280"/>
-      <c r="O27" s="280"/>
-      <c r="P27" s="280"/>
-      <c r="Q27" s="281"/>
+      <c r="B27" s="279"/>
+      <c r="C27" s="279"/>
+      <c r="D27" s="279"/>
+      <c r="E27" s="279"/>
+      <c r="F27" s="279"/>
+      <c r="G27" s="279"/>
+      <c r="H27" s="279"/>
+      <c r="I27" s="279"/>
+      <c r="J27" s="279"/>
+      <c r="K27" s="279"/>
+      <c r="L27" s="279"/>
+      <c r="M27" s="279"/>
+      <c r="N27" s="279"/>
+      <c r="O27" s="279"/>
+      <c r="P27" s="279"/>
+      <c r="Q27" s="280"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="138" t="s">
+      <c r="A28" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="197" t="s">
+      <c r="B28" s="196" t="s">
         <v>361</v>
       </c>
-      <c r="C28" s="195" t="s">
+      <c r="C28" s="194" t="s">
         <v>327</v>
       </c>
-      <c r="D28" s="195" t="s">
+      <c r="D28" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="E28" s="195" t="s">
+      <c r="E28" s="194" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="195" t="s">
+      <c r="F28" s="194" t="s">
         <v>378</v>
       </c>
-      <c r="G28" s="195" t="s">
+      <c r="G28" s="194" t="s">
         <v>432</v>
       </c>
-      <c r="H28" s="199" t="s">
+      <c r="H28" s="198" t="s">
         <v>263</v>
       </c>
-      <c r="I28" s="199" t="s">
+      <c r="I28" s="198" t="s">
         <v>432</v>
       </c>
-      <c r="J28" s="199" t="s">
+      <c r="J28" s="198" t="s">
         <v>444</v>
       </c>
-      <c r="K28" s="199" t="s">
+      <c r="K28" s="198" t="s">
         <v>432</v>
       </c>
-      <c r="L28" s="124" t="s">
+      <c r="L28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="M28" s="124" t="s">
+      <c r="M28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="N28" s="124" t="s">
+      <c r="N28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="195" t="s">
+      <c r="O28" s="194" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="195" t="s">
+      <c r="P28" s="194" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="198" t="s">
+      <c r="Q28" s="197" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="146"/>
-      <c r="B29" s="97" t="s">
+      <c r="A29" s="145"/>
+      <c r="B29" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="97" t="s">
+      <c r="C29" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="D29" s="97" t="s">
+      <c r="D29" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="F29" s="97" t="s">
+      <c r="F29" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="97" t="s">
+      <c r="G29" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="H29" s="97" t="s">
+      <c r="H29" s="96" t="s">
         <v>433</v>
       </c>
-      <c r="I29" s="97" t="s">
+      <c r="I29" s="96" t="s">
         <v>436</v>
       </c>
-      <c r="J29" s="97" t="s">
+      <c r="J29" s="96" t="s">
         <v>438</v>
       </c>
-      <c r="K29" s="97" t="s">
+      <c r="K29" s="96" t="s">
         <v>439</v>
       </c>
-      <c r="L29" s="97" t="s">
+      <c r="L29" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="97" t="s">
+      <c r="M29" s="96" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="97" t="s">
+      <c r="N29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="97" t="s">
+      <c r="O29" s="96" t="s">
         <v>248</v>
       </c>
-      <c r="P29" s="97" t="s">
+      <c r="P29" s="96" t="s">
         <v>249</v>
       </c>
-      <c r="Q29" s="119" t="s">
+      <c r="Q29" s="118" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="147"/>
-      <c r="B30" s="209" t="s">
+      <c r="A30" s="146"/>
+      <c r="B30" s="208" t="s">
         <v>435</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="154"/>
-      <c r="G30" s="154" t="s">
+      <c r="C30" s="97"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153" t="s">
         <v>434</v>
       </c>
-      <c r="H30" s="154"/>
-      <c r="I30" s="154" t="s">
+      <c r="H30" s="153"/>
+      <c r="I30" s="153" t="s">
         <v>437</v>
       </c>
-      <c r="J30" s="154">
+      <c r="J30" s="153">
         <v>3</v>
       </c>
-      <c r="K30" s="154" t="s">
+      <c r="K30" s="153" t="s">
         <v>440</v>
       </c>
-      <c r="L30" s="154">
+      <c r="L30" s="153">
         <v>100</v>
       </c>
-      <c r="M30" s="154">
+      <c r="M30" s="153">
         <v>0</v>
       </c>
-      <c r="N30" s="154"/>
-      <c r="O30" s="154">
+      <c r="N30" s="153"/>
+      <c r="O30" s="153">
         <v>4</v>
       </c>
-      <c r="P30" s="154">
+      <c r="P30" s="153">
         <v>10</v>
       </c>
-      <c r="Q30" s="155">
+      <c r="Q30" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="276" t="s">
+      <c r="A32" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="277"/>
-      <c r="C32" s="277"/>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="278"/>
+      <c r="B32" s="276"/>
+      <c r="C32" s="276"/>
+      <c r="D32" s="276"/>
+      <c r="E32" s="276"/>
+      <c r="F32" s="276"/>
+      <c r="G32" s="276"/>
+      <c r="H32" s="277"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270" t="s">
+      <c r="A33" s="269" t="s">
         <v>358</v>
       </c>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="271"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="270"/>
-      <c r="B34" s="271"/>
-      <c r="C34" s="271"/>
-      <c r="D34" s="271"/>
-      <c r="E34" s="271"/>
-      <c r="F34" s="271"/>
-      <c r="G34" s="271"/>
-      <c r="H34" s="272"/>
+      <c r="A34" s="269"/>
+      <c r="B34" s="270"/>
+      <c r="C34" s="270"/>
+      <c r="D34" s="270"/>
+      <c r="E34" s="270"/>
+      <c r="F34" s="270"/>
+      <c r="G34" s="270"/>
+      <c r="H34" s="271"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="270"/>
-      <c r="B35" s="271"/>
-      <c r="C35" s="271"/>
-      <c r="D35" s="271"/>
-      <c r="E35" s="271"/>
-      <c r="F35" s="271"/>
-      <c r="G35" s="271"/>
-      <c r="H35" s="272"/>
+      <c r="A35" s="269"/>
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="271"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="273"/>
-      <c r="B36" s="274"/>
-      <c r="C36" s="274"/>
-      <c r="D36" s="274"/>
-      <c r="E36" s="274"/>
-      <c r="F36" s="274"/>
-      <c r="G36" s="274"/>
-      <c r="H36" s="275"/>
+      <c r="A36" s="272"/>
+      <c r="B36" s="273"/>
+      <c r="C36" s="273"/>
+      <c r="D36" s="273"/>
+      <c r="E36" s="273"/>
+      <c r="F36" s="273"/>
+      <c r="G36" s="273"/>
+      <c r="H36" s="274"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="260" t="s">
+      <c r="A38" s="259" t="s">
         <v>302</v>
       </c>
-      <c r="B38" s="260"/>
-      <c r="C38" s="260"/>
-      <c r="D38" s="260"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
-      <c r="G38" s="260"/>
+      <c r="B38" s="259"/>
+      <c r="C38" s="259"/>
+      <c r="D38" s="259"/>
+      <c r="E38" s="259"/>
+      <c r="F38" s="259"/>
+      <c r="G38" s="259"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+      <c r="A39" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="79" t="s">
+      <c r="C39" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="259" t="s">
+      <c r="D39" s="258" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="259"/>
-      <c r="F39" s="259"/>
-      <c r="G39" s="259"/>
+      <c r="E39" s="258"/>
+      <c r="F39" s="258"/>
+      <c r="G39" s="258"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6675,7 +6702,7 @@
       <c r="C40" t="s">
         <v>442</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6689,7 +6716,7 @@
       <c r="C41" t="s">
         <v>442</v>
       </c>
-      <c r="D41" s="194" t="s">
+      <c r="D41" s="193" t="s">
         <v>329</v>
       </c>
     </row>
@@ -6703,7 +6730,7 @@
       <c r="C42" t="s">
         <v>442</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>330</v>
       </c>
     </row>
@@ -6717,7 +6744,7 @@
       <c r="C43" t="s">
         <v>442</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>352</v>
       </c>
     </row>
@@ -6731,7 +6758,7 @@
       <c r="C44" t="s">
         <v>442</v>
       </c>
-      <c r="D44" s="184" t="s">
+      <c r="D44" s="183" t="s">
         <v>331</v>
       </c>
     </row>
@@ -6745,7 +6772,7 @@
       <c r="C45" t="s">
         <v>442</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="193" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6759,7 +6786,7 @@
       <c r="C46" t="s">
         <v>442</v>
       </c>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="193" t="s">
         <v>387</v>
       </c>
     </row>
@@ -6773,7 +6800,7 @@
       <c r="C47" t="s">
         <v>442</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6787,7 +6814,7 @@
       <c r="C48" t="s">
         <v>442</v>
       </c>
-      <c r="D48" s="194" t="s">
+      <c r="D48" s="193" t="s">
         <v>410</v>
       </c>
     </row>
@@ -6801,7 +6828,7 @@
       <c r="C49" t="s">
         <v>442</v>
       </c>
-      <c r="D49" s="194" t="s">
+      <c r="D49" s="193" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6815,7 +6842,7 @@
       <c r="C50" t="s">
         <v>442</v>
       </c>
-      <c r="D50" s="194" t="s">
+      <c r="D50" s="193" t="s">
         <v>411</v>
       </c>
     </row>
@@ -6829,7 +6856,7 @@
       <c r="C51" t="s">
         <v>442</v>
       </c>
-      <c r="D51" s="194" t="s">
+      <c r="D51" s="193" t="s">
         <v>414</v>
       </c>
     </row>
@@ -6843,7 +6870,7 @@
       <c r="C52" t="s">
         <v>442</v>
       </c>
-      <c r="D52" s="181" t="s">
+      <c r="D52" s="180" t="s">
         <v>443</v>
       </c>
     </row>
@@ -6857,7 +6884,7 @@
       <c r="C53" t="s">
         <v>442</v>
       </c>
-      <c r="D53" s="194" t="s">
+      <c r="D53" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6871,7 +6898,7 @@
       <c r="C54" t="s">
         <v>442</v>
       </c>
-      <c r="D54" s="194" t="s">
+      <c r="D54" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6885,7 +6912,7 @@
       <c r="C55" t="s">
         <v>442</v>
       </c>
-      <c r="D55" s="194" t="s">
+      <c r="D55" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6899,7 +6926,7 @@
       <c r="C56" t="s">
         <v>442</v>
       </c>
-      <c r="D56" s="194" t="s">
+      <c r="D56" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6913,7 +6940,7 @@
       <c r="C57" t="s">
         <v>442</v>
       </c>
-      <c r="D57" s="194" t="s">
+      <c r="D57" s="193" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6927,7 +6954,7 @@
       <c r="C58" t="s">
         <v>442</v>
       </c>
-      <c r="D58" s="181" t="s">
+      <c r="D58" s="180" t="s">
         <v>418</v>
       </c>
     </row>
@@ -6941,7 +6968,7 @@
       <c r="C59" t="s">
         <v>442</v>
       </c>
-      <c r="D59" s="181" t="s">
+      <c r="D59" s="180" t="s">
         <v>419</v>
       </c>
     </row>
@@ -6955,7 +6982,7 @@
       <c r="C60" t="s">
         <v>442</v>
       </c>
-      <c r="D60" s="181" t="s">
+      <c r="D60" s="180" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6969,7 +6996,7 @@
       <c r="C61" t="s">
         <v>442</v>
       </c>
-      <c r="D61" s="181" t="s">
+      <c r="D61" s="180" t="s">
         <v>421</v>
       </c>
     </row>
@@ -6983,7 +7010,7 @@
       <c r="C62" t="s">
         <v>442</v>
       </c>
-      <c r="D62" s="181" t="s">
+      <c r="D62" s="180" t="s">
         <v>422</v>
       </c>
     </row>
@@ -6997,7 +7024,7 @@
       <c r="C63" t="s">
         <v>442</v>
       </c>
-      <c r="D63" s="181" t="s">
+      <c r="D63" s="180" t="s">
         <v>423</v>
       </c>
     </row>
@@ -7011,7 +7038,7 @@
       <c r="C64" t="s">
         <v>442</v>
       </c>
-      <c r="D64" s="181" t="s">
+      <c r="D64" s="180" t="s">
         <v>424</v>
       </c>
     </row>
@@ -7025,7 +7052,7 @@
       <c r="C65" t="s">
         <v>442</v>
       </c>
-      <c r="D65" s="181" t="s">
+      <c r="D65" s="180" t="s">
         <v>425</v>
       </c>
     </row>
@@ -7039,7 +7066,7 @@
       <c r="C66" t="s">
         <v>442</v>
       </c>
-      <c r="D66" s="181" t="s">
+      <c r="D66" s="180" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7053,7 +7080,7 @@
       <c r="C67" t="s">
         <v>442</v>
       </c>
-      <c r="D67" s="181" t="s">
+      <c r="D67" s="180" t="s">
         <v>427</v>
       </c>
     </row>
@@ -7067,7 +7094,7 @@
       <c r="C68" t="s">
         <v>442</v>
       </c>
-      <c r="D68" s="181" t="s">
+      <c r="D68" s="180" t="s">
         <v>428</v>
       </c>
     </row>
@@ -7081,7 +7108,7 @@
       <c r="C69" t="s">
         <v>442</v>
       </c>
-      <c r="D69" s="181" t="s">
+      <c r="D69" s="180" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7095,7 +7122,7 @@
       <c r="C70" t="s">
         <v>442</v>
       </c>
-      <c r="D70" s="181" t="s">
+      <c r="D70" s="180" t="s">
         <v>430</v>
       </c>
     </row>
@@ -7109,7 +7136,7 @@
       <c r="C71" t="s">
         <v>442</v>
       </c>
-      <c r="D71" s="181" t="s">
+      <c r="D71" s="180" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7207,92 +7234,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="281" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="284"/>
-    </row>
-    <row r="2" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="279" t="s">
+      <c r="B1" s="282"/>
+      <c r="C1" s="282"/>
+      <c r="D1" s="282"/>
+      <c r="E1" s="282"/>
+      <c r="F1" s="282"/>
+      <c r="G1" s="282"/>
+      <c r="H1" s="282"/>
+      <c r="I1" s="282"/>
+      <c r="J1" s="283"/>
+    </row>
+    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="280"/>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
-      <c r="E2" s="280"/>
-      <c r="F2" s="280"/>
-      <c r="G2" s="280"/>
-      <c r="H2" s="280"/>
-      <c r="I2" s="280"/>
-      <c r="J2" s="281"/>
-    </row>
-    <row r="3" spans="1:10" s="114" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="132" t="s">
+      <c r="B2" s="279"/>
+      <c r="C2" s="279"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
+      <c r="F2" s="279"/>
+      <c r="G2" s="279"/>
+      <c r="H2" s="279"/>
+      <c r="I2" s="279"/>
+      <c r="J2" s="280"/>
+    </row>
+    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>316</v>
       </c>
-      <c r="C3" s="129" t="s">
+      <c r="C3" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="D3" s="129" t="s">
+      <c r="D3" s="128" t="s">
         <v>267</v>
       </c>
-      <c r="E3" s="126" t="s">
+      <c r="E3" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="F3" s="127" t="s">
+      <c r="F3" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="G3" s="133" t="s">
+      <c r="G3" s="132" t="s">
         <v>317</v>
       </c>
-      <c r="H3" s="171" t="s">
+      <c r="H3" s="170" t="s">
         <v>299</v>
       </c>
-      <c r="I3" s="129"/>
-      <c r="J3" s="131"/>
-    </row>
-    <row r="4" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="99" t="s">
+      <c r="I3" s="128"/>
+      <c r="J3" s="130"/>
+    </row>
+    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="98" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="100" t="s">
         <v>251</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="100" t="s">
         <v>252</v>
       </c>
-      <c r="E4" s="101" t="s">
+      <c r="E4" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="101" t="s">
+      <c r="F4" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="172" t="s">
+      <c r="H4" s="171" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="103"/>
-    </row>
-    <row r="5" spans="1:10" s="114" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="102"/>
+    </row>
+    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="73" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7308,145 +7335,145 @@
       <c r="F5" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G5" s="210" t="s">
+      <c r="G5" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-    </row>
-    <row r="6" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="279" t="s">
+      <c r="H5" s="169"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="169"/>
+    </row>
+    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="278" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="280"/>
-      <c r="C6" s="280"/>
-      <c r="D6" s="280"/>
-      <c r="E6" s="280"/>
-      <c r="F6" s="280"/>
-      <c r="G6" s="280"/>
-      <c r="H6" s="280"/>
-      <c r="I6" s="280"/>
-      <c r="J6" s="281"/>
-    </row>
-    <row r="7" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="B6" s="279"/>
+      <c r="C6" s="279"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="280"/>
+    </row>
+    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="124" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="132" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="131"/>
-    </row>
-    <row r="8" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="128"/>
+      <c r="H7" s="128"/>
+      <c r="I7" s="128"/>
+      <c r="J7" s="130"/>
+    </row>
+    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="104"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="104"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="105"/>
-      <c r="I8" s="105"/>
-      <c r="J8" s="106"/>
-    </row>
-    <row r="9" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69" t="s">
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="104"/>
+      <c r="I8" s="104"/>
+      <c r="J8" s="105"/>
+    </row>
+    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="80" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="279" t="s">
+      <c r="C9" s="69"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
+    </row>
+    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="278" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="280"/>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
-      <c r="J10" s="281"/>
-    </row>
-    <row r="11" spans="1:10" s="114" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="128"/>
-      <c r="B11" s="129" t="s">
+      <c r="B10" s="279"/>
+      <c r="C10" s="279"/>
+      <c r="D10" s="279"/>
+      <c r="E10" s="279"/>
+      <c r="F10" s="279"/>
+      <c r="G10" s="279"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="279"/>
+      <c r="J10" s="280"/>
+    </row>
+    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="127"/>
+      <c r="B11" s="128" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="129" t="s">
+      <c r="C11" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="179" t="s">
         <v>326</v>
       </c>
-      <c r="E11" s="129" t="s">
+      <c r="E11" s="128" t="s">
         <v>255</v>
       </c>
-      <c r="F11" s="134" t="s">
+      <c r="F11" s="133" t="s">
         <v>320</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>319</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="I11" s="129"/>
-      <c r="J11" s="131"/>
-    </row>
-    <row r="12" spans="1:10" s="114" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="96" t="s">
+      <c r="I11" s="128"/>
+      <c r="J11" s="130"/>
+    </row>
+    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>254</v>
       </c>
-      <c r="D12" s="97" t="s">
+      <c r="D12" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="96" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F12" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="G12" s="135" t="s">
+      <c r="G12" s="134" t="s">
         <v>258</v>
       </c>
-      <c r="H12" s="100" t="s">
+      <c r="H12" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="120"/>
-      <c r="J12" s="121"/>
-    </row>
-    <row r="13" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="I12" s="119"/>
+      <c r="J12" s="120"/>
+    </row>
+    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="106" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7471,8 +7498,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106">
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
@@ -7485,8 +7512,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="106">
         <v>3</v>
       </c>
       <c r="B15" s="4"/>
@@ -7499,8 +7526,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="106">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7513,8 +7540,8 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106">
         <v>5</v>
       </c>
       <c r="B17" s="4"/>
@@ -7527,8 +7554,8 @@
       <c r="I17" s="4"/>
       <c r="J17" s="5"/>
     </row>
-    <row r="18" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106">
         <v>6</v>
       </c>
       <c r="B18" s="4"/>
@@ -7541,8 +7568,8 @@
       <c r="I18" s="4"/>
       <c r="J18" s="5"/>
     </row>
-    <row r="19" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106">
         <v>7</v>
       </c>
       <c r="B19" s="4"/>
@@ -7555,8 +7582,8 @@
       <c r="I19" s="4"/>
       <c r="J19" s="5"/>
     </row>
-    <row r="20" spans="1:10" s="114" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="108">
+    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="107">
         <v>8</v>
       </c>
       <c r="B20" s="8"/>
@@ -7569,62 +7596,62 @@
       <c r="I20" s="8"/>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" s="114" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="279" t="s">
+    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="278" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="280"/>
-      <c r="C21" s="280"/>
-      <c r="D21" s="280"/>
-      <c r="E21" s="280"/>
-      <c r="F21" s="280"/>
-      <c r="G21" s="280"/>
-      <c r="H21" s="280"/>
-      <c r="I21" s="280"/>
-      <c r="J21" s="281"/>
-    </row>
-    <row r="22" spans="1:10" s="114" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="132" t="s">
+      <c r="B21" s="279"/>
+      <c r="C21" s="279"/>
+      <c r="D21" s="279"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="279"/>
+      <c r="I21" s="279"/>
+      <c r="J21" s="280"/>
+    </row>
+    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="131" t="s">
         <v>322</v>
       </c>
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="132" t="s">
         <v>323</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="132" t="s">
         <v>268</v>
       </c>
-      <c r="D22" s="133" t="s">
+      <c r="D22" s="132" t="s">
         <v>324</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="131"/>
-    </row>
-    <row r="23" spans="1:10" s="114" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="E22" s="128"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="130"/>
+    </row>
+    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="97" t="s">
+      <c r="C23" s="96" t="s">
         <v>261</v>
       </c>
-      <c r="D23" s="100" t="s">
+      <c r="D23" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="115"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="106"/>
-    </row>
-    <row r="24" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
+      <c r="E23" s="114"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+    </row>
+    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30">
         <v>1</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -7633,7 +7660,7 @@
       <c r="C24" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="154" t="s">
+      <c r="D24" s="153" t="s">
         <v>213</v>
       </c>
       <c r="E24" s="8"/>
@@ -7643,70 +7670,70 @@
       <c r="I24" s="8"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" s="114" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="279" t="s">
+    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="278" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="280"/>
-      <c r="C25" s="280"/>
-      <c r="D25" s="280"/>
-      <c r="E25" s="280"/>
-      <c r="F25" s="280"/>
-      <c r="G25" s="280"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="281"/>
-    </row>
-    <row r="26" spans="1:10" s="114" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="132" t="s">
+      <c r="B25" s="279"/>
+      <c r="C25" s="279"/>
+      <c r="D25" s="279"/>
+      <c r="E25" s="279"/>
+      <c r="F25" s="279"/>
+      <c r="G25" s="279"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="280"/>
+    </row>
+    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="199" t="s">
+      <c r="B26" s="198" t="s">
         <v>363</v>
       </c>
-      <c r="C26" s="133" t="s">
+      <c r="C26" s="132" t="s">
         <v>325</v>
       </c>
-      <c r="D26" s="133" t="s">
+      <c r="D26" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="195" t="s">
+      <c r="E26" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="152"/>
-    </row>
-    <row r="27" spans="1:10" s="114" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="149"/>
-      <c r="B27" s="148" t="s">
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="148"/>
+      <c r="B27" s="147" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="148" t="s">
+      <c r="C27" s="147" t="s">
         <v>260</v>
       </c>
-      <c r="D27" s="97" t="s">
+      <c r="D27" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="96" t="s">
         <v>364</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="151"/>
-      <c r="I27" s="151"/>
-      <c r="J27" s="153"/>
-    </row>
-    <row r="28" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="147"/>
-      <c r="B28" s="214" t="s">
+      <c r="F27" s="147"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="150"/>
+      <c r="I27" s="150"/>
+      <c r="J27" s="152"/>
+    </row>
+    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="146"/>
+      <c r="B28" s="213" t="s">
         <v>484</v>
       </c>
-      <c r="C28" s="191"/>
-      <c r="D28" s="123"/>
-      <c r="E28" s="154" t="s">
+      <c r="C28" s="190"/>
+      <c r="D28" s="122"/>
+      <c r="E28" s="153" t="s">
         <v>456</v>
       </c>
       <c r="F28" s="8"/>
@@ -7715,89 +7742,89 @@
       <c r="I28" s="8"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" s="114" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="114" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="276" t="s">
+    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A30" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="277"/>
-      <c r="C30" s="277"/>
-      <c r="D30" s="277"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="277"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="278"/>
-    </row>
-    <row r="31" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="270" t="s">
+      <c r="B30" s="276"/>
+      <c r="C30" s="276"/>
+      <c r="D30" s="276"/>
+      <c r="E30" s="276"/>
+      <c r="F30" s="276"/>
+      <c r="G30" s="276"/>
+      <c r="H30" s="277"/>
+    </row>
+    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="269" t="s">
         <v>357</v>
       </c>
-      <c r="B31" s="271"/>
-      <c r="C31" s="271"/>
-      <c r="D31" s="271"/>
-      <c r="E31" s="271"/>
-      <c r="F31" s="271"/>
-      <c r="G31" s="271"/>
-      <c r="H31" s="272"/>
-    </row>
-    <row r="32" spans="1:10" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="270"/>
-      <c r="B32" s="271"/>
-      <c r="C32" s="271"/>
-      <c r="D32" s="271"/>
-      <c r="E32" s="271"/>
-      <c r="F32" s="271"/>
-      <c r="G32" s="271"/>
-      <c r="H32" s="272"/>
-    </row>
-    <row r="33" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="270"/>
-      <c r="B33" s="271"/>
-      <c r="C33" s="271"/>
-      <c r="D33" s="271"/>
-      <c r="E33" s="271"/>
-      <c r="F33" s="271"/>
-      <c r="G33" s="271"/>
-      <c r="H33" s="272"/>
-    </row>
-    <row r="34" spans="1:8" s="114" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="273"/>
-      <c r="B34" s="274"/>
-      <c r="C34" s="274"/>
-      <c r="D34" s="274"/>
-      <c r="E34" s="274"/>
-      <c r="F34" s="274"/>
-      <c r="G34" s="274"/>
-      <c r="H34" s="275"/>
-    </row>
-    <row r="35" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="114" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="260" t="s">
+      <c r="B31" s="270"/>
+      <c r="C31" s="270"/>
+      <c r="D31" s="270"/>
+      <c r="E31" s="270"/>
+      <c r="F31" s="270"/>
+      <c r="G31" s="270"/>
+      <c r="H31" s="271"/>
+    </row>
+    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="269"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="271"/>
+    </row>
+    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="269"/>
+      <c r="B33" s="270"/>
+      <c r="C33" s="270"/>
+      <c r="D33" s="270"/>
+      <c r="E33" s="270"/>
+      <c r="F33" s="270"/>
+      <c r="G33" s="270"/>
+      <c r="H33" s="271"/>
+    </row>
+    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="272"/>
+      <c r="B34" s="273"/>
+      <c r="C34" s="273"/>
+      <c r="D34" s="273"/>
+      <c r="E34" s="273"/>
+      <c r="F34" s="273"/>
+      <c r="G34" s="273"/>
+      <c r="H34" s="274"/>
+    </row>
+    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="259" t="s">
         <v>302</v>
       </c>
-      <c r="B36" s="260"/>
-      <c r="C36" s="260"/>
-      <c r="D36" s="260"/>
-      <c r="E36" s="260"/>
-      <c r="F36" s="260"/>
-      <c r="G36" s="260"/>
-    </row>
-    <row r="37" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+      <c r="B36" s="259"/>
+      <c r="C36" s="259"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
+    </row>
+    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="79" t="s">
+      <c r="C37" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D37" s="259" t="s">
+      <c r="D37" s="258" t="s">
         <v>305</v>
       </c>
-      <c r="E37" s="259"/>
-      <c r="F37" s="259"/>
-      <c r="G37" s="259"/>
+      <c r="E37" s="258"/>
+      <c r="F37" s="258"/>
+      <c r="G37" s="258"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7809,7 +7836,7 @@
       <c r="C38" t="s">
         <v>458</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="180" t="s">
         <v>365</v>
       </c>
     </row>
@@ -7823,7 +7850,7 @@
       <c r="C39" t="s">
         <v>458</v>
       </c>
-      <c r="D39" s="194" t="s">
+      <c r="D39" s="193" t="s">
         <v>329</v>
       </c>
     </row>
@@ -7837,7 +7864,7 @@
       <c r="C40" t="s">
         <v>458</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>330</v>
       </c>
     </row>
@@ -7851,7 +7878,7 @@
       <c r="C41" t="s">
         <v>458</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="180" t="s">
         <v>352</v>
       </c>
     </row>
@@ -7865,7 +7892,7 @@
       <c r="C42" t="s">
         <v>458</v>
       </c>
-      <c r="D42" s="184" t="s">
+      <c r="D42" s="183" t="s">
         <v>331</v>
       </c>
     </row>
@@ -7879,7 +7906,7 @@
       <c r="C43" t="s">
         <v>458</v>
       </c>
-      <c r="D43" s="194" t="s">
+      <c r="D43" s="193" t="s">
         <v>367</v>
       </c>
     </row>
@@ -7893,7 +7920,7 @@
       <c r="C44" t="s">
         <v>458</v>
       </c>
-      <c r="D44" s="194" t="s">
+      <c r="D44" s="193" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7907,7 +7934,7 @@
       <c r="C45" t="s">
         <v>458</v>
       </c>
-      <c r="D45" s="194" t="s">
+      <c r="D45" s="193" t="s">
         <v>457</v>
       </c>
     </row>
@@ -7921,7 +7948,7 @@
       <c r="C46" t="s">
         <v>458</v>
       </c>
-      <c r="D46" s="194" t="s">
+      <c r="D46" s="193" t="s">
         <v>371</v>
       </c>
     </row>
@@ -7935,7 +7962,7 @@
       <c r="C47" t="s">
         <v>458</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>372</v>
       </c>
     </row>
@@ -7949,7 +7976,7 @@
       <c r="C48" t="s">
         <v>458</v>
       </c>
-      <c r="D48" s="184" t="s">
+      <c r="D48" s="183" t="s">
         <v>460</v>
       </c>
     </row>
@@ -8034,118 +8061,118 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="290" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="203" t="s">
+      <c r="A2" s="202" t="s">
         <v>350</v>
       </c>
-      <c r="B2" s="287" t="s">
+      <c r="B2" s="291" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="286" t="s">
         <v>290</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="202" t="s">
+      <c r="A3" s="201" t="s">
         <v>351</v>
       </c>
-      <c r="B3" s="289" t="s">
+      <c r="B3" s="292" t="s">
         <v>289</v>
       </c>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292" t="s">
         <v>297</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="201" t="s">
         <v>295</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="201" t="s">
         <v>363</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="203" t="s">
         <v>363</v>
       </c>
-      <c r="P3" s="207"/>
+      <c r="P3" s="206"/>
     </row>
     <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="205">
+      <c r="A4" s="204">
         <v>8</v>
       </c>
-      <c r="B4" s="288" t="s">
+      <c r="B4" s="284" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="C4" s="284"/>
+      <c r="D4" s="284" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288" t="s">
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284" t="s">
         <v>298</v>
       </c>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
-      <c r="M4" s="167" t="s">
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>364</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="192"/>
+      <c r="A5" s="191"/>
       <c r="B5" s="285"/>
       <c r="C5" s="285"/>
       <c r="D5" s="285"/>
@@ -8161,16 +8188,16 @@
       </c>
       <c r="K5" s="285"/>
       <c r="L5" s="285"/>
-      <c r="M5" s="201"/>
-      <c r="N5" s="201" t="s">
+      <c r="M5" s="200"/>
+      <c r="N5" s="200" t="s">
         <v>381</v>
       </c>
-      <c r="O5" s="208" t="s">
+      <c r="O5" s="207" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="192"/>
+      <c r="A6" s="191"/>
       <c r="B6" s="285" t="s">
         <v>274</v>
       </c>
@@ -8188,16 +8215,16 @@
       <c r="J6" s="285"/>
       <c r="K6" s="285"/>
       <c r="L6" s="285"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201" t="s">
+      <c r="M6" s="200"/>
+      <c r="N6" s="200" t="s">
         <v>382</v>
       </c>
-      <c r="O6" s="208" t="s">
+      <c r="O6" s="207" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="192"/>
+      <c r="A7" s="191"/>
       <c r="B7" s="285" t="s">
         <v>274</v>
       </c>
@@ -8213,12 +8240,12 @@
       <c r="J7" s="285"/>
       <c r="K7" s="285"/>
       <c r="L7" s="285"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="165"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="192"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="285"/>
       <c r="C8" s="285"/>
       <c r="D8" s="285" t="s">
@@ -8232,185 +8259,185 @@
       <c r="J8" s="285"/>
       <c r="K8" s="285"/>
       <c r="L8" s="285"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="165"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="287" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="289"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="193"/>
-      <c r="L11" s="193"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="277"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="269" t="s">
         <v>359</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="269"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="271"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="274"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="259" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="258" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8422,7 +8449,7 @@
       <c r="C23" t="s">
         <v>445</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="180" t="s">
         <v>365</v>
       </c>
     </row>
@@ -8436,7 +8463,7 @@
       <c r="C24" t="s">
         <v>445</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="193" t="s">
         <v>329</v>
       </c>
     </row>
@@ -8450,7 +8477,7 @@
       <c r="C25" t="s">
         <v>445</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="180" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8464,7 +8491,7 @@
       <c r="C26" t="s">
         <v>445</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="180" t="s">
         <v>352</v>
       </c>
     </row>
@@ -8478,7 +8505,7 @@
       <c r="C27" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="184" t="s">
+      <c r="D27" s="183" t="s">
         <v>331</v>
       </c>
     </row>
@@ -8492,7 +8519,7 @@
       <c r="C28" t="s">
         <v>445</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="193" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8506,7 +8533,7 @@
       <c r="C29" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="193" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8520,7 +8547,7 @@
       <c r="C30" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8534,7 +8561,7 @@
       <c r="C31" t="s">
         <v>445</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D31" s="193" t="s">
         <v>338</v>
       </c>
     </row>
@@ -8548,7 +8575,7 @@
       <c r="C32" t="s">
         <v>445</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="193" t="s">
         <v>390</v>
       </c>
     </row>
@@ -8562,7 +8589,7 @@
       <c r="C33" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="194" t="s">
+      <c r="D33" s="193" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8576,7 +8603,7 @@
       <c r="C34" t="s">
         <v>445</v>
       </c>
-      <c r="D34" s="181" t="s">
+      <c r="D34" s="180" t="s">
         <v>392</v>
       </c>
     </row>
@@ -8590,7 +8617,7 @@
       <c r="C35" t="s">
         <v>445</v>
       </c>
-      <c r="D35" s="181" t="s">
+      <c r="D35" s="180" t="s">
         <v>393</v>
       </c>
     </row>
@@ -8604,7 +8631,7 @@
       <c r="C36" t="s">
         <v>445</v>
       </c>
-      <c r="D36" s="181" t="s">
+      <c r="D36" s="180" t="s">
         <v>394</v>
       </c>
     </row>
@@ -8618,7 +8645,7 @@
       <c r="C37" t="s">
         <v>445</v>
       </c>
-      <c r="D37" s="181" t="s">
+      <c r="D37" s="180" t="s">
         <v>395</v>
       </c>
     </row>
@@ -8632,7 +8659,7 @@
       <c r="C38" t="s">
         <v>445</v>
       </c>
-      <c r="D38" s="181" t="s">
+      <c r="D38" s="180" t="s">
         <v>396</v>
       </c>
     </row>
@@ -8646,7 +8673,7 @@
       <c r="C39" t="s">
         <v>445</v>
       </c>
-      <c r="D39" s="181" t="s">
+      <c r="D39" s="180" t="s">
         <v>397</v>
       </c>
     </row>
@@ -8660,7 +8687,7 @@
       <c r="C40" t="s">
         <v>445</v>
       </c>
-      <c r="D40" s="181" t="s">
+      <c r="D40" s="180" t="s">
         <v>398</v>
       </c>
     </row>
@@ -8674,7 +8701,7 @@
       <c r="C41" t="s">
         <v>445</v>
       </c>
-      <c r="D41" s="181" t="s">
+      <c r="D41" s="180" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8688,7 +8715,7 @@
       <c r="C42" t="s">
         <v>445</v>
       </c>
-      <c r="D42" s="181" t="s">
+      <c r="D42" s="180" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8702,7 +8729,7 @@
       <c r="C43" t="s">
         <v>445</v>
       </c>
-      <c r="D43" s="181" t="s">
+      <c r="D43" s="180" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8716,7 +8743,7 @@
       <c r="C44" t="s">
         <v>445</v>
       </c>
-      <c r="D44" s="181" t="s">
+      <c r="D44" s="180" t="s">
         <v>399</v>
       </c>
     </row>
@@ -8730,7 +8757,7 @@
       <c r="C45" t="s">
         <v>445</v>
       </c>
-      <c r="D45" s="181" t="s">
+      <c r="D45" s="180" t="s">
         <v>448</v>
       </c>
     </row>
@@ -8744,7 +8771,7 @@
       <c r="C46" t="s">
         <v>445</v>
       </c>
-      <c r="D46" s="181" t="s">
+      <c r="D46" s="180" t="s">
         <v>449</v>
       </c>
     </row>
@@ -8758,7 +8785,7 @@
       <c r="C47" t="s">
         <v>445</v>
       </c>
-      <c r="D47" s="181" t="s">
+      <c r="D47" s="180" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8772,7 +8799,7 @@
       <c r="C48" t="s">
         <v>445</v>
       </c>
-      <c r="D48" s="181" t="s">
+      <c r="D48" s="180" t="s">
         <v>451</v>
       </c>
     </row>
@@ -8786,7 +8813,7 @@
       <c r="C49" t="s">
         <v>445</v>
       </c>
-      <c r="D49" s="181" t="s">
+      <c r="D49" s="180" t="s">
         <v>452</v>
       </c>
     </row>
@@ -8800,7 +8827,7 @@
       <c r="C50" t="s">
         <v>445</v>
       </c>
-      <c r="D50" s="181" t="s">
+      <c r="D50" s="180" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8814,7 +8841,7 @@
       <c r="C51" t="s">
         <v>445</v>
       </c>
-      <c r="D51" s="181" t="s">
+      <c r="D51" s="180" t="s">
         <v>454</v>
       </c>
     </row>
@@ -8828,7 +8855,7 @@
       <c r="C52" t="s">
         <v>445</v>
       </c>
-      <c r="D52" s="194" t="s">
+      <c r="D52" s="193" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8842,21 +8869,18 @@
       <c r="C53" t="s">
         <v>445</v>
       </c>
-      <c r="D53" s="181" t="s">
+      <c r="D53" s="180" t="s">
         <v>400</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8873,12 +8897,15 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8970,111 +8997,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="286" t="s">
+      <c r="A1" s="290" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="286"/>
-      <c r="C1" s="286"/>
-      <c r="D1" s="286"/>
-      <c r="E1" s="286"/>
-      <c r="F1" s="286"/>
-      <c r="G1" s="286"/>
-      <c r="H1" s="286"/>
-      <c r="I1" s="286"/>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
-      <c r="P1" s="286"/>
-      <c r="Q1" s="32"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="287" t="s">
+      <c r="A2" s="291" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="287"/>
-      <c r="C2" s="287"/>
-      <c r="D2" s="287"/>
-      <c r="E2" s="287"/>
-      <c r="F2" s="287"/>
-      <c r="G2" s="287" t="s">
+      <c r="B2" s="291"/>
+      <c r="C2" s="291"/>
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="287"/>
-      <c r="I2" s="287"/>
-      <c r="J2" s="287"/>
-      <c r="K2" s="287"/>
-      <c r="L2" s="287"/>
-      <c r="M2" s="290" t="s">
+      <c r="H2" s="291"/>
+      <c r="I2" s="291"/>
+      <c r="J2" s="291"/>
+      <c r="K2" s="291"/>
+      <c r="L2" s="291"/>
+      <c r="M2" s="286" t="s">
         <v>288</v>
       </c>
-      <c r="N2" s="290"/>
-      <c r="O2" s="290"/>
-      <c r="P2" s="290"/>
-      <c r="Q2" s="89"/>
+      <c r="N2" s="286"/>
+      <c r="O2" s="286"/>
+      <c r="P2" s="286"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="289" t="s">
+      <c r="A3" s="292" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="289"/>
-      <c r="C3" s="289"/>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="289" t="s">
+      <c r="B3" s="292"/>
+      <c r="C3" s="292"/>
+      <c r="D3" s="292"/>
+      <c r="E3" s="292"/>
+      <c r="F3" s="292"/>
+      <c r="G3" s="292" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="289"/>
-      <c r="I3" s="289"/>
-      <c r="J3" s="289"/>
-      <c r="K3" s="289"/>
-      <c r="L3" s="289"/>
-      <c r="M3" s="202" t="s">
+      <c r="H3" s="292"/>
+      <c r="I3" s="292"/>
+      <c r="J3" s="292"/>
+      <c r="K3" s="292"/>
+      <c r="L3" s="292"/>
+      <c r="M3" s="201" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="202" t="s">
+      <c r="N3" s="201" t="s">
         <v>293</v>
       </c>
-      <c r="O3" s="202" t="s">
+      <c r="O3" s="201" t="s">
         <v>363</v>
       </c>
-      <c r="P3" s="202" t="s">
+      <c r="P3" s="201" t="s">
         <v>363</v>
       </c>
-      <c r="Q3" s="206"/>
+      <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="288" t="s">
+      <c r="A4" s="284" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288" t="s">
+      <c r="B4" s="284"/>
+      <c r="C4" s="284"/>
+      <c r="D4" s="284" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288" t="s">
+      <c r="E4" s="284"/>
+      <c r="F4" s="284"/>
+      <c r="G4" s="284" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="288"/>
-      <c r="I4" s="288"/>
-      <c r="J4" s="288"/>
-      <c r="K4" s="288"/>
-      <c r="L4" s="288"/>
-      <c r="M4" s="167" t="s">
+      <c r="H4" s="284"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
+      <c r="M4" s="166" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="167" t="s">
+      <c r="N4" s="166" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="167" t="s">
+      <c r="O4" s="166" t="s">
         <v>364</v>
       </c>
-      <c r="P4" s="167" t="s">
+      <c r="P4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
@@ -9085,22 +9112,22 @@
       <c r="D5" s="285"/>
       <c r="E5" s="285"/>
       <c r="F5" s="285"/>
-      <c r="G5" s="294" t="s">
+      <c r="G5" s="293" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="294"/>
-      <c r="I5" s="294"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="294"/>
-      <c r="L5" s="294"/>
-      <c r="M5" s="201" t="s">
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="293"/>
+      <c r="K5" s="293"/>
+      <c r="L5" s="293"/>
+      <c r="M5" s="200" t="s">
         <v>285</v>
       </c>
-      <c r="N5" s="201"/>
-      <c r="O5" s="201" t="s">
+      <c r="N5" s="200"/>
+      <c r="O5" s="200" t="s">
         <v>385</v>
       </c>
-      <c r="P5" s="201" t="s">
+      <c r="P5" s="200" t="s">
         <v>386</v>
       </c>
     </row>
@@ -9111,16 +9138,16 @@
       <c r="D6" s="285"/>
       <c r="E6" s="285"/>
       <c r="F6" s="285"/>
-      <c r="G6" s="294"/>
-      <c r="H6" s="294"/>
-      <c r="I6" s="294"/>
-      <c r="J6" s="294"/>
-      <c r="K6" s="294"/>
-      <c r="L6" s="294"/>
-      <c r="M6" s="201"/>
-      <c r="N6" s="201"/>
-      <c r="O6" s="201"/>
-      <c r="P6" s="168"/>
+      <c r="G6" s="293"/>
+      <c r="H6" s="293"/>
+      <c r="I6" s="293"/>
+      <c r="J6" s="293"/>
+      <c r="K6" s="293"/>
+      <c r="L6" s="293"/>
+      <c r="M6" s="200"/>
+      <c r="N6" s="200"/>
+      <c r="O6" s="200"/>
+      <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="285"/>
@@ -9129,16 +9156,16 @@
       <c r="D7" s="285"/>
       <c r="E7" s="285"/>
       <c r="F7" s="285"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="294"/>
-      <c r="K7" s="294"/>
-      <c r="L7" s="294"/>
-      <c r="M7" s="201"/>
-      <c r="N7" s="201"/>
-      <c r="O7" s="201"/>
-      <c r="P7" s="166"/>
+      <c r="G7" s="293"/>
+      <c r="H7" s="293"/>
+      <c r="I7" s="293"/>
+      <c r="J7" s="293"/>
+      <c r="K7" s="293"/>
+      <c r="L7" s="293"/>
+      <c r="M7" s="200"/>
+      <c r="N7" s="200"/>
+      <c r="O7" s="200"/>
+      <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="285"/>
@@ -9147,191 +9174,191 @@
       <c r="D8" s="285"/>
       <c r="E8" s="285"/>
       <c r="F8" s="285"/>
-      <c r="G8" s="294"/>
-      <c r="H8" s="294"/>
-      <c r="I8" s="294"/>
-      <c r="J8" s="294"/>
-      <c r="K8" s="294"/>
-      <c r="L8" s="294"/>
-      <c r="M8" s="201"/>
-      <c r="N8" s="201"/>
-      <c r="O8" s="201"/>
-      <c r="P8" s="166"/>
+      <c r="G8" s="293"/>
+      <c r="H8" s="293"/>
+      <c r="I8" s="293"/>
+      <c r="J8" s="293"/>
+      <c r="K8" s="293"/>
+      <c r="L8" s="293"/>
+      <c r="M8" s="200"/>
+      <c r="N8" s="200"/>
+      <c r="O8" s="200"/>
+      <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="291" t="s">
+      <c r="A10" s="287" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="292"/>
-      <c r="C10" s="292"/>
-      <c r="D10" s="292"/>
-      <c r="E10" s="292"/>
-      <c r="F10" s="292"/>
-      <c r="G10" s="292"/>
-      <c r="H10" s="292"/>
-      <c r="I10" s="293"/>
+      <c r="B10" s="288"/>
+      <c r="C10" s="288"/>
+      <c r="D10" s="288"/>
+      <c r="E10" s="288"/>
+      <c r="F10" s="288"/>
+      <c r="G10" s="288"/>
+      <c r="H10" s="288"/>
+      <c r="I10" s="289"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="132" t="s">
+      <c r="A11" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="132" t="s">
         <v>327</v>
       </c>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="194" t="s">
         <v>363</v>
       </c>
-      <c r="D11" s="126" t="s">
+      <c r="D11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="E11" s="126" t="s">
+      <c r="E11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="F11" s="126" t="s">
+      <c r="F11" s="125" t="s">
         <v>266</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="133" t="s">
+      <c r="H11" s="132" t="s">
         <v>272</v>
       </c>
-      <c r="I11" s="145" t="s">
+      <c r="I11" s="144" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="149"/>
-      <c r="B12" s="148" t="s">
+      <c r="A12" s="148"/>
+      <c r="B12" s="147" t="s">
         <v>246</v>
       </c>
-      <c r="C12" s="97" t="s">
+      <c r="C12" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="D12" s="148" t="s">
+      <c r="D12" s="147" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="148" t="s">
+      <c r="E12" s="147" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="148" t="s">
+      <c r="F12" s="147" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="148" t="s">
+      <c r="G12" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="H12" s="147" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="150" t="s">
+      <c r="I12" s="149" t="s">
         <v>250</v>
       </c>
-      <c r="K12" s="169"/>
+      <c r="K12" s="168"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="147"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="154">
+      <c r="A13" s="146"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="153">
         <v>100</v>
       </c>
-      <c r="E13" s="154">
+      <c r="E13" s="153">
         <v>0</v>
       </c>
-      <c r="F13" s="154"/>
-      <c r="G13" s="154">
+      <c r="F13" s="153"/>
+      <c r="G13" s="153">
         <v>4</v>
       </c>
-      <c r="H13" s="154">
+      <c r="H13" s="153">
         <v>10</v>
       </c>
-      <c r="I13" s="155">
+      <c r="I13" s="154">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="276" t="s">
+      <c r="A15" s="275" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="277"/>
-      <c r="C15" s="277"/>
-      <c r="D15" s="277"/>
-      <c r="E15" s="277"/>
-      <c r="F15" s="277"/>
-      <c r="G15" s="277"/>
-      <c r="H15" s="278"/>
+      <c r="B15" s="276"/>
+      <c r="C15" s="276"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="277"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="270" t="s">
+      <c r="A16" s="269" t="s">
         <v>360</v>
       </c>
-      <c r="B16" s="271"/>
-      <c r="C16" s="271"/>
-      <c r="D16" s="271"/>
-      <c r="E16" s="271"/>
-      <c r="F16" s="271"/>
-      <c r="G16" s="271"/>
-      <c r="H16" s="272"/>
+      <c r="B16" s="270"/>
+      <c r="C16" s="270"/>
+      <c r="D16" s="270"/>
+      <c r="E16" s="270"/>
+      <c r="F16" s="270"/>
+      <c r="G16" s="270"/>
+      <c r="H16" s="271"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="270"/>
-      <c r="B17" s="271"/>
-      <c r="C17" s="271"/>
-      <c r="D17" s="271"/>
-      <c r="E17" s="271"/>
-      <c r="F17" s="271"/>
-      <c r="G17" s="271"/>
-      <c r="H17" s="272"/>
+      <c r="A17" s="269"/>
+      <c r="B17" s="270"/>
+      <c r="C17" s="270"/>
+      <c r="D17" s="270"/>
+      <c r="E17" s="270"/>
+      <c r="F17" s="270"/>
+      <c r="G17" s="270"/>
+      <c r="H17" s="271"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="270"/>
-      <c r="B18" s="271"/>
-      <c r="C18" s="271"/>
-      <c r="D18" s="271"/>
-      <c r="E18" s="271"/>
-      <c r="F18" s="271"/>
-      <c r="G18" s="271"/>
-      <c r="H18" s="272"/>
+      <c r="A18" s="269"/>
+      <c r="B18" s="270"/>
+      <c r="C18" s="270"/>
+      <c r="D18" s="270"/>
+      <c r="E18" s="270"/>
+      <c r="F18" s="270"/>
+      <c r="G18" s="270"/>
+      <c r="H18" s="271"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="273"/>
-      <c r="B19" s="274"/>
-      <c r="C19" s="274"/>
-      <c r="D19" s="274"/>
-      <c r="E19" s="274"/>
-      <c r="F19" s="274"/>
-      <c r="G19" s="274"/>
-      <c r="H19" s="275"/>
+      <c r="A19" s="272"/>
+      <c r="B19" s="273"/>
+      <c r="C19" s="273"/>
+      <c r="D19" s="273"/>
+      <c r="E19" s="273"/>
+      <c r="F19" s="273"/>
+      <c r="G19" s="273"/>
+      <c r="H19" s="274"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="260" t="s">
+      <c r="A21" s="259" t="s">
         <v>302</v>
       </c>
-      <c r="B21" s="260"/>
-      <c r="C21" s="260"/>
-      <c r="D21" s="260"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="260"/>
-      <c r="G21" s="260"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="259"/>
+      <c r="D21" s="259"/>
+      <c r="E21" s="259"/>
+      <c r="F21" s="259"/>
+      <c r="G21" s="259"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+      <c r="A22" s="78" t="s">
         <v>309</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="79" t="s">
+      <c r="C22" s="78" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="259" t="s">
+      <c r="D22" s="258" t="s">
         <v>305</v>
       </c>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9343,7 +9370,7 @@
       <c r="C23" t="s">
         <v>455</v>
       </c>
-      <c r="D23" s="181" t="s">
+      <c r="D23" s="180" t="s">
         <v>365</v>
       </c>
     </row>
@@ -9357,7 +9384,7 @@
       <c r="C24" t="s">
         <v>455</v>
       </c>
-      <c r="D24" s="194" t="s">
+      <c r="D24" s="193" t="s">
         <v>329</v>
       </c>
     </row>
@@ -9371,7 +9398,7 @@
       <c r="C25" t="s">
         <v>455</v>
       </c>
-      <c r="D25" s="181" t="s">
+      <c r="D25" s="180" t="s">
         <v>330</v>
       </c>
     </row>
@@ -9385,7 +9412,7 @@
       <c r="C26" t="s">
         <v>455</v>
       </c>
-      <c r="D26" s="181" t="s">
+      <c r="D26" s="180" t="s">
         <v>352</v>
       </c>
     </row>
@@ -9399,7 +9426,7 @@
       <c r="C27" t="s">
         <v>455</v>
       </c>
-      <c r="D27" s="184" t="s">
+      <c r="D27" s="183" t="s">
         <v>331</v>
       </c>
     </row>
@@ -9413,7 +9440,7 @@
       <c r="C28" t="s">
         <v>455</v>
       </c>
-      <c r="D28" s="194" t="s">
+      <c r="D28" s="193" t="s">
         <v>401</v>
       </c>
     </row>
@@ -9427,7 +9454,7 @@
       <c r="C29" t="s">
         <v>455</v>
       </c>
-      <c r="D29" s="194" t="s">
+      <c r="D29" s="193" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9441,7 +9468,7 @@
       <c r="C30" t="s">
         <v>455</v>
       </c>
-      <c r="D30" s="194" t="s">
+      <c r="D30" s="193" t="s">
         <v>402</v>
       </c>
     </row>
@@ -9455,7 +9482,7 @@
       <c r="C31" t="s">
         <v>455</v>
       </c>
-      <c r="D31" s="194" t="s">
+      <c r="D31" s="193" t="s">
         <v>340</v>
       </c>
     </row>
@@ -9469,7 +9496,7 @@
       <c r="C32" t="s">
         <v>455</v>
       </c>
-      <c r="D32" s="194" t="s">
+      <c r="D32" s="193" t="s">
         <v>341</v>
       </c>
     </row>
@@ -9483,7 +9510,7 @@
       <c r="C33" t="s">
         <v>455</v>
       </c>
-      <c r="D33" s="181" t="s">
+      <c r="D33" s="180" t="s">
         <v>403</v>
       </c>
     </row>
@@ -9497,22 +9524,12 @@
       <c r="C34" t="s">
         <v>455</v>
       </c>
-      <c r="D34" s="194" t="s">
+      <c r="D34" s="193" t="s">
         <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9529,6 +9546,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9592,39 +9619,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.75" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="190" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="68" customWidth="1"/>
+    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="189" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="294" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="297"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="296"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="65"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9639,7 +9666,7 @@
       <c r="D2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="136" t="s">
+      <c r="F2" s="135" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9650,9 +9677,9 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="187"/>
+      <c r="C3" s="186"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="137" t="s">
+      <c r="F3" s="136" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9663,7 +9690,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="188"/>
+      <c r="C4" s="187"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9678,7 +9705,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="188"/>
+      <c r="C5" s="187"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9690,633 +9717,659 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="188"/>
+      <c r="C6" s="187">
+        <v>1</v>
+      </c>
       <c r="D6" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>100</v>
+      <c r="A7" s="310" t="s">
+        <v>487</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="188"/>
-      <c r="D7" s="24"/>
+        <v>488</v>
+      </c>
+      <c r="C7" s="311"/>
+      <c r="D7" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="187"/>
-      <c r="D8" s="23"/>
+      <c r="A8" s="310" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>490</v>
+      </c>
+      <c r="C8" s="311"/>
+      <c r="D8" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="188"/>
-      <c r="D9" s="24">
-        <v>0</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="187"/>
+      <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="188"/>
-      <c r="D10" s="25" t="s">
-        <v>66</v>
-      </c>
+      <c r="A10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="186"/>
+      <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="188"/>
-      <c r="D11" s="25" t="s">
-        <v>67</v>
+        <v>27</v>
+      </c>
+      <c r="C11" s="187"/>
+      <c r="D11" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="188"/>
-      <c r="D12" s="24">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C12" s="187"/>
+      <c r="D12" s="25" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="24" t="s">
-        <v>29</v>
+        <v>68</v>
+      </c>
+      <c r="C13" s="187"/>
+      <c r="D13" s="25" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>32</v>
+      <c r="A14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>28</v>
       </c>
       <c r="C14" s="187"/>
-      <c r="D14" s="23"/>
+      <c r="D14" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="188"/>
-      <c r="D15" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C15" s="187"/>
+      <c r="D15" s="24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="188"/>
-      <c r="D16" s="24"/>
+      <c r="A16" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="186"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="188"/>
+        <v>33</v>
+      </c>
+      <c r="C17" s="187"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="188"/>
+        <v>34</v>
+      </c>
+      <c r="C18" s="187"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="188"/>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C19" s="187"/>
+      <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="188"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="187"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="188"/>
-      <c r="D21" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="187"/>
+      <c r="D21" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="188"/>
+        <v>38</v>
+      </c>
+      <c r="C22" s="187"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>40</v>
+      <c r="A23" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>79</v>
       </c>
       <c r="C23" s="187"/>
-      <c r="D23" s="23"/>
+      <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="188"/>
-      <c r="D24" s="24">
-        <v>100</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C24" s="187"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="188"/>
-      <c r="D25" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A25" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="186"/>
+      <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="188"/>
+        <v>41</v>
+      </c>
+      <c r="C26" s="187"/>
       <c r="D26" s="24">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="188"/>
+        <v>42</v>
+      </c>
+      <c r="C27" s="187"/>
       <c r="D27" s="24">
-        <v>0.1</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="188"/>
-      <c r="D28" s="24"/>
+        <v>43</v>
+      </c>
+      <c r="C28" s="187"/>
+      <c r="D28" s="24">
+        <v>10</v>
+      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="24"/>
+        <v>44</v>
+      </c>
+      <c r="C29" s="187"/>
+      <c r="D29" s="24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="188"/>
+        <v>45</v>
+      </c>
+      <c r="C30" s="187"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>48</v>
+      <c r="A31" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>46</v>
       </c>
       <c r="C31" s="187"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="188"/>
+        <v>81</v>
+      </c>
+      <c r="C32" s="187"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="24">
-        <v>0.02</v>
-      </c>
+      <c r="A33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="186"/>
+      <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C34" s="188"/>
+        <v>49</v>
+      </c>
+      <c r="C34" s="187"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="24"/>
-    </row>
-    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C35" s="187"/>
+      <c r="D35" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C36" s="188"/>
+        <v>51</v>
+      </c>
+      <c r="C36" s="187"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C37" s="188"/>
-      <c r="D37" s="25" t="s">
-        <v>70</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C37" s="187"/>
+      <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="187"/>
+      <c r="D38" s="24"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="187"/>
+      <c r="D39" s="25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C38" s="188"/>
-      <c r="D38" s="25">
+      <c r="C40" s="187"/>
+      <c r="D40" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="22" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="187"/>
-      <c r="D39" s="23"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B40" s="15"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="24"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" s="188"/>
-      <c r="D41" s="24"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" s="188"/>
+        <v>127</v>
+      </c>
+      <c r="B42" s="15"/>
+      <c r="C42" s="187"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="188"/>
+        <v>83</v>
+      </c>
+      <c r="C43" s="187"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>166</v>
+        <v>129</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C44" s="188"/>
+        <v>84</v>
+      </c>
+      <c r="C44" s="187"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="188"/>
+        <v>85</v>
+      </c>
+      <c r="C45" s="187"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="188"/>
+        <v>167</v>
+      </c>
+      <c r="C46" s="187"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="188"/>
+        <v>87</v>
+      </c>
+      <c r="C47" s="187"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="188"/>
+        <v>88</v>
+      </c>
+      <c r="C48" s="187"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C49" s="188"/>
+        <v>86</v>
+      </c>
+      <c r="C49" s="187"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="188"/>
+        <v>89</v>
+      </c>
+      <c r="C50" s="187"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="188"/>
-      <c r="D51" s="24">
-        <v>1</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="C51" s="187"/>
+      <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="188"/>
-      <c r="D52" s="24">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C52" s="187"/>
+      <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="188"/>
+        <v>57</v>
+      </c>
+      <c r="C53" s="187"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="188"/>
+        <v>58</v>
+      </c>
+      <c r="C54" s="187"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="188"/>
+        <v>59</v>
+      </c>
+      <c r="C55" s="187"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="188"/>
+        <v>60</v>
+      </c>
+      <c r="C56" s="187"/>
       <c r="D56" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C57" s="188"/>
-      <c r="D57" s="24"/>
+        <v>61</v>
+      </c>
+      <c r="C57" s="187"/>
+      <c r="D57" s="24">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" s="188"/>
-      <c r="D58" s="24"/>
+        <v>62</v>
+      </c>
+      <c r="C58" s="187"/>
+      <c r="D58" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B59" s="17" t="s">
-        <v>146</v>
+      <c r="A59" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>82</v>
       </c>
       <c r="C59" s="187"/>
-      <c r="D59" s="26"/>
+      <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C60" s="188"/>
-      <c r="D60" s="27">
-        <v>0</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C60" s="187"/>
+      <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B61" s="185"/>
-      <c r="C61" s="187"/>
-      <c r="D61" s="186"/>
+        <v>145</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C61" s="186"/>
+      <c r="D61" s="185"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>346</v>
+        <v>147</v>
       </c>
       <c r="B62" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="C62" s="188"/>
-      <c r="D62" s="27">
+        <v>148</v>
+      </c>
+      <c r="C62" s="187"/>
+      <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B63" s="184"/>
+      <c r="C63" s="186"/>
+      <c r="D63" s="185"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="B64" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C64" s="187"/>
+      <c r="D64" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="22" t="s">
         <v>153</v>
       </c>
-      <c r="B63" s="17" t="s">
+      <c r="B65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C63" s="187"/>
-      <c r="D63" s="26"/>
-    </row>
-    <row r="64" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28" t="s">
+      <c r="C65" s="186"/>
+      <c r="D65" s="185"/>
+    </row>
+    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B64" s="29" t="s">
+      <c r="B66" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="189"/>
-      <c r="D64" s="30">
+      <c r="C66" s="188"/>
+      <c r="D66" s="29">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="f2zB4CaXZ1eO3MiUBsL42LhWsqnsHJG8yOOcR3Uc32wh/Kd5GPtyZ0JFamOimtjgoXnAV7YKwEW+nvqfdapecw==" saltValue="OmrrGRFpOtx4df7rc/rpvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10350,163 +10403,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="301" t="s">
+      <c r="A1" s="300" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="302"/>
-      <c r="C1" s="302"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="302"/>
-      <c r="F1" s="302"/>
-      <c r="G1" s="302"/>
-      <c r="H1" s="302"/>
-      <c r="I1" s="302"/>
-      <c r="J1" s="302"/>
-      <c r="K1" s="302"/>
-      <c r="L1" s="302"/>
-      <c r="M1" s="302"/>
-      <c r="N1" s="302"/>
-      <c r="O1" s="302"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="301"/>
+      <c r="E1" s="301"/>
+      <c r="F1" s="301"/>
+      <c r="G1" s="301"/>
+      <c r="H1" s="301"/>
+      <c r="I1" s="301"/>
+      <c r="J1" s="301"/>
+      <c r="K1" s="301"/>
+      <c r="L1" s="301"/>
+      <c r="M1" s="301"/>
+      <c r="N1" s="301"/>
+      <c r="O1" s="301"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="299"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="41">
+      <c r="B5" s="40">
         <v>1</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="42"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="41">
+      <c r="B6" s="40">
         <v>2</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="42"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="41">
+      <c r="B7" s="40">
         <v>3</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="42"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="41">
+      <c r="B8" s="40">
         <v>4</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="43"/>
-      <c r="N8" s="37"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="42"/>
+      <c r="N8" s="36"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="41">
+      <c r="B9" s="40">
         <v>5</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="41">
+      <c r="B10" s="40">
         <v>6</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="43"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="42"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="44">
+      <c r="B11" s="43">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10516,10 +10569,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="45"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="44">
+      <c r="B12" s="43">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10529,10 +10582,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="45"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="44">
+      <c r="B13" s="43">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10542,10 +10595,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="45"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="44">
+      <c r="B14" s="43">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10555,10 +10608,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="45"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="44">
+      <c r="B15" s="43">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10568,10 +10621,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="45"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="46">
+      <c r="B16" s="45">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10585,190 +10638,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="298" t="s">
+      <c r="B19" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="299"/>
-      <c r="D19" s="299"/>
-      <c r="E19" s="299"/>
-      <c r="F19" s="299"/>
-      <c r="G19" s="299"/>
-      <c r="H19" s="299"/>
-      <c r="I19" s="299"/>
-      <c r="J19" s="299"/>
-      <c r="K19" s="299"/>
-      <c r="L19" s="299"/>
-      <c r="M19" s="299"/>
-      <c r="N19" s="300"/>
+      <c r="C19" s="298"/>
+      <c r="D19" s="298"/>
+      <c r="E19" s="298"/>
+      <c r="F19" s="298"/>
+      <c r="G19" s="298"/>
+      <c r="H19" s="298"/>
+      <c r="I19" s="298"/>
+      <c r="J19" s="298"/>
+      <c r="K19" s="298"/>
+      <c r="L19" s="298"/>
+      <c r="M19" s="298"/>
+      <c r="N19" s="299"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="38"/>
-      <c r="C20" s="47">
+      <c r="B20" s="37"/>
+      <c r="C20" s="46">
         <v>1</v>
       </c>
-      <c r="D20" s="47">
+      <c r="D20" s="46">
         <v>2</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="46">
         <v>3</v>
       </c>
-      <c r="F20" s="47">
+      <c r="F20" s="46">
         <v>4</v>
       </c>
-      <c r="G20" s="47">
+      <c r="G20" s="46">
         <v>5</v>
       </c>
-      <c r="H20" s="47">
+      <c r="H20" s="46">
         <v>6</v>
       </c>
-      <c r="I20" s="48">
+      <c r="I20" s="47">
         <v>7</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="47">
         <v>8</v>
       </c>
-      <c r="K20" s="48">
+      <c r="K20" s="47">
         <v>9</v>
       </c>
-      <c r="L20" s="48">
+      <c r="L20" s="47">
         <v>10</v>
       </c>
-      <c r="M20" s="48">
+      <c r="M20" s="47">
         <v>11</v>
       </c>
-      <c r="N20" s="49">
+      <c r="N20" s="48">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="42"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="45"/>
+      <c r="N21" s="44"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="42"/>
-      <c r="D22" s="42"/>
-      <c r="E22" s="42"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="45"/>
+      <c r="N22" s="44"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="45"/>
+      <c r="N23" s="44"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="45"/>
+      <c r="N24" s="44"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="45"/>
+      <c r="N25" s="44"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="42"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="45"/>
+      <c r="N26" s="44"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="45"/>
+      <c r="N27" s="44"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="51" t="s">
+      <c r="B28" s="50" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -10801,122 +10854,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="305" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
-      <c r="P1" s="307"/>
-      <c r="Q1" s="307"/>
-      <c r="R1" s="307"/>
-      <c r="S1" s="307"/>
+      <c r="B1" s="306"/>
+      <c r="C1" s="306"/>
+      <c r="D1" s="306"/>
+      <c r="E1" s="306"/>
+      <c r="F1" s="306"/>
+      <c r="G1" s="306"/>
+      <c r="H1" s="306"/>
+      <c r="I1" s="306"/>
+      <c r="J1" s="306"/>
+      <c r="K1" s="306"/>
+      <c r="L1" s="306"/>
+      <c r="M1" s="306"/>
+      <c r="N1" s="306"/>
+      <c r="O1" s="306"/>
+      <c r="P1" s="306"/>
+      <c r="Q1" s="306"/>
+      <c r="R1" s="306"/>
+      <c r="S1" s="306"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="299"/>
-      <c r="I3" s="299"/>
-      <c r="J3" s="300"/>
-      <c r="L3" s="303" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="299"/>
+      <c r="L3" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="304"/>
-      <c r="N3" s="304"/>
-      <c r="O3" s="304"/>
-      <c r="P3" s="304"/>
-      <c r="Q3" s="304"/>
-      <c r="R3" s="305"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="303"/>
+      <c r="O3" s="303"/>
+      <c r="P3" s="303"/>
+      <c r="Q3" s="303"/>
+      <c r="R3" s="304"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="59">
+      <c r="B4" s="37"/>
+      <c r="C4" s="58">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="47">
+      <c r="H4" s="46">
         <v>6</v>
       </c>
-      <c r="I4" s="60">
+      <c r="I4" s="59">
         <v>7</v>
       </c>
-      <c r="J4" s="49">
+      <c r="J4" s="48">
         <v>8</v>
       </c>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39" t="s">
+      <c r="L4" s="37"/>
+      <c r="M4" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="38" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="40" t="s">
+      <c r="R4" s="39" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="45"/>
-      <c r="L5" s="41">
+      <c r="I5" s="61"/>
+      <c r="J5" s="44"/>
+      <c r="L5" s="40">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -10924,21 +10977,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="45"/>
+      <c r="R5" s="44"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="45"/>
-      <c r="L6" s="41">
+      <c r="I6" s="61"/>
+      <c r="J6" s="44"/>
+      <c r="L6" s="40">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -10946,21 +10999,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="45"/>
+      <c r="R6" s="44"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="45"/>
-      <c r="L7" s="41">
+      <c r="I7" s="61"/>
+      <c r="J7" s="44"/>
+      <c r="L7" s="40">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -10968,21 +11021,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="45"/>
+      <c r="R7" s="44"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="45"/>
-      <c r="L8" s="41">
+      <c r="I8" s="61"/>
+      <c r="J8" s="44"/>
+      <c r="L8" s="40">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -10990,21 +11043,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="45"/>
+      <c r="R8" s="44"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="45"/>
-      <c r="L9" s="41">
+      <c r="I9" s="61"/>
+      <c r="J9" s="44"/>
+      <c r="L9" s="40">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11012,21 +11065,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="45"/>
+      <c r="R9" s="44"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="64"/>
+      <c r="I10" s="63"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="41">
+      <c r="L10" s="40">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11034,10 +11087,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="45"/>
+      <c r="R10" s="44"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="44">
+      <c r="L11" s="43">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11045,10 +11098,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="45"/>
+      <c r="R11" s="44"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11085,90 +11138,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="308" t="s">
+      <c r="A1" s="307" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="309"/>
-      <c r="C1" s="309"/>
-      <c r="D1" s="309"/>
-      <c r="E1" s="309"/>
-      <c r="F1" s="309"/>
-      <c r="G1" s="309"/>
-      <c r="H1" s="309"/>
-      <c r="I1" s="309"/>
-      <c r="J1" s="309"/>
-      <c r="K1" s="309"/>
-      <c r="L1" s="309"/>
-      <c r="M1" s="309"/>
-      <c r="N1" s="309"/>
-      <c r="O1" s="310"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="309"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="53"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="298" t="s">
+      <c r="B3" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="299"/>
-      <c r="D3" s="299"/>
-      <c r="E3" s="299"/>
-      <c r="F3" s="299"/>
-      <c r="G3" s="299"/>
-      <c r="H3" s="300"/>
-      <c r="J3" s="303" t="s">
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="299"/>
+      <c r="J3" s="302" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="304"/>
-      <c r="L3" s="304"/>
-      <c r="M3" s="304"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="303"/>
+      <c r="N3" s="304"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="38"/>
-      <c r="C4" s="47">
+      <c r="B4" s="37"/>
+      <c r="C4" s="46">
         <v>1</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="46">
         <v>2</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="46">
         <v>3</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="46">
         <v>4</v>
       </c>
-      <c r="G4" s="47">
+      <c r="G4" s="46">
         <v>5</v>
       </c>
-      <c r="H4" s="54">
+      <c r="H4" s="53">
         <v>6</v>
       </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
+      <c r="J4" s="37"/>
+      <c r="K4" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="N4" s="40" t="s">
+      <c r="N4" s="39" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="3"/>
@@ -11176,17 +11229,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="45"/>
-      <c r="J5" s="41">
+      <c r="H5" s="44"/>
+      <c r="J5" s="40">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="45"/>
+      <c r="N5" s="44"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="3"/>
@@ -11194,17 +11247,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="45"/>
-      <c r="J6" s="41">
+      <c r="H6" s="44"/>
+      <c r="J6" s="40">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="45"/>
+      <c r="N6" s="44"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="3"/>
@@ -11212,17 +11265,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="45"/>
-      <c r="J7" s="41">
+      <c r="H7" s="44"/>
+      <c r="J7" s="40">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="45"/>
+      <c r="N7" s="44"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="50" t="s">
         <v>220</v>
       </c>
       <c r="C8" s="6"/>
@@ -11231,27 +11284,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="41">
+      <c r="J8" s="40">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="45"/>
+      <c r="N8" s="44"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="55"/>
-      <c r="J9" s="41">
+      <c r="H9" s="54"/>
+      <c r="J9" s="40">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="45"/>
+      <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="56"/>
-      <c r="J10" s="57">
+      <c r="H10" s="55"/>
+      <c r="J10" s="56">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11260,19 +11313,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="58"/>
+      <c r="H11" s="57"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="55"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="55"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="55"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="55"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="490">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1039,9 +1039,6 @@
       </rPr>
       <t>: Instructions to use button below</t>
     </r>
-  </si>
-  <si>
-    <t>constitutive</t>
   </si>
   <si>
     <t>BaseDox</t>
@@ -3951,20 +3948,123 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3987,102 +4087,6 @@
     <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4161,12 +4165,21 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4177,15 +4190,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4241,13 +4245,6 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5100,86 +5097,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="226" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="227"/>
-      <c r="C1" s="227"/>
-      <c r="D1" s="227"/>
-      <c r="E1" s="227"/>
-      <c r="F1" s="227"/>
-      <c r="G1" s="227"/>
-      <c r="H1" s="227"/>
-      <c r="I1" s="227"/>
-      <c r="J1" s="227"/>
-      <c r="K1" s="228"/>
+      <c r="A1" s="239" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="240"/>
+      <c r="C1" s="240"/>
+      <c r="D1" s="240"/>
+      <c r="E1" s="240"/>
+      <c r="F1" s="240"/>
+      <c r="G1" s="240"/>
+      <c r="H1" s="240"/>
+      <c r="I1" s="240"/>
+      <c r="J1" s="240"/>
+      <c r="K1" s="241"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="242" t="s">
-        <v>311</v>
-      </c>
-      <c r="B3" s="243"/>
+      <c r="A3" s="218" t="s">
+        <v>310</v>
+      </c>
+      <c r="B3" s="219"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="240" t="s">
+      <c r="A4" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="241"/>
+      <c r="B4" s="233"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="256" t="s">
+      <c r="A5" s="234" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="257"/>
+      <c r="B5" s="235"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="242" t="s">
+      <c r="A7" s="218" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="244"/>
-      <c r="C7" s="244"/>
-      <c r="D7" s="244"/>
-      <c r="E7" s="244"/>
-      <c r="F7" s="244"/>
-      <c r="G7" s="244"/>
-      <c r="H7" s="244"/>
-      <c r="I7" s="244"/>
-      <c r="J7" s="244"/>
-      <c r="K7" s="243"/>
+      <c r="B7" s="220"/>
+      <c r="C7" s="220"/>
+      <c r="D7" s="220"/>
+      <c r="E7" s="220"/>
+      <c r="F7" s="220"/>
+      <c r="G7" s="220"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="220"/>
+      <c r="K7" s="219"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="229" t="s">
+      <c r="A8" s="242" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="230"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="230"/>
-      <c r="E8" s="230"/>
-      <c r="F8" s="230"/>
-      <c r="G8" s="230"/>
-      <c r="H8" s="230"/>
-      <c r="I8" s="230"/>
-      <c r="J8" s="230"/>
-      <c r="K8" s="231"/>
+      <c r="B8" s="243"/>
+      <c r="C8" s="243"/>
+      <c r="D8" s="243"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="243"/>
+      <c r="G8" s="243"/>
+      <c r="H8" s="243"/>
+      <c r="I8" s="243"/>
+      <c r="J8" s="243"/>
+      <c r="K8" s="244"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="232"/>
-      <c r="B9" s="233"/>
-      <c r="C9" s="233"/>
-      <c r="D9" s="233"/>
-      <c r="E9" s="233"/>
-      <c r="F9" s="233"/>
-      <c r="G9" s="233"/>
-      <c r="H9" s="233"/>
-      <c r="I9" s="233"/>
-      <c r="J9" s="233"/>
-      <c r="K9" s="234"/>
+      <c r="A9" s="245"/>
+      <c r="B9" s="246"/>
+      <c r="C9" s="246"/>
+      <c r="D9" s="246"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="246"/>
+      <c r="G9" s="246"/>
+      <c r="H9" s="246"/>
+      <c r="I9" s="246"/>
+      <c r="J9" s="246"/>
+      <c r="K9" s="247"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5190,62 +5187,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="245" t="s">
+      <c r="A11" s="221" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="246"/>
-      <c r="C11" s="246"/>
-      <c r="D11" s="247"/>
+      <c r="B11" s="222"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="223"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="248" t="s">
+      <c r="A12" s="224" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="249"/>
-      <c r="C12" s="250" t="s">
+      <c r="B12" s="225"/>
+      <c r="C12" s="226" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="251"/>
+      <c r="D12" s="227"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="252"/>
-      <c r="B13" s="253"/>
-      <c r="C13" s="254"/>
-      <c r="D13" s="255"/>
+      <c r="A13" s="228"/>
+      <c r="B13" s="229"/>
+      <c r="C13" s="230"/>
+      <c r="D13" s="231"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="245" t="s">
+      <c r="A15" s="221" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="247"/>
-      <c r="E15" s="245" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="246"/>
-      <c r="G15" s="246"/>
-      <c r="H15" s="246"/>
-      <c r="I15" s="247"/>
+      <c r="B15" s="223"/>
+      <c r="E15" s="221" t="s">
+        <v>309</v>
+      </c>
+      <c r="F15" s="222"/>
+      <c r="G15" s="222"/>
+      <c r="H15" s="222"/>
+      <c r="I15" s="223"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="240" t="s">
+      <c r="A16" s="232" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="241"/>
+      <c r="B16" s="233"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="235" t="s">
+      <c r="E16" s="248" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="236"/>
-      <c r="G16" s="236"/>
-      <c r="H16" s="236"/>
-      <c r="I16" s="237"/>
+      <c r="F16" s="249"/>
+      <c r="G16" s="249"/>
+      <c r="H16" s="249"/>
+      <c r="I16" s="250"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5255,10 +5252,10 @@
         <v>274</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="238" t="s">
+      <c r="E17" s="251" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="239"/>
+      <c r="F17" s="252"/>
       <c r="G17" s="212" t="s">
         <v>157</v>
       </c>
@@ -5266,7 +5263,7 @@
         <v>158</v>
       </c>
       <c r="I17" s="195" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5288,14 +5285,14 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="214" t="s">
-        <v>485</v>
+      <c r="I18" s="236" t="s">
+        <v>484</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="89"/>
@@ -5311,12 +5308,12 @@
       <c r="H19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="214"/>
+      <c r="I19" s="236"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="91"/>
@@ -5328,12 +5325,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="215"/>
+      <c r="I20" s="237"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B21" s="116"/>
       <c r="C21" s="32"/>
@@ -5353,21 +5350,21 @@
       <c r="E23" s="216" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="217"/>
-      <c r="G23" s="217"/>
-      <c r="H23" s="217"/>
-      <c r="I23" s="218"/>
+      <c r="F23" s="238"/>
+      <c r="G23" s="238"/>
+      <c r="H23" s="238"/>
+      <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="216" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="218"/>
+      <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="222" t="s">
+      <c r="E24" s="256" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="223"/>
+      <c r="F24" s="257"/>
       <c r="G24" s="212" t="s">
         <v>157</v>
       </c>
@@ -5375,7 +5372,7 @@
         <v>158</v>
       </c>
       <c r="I24" s="195" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5383,7 +5380,7 @@
         <v>230</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="83">
@@ -5396,8 +5393,8 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="219" t="s">
-        <v>486</v>
+      <c r="I25" s="253" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5420,11 +5417,11 @@
       <c r="H26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="220"/>
+      <c r="I26" s="254"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="91"/>
@@ -5436,11 +5433,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="221"/>
+      <c r="I27" s="255"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="32"/>
@@ -5463,19 +5460,19 @@
       <c r="E30" s="216" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="217"/>
-      <c r="G30" s="217"/>
-      <c r="H30" s="217"/>
-      <c r="I30" s="218"/>
+      <c r="F30" s="238"/>
+      <c r="G30" s="238"/>
+      <c r="H30" s="238"/>
+      <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="224" t="s">
-        <v>462</v>
-      </c>
-      <c r="F31" s="225"/>
+      <c r="E31" s="258" t="s">
+        <v>461</v>
+      </c>
+      <c r="F31" s="259"/>
       <c r="G31" s="210" t="s">
         <v>157</v>
       </c>
@@ -5483,14 +5480,14 @@
         <v>158</v>
       </c>
       <c r="I31" s="195" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="216" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="218"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5500,14 +5497,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="214"/>
+      <c r="I32" s="236"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
         <v>230</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C33" s="89"/>
       <c r="E33" s="83">
@@ -5520,7 +5517,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="214"/>
+      <c r="I33" s="236"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5535,7 +5532,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="214"/>
+      <c r="I34" s="236"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5548,7 +5545,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="214"/>
+      <c r="I35" s="236"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5561,7 +5558,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="214"/>
+      <c r="I36" s="236"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5574,7 +5571,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="215"/>
+      <c r="I37" s="237"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5590,14 +5587,14 @@
       <c r="E40" s="216" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
-      <c r="H40" s="217"/>
-      <c r="I40" s="218"/>
+      <c r="F40" s="238"/>
+      <c r="G40" s="238"/>
+      <c r="H40" s="238"/>
+      <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="222"/>
-      <c r="F41" s="223"/>
+      <c r="E41" s="256"/>
+      <c r="F41" s="257"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
@@ -5605,7 +5602,7 @@
         <v>158</v>
       </c>
       <c r="I41" s="195" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5615,7 +5612,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="214"/>
+      <c r="I42" s="236"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5624,7 +5621,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="214"/>
+      <c r="I43" s="236"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5633,7 +5630,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="214"/>
+      <c r="I44" s="236"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5642,7 +5639,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="214"/>
+      <c r="I45" s="236"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5651,7 +5648,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="214"/>
+      <c r="I46" s="236"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5660,11 +5657,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="215"/>
+      <c r="I47" s="237"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5680,20 +5691,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5733,32 +5730,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="260" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="261"/>
-      <c r="C1" s="261"/>
-      <c r="D1" s="261"/>
-      <c r="E1" s="261"/>
-      <c r="F1" s="261"/>
-      <c r="G1" s="261"/>
-      <c r="H1" s="261"/>
-      <c r="I1" s="261"/>
-      <c r="J1" s="262"/>
+      <c r="A1" s="262" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="263"/>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="263"/>
+      <c r="I1" s="263"/>
+      <c r="J1" s="264"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="263" t="s">
+      <c r="A2" s="265" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="264"/>
-      <c r="C2" s="264"/>
-      <c r="D2" s="264"/>
-      <c r="E2" s="264"/>
-      <c r="F2" s="264"/>
-      <c r="G2" s="264"/>
-      <c r="H2" s="264"/>
-      <c r="I2" s="264"/>
-      <c r="J2" s="265"/>
+      <c r="B2" s="266"/>
+      <c r="C2" s="266"/>
+      <c r="D2" s="266"/>
+      <c r="E2" s="266"/>
+      <c r="F2" s="266"/>
+      <c r="G2" s="266"/>
+      <c r="H2" s="266"/>
+      <c r="I2" s="266"/>
+      <c r="J2" s="267"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5770,23 +5767,23 @@
         <v>245</v>
       </c>
       <c r="B3" s="181" t="s">
+        <v>311</v>
+      </c>
+      <c r="C3" s="268" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="269"/>
+      <c r="E3" s="269"/>
+      <c r="F3" s="269"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="181" t="s">
         <v>312</v>
       </c>
-      <c r="C3" s="266" t="s">
-        <v>284</v>
-      </c>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="268"/>
-      <c r="H3" s="181" t="s">
+      <c r="I3" s="181" t="s">
         <v>313</v>
       </c>
-      <c r="I3" s="181" t="s">
+      <c r="J3" s="182" t="s">
         <v>314</v>
-      </c>
-      <c r="J3" s="182" t="s">
-        <v>315</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5808,13 +5805,13 @@
         <v>274</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H4" s="139" t="s">
         <v>195</v>
@@ -5823,7 +5820,7 @@
         <v>8</v>
       </c>
       <c r="J4" s="199" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5833,19 +5830,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E5" s="109" t="s">
         <v>217</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G5" s="109">
         <v>0.1</v>
@@ -5858,7 +5855,7 @@
       </c>
       <c r="J5" s="112"/>
       <c r="K5" s="211" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5873,13 +5870,13 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>218</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G6" s="109">
         <v>0.2</v>
@@ -5892,7 +5889,7 @@
       </c>
       <c r="J6" s="112"/>
       <c r="K6" s="211" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5907,7 +5904,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E7" s="109" t="s">
         <v>219</v>
@@ -5922,7 +5919,7 @@
       </c>
       <c r="J7" s="112"/>
       <c r="K7" s="211" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5937,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E8" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G8" s="109">
         <v>0.1</v>
@@ -5956,7 +5953,7 @@
       </c>
       <c r="J8" s="112"/>
       <c r="K8" s="211" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5971,11 +5968,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="109">
         <v>0.2</v>
@@ -5988,7 +5985,7 @@
       </c>
       <c r="J9" s="112"/>
       <c r="K9" s="211" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6003,7 +6000,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E10" s="109" t="s">
         <v>217</v>
@@ -6018,7 +6015,7 @@
       </c>
       <c r="J10" s="112"/>
       <c r="K10" s="211" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6033,7 +6030,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E11" s="109" t="s">
         <v>218</v>
@@ -6048,7 +6045,7 @@
       </c>
       <c r="J11" s="112"/>
       <c r="K11" s="211" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6063,7 +6060,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E12" s="109" t="s">
         <v>219</v>
@@ -6078,7 +6075,7 @@
       </c>
       <c r="J12" s="112"/>
       <c r="K12" s="211" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6093,7 +6090,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="109" t="s">
         <v>220</v>
@@ -6108,7 +6105,7 @@
       </c>
       <c r="J13" s="112"/>
       <c r="K13" s="211" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6123,11 +6120,11 @@
         <v>100</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G14" s="109">
         <v>100</v>
@@ -6140,7 +6137,7 @@
       </c>
       <c r="J14" s="112"/>
       <c r="K14" s="211" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6155,13 +6152,13 @@
         <v>200</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E15" s="109" t="s">
         <v>217</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G15" s="109">
         <v>200</v>
@@ -6174,7 +6171,7 @@
       </c>
       <c r="J15" s="112"/>
       <c r="K15" s="211" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6189,7 +6186,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E16" s="109" t="s">
         <v>218</v>
@@ -6204,7 +6201,7 @@
       </c>
       <c r="J16" s="112"/>
       <c r="K16" s="211" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6219,13 +6216,13 @@
         <v>1000</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="109" t="s">
         <v>219</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G17" s="109">
         <v>100</v>
@@ -6238,7 +6235,7 @@
       </c>
       <c r="J17" s="112"/>
       <c r="K17" s="211" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6253,13 +6250,13 @@
         <v>2000</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E18" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G18" s="109">
         <v>200</v>
@@ -6272,7 +6269,7 @@
       </c>
       <c r="J18" s="112"/>
       <c r="K18" s="211" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6296,7 +6293,7 @@
         <v>5</v>
       </c>
       <c r="K19" s="211" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6320,7 +6317,7 @@
         <v>5</v>
       </c>
       <c r="K20" s="211" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6344,7 +6341,7 @@
         <v>5</v>
       </c>
       <c r="K21" s="211" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6368,7 +6365,7 @@
         <v>5</v>
       </c>
       <c r="K22" s="211" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6392,7 +6389,7 @@
         <v>5</v>
       </c>
       <c r="K23" s="211" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6416,7 +6413,7 @@
         <v>5</v>
       </c>
       <c r="K24" s="211" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6425,7 +6422,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="173" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C25" s="174"/>
       <c r="D25" s="174"/>
@@ -6440,64 +6437,64 @@
         <v>5</v>
       </c>
       <c r="K25" s="211" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="278" t="s">
+      <c r="A27" s="280" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="279"/>
-      <c r="C27" s="279"/>
-      <c r="D27" s="279"/>
-      <c r="E27" s="279"/>
-      <c r="F27" s="279"/>
-      <c r="G27" s="279"/>
-      <c r="H27" s="279"/>
-      <c r="I27" s="279"/>
-      <c r="J27" s="279"/>
-      <c r="K27" s="279"/>
-      <c r="L27" s="279"/>
-      <c r="M27" s="279"/>
-      <c r="N27" s="279"/>
-      <c r="O27" s="279"/>
-      <c r="P27" s="279"/>
-      <c r="Q27" s="280"/>
+      <c r="B27" s="281"/>
+      <c r="C27" s="281"/>
+      <c r="D27" s="281"/>
+      <c r="E27" s="281"/>
+      <c r="F27" s="281"/>
+      <c r="G27" s="281"/>
+      <c r="H27" s="281"/>
+      <c r="I27" s="281"/>
+      <c r="J27" s="281"/>
+      <c r="K27" s="281"/>
+      <c r="L27" s="281"/>
+      <c r="M27" s="281"/>
+      <c r="N27" s="281"/>
+      <c r="O27" s="281"/>
+      <c r="P27" s="281"/>
+      <c r="Q27" s="282"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>277</v>
       </c>
       <c r="B28" s="196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C28" s="194" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D28" s="194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E28" s="194" t="s">
         <v>263</v>
       </c>
       <c r="F28" s="194" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G28" s="194" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H28" s="198" t="s">
         <v>263</v>
       </c>
       <c r="I28" s="198" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J28" s="198" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K28" s="198" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L28" s="123" t="s">
         <v>266</v>
@@ -6527,7 +6524,7 @@
         <v>246</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>247</v>
@@ -6536,19 +6533,19 @@
         <v>152</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J29" s="96" t="s">
+        <v>437</v>
+      </c>
+      <c r="K29" s="96" t="s">
         <v>438</v>
-      </c>
-      <c r="K29" s="96" t="s">
-        <v>439</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>92</v>
@@ -6572,24 +6569,24 @@
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
       <c r="B30" s="208" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6610,534 +6607,534 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="275" t="s">
+      <c r="A32" s="277" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="276"/>
-      <c r="C32" s="276"/>
-      <c r="D32" s="276"/>
-      <c r="E32" s="276"/>
-      <c r="F32" s="276"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="277"/>
+      <c r="B32" s="278"/>
+      <c r="C32" s="278"/>
+      <c r="D32" s="278"/>
+      <c r="E32" s="278"/>
+      <c r="F32" s="278"/>
+      <c r="G32" s="278"/>
+      <c r="H32" s="279"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="269" t="s">
-        <v>358</v>
-      </c>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="271"/>
+      <c r="A33" s="271" t="s">
+        <v>357</v>
+      </c>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="269"/>
-      <c r="B34" s="270"/>
-      <c r="C34" s="270"/>
-      <c r="D34" s="270"/>
-      <c r="E34" s="270"/>
-      <c r="F34" s="270"/>
-      <c r="G34" s="270"/>
-      <c r="H34" s="271"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="269"/>
-      <c r="B35" s="270"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="271"/>
+      <c r="A35" s="271"/>
+      <c r="B35" s="272"/>
+      <c r="C35" s="272"/>
+      <c r="D35" s="272"/>
+      <c r="E35" s="272"/>
+      <c r="F35" s="272"/>
+      <c r="G35" s="272"/>
+      <c r="H35" s="273"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="272"/>
-      <c r="B36" s="273"/>
-      <c r="C36" s="273"/>
-      <c r="D36" s="273"/>
-      <c r="E36" s="273"/>
-      <c r="F36" s="273"/>
-      <c r="G36" s="273"/>
-      <c r="H36" s="274"/>
+      <c r="A36" s="274"/>
+      <c r="B36" s="275"/>
+      <c r="C36" s="275"/>
+      <c r="D36" s="275"/>
+      <c r="E36" s="275"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
+      <c r="H36" s="276"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="259" t="s">
-        <v>302</v>
-      </c>
-      <c r="B38" s="259"/>
-      <c r="C38" s="259"/>
-      <c r="D38" s="259"/>
-      <c r="E38" s="259"/>
-      <c r="F38" s="259"/>
-      <c r="G38" s="259"/>
+      <c r="A38" s="261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38" s="261"/>
+      <c r="C38" s="261"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="261"/>
+      <c r="F38" s="261"/>
+      <c r="G38" s="261"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B39" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C39" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="D39" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="258" t="s">
-        <v>305</v>
-      </c>
-      <c r="E39" s="258"/>
-      <c r="F39" s="258"/>
-      <c r="G39" s="258"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
+      <c r="G39" s="260"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>305</v>
+      </c>
+      <c r="B40" t="s">
         <v>306</v>
       </c>
-      <c r="B40" t="s">
-        <v>307</v>
-      </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>327</v>
+      </c>
+      <c r="B41" t="s">
+        <v>331</v>
+      </c>
+      <c r="C41" t="s">
+        <v>441</v>
+      </c>
+      <c r="D41" s="193" t="s">
         <v>328</v>
-      </c>
-      <c r="B41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C41" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="193" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D44" s="183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>405</v>
+      </c>
+      <c r="B45" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" t="s">
+        <v>441</v>
+      </c>
+      <c r="D45" s="193" t="s">
         <v>406</v>
-      </c>
-      <c r="B45" t="s">
-        <v>308</v>
-      </c>
-      <c r="C45" t="s">
-        <v>442</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D46" s="193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B47" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D47" s="193" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C49" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D49" s="193" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B50" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D50" s="193" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>411</v>
+      </c>
+      <c r="B51" t="s">
         <v>412</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D51" s="193" t="s">
         <v>413</v>
-      </c>
-      <c r="C51" t="s">
-        <v>442</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>440</v>
+      </c>
+      <c r="B52" t="s">
+        <v>373</v>
+      </c>
+      <c r="C52" t="s">
         <v>441</v>
       </c>
-      <c r="B52" t="s">
-        <v>374</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D52" s="180" t="s">
         <v>442</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>414</v>
+      </c>
+      <c r="B53" t="s">
         <v>415</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>441</v>
+      </c>
+      <c r="D53" s="193" t="s">
         <v>416</v>
-      </c>
-      <c r="C53" t="s">
-        <v>442</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>414</v>
+      </c>
+      <c r="B54" t="s">
         <v>415</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D54" s="193" t="s">
         <v>416</v>
-      </c>
-      <c r="C54" t="s">
-        <v>442</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>414</v>
+      </c>
+      <c r="B55" t="s">
         <v>415</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
+      <c r="D55" s="193" t="s">
         <v>416</v>
-      </c>
-      <c r="C55" t="s">
-        <v>442</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>414</v>
+      </c>
+      <c r="B56" t="s">
         <v>415</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>441</v>
+      </c>
+      <c r="D56" s="193" t="s">
         <v>416</v>
-      </c>
-      <c r="C56" t="s">
-        <v>442</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>414</v>
+      </c>
+      <c r="B57" t="s">
         <v>415</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>441</v>
+      </c>
+      <c r="D57" s="193" t="s">
         <v>416</v>
-      </c>
-      <c r="C57" t="s">
-        <v>442</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>378</v>
+      </c>
+      <c r="B58" t="s">
         <v>379</v>
       </c>
-      <c r="B58" t="s">
-        <v>380</v>
-      </c>
       <c r="C58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>378</v>
+      </c>
+      <c r="B59" t="s">
         <v>379</v>
       </c>
-      <c r="B59" t="s">
-        <v>380</v>
-      </c>
       <c r="C59" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B60" t="s">
         <v>379</v>
       </c>
-      <c r="B60" t="s">
-        <v>380</v>
-      </c>
       <c r="C60" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>378</v>
+      </c>
+      <c r="B61" t="s">
         <v>379</v>
       </c>
-      <c r="B61" t="s">
-        <v>380</v>
-      </c>
       <c r="C61" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D61" s="180" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>378</v>
+      </c>
+      <c r="B62" t="s">
         <v>379</v>
       </c>
-      <c r="B62" t="s">
-        <v>380</v>
-      </c>
       <c r="C62" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D62" s="180" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>378</v>
+      </c>
+      <c r="B63" t="s">
         <v>379</v>
       </c>
-      <c r="B63" t="s">
-        <v>380</v>
-      </c>
       <c r="C63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D63" s="180" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>378</v>
+      </c>
+      <c r="B64" t="s">
         <v>379</v>
       </c>
-      <c r="B64" t="s">
-        <v>380</v>
-      </c>
       <c r="C64" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>378</v>
+      </c>
+      <c r="B65" t="s">
         <v>379</v>
       </c>
-      <c r="B65" t="s">
-        <v>380</v>
-      </c>
       <c r="C65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B66" t="s">
         <v>379</v>
       </c>
-      <c r="B66" t="s">
-        <v>380</v>
-      </c>
       <c r="C66" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>378</v>
+      </c>
+      <c r="B67" t="s">
         <v>379</v>
       </c>
-      <c r="B67" t="s">
-        <v>380</v>
-      </c>
       <c r="C67" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>378</v>
+      </c>
+      <c r="B68" t="s">
         <v>379</v>
       </c>
-      <c r="B68" t="s">
-        <v>380</v>
-      </c>
       <c r="C68" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>378</v>
+      </c>
+      <c r="B69" t="s">
         <v>379</v>
       </c>
-      <c r="B69" t="s">
-        <v>380</v>
-      </c>
       <c r="C69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>378</v>
+      </c>
+      <c r="B70" t="s">
         <v>379</v>
       </c>
-      <c r="B70" t="s">
-        <v>380</v>
-      </c>
       <c r="C70" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>378</v>
+      </c>
+      <c r="B71" t="s">
         <v>379</v>
       </c>
-      <c r="B71" t="s">
-        <v>380</v>
-      </c>
       <c r="C71" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -7215,8 +7212,8 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7235,39 +7232,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="281" t="s">
-        <v>377</v>
-      </c>
-      <c r="B1" s="282"/>
-      <c r="C1" s="282"/>
-      <c r="D1" s="282"/>
-      <c r="E1" s="282"/>
-      <c r="F1" s="282"/>
-      <c r="G1" s="282"/>
-      <c r="H1" s="282"/>
-      <c r="I1" s="282"/>
-      <c r="J1" s="283"/>
+      <c r="A1" s="283" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1" s="284"/>
+      <c r="C1" s="284"/>
+      <c r="D1" s="284"/>
+      <c r="E1" s="284"/>
+      <c r="F1" s="284"/>
+      <c r="G1" s="284"/>
+      <c r="H1" s="284"/>
+      <c r="I1" s="284"/>
+      <c r="J1" s="285"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="278" t="s">
+      <c r="A2" s="280" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="279"/>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
-      <c r="F2" s="279"/>
-      <c r="G2" s="279"/>
-      <c r="H2" s="279"/>
-      <c r="I2" s="279"/>
-      <c r="J2" s="280"/>
+      <c r="B2" s="281"/>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+      <c r="J2" s="282"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" s="128" t="s">
         <v>267</v>
@@ -7282,10 +7279,10 @@
         <v>266</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H3" s="170" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="130"/>
@@ -7313,7 +7310,7 @@
         <v>227</v>
       </c>
       <c r="H4" s="171" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
@@ -7333,7 +7330,7 @@
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G5" s="209" t="s">
         <v>168</v>
@@ -7343,25 +7340,25 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="278" t="s">
+      <c r="A6" s="280" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="279"/>
-      <c r="C6" s="279"/>
-      <c r="D6" s="279"/>
-      <c r="E6" s="279"/>
-      <c r="F6" s="279"/>
-      <c r="G6" s="279"/>
-      <c r="H6" s="279"/>
-      <c r="I6" s="279"/>
-      <c r="J6" s="280"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="281"/>
+      <c r="D6" s="281"/>
+      <c r="E6" s="281"/>
+      <c r="F6" s="281"/>
+      <c r="G6" s="281"/>
+      <c r="H6" s="281"/>
+      <c r="I6" s="281"/>
+      <c r="J6" s="282"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
         <v>266</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -7405,18 +7402,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="278" t="s">
+      <c r="A10" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="279"/>
-      <c r="C10" s="279"/>
-      <c r="D10" s="279"/>
-      <c r="E10" s="279"/>
-      <c r="F10" s="279"/>
-      <c r="G10" s="279"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="279"/>
-      <c r="J10" s="280"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="281"/>
+      <c r="J10" s="282"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7427,19 +7424,19 @@
         <v>253</v>
       </c>
       <c r="D11" s="179" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E11" s="128" t="s">
         <v>255</v>
       </c>
       <c r="F11" s="133" t="s">
+        <v>319</v>
+      </c>
+      <c r="G11" s="132" t="s">
+        <v>318</v>
+      </c>
+      <c r="H11" s="132" t="s">
         <v>320</v>
-      </c>
-      <c r="G11" s="132" t="s">
-        <v>319</v>
-      </c>
-      <c r="H11" s="132" t="s">
-        <v>321</v>
       </c>
       <c r="I11" s="128"/>
       <c r="J11" s="130"/>
@@ -7482,9 +7479,7 @@
       <c r="C13" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>278</v>
-      </c>
+      <c r="D13" s="4"/>
       <c r="E13" s="4">
         <v>561</v>
       </c>
@@ -7597,31 +7592,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="279"/>
-      <c r="C21" s="279"/>
-      <c r="D21" s="279"/>
-      <c r="E21" s="279"/>
-      <c r="F21" s="279"/>
-      <c r="G21" s="279"/>
-      <c r="H21" s="279"/>
-      <c r="I21" s="279"/>
-      <c r="J21" s="280"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
+      <c r="H21" s="281"/>
+      <c r="I21" s="281"/>
+      <c r="J21" s="282"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
+        <v>321</v>
+      </c>
+      <c r="B22" s="132" t="s">
         <v>322</v>
-      </c>
-      <c r="B22" s="132" t="s">
-        <v>323</v>
       </c>
       <c r="C22" s="132" t="s">
         <v>268</v>
       </c>
       <c r="D22" s="132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
@@ -7671,34 +7666,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="278" t="s">
+      <c r="A25" s="280" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="279"/>
-      <c r="C25" s="279"/>
-      <c r="D25" s="279"/>
-      <c r="E25" s="279"/>
-      <c r="F25" s="279"/>
-      <c r="G25" s="279"/>
-      <c r="H25" s="279"/>
-      <c r="I25" s="279"/>
-      <c r="J25" s="280"/>
+      <c r="B25" s="281"/>
+      <c r="C25" s="281"/>
+      <c r="D25" s="281"/>
+      <c r="E25" s="281"/>
+      <c r="F25" s="281"/>
+      <c r="G25" s="281"/>
+      <c r="H25" s="281"/>
+      <c r="I25" s="281"/>
+      <c r="J25" s="282"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>277</v>
       </c>
       <c r="B26" s="198" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D26" s="132" t="s">
         <v>262</v>
       </c>
       <c r="E26" s="194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7718,7 +7713,7 @@
         <v>152</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7729,12 +7724,12 @@
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
       <c r="B28" s="213" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7744,240 +7739,240 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="275" t="s">
+      <c r="A30" s="277" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="276"/>
-      <c r="C30" s="276"/>
-      <c r="D30" s="276"/>
-      <c r="E30" s="276"/>
-      <c r="F30" s="276"/>
-      <c r="G30" s="276"/>
-      <c r="H30" s="277"/>
+      <c r="B30" s="278"/>
+      <c r="C30" s="278"/>
+      <c r="D30" s="278"/>
+      <c r="E30" s="278"/>
+      <c r="F30" s="278"/>
+      <c r="G30" s="278"/>
+      <c r="H30" s="279"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="269" t="s">
-        <v>357</v>
-      </c>
-      <c r="B31" s="270"/>
-      <c r="C31" s="270"/>
-      <c r="D31" s="270"/>
-      <c r="E31" s="270"/>
-      <c r="F31" s="270"/>
-      <c r="G31" s="270"/>
-      <c r="H31" s="271"/>
+      <c r="A31" s="271" t="s">
+        <v>356</v>
+      </c>
+      <c r="B31" s="272"/>
+      <c r="C31" s="272"/>
+      <c r="D31" s="272"/>
+      <c r="E31" s="272"/>
+      <c r="F31" s="272"/>
+      <c r="G31" s="272"/>
+      <c r="H31" s="273"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="269"/>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="271"/>
+      <c r="A32" s="271"/>
+      <c r="B32" s="272"/>
+      <c r="C32" s="272"/>
+      <c r="D32" s="272"/>
+      <c r="E32" s="272"/>
+      <c r="F32" s="272"/>
+      <c r="G32" s="272"/>
+      <c r="H32" s="273"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="269"/>
-      <c r="B33" s="270"/>
-      <c r="C33" s="270"/>
-      <c r="D33" s="270"/>
-      <c r="E33" s="270"/>
-      <c r="F33" s="270"/>
-      <c r="G33" s="270"/>
-      <c r="H33" s="271"/>
+      <c r="A33" s="271"/>
+      <c r="B33" s="272"/>
+      <c r="C33" s="272"/>
+      <c r="D33" s="272"/>
+      <c r="E33" s="272"/>
+      <c r="F33" s="272"/>
+      <c r="G33" s="272"/>
+      <c r="H33" s="273"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="272"/>
-      <c r="B34" s="273"/>
-      <c r="C34" s="273"/>
-      <c r="D34" s="273"/>
-      <c r="E34" s="273"/>
-      <c r="F34" s="273"/>
-      <c r="G34" s="273"/>
-      <c r="H34" s="274"/>
+      <c r="A34" s="274"/>
+      <c r="B34" s="275"/>
+      <c r="C34" s="275"/>
+      <c r="D34" s="275"/>
+      <c r="E34" s="275"/>
+      <c r="F34" s="275"/>
+      <c r="G34" s="275"/>
+      <c r="H34" s="276"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="259" t="s">
-        <v>302</v>
-      </c>
-      <c r="B36" s="259"/>
-      <c r="C36" s="259"/>
-      <c r="D36" s="259"/>
-      <c r="E36" s="259"/>
-      <c r="F36" s="259"/>
-      <c r="G36" s="259"/>
+      <c r="A36" s="261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36" s="261"/>
+      <c r="C36" s="261"/>
+      <c r="D36" s="261"/>
+      <c r="E36" s="261"/>
+      <c r="F36" s="261"/>
+      <c r="G36" s="261"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B37" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="D37" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="D37" s="258" t="s">
-        <v>305</v>
-      </c>
-      <c r="E37" s="258"/>
-      <c r="F37" s="258"/>
-      <c r="G37" s="258"/>
+      <c r="E37" s="260"/>
+      <c r="F37" s="260"/>
+      <c r="G37" s="260"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B38" t="s">
         <v>306</v>
       </c>
-      <c r="B38" t="s">
-        <v>307</v>
-      </c>
       <c r="C38" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" t="s">
+        <v>331</v>
+      </c>
+      <c r="C39" t="s">
+        <v>457</v>
+      </c>
+      <c r="D39" s="193" t="s">
         <v>328</v>
-      </c>
-      <c r="B39" t="s">
-        <v>332</v>
-      </c>
-      <c r="C39" t="s">
-        <v>458</v>
-      </c>
-      <c r="D39" s="193" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C40" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D42" s="183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B43" t="s">
+        <v>307</v>
+      </c>
+      <c r="C43" t="s">
+        <v>457</v>
+      </c>
+      <c r="D43" s="193" t="s">
         <v>366</v>
-      </c>
-      <c r="B43" t="s">
-        <v>308</v>
-      </c>
-      <c r="C43" t="s">
-        <v>458</v>
-      </c>
-      <c r="D43" s="193" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B44" t="s">
         <v>368</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>457</v>
+      </c>
+      <c r="D44" s="193" t="s">
         <v>369</v>
-      </c>
-      <c r="C44" t="s">
-        <v>458</v>
-      </c>
-      <c r="D44" s="193" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>367</v>
+      </c>
+      <c r="B45" t="s">
         <v>368</v>
       </c>
-      <c r="B45" t="s">
-        <v>369</v>
-      </c>
       <c r="C45" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D45" s="193" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>367</v>
+      </c>
+      <c r="B46" t="s">
         <v>368</v>
       </c>
-      <c r="B46" t="s">
-        <v>369</v>
-      </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D46" s="193" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>367</v>
+      </c>
+      <c r="B47" t="s">
         <v>368</v>
       </c>
-      <c r="B47" t="s">
-        <v>369</v>
-      </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D47" s="193" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s">
+        <v>458</v>
+      </c>
+      <c r="C48" t="s">
+        <v>457</v>
+      </c>
+      <c r="D48" s="183" t="s">
         <v>459</v>
-      </c>
-      <c r="C48" t="s">
-        <v>458</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -8061,80 +8056,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="287" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="202" t="s">
-        <v>350</v>
-      </c>
-      <c r="B2" s="291" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291" t="s">
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="286" t="s">
-        <v>290</v>
-      </c>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
+        <v>289</v>
+      </c>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="201" t="s">
-        <v>351</v>
-      </c>
-      <c r="B3" s="292" t="s">
-        <v>289</v>
-      </c>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292" t="s">
-        <v>297</v>
-      </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
+        <v>350</v>
+      </c>
+      <c r="B3" s="290" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
+        <v>296</v>
+      </c>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
       <c r="M3" s="201" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N3" s="201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O3" s="203" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P3" s="206"/>
     </row>
@@ -8142,30 +8137,30 @@
       <c r="A4" s="204">
         <v>8</v>
       </c>
-      <c r="B4" s="284" t="s">
+      <c r="B4" s="289" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284" t="s">
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284" t="s">
-        <v>298</v>
-      </c>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289" t="s">
+        <v>297</v>
+      </c>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>152</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>18</v>
@@ -8173,119 +8168,119 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="191"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="285" t="s">
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="285"/>
-      <c r="I5" s="285"/>
-      <c r="J5" s="285" t="s">
-        <v>286</v>
-      </c>
-      <c r="K5" s="285"/>
-      <c r="L5" s="285"/>
+      <c r="H5" s="286"/>
+      <c r="I5" s="286"/>
+      <c r="J5" s="286" t="s">
+        <v>285</v>
+      </c>
+      <c r="K5" s="286"/>
+      <c r="L5" s="286"/>
       <c r="M5" s="200"/>
       <c r="N5" s="200" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="O5" s="207" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="191"/>
-      <c r="B6" s="285" t="s">
+      <c r="B6" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285" t="s">
-        <v>282</v>
-      </c>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="285" t="s">
-        <v>279</v>
-      </c>
-      <c r="H6" s="285"/>
-      <c r="I6" s="285"/>
-      <c r="J6" s="285"/>
-      <c r="K6" s="285"/>
-      <c r="L6" s="285"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286" t="s">
+        <v>281</v>
+      </c>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="286" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="286"/>
+      <c r="I6" s="286"/>
+      <c r="J6" s="286"/>
+      <c r="K6" s="286"/>
+      <c r="L6" s="286"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="O6" s="207" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="191"/>
-      <c r="B7" s="285" t="s">
+      <c r="B7" s="286" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285" t="s">
-        <v>283</v>
-      </c>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="285"/>
-      <c r="H7" s="285"/>
-      <c r="I7" s="285"/>
-      <c r="J7" s="285"/>
-      <c r="K7" s="285"/>
-      <c r="L7" s="285"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="286"/>
+      <c r="H7" s="286"/>
+      <c r="I7" s="286"/>
+      <c r="J7" s="286"/>
+      <c r="K7" s="286"/>
+      <c r="L7" s="286"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="191"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285" t="s">
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="285"/>
-      <c r="H8" s="285"/>
-      <c r="I8" s="285"/>
-      <c r="J8" s="285"/>
-      <c r="K8" s="285"/>
-      <c r="L8" s="285"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="286"/>
+      <c r="H8" s="286"/>
+      <c r="I8" s="286"/>
+      <c r="J8" s="286"/>
+      <c r="K8" s="286"/>
+      <c r="L8" s="286"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
-        <v>349</v>
-      </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="289"/>
+      <c r="A10" s="292" t="s">
+        <v>348</v>
+      </c>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
         <v>277</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>266</v>
@@ -8314,7 +8309,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -8358,529 +8353,532 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="277" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="277"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="269" t="s">
-        <v>359</v>
-      </c>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
+      <c r="A16" s="271" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="271"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="271"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="259"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
+      <c r="A21" s="261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B22" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="D22" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="258" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
         <v>306</v>
       </c>
-      <c r="B23" t="s">
-        <v>307</v>
-      </c>
       <c r="C23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>444</v>
+      </c>
+      <c r="D24" s="193" t="s">
         <v>328</v>
-      </c>
-      <c r="B24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" t="s">
-        <v>445</v>
-      </c>
-      <c r="D24" s="193" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D27" s="183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D28" s="193" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D29" s="193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D30" s="193" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>336</v>
+      </c>
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" t="s">
+        <v>444</v>
+      </c>
+      <c r="D31" s="193" t="s">
         <v>337</v>
-      </c>
-      <c r="B31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" t="s">
-        <v>445</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B32" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D32" s="193" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D33" s="193" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" t="s">
         <v>373</v>
       </c>
-      <c r="B34" t="s">
-        <v>374</v>
-      </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>378</v>
+      </c>
+      <c r="B35" t="s">
         <v>379</v>
       </c>
-      <c r="B35" t="s">
-        <v>380</v>
-      </c>
       <c r="C35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>378</v>
+      </c>
+      <c r="B36" t="s">
         <v>379</v>
       </c>
-      <c r="B36" t="s">
-        <v>380</v>
-      </c>
       <c r="C36" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>378</v>
+      </c>
+      <c r="B37" t="s">
         <v>379</v>
       </c>
-      <c r="B37" t="s">
-        <v>380</v>
-      </c>
       <c r="C37" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>378</v>
+      </c>
+      <c r="B38" t="s">
         <v>379</v>
       </c>
-      <c r="B38" t="s">
-        <v>380</v>
-      </c>
       <c r="C38" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" t="s">
         <v>379</v>
       </c>
-      <c r="B39" t="s">
-        <v>380</v>
-      </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>378</v>
+      </c>
+      <c r="B40" t="s">
         <v>379</v>
       </c>
-      <c r="B40" t="s">
-        <v>380</v>
-      </c>
       <c r="C40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>378</v>
+      </c>
+      <c r="B41" t="s">
         <v>379</v>
       </c>
-      <c r="B41" t="s">
-        <v>380</v>
-      </c>
       <c r="C41" t="s">
+        <v>444</v>
+      </c>
+      <c r="D41" s="180" t="s">
         <v>445</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>378</v>
+      </c>
+      <c r="B42" t="s">
         <v>379</v>
       </c>
-      <c r="B42" t="s">
-        <v>380</v>
-      </c>
       <c r="C42" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B43" t="s">
         <v>379</v>
       </c>
-      <c r="B43" t="s">
-        <v>380</v>
-      </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>378</v>
+      </c>
+      <c r="B44" t="s">
         <v>379</v>
       </c>
-      <c r="B44" t="s">
-        <v>380</v>
-      </c>
       <c r="C44" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>378</v>
+      </c>
+      <c r="B45" t="s">
         <v>379</v>
       </c>
-      <c r="B45" t="s">
-        <v>380</v>
-      </c>
       <c r="C45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" t="s">
         <v>379</v>
       </c>
-      <c r="B46" t="s">
-        <v>380</v>
-      </c>
       <c r="C46" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>378</v>
+      </c>
+      <c r="B47" t="s">
         <v>379</v>
       </c>
-      <c r="B47" t="s">
-        <v>380</v>
-      </c>
       <c r="C47" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>378</v>
+      </c>
+      <c r="B48" t="s">
         <v>379</v>
       </c>
-      <c r="B48" t="s">
-        <v>380</v>
-      </c>
       <c r="C48" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>378</v>
+      </c>
+      <c r="B49" t="s">
         <v>379</v>
       </c>
-      <c r="B49" t="s">
-        <v>380</v>
-      </c>
       <c r="C49" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" t="s">
         <v>379</v>
       </c>
-      <c r="B50" t="s">
-        <v>380</v>
-      </c>
       <c r="C50" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>378</v>
+      </c>
+      <c r="B51" t="s">
         <v>379</v>
       </c>
-      <c r="B51" t="s">
-        <v>380</v>
-      </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D52" s="193" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s">
         <v>373</v>
       </c>
-      <c r="B53" t="s">
-        <v>374</v>
-      </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="G6:I6"/>
@@ -8897,15 +8895,12 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8997,101 +8992,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="290" t="s">
+      <c r="A1" s="287" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="291" t="s">
+      <c r="A2" s="288" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291" t="s">
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="291"/>
-      <c r="I2" s="291"/>
-      <c r="J2" s="291"/>
-      <c r="K2" s="291"/>
-      <c r="L2" s="291"/>
-      <c r="M2" s="286" t="s">
-        <v>288</v>
-      </c>
-      <c r="N2" s="286"/>
-      <c r="O2" s="286"/>
-      <c r="P2" s="286"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="291" t="s">
+        <v>287</v>
+      </c>
+      <c r="N2" s="291"/>
+      <c r="O2" s="291"/>
+      <c r="P2" s="291"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="292" t="s">
+      <c r="A3" s="290" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290" t="s">
+        <v>290</v>
+      </c>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="201" t="s">
+        <v>293</v>
+      </c>
+      <c r="N3" s="201" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="292"/>
-      <c r="C3" s="292"/>
-      <c r="D3" s="292"/>
-      <c r="E3" s="292"/>
-      <c r="F3" s="292"/>
-      <c r="G3" s="292" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" s="292"/>
-      <c r="I3" s="292"/>
-      <c r="J3" s="292"/>
-      <c r="K3" s="292"/>
-      <c r="L3" s="292"/>
-      <c r="M3" s="201" t="s">
-        <v>294</v>
-      </c>
-      <c r="N3" s="201" t="s">
-        <v>293</v>
-      </c>
       <c r="O3" s="201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P3" s="201" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="Q3" s="205"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="284" t="s">
+      <c r="A4" s="289" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="284"/>
-      <c r="C4" s="284"/>
-      <c r="D4" s="284" t="s">
+      <c r="B4" s="289"/>
+      <c r="C4" s="289"/>
+      <c r="D4" s="289" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="284"/>
-      <c r="F4" s="284"/>
-      <c r="G4" s="284" t="s">
+      <c r="E4" s="289"/>
+      <c r="F4" s="289"/>
+      <c r="G4" s="289" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="284"/>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="H4" s="289"/>
+      <c r="I4" s="289"/>
+      <c r="J4" s="289"/>
+      <c r="K4" s="289"/>
+      <c r="L4" s="289"/>
       <c r="M4" s="166" t="s">
         <v>247</v>
       </c>
@@ -9099,87 +9094,87 @@
         <v>152</v>
       </c>
       <c r="O4" s="166" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="P4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285"/>
-      <c r="B5" s="285"/>
-      <c r="C5" s="285"/>
-      <c r="D5" s="285"/>
-      <c r="E5" s="285"/>
-      <c r="F5" s="285"/>
-      <c r="G5" s="293" t="s">
+      <c r="A5" s="286"/>
+      <c r="B5" s="286"/>
+      <c r="C5" s="286"/>
+      <c r="D5" s="286"/>
+      <c r="E5" s="286"/>
+      <c r="F5" s="286"/>
+      <c r="G5" s="295" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="293"/>
-      <c r="K5" s="293"/>
-      <c r="L5" s="293"/>
+      <c r="H5" s="295"/>
+      <c r="I5" s="295"/>
+      <c r="J5" s="295"/>
+      <c r="K5" s="295"/>
+      <c r="L5" s="295"/>
       <c r="M5" s="200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="N5" s="200"/>
       <c r="O5" s="200" t="s">
+        <v>384</v>
+      </c>
+      <c r="P5" s="200" t="s">
         <v>385</v>
       </c>
-      <c r="P5" s="200" t="s">
-        <v>386</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="285"/>
-      <c r="B6" s="285"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="285"/>
-      <c r="E6" s="285"/>
-      <c r="F6" s="285"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
+      <c r="A6" s="286"/>
+      <c r="B6" s="286"/>
+      <c r="C6" s="286"/>
+      <c r="D6" s="286"/>
+      <c r="E6" s="286"/>
+      <c r="F6" s="286"/>
+      <c r="G6" s="295"/>
+      <c r="H6" s="295"/>
+      <c r="I6" s="295"/>
+      <c r="J6" s="295"/>
+      <c r="K6" s="295"/>
+      <c r="L6" s="295"/>
       <c r="M6" s="200"/>
       <c r="N6" s="200"/>
       <c r="O6" s="200"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="285"/>
-      <c r="B7" s="285"/>
-      <c r="C7" s="285"/>
-      <c r="D7" s="285"/>
-      <c r="E7" s="285"/>
-      <c r="F7" s="285"/>
-      <c r="G7" s="293"/>
-      <c r="H7" s="293"/>
-      <c r="I7" s="293"/>
-      <c r="J7" s="293"/>
-      <c r="K7" s="293"/>
-      <c r="L7" s="293"/>
+      <c r="A7" s="286"/>
+      <c r="B7" s="286"/>
+      <c r="C7" s="286"/>
+      <c r="D7" s="286"/>
+      <c r="E7" s="286"/>
+      <c r="F7" s="286"/>
+      <c r="G7" s="295"/>
+      <c r="H7" s="295"/>
+      <c r="I7" s="295"/>
+      <c r="J7" s="295"/>
+      <c r="K7" s="295"/>
+      <c r="L7" s="295"/>
       <c r="M7" s="200"/>
       <c r="N7" s="200"/>
       <c r="O7" s="200"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="285"/>
-      <c r="B8" s="285"/>
-      <c r="C8" s="285"/>
-      <c r="D8" s="285"/>
-      <c r="E8" s="285"/>
-      <c r="F8" s="285"/>
-      <c r="G8" s="293"/>
-      <c r="H8" s="293"/>
-      <c r="I8" s="293"/>
-      <c r="J8" s="293"/>
-      <c r="K8" s="293"/>
-      <c r="L8" s="293"/>
+      <c r="A8" s="286"/>
+      <c r="B8" s="286"/>
+      <c r="C8" s="286"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="286"/>
+      <c r="F8" s="286"/>
+      <c r="G8" s="295"/>
+      <c r="H8" s="295"/>
+      <c r="I8" s="295"/>
+      <c r="J8" s="295"/>
+      <c r="K8" s="295"/>
+      <c r="L8" s="295"/>
       <c r="M8" s="200"/>
       <c r="N8" s="200"/>
       <c r="O8" s="200"/>
@@ -9187,27 +9182,27 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="287" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="288"/>
-      <c r="C10" s="288"/>
-      <c r="D10" s="288"/>
-      <c r="E10" s="288"/>
-      <c r="F10" s="288"/>
-      <c r="G10" s="288"/>
-      <c r="H10" s="288"/>
-      <c r="I10" s="289"/>
+      <c r="A10" s="292" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="293"/>
+      <c r="C10" s="293"/>
+      <c r="D10" s="293"/>
+      <c r="E10" s="293"/>
+      <c r="F10" s="293"/>
+      <c r="G10" s="293"/>
+      <c r="H10" s="293"/>
+      <c r="I10" s="294"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
         <v>277</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C11" s="194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>266</v>
@@ -9234,7 +9229,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -9279,257 +9274,267 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="275" t="s">
+      <c r="A15" s="277" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="276"/>
-      <c r="C15" s="276"/>
-      <c r="D15" s="276"/>
-      <c r="E15" s="276"/>
-      <c r="F15" s="276"/>
-      <c r="G15" s="276"/>
-      <c r="H15" s="277"/>
+      <c r="B15" s="278"/>
+      <c r="C15" s="278"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="279"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="269" t="s">
-        <v>360</v>
-      </c>
-      <c r="B16" s="270"/>
-      <c r="C16" s="270"/>
-      <c r="D16" s="270"/>
-      <c r="E16" s="270"/>
-      <c r="F16" s="270"/>
-      <c r="G16" s="270"/>
-      <c r="H16" s="271"/>
+      <c r="A16" s="271" t="s">
+        <v>359</v>
+      </c>
+      <c r="B16" s="272"/>
+      <c r="C16" s="272"/>
+      <c r="D16" s="272"/>
+      <c r="E16" s="272"/>
+      <c r="F16" s="272"/>
+      <c r="G16" s="272"/>
+      <c r="H16" s="273"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="269"/>
-      <c r="B17" s="270"/>
-      <c r="C17" s="270"/>
-      <c r="D17" s="270"/>
-      <c r="E17" s="270"/>
-      <c r="F17" s="270"/>
-      <c r="G17" s="270"/>
-      <c r="H17" s="271"/>
+      <c r="A17" s="271"/>
+      <c r="B17" s="272"/>
+      <c r="C17" s="272"/>
+      <c r="D17" s="272"/>
+      <c r="E17" s="272"/>
+      <c r="F17" s="272"/>
+      <c r="G17" s="272"/>
+      <c r="H17" s="273"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="269"/>
-      <c r="B18" s="270"/>
-      <c r="C18" s="270"/>
-      <c r="D18" s="270"/>
-      <c r="E18" s="270"/>
-      <c r="F18" s="270"/>
-      <c r="G18" s="270"/>
-      <c r="H18" s="271"/>
+      <c r="A18" s="271"/>
+      <c r="B18" s="272"/>
+      <c r="C18" s="272"/>
+      <c r="D18" s="272"/>
+      <c r="E18" s="272"/>
+      <c r="F18" s="272"/>
+      <c r="G18" s="272"/>
+      <c r="H18" s="273"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="272"/>
-      <c r="B19" s="273"/>
-      <c r="C19" s="273"/>
-      <c r="D19" s="273"/>
-      <c r="E19" s="273"/>
-      <c r="F19" s="273"/>
-      <c r="G19" s="273"/>
-      <c r="H19" s="274"/>
+      <c r="A19" s="274"/>
+      <c r="B19" s="275"/>
+      <c r="C19" s="275"/>
+      <c r="D19" s="275"/>
+      <c r="E19" s="275"/>
+      <c r="F19" s="275"/>
+      <c r="G19" s="275"/>
+      <c r="H19" s="276"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="259" t="s">
-        <v>302</v>
-      </c>
-      <c r="B21" s="259"/>
-      <c r="C21" s="259"/>
-      <c r="D21" s="259"/>
-      <c r="E21" s="259"/>
-      <c r="F21" s="259"/>
-      <c r="G21" s="259"/>
+      <c r="A21" s="261" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="261"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B22" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="C22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="D22" s="260" t="s">
         <v>304</v>
       </c>
-      <c r="D22" s="258" t="s">
-        <v>305</v>
-      </c>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
+      <c r="E22" s="260"/>
+      <c r="F22" s="260"/>
+      <c r="G22" s="260"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>305</v>
+      </c>
+      <c r="B23" t="s">
         <v>306</v>
       </c>
-      <c r="B23" t="s">
-        <v>307</v>
-      </c>
       <c r="C23" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24" t="s">
+        <v>331</v>
+      </c>
+      <c r="C24" t="s">
+        <v>454</v>
+      </c>
+      <c r="D24" s="193" t="s">
         <v>328</v>
-      </c>
-      <c r="B24" t="s">
-        <v>332</v>
-      </c>
-      <c r="C24" t="s">
-        <v>455</v>
-      </c>
-      <c r="D24" s="193" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D25" s="180" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B27" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D27" s="183" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B28" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D28" s="193" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D29" s="193" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D30" s="193" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" t="s">
+        <v>307</v>
+      </c>
+      <c r="C31" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="193" t="s">
         <v>339</v>
-      </c>
-      <c r="B31" t="s">
-        <v>308</v>
-      </c>
-      <c r="C31" t="s">
-        <v>455</v>
-      </c>
-      <c r="D31" s="193" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D32" s="193" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>372</v>
+      </c>
+      <c r="B33" t="s">
         <v>373</v>
       </c>
-      <c r="B33" t="s">
-        <v>374</v>
-      </c>
       <c r="C33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>341</v>
+      </c>
+      <c r="B34" t="s">
         <v>342</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D34" s="193" t="s">
         <v>343</v>
-      </c>
-      <c r="C34" t="s">
-        <v>455</v>
-      </c>
-      <c r="D34" s="193" t="s">
-        <v>344</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9546,16 +9551,6 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9621,7 +9616,7 @@
   </sheetPr>
   <dimension ref="A1:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -9637,12 +9632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="296" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="296"/>
+      <c r="B1" s="297"/>
+      <c r="C1" s="297"/>
+      <c r="D1" s="298"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9725,25 +9720,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="214" t="s">
+        <v>486</v>
+      </c>
+      <c r="B7" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="C7" s="311"/>
+      <c r="C7" s="215"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="310" t="s">
+      <c r="A8" s="214" t="s">
+        <v>488</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="C8" s="311"/>
+      <c r="C8" s="215"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10328,7 +10323,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B63" s="184"/>
       <c r="C63" s="186"/>
@@ -10336,10 +10331,10 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="B64" s="16" t="s">
         <v>346</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>347</v>
       </c>
       <c r="C64" s="187"/>
       <c r="D64" s="26">
@@ -10403,23 +10398,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="302" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="301"/>
-      <c r="E1" s="301"/>
-      <c r="F1" s="301"/>
-      <c r="G1" s="301"/>
-      <c r="H1" s="301"/>
-      <c r="I1" s="301"/>
-      <c r="J1" s="301"/>
-      <c r="K1" s="301"/>
-      <c r="L1" s="301"/>
-      <c r="M1" s="301"/>
-      <c r="N1" s="301"/>
-      <c r="O1" s="301"/>
+      <c r="B1" s="303"/>
+      <c r="C1" s="303"/>
+      <c r="D1" s="303"/>
+      <c r="E1" s="303"/>
+      <c r="F1" s="303"/>
+      <c r="G1" s="303"/>
+      <c r="H1" s="303"/>
+      <c r="I1" s="303"/>
+      <c r="J1" s="303"/>
+      <c r="K1" s="303"/>
+      <c r="L1" s="303"/>
+      <c r="M1" s="303"/>
+      <c r="N1" s="303"/>
+      <c r="O1" s="303"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10437,17 +10432,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="299"/>
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10638,21 +10633,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="297" t="s">
+      <c r="B19" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="298"/>
-      <c r="D19" s="298"/>
-      <c r="E19" s="298"/>
-      <c r="F19" s="298"/>
-      <c r="G19" s="298"/>
-      <c r="H19" s="298"/>
-      <c r="I19" s="298"/>
-      <c r="J19" s="298"/>
-      <c r="K19" s="298"/>
-      <c r="L19" s="298"/>
-      <c r="M19" s="298"/>
-      <c r="N19" s="299"/>
+      <c r="C19" s="300"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="300"/>
+      <c r="F19" s="300"/>
+      <c r="G19" s="300"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="300"/>
+      <c r="J19" s="300"/>
+      <c r="K19" s="300"/>
+      <c r="L19" s="300"/>
+      <c r="M19" s="300"/>
+      <c r="N19" s="301"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10854,27 +10849,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="305" t="s">
+      <c r="A1" s="307" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="306"/>
-      <c r="C1" s="306"/>
-      <c r="D1" s="306"/>
-      <c r="E1" s="306"/>
-      <c r="F1" s="306"/>
-      <c r="G1" s="306"/>
-      <c r="H1" s="306"/>
-      <c r="I1" s="306"/>
-      <c r="J1" s="306"/>
-      <c r="K1" s="306"/>
-      <c r="L1" s="306"/>
-      <c r="M1" s="306"/>
-      <c r="N1" s="306"/>
-      <c r="O1" s="306"/>
-      <c r="P1" s="306"/>
-      <c r="Q1" s="306"/>
-      <c r="R1" s="306"/>
-      <c r="S1" s="306"/>
+      <c r="B1" s="308"/>
+      <c r="C1" s="308"/>
+      <c r="D1" s="308"/>
+      <c r="E1" s="308"/>
+      <c r="F1" s="308"/>
+      <c r="G1" s="308"/>
+      <c r="H1" s="308"/>
+      <c r="I1" s="308"/>
+      <c r="J1" s="308"/>
+      <c r="K1" s="308"/>
+      <c r="L1" s="308"/>
+      <c r="M1" s="308"/>
+      <c r="N1" s="308"/>
+      <c r="O1" s="308"/>
+      <c r="P1" s="308"/>
+      <c r="Q1" s="308"/>
+      <c r="R1" s="308"/>
+      <c r="S1" s="308"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10888,26 +10883,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="299"/>
-      <c r="L3" s="302" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="300"/>
+      <c r="J3" s="301"/>
+      <c r="L3" s="304" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="303"/>
-      <c r="N3" s="303"/>
-      <c r="O3" s="303"/>
-      <c r="P3" s="303"/>
-      <c r="Q3" s="303"/>
-      <c r="R3" s="304"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="305"/>
+      <c r="O3" s="305"/>
+      <c r="P3" s="305"/>
+      <c r="Q3" s="305"/>
+      <c r="R3" s="306"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11138,23 +11133,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="309" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="309"/>
+      <c r="B1" s="310"/>
+      <c r="C1" s="310"/>
+      <c r="D1" s="310"/>
+      <c r="E1" s="310"/>
+      <c r="F1" s="310"/>
+      <c r="G1" s="310"/>
+      <c r="H1" s="310"/>
+      <c r="I1" s="310"/>
+      <c r="J1" s="310"/>
+      <c r="K1" s="310"/>
+      <c r="L1" s="310"/>
+      <c r="M1" s="310"/>
+      <c r="N1" s="310"/>
+      <c r="O1" s="311"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11167,22 +11162,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="297" t="s">
+      <c r="B3" s="299" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298"/>
-      <c r="H3" s="299"/>
-      <c r="J3" s="302" t="s">
+      <c r="C3" s="300"/>
+      <c r="D3" s="300"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="301"/>
+      <c r="J3" s="304" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="303"/>
-      <c r="N3" s="304"/>
+      <c r="K3" s="305"/>
+      <c r="L3" s="305"/>
+      <c r="M3" s="305"/>
+      <c r="N3" s="306"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="488">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -1710,30 +1710,6 @@
     <t xml:space="preserve">Note: Always leave an empty row between Comparisons/ Comparison Group(s) and preferences below. </t>
   </si>
   <si>
-    <t>End Row Number</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Required: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Input the bottom row number for "Comparison Group(s)" and "Comparisons"</t>
-    </r>
-  </si>
-  <si>
     <t>A skip is also green.</t>
   </si>
   <si>
@@ -2432,7 +2408,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2679,14 +2655,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3361,7 +3329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="321">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3887,13 +3855,10 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3918,14 +3883,8 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -3955,10 +3914,88 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4003,89 +4040,11 @@
     <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4165,31 +4124,31 @@
     <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4245,6 +4204,42 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5097,86 +5092,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="239" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="240"/>
-      <c r="C1" s="240"/>
-      <c r="D1" s="240"/>
-      <c r="E1" s="240"/>
-      <c r="F1" s="240"/>
-      <c r="G1" s="240"/>
-      <c r="H1" s="240"/>
-      <c r="I1" s="240"/>
-      <c r="J1" s="240"/>
-      <c r="K1" s="241"/>
+      <c r="A1" s="225" t="s">
+        <v>372</v>
+      </c>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="227"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="241" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="219"/>
+      <c r="B3" s="242"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="232" t="s">
+      <c r="A4" s="239" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="233"/>
+      <c r="B4" s="240"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="234" t="s">
+      <c r="A5" s="255" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="235"/>
+      <c r="B5" s="256"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="218" t="s">
+      <c r="A7" s="241" t="s">
         <v>269</v>
       </c>
-      <c r="B7" s="220"/>
-      <c r="C7" s="220"/>
-      <c r="D7" s="220"/>
-      <c r="E7" s="220"/>
-      <c r="F7" s="220"/>
-      <c r="G7" s="220"/>
-      <c r="H7" s="220"/>
-      <c r="I7" s="220"/>
-      <c r="J7" s="220"/>
-      <c r="K7" s="219"/>
+      <c r="B7" s="243"/>
+      <c r="C7" s="243"/>
+      <c r="D7" s="243"/>
+      <c r="E7" s="243"/>
+      <c r="F7" s="243"/>
+      <c r="G7" s="243"/>
+      <c r="H7" s="243"/>
+      <c r="I7" s="243"/>
+      <c r="J7" s="243"/>
+      <c r="K7" s="242"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="242" t="s">
+      <c r="A8" s="228" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="243"/>
-      <c r="C8" s="243"/>
-      <c r="D8" s="243"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="243"/>
-      <c r="G8" s="243"/>
-      <c r="H8" s="243"/>
-      <c r="I8" s="243"/>
-      <c r="J8" s="243"/>
-      <c r="K8" s="244"/>
+      <c r="B8" s="229"/>
+      <c r="C8" s="229"/>
+      <c r="D8" s="229"/>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="229"/>
+      <c r="H8" s="229"/>
+      <c r="I8" s="229"/>
+      <c r="J8" s="229"/>
+      <c r="K8" s="230"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="245"/>
-      <c r="B9" s="246"/>
-      <c r="C9" s="246"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="246"/>
-      <c r="F9" s="246"/>
-      <c r="G9" s="246"/>
-      <c r="H9" s="246"/>
-      <c r="I9" s="246"/>
-      <c r="J9" s="246"/>
-      <c r="K9" s="247"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
+      <c r="C9" s="232"/>
+      <c r="D9" s="232"/>
+      <c r="E9" s="232"/>
+      <c r="F9" s="232"/>
+      <c r="G9" s="232"/>
+      <c r="H9" s="232"/>
+      <c r="I9" s="232"/>
+      <c r="J9" s="232"/>
+      <c r="K9" s="233"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5187,62 +5182,62 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="221" t="s">
+      <c r="A11" s="244" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="222"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="223"/>
+      <c r="B11" s="245"/>
+      <c r="C11" s="245"/>
+      <c r="D11" s="246"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="224" t="s">
+      <c r="A12" s="247" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="225"/>
-      <c r="C12" s="226" t="s">
+      <c r="B12" s="248"/>
+      <c r="C12" s="249" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="227"/>
+      <c r="D12" s="250"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="228"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="230"/>
-      <c r="D13" s="231"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="253"/>
+      <c r="D13" s="254"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="221" t="s">
+      <c r="A15" s="244" t="s">
         <v>271</v>
       </c>
-      <c r="B15" s="223"/>
-      <c r="E15" s="221" t="s">
+      <c r="B15" s="246"/>
+      <c r="E15" s="244" t="s">
         <v>309</v>
       </c>
-      <c r="F15" s="222"/>
-      <c r="G15" s="222"/>
-      <c r="H15" s="222"/>
-      <c r="I15" s="223"/>
+      <c r="F15" s="245"/>
+      <c r="G15" s="245"/>
+      <c r="H15" s="245"/>
+      <c r="I15" s="246"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="232" t="s">
+      <c r="A16" s="239" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="233"/>
+      <c r="B16" s="240"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="248" t="s">
+      <c r="E16" s="234" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="249"/>
-      <c r="G16" s="249"/>
-      <c r="H16" s="249"/>
-      <c r="I16" s="250"/>
+      <c r="F16" s="235"/>
+      <c r="G16" s="235"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="236"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
@@ -5252,18 +5247,18 @@
         <v>274</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="251" t="s">
+      <c r="E17" s="237" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="252"/>
-      <c r="G17" s="212" t="s">
+      <c r="F17" s="238"/>
+      <c r="G17" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="212" t="s">
+      <c r="H17" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="195" t="s">
-        <v>352</v>
+      <c r="I17" s="194" t="s">
+        <v>350</v>
       </c>
       <c r="J17" s="81"/>
     </row>
@@ -5285,8 +5280,8 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="236" t="s">
-        <v>484</v>
+      <c r="I18" s="213" t="s">
+        <v>482</v>
       </c>
       <c r="J18" s="81"/>
     </row>
@@ -5308,7 +5303,7 @@
       <c r="H19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="236"/>
+      <c r="I19" s="213"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5325,7 +5320,7 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="237"/>
+      <c r="I20" s="214"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5347,32 +5342,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="216" t="s">
+      <c r="E23" s="215" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="238"/>
-      <c r="G23" s="238"/>
-      <c r="H23" s="238"/>
+      <c r="F23" s="216"/>
+      <c r="G23" s="216"/>
+      <c r="H23" s="216"/>
       <c r="I23" s="217"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216" t="s">
+      <c r="A24" s="215" t="s">
         <v>233</v>
       </c>
       <c r="B24" s="217"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="256" t="s">
+      <c r="E24" s="221" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="257"/>
-      <c r="G24" s="212" t="s">
+      <c r="F24" s="222"/>
+      <c r="G24" s="209" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="212" t="s">
+      <c r="H24" s="209" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="195" t="s">
-        <v>353</v>
+      <c r="I24" s="194" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5393,8 +5388,8 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="253" t="s">
-        <v>485</v>
+      <c r="I25" s="218" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -5417,7 +5412,7 @@
       <c r="H26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="254"/>
+      <c r="I26" s="219"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
@@ -5433,7 +5428,7 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="255"/>
+      <c r="I27" s="220"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
@@ -5457,34 +5452,34 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="216" t="s">
+      <c r="E30" s="215" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="238"/>
-      <c r="G30" s="238"/>
-      <c r="H30" s="238"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
       <c r="I30" s="217"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="258" t="s">
-        <v>461</v>
-      </c>
-      <c r="F31" s="259"/>
-      <c r="G31" s="210" t="s">
+      <c r="E31" s="223" t="s">
+        <v>459</v>
+      </c>
+      <c r="F31" s="224"/>
+      <c r="G31" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="210" t="s">
+      <c r="H31" s="207" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="195" t="s">
-        <v>354</v>
+      <c r="I31" s="194" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="216" t="s">
+      <c r="A32" s="215" t="s">
         <v>234</v>
       </c>
       <c r="B32" s="217"/>
@@ -5497,7 +5492,7 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="236"/>
+      <c r="I32" s="213"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
@@ -5517,7 +5512,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="236"/>
+      <c r="I33" s="213"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5532,7 +5527,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="236"/>
+      <c r="I34" s="213"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5545,7 +5540,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="236"/>
+      <c r="I35" s="213"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5558,7 +5553,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="236"/>
+      <c r="I36" s="213"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5571,7 +5566,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="237"/>
+      <c r="I37" s="214"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5584,25 +5579,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="216" t="s">
+      <c r="E40" s="215" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="238"/>
-      <c r="G40" s="238"/>
-      <c r="H40" s="238"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
+      <c r="H40" s="216"/>
       <c r="I40" s="217"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="256"/>
-      <c r="F41" s="257"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="222"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="195" t="s">
-        <v>355</v>
+      <c r="I41" s="194" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5612,7 +5607,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="236"/>
+      <c r="I42" s="213"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5621,7 +5616,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="236"/>
+      <c r="I43" s="213"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5630,7 +5625,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="236"/>
+      <c r="I44" s="213"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5639,7 +5634,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="236"/>
+      <c r="I45" s="213"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5648,7 +5643,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="236"/>
+      <c r="I46" s="213"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5657,25 +5652,11 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="237"/>
+      <c r="I47" s="214"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5691,6 +5672,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5730,32 +5725,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="262" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="263"/>
-      <c r="C1" s="263"/>
-      <c r="D1" s="263"/>
-      <c r="E1" s="263"/>
-      <c r="F1" s="263"/>
-      <c r="G1" s="263"/>
-      <c r="H1" s="263"/>
-      <c r="I1" s="263"/>
-      <c r="J1" s="264"/>
+      <c r="A1" s="259" t="s">
+        <v>373</v>
+      </c>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="261"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="262" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="266"/>
-      <c r="C2" s="266"/>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
-      <c r="H2" s="266"/>
-      <c r="I2" s="266"/>
-      <c r="J2" s="267"/>
+      <c r="B2" s="263"/>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="264"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5769,13 +5764,13 @@
       <c r="B3" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="C3" s="268" t="s">
+      <c r="C3" s="265" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="269"/>
-      <c r="E3" s="269"/>
-      <c r="F3" s="269"/>
-      <c r="G3" s="270"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="267"/>
       <c r="H3" s="181" t="s">
         <v>312</v>
       </c>
@@ -5819,8 +5814,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="199" t="s">
-        <v>404</v>
+      <c r="J4" s="198" t="s">
+        <v>402</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5830,7 +5825,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
@@ -5854,8 +5849,8 @@
         <v>196</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="211" t="s">
-        <v>462</v>
+      <c r="K5" s="208" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5888,8 +5883,8 @@
         <v>197</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="211" t="s">
-        <v>463</v>
+      <c r="K6" s="208" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5918,8 +5913,8 @@
         <v>198</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="211" t="s">
-        <v>464</v>
+      <c r="K7" s="208" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5952,8 +5947,8 @@
         <v>199</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="211" t="s">
-        <v>465</v>
+      <c r="K8" s="208" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5984,8 +5979,8 @@
         <v>200</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="211" t="s">
-        <v>466</v>
+      <c r="K9" s="208" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6014,8 +6009,8 @@
         <v>201</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="211" t="s">
-        <v>467</v>
+      <c r="K10" s="208" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6044,8 +6039,8 @@
         <v>202</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="211" t="s">
-        <v>468</v>
+      <c r="K11" s="208" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6074,8 +6069,8 @@
         <v>203</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="211" t="s">
-        <v>469</v>
+      <c r="K12" s="208" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6104,8 +6099,8 @@
         <v>204</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="211" t="s">
-        <v>470</v>
+      <c r="K13" s="208" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6136,8 +6131,8 @@
         <v>205</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="211" t="s">
-        <v>471</v>
+      <c r="K14" s="208" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6170,8 +6165,8 @@
         <v>206</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="211" t="s">
-        <v>472</v>
+      <c r="K15" s="208" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6200,8 +6195,8 @@
         <v>207</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="211" t="s">
-        <v>473</v>
+      <c r="K16" s="208" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6234,8 +6229,8 @@
         <v>208</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="211" t="s">
-        <v>474</v>
+      <c r="K17" s="208" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6268,8 +6263,8 @@
         <v>209</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="211" t="s">
-        <v>475</v>
+      <c r="K18" s="208" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6292,8 +6287,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="211" t="s">
-        <v>476</v>
+      <c r="K19" s="208" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6316,8 +6311,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="211" t="s">
-        <v>477</v>
+      <c r="K20" s="208" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6340,8 +6335,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="211" t="s">
-        <v>478</v>
+      <c r="K21" s="208" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6364,8 +6359,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="211" t="s">
-        <v>479</v>
+      <c r="K22" s="208" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6388,8 +6383,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="211" t="s">
-        <v>480</v>
+      <c r="K23" s="208" t="s">
+        <v>478</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6412,8 +6407,8 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="211" t="s">
-        <v>481</v>
+      <c r="K24" s="208" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -6436,65 +6431,65 @@
       <c r="J25" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="211" t="s">
-        <v>482</v>
+      <c r="K25" s="208" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="280" t="s">
+      <c r="A27" s="277" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="281"/>
-      <c r="C27" s="281"/>
-      <c r="D27" s="281"/>
-      <c r="E27" s="281"/>
-      <c r="F27" s="281"/>
-      <c r="G27" s="281"/>
-      <c r="H27" s="281"/>
-      <c r="I27" s="281"/>
-      <c r="J27" s="281"/>
-      <c r="K27" s="281"/>
-      <c r="L27" s="281"/>
-      <c r="M27" s="281"/>
-      <c r="N27" s="281"/>
-      <c r="O27" s="281"/>
-      <c r="P27" s="281"/>
-      <c r="Q27" s="282"/>
+      <c r="B27" s="278"/>
+      <c r="C27" s="278"/>
+      <c r="D27" s="278"/>
+      <c r="E27" s="278"/>
+      <c r="F27" s="278"/>
+      <c r="G27" s="278"/>
+      <c r="H27" s="278"/>
+      <c r="I27" s="278"/>
+      <c r="J27" s="278"/>
+      <c r="K27" s="278"/>
+      <c r="L27" s="278"/>
+      <c r="M27" s="278"/>
+      <c r="N27" s="278"/>
+      <c r="O27" s="278"/>
+      <c r="P27" s="278"/>
+      <c r="Q27" s="279"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="195" t="s">
+        <v>358</v>
+      </c>
+      <c r="C28" s="193" t="s">
+        <v>326</v>
+      </c>
+      <c r="D28" s="193" t="s">
         <v>360</v>
       </c>
-      <c r="C28" s="194" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" s="194" t="s">
-        <v>362</v>
-      </c>
-      <c r="E28" s="194" t="s">
+      <c r="E28" s="193" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="194" t="s">
-        <v>377</v>
-      </c>
-      <c r="G28" s="194" t="s">
-        <v>431</v>
-      </c>
-      <c r="H28" s="198" t="s">
+      <c r="F28" s="193" t="s">
+        <v>375</v>
+      </c>
+      <c r="G28" s="193" t="s">
+        <v>429</v>
+      </c>
+      <c r="H28" s="197" t="s">
         <v>263</v>
       </c>
-      <c r="I28" s="198" t="s">
-        <v>431</v>
-      </c>
-      <c r="J28" s="198" t="s">
-        <v>443</v>
-      </c>
-      <c r="K28" s="198" t="s">
-        <v>431</v>
+      <c r="I28" s="197" t="s">
+        <v>429</v>
+      </c>
+      <c r="J28" s="197" t="s">
+        <v>441</v>
+      </c>
+      <c r="K28" s="197" t="s">
+        <v>429</v>
       </c>
       <c r="L28" s="123" t="s">
         <v>266</v>
@@ -6505,13 +6500,13 @@
       <c r="N28" s="123" t="s">
         <v>266</v>
       </c>
-      <c r="O28" s="194" t="s">
+      <c r="O28" s="193" t="s">
         <v>272</v>
       </c>
-      <c r="P28" s="194" t="s">
+      <c r="P28" s="193" t="s">
         <v>272</v>
       </c>
-      <c r="Q28" s="197" t="s">
+      <c r="Q28" s="196" t="s">
         <v>272</v>
       </c>
     </row>
@@ -6524,7 +6519,7 @@
         <v>246</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E29" s="96" t="s">
         <v>247</v>
@@ -6533,19 +6528,19 @@
         <v>152</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="I29" s="96" t="s">
+        <v>433</v>
+      </c>
+      <c r="J29" s="96" t="s">
         <v>435</v>
       </c>
-      <c r="J29" s="96" t="s">
-        <v>437</v>
-      </c>
       <c r="K29" s="96" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>92</v>
@@ -6568,25 +6563,25 @@
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="208" t="s">
-        <v>434</v>
+      <c r="B30" s="205" t="s">
+        <v>432</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6607,70 +6602,70 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="277" t="s">
+      <c r="A32" s="274" t="s">
         <v>276</v>
       </c>
-      <c r="B32" s="278"/>
-      <c r="C32" s="278"/>
-      <c r="D32" s="278"/>
-      <c r="E32" s="278"/>
-      <c r="F32" s="278"/>
-      <c r="G32" s="278"/>
-      <c r="H32" s="279"/>
+      <c r="B32" s="275"/>
+      <c r="C32" s="275"/>
+      <c r="D32" s="275"/>
+      <c r="E32" s="275"/>
+      <c r="F32" s="275"/>
+      <c r="G32" s="275"/>
+      <c r="H32" s="276"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271" t="s">
-        <v>357</v>
-      </c>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268" t="s">
+        <v>355</v>
+      </c>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="268"/>
+      <c r="B34" s="269"/>
+      <c r="C34" s="269"/>
+      <c r="D34" s="269"/>
+      <c r="E34" s="269"/>
+      <c r="F34" s="269"/>
+      <c r="G34" s="269"/>
+      <c r="H34" s="270"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="271"/>
-      <c r="B35" s="272"/>
-      <c r="C35" s="272"/>
-      <c r="D35" s="272"/>
-      <c r="E35" s="272"/>
-      <c r="F35" s="272"/>
-      <c r="G35" s="272"/>
-      <c r="H35" s="273"/>
+      <c r="A35" s="268"/>
+      <c r="B35" s="269"/>
+      <c r="C35" s="269"/>
+      <c r="D35" s="269"/>
+      <c r="E35" s="269"/>
+      <c r="F35" s="269"/>
+      <c r="G35" s="269"/>
+      <c r="H35" s="270"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="274"/>
-      <c r="B36" s="275"/>
-      <c r="C36" s="275"/>
-      <c r="D36" s="275"/>
-      <c r="E36" s="275"/>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
-      <c r="H36" s="276"/>
+      <c r="A36" s="271"/>
+      <c r="B36" s="272"/>
+      <c r="C36" s="272"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="273"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="261" t="s">
+      <c r="A38" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="B38" s="261"/>
-      <c r="C38" s="261"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="261"/>
-      <c r="F38" s="261"/>
-      <c r="G38" s="261"/>
+      <c r="B38" s="258"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6682,12 +6677,12 @@
       <c r="C39" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D39" s="260" t="s">
+      <c r="D39" s="257" t="s">
         <v>304</v>
       </c>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
-      <c r="G39" s="260"/>
+      <c r="E39" s="257"/>
+      <c r="F39" s="257"/>
+      <c r="G39" s="257"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6697,10 +6692,10 @@
         <v>306</v>
       </c>
       <c r="C40" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6711,9 +6706,9 @@
         <v>331</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
-      </c>
-      <c r="D41" s="193" t="s">
+        <v>439</v>
+      </c>
+      <c r="D41" s="192" t="s">
         <v>328</v>
       </c>
     </row>
@@ -6725,7 +6720,7 @@
         <v>332</v>
       </c>
       <c r="C42" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D42" s="180" t="s">
         <v>329</v>
@@ -6739,10 +6734,10 @@
         <v>333</v>
       </c>
       <c r="C43" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D43" s="180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -6753,7 +6748,7 @@
         <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D44" s="183" t="s">
         <v>330</v>
@@ -6761,380 +6756,380 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B45" t="s">
         <v>307</v>
       </c>
       <c r="C45" t="s">
-        <v>441</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>406</v>
+        <v>439</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B46" t="s">
         <v>307</v>
       </c>
       <c r="C46" t="s">
-        <v>441</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>386</v>
+        <v>439</v>
+      </c>
+      <c r="D46" s="192" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B47" t="s">
         <v>307</v>
       </c>
       <c r="C47" t="s">
-        <v>441</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>407</v>
+        <v>439</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B48" t="s">
         <v>307</v>
       </c>
       <c r="C48" t="s">
-        <v>441</v>
-      </c>
-      <c r="D48" s="193" t="s">
-        <v>409</v>
+        <v>439</v>
+      </c>
+      <c r="D48" s="192" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B49" t="s">
         <v>307</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
-      </c>
-      <c r="D49" s="193" t="s">
-        <v>408</v>
+        <v>439</v>
+      </c>
+      <c r="D49" s="192" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s">
         <v>335</v>
       </c>
       <c r="C50" t="s">
-        <v>441</v>
-      </c>
-      <c r="D50" s="193" t="s">
-        <v>410</v>
+        <v>439</v>
+      </c>
+      <c r="D50" s="192" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>409</v>
+      </c>
+      <c r="B51" t="s">
+        <v>410</v>
+      </c>
+      <c r="C51" t="s">
+        <v>439</v>
+      </c>
+      <c r="D51" s="192" t="s">
         <v>411</v>
-      </c>
-      <c r="B51" t="s">
-        <v>412</v>
-      </c>
-      <c r="C51" t="s">
-        <v>441</v>
-      </c>
-      <c r="D51" s="193" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>438</v>
+      </c>
+      <c r="B52" t="s">
+        <v>371</v>
+      </c>
+      <c r="C52" t="s">
+        <v>439</v>
+      </c>
+      <c r="D52" s="180" t="s">
         <v>440</v>
-      </c>
-      <c r="B52" t="s">
-        <v>373</v>
-      </c>
-      <c r="C52" t="s">
-        <v>441</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
+        <v>413</v>
+      </c>
+      <c r="C53" t="s">
+        <v>439</v>
+      </c>
+      <c r="D53" s="192" t="s">
         <v>414</v>
-      </c>
-      <c r="B53" t="s">
-        <v>415</v>
-      </c>
-      <c r="C53" t="s">
-        <v>441</v>
-      </c>
-      <c r="D53" s="193" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>412</v>
+      </c>
+      <c r="B54" t="s">
+        <v>413</v>
+      </c>
+      <c r="C54" t="s">
+        <v>439</v>
+      </c>
+      <c r="D54" s="192" t="s">
         <v>414</v>
-      </c>
-      <c r="B54" t="s">
-        <v>415</v>
-      </c>
-      <c r="C54" t="s">
-        <v>441</v>
-      </c>
-      <c r="D54" s="193" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>412</v>
+      </c>
+      <c r="B55" t="s">
+        <v>413</v>
+      </c>
+      <c r="C55" t="s">
+        <v>439</v>
+      </c>
+      <c r="D55" s="192" t="s">
         <v>414</v>
-      </c>
-      <c r="B55" t="s">
-        <v>415</v>
-      </c>
-      <c r="C55" t="s">
-        <v>441</v>
-      </c>
-      <c r="D55" s="193" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" t="s">
+        <v>439</v>
+      </c>
+      <c r="D56" s="192" t="s">
         <v>414</v>
-      </c>
-      <c r="B56" t="s">
-        <v>415</v>
-      </c>
-      <c r="C56" t="s">
-        <v>441</v>
-      </c>
-      <c r="D56" s="193" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>412</v>
+      </c>
+      <c r="B57" t="s">
+        <v>413</v>
+      </c>
+      <c r="C57" t="s">
+        <v>439</v>
+      </c>
+      <c r="D57" s="192" t="s">
         <v>414</v>
-      </c>
-      <c r="B57" t="s">
-        <v>415</v>
-      </c>
-      <c r="C57" t="s">
-        <v>441</v>
-      </c>
-      <c r="D57" s="193" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B58" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D58" s="180" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B59" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C59" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D59" s="180" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C60" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D60" s="180" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B61" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C61" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D61" s="180" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B62" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C62" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D62" s="180" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B63" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D63" s="180" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B64" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C64" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D64" s="180" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B65" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C65" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D65" s="180" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B66" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C66" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D66" s="180" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B67" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C67" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D67" s="180" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B68" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C68" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D68" s="180" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B69" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C69" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D69" s="180" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C70" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D70" s="180" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B71" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C71" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D71" s="180" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -7212,7 +7207,7 @@
   </sheetPr>
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -7232,32 +7227,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="283" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1" s="284"/>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="284"/>
-      <c r="H1" s="284"/>
-      <c r="I1" s="284"/>
-      <c r="J1" s="285"/>
+      <c r="A1" s="280" t="s">
+        <v>374</v>
+      </c>
+      <c r="B1" s="281"/>
+      <c r="C1" s="281"/>
+      <c r="D1" s="281"/>
+      <c r="E1" s="281"/>
+      <c r="F1" s="281"/>
+      <c r="G1" s="281"/>
+      <c r="H1" s="281"/>
+      <c r="I1" s="281"/>
+      <c r="J1" s="282"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="280" t="s">
+      <c r="A2" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="281"/>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-      <c r="J2" s="282"/>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
+      <c r="H2" s="278"/>
+      <c r="I2" s="278"/>
+      <c r="J2" s="279"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
@@ -7330,9 +7325,9 @@
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="G5" s="209" t="s">
+        <v>458</v>
+      </c>
+      <c r="G5" s="206" t="s">
         <v>168</v>
       </c>
       <c r="H5" s="169"/>
@@ -7340,18 +7335,18 @@
       <c r="J5" s="169"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="280" t="s">
+      <c r="A6" s="277" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="281"/>
-      <c r="C6" s="281"/>
-      <c r="D6" s="281"/>
-      <c r="E6" s="281"/>
-      <c r="F6" s="281"/>
-      <c r="G6" s="281"/>
-      <c r="H6" s="281"/>
-      <c r="I6" s="281"/>
-      <c r="J6" s="282"/>
+      <c r="B6" s="278"/>
+      <c r="C6" s="278"/>
+      <c r="D6" s="278"/>
+      <c r="E6" s="278"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="278"/>
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="279"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
@@ -7402,18 +7397,18 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="281"/>
-      <c r="J10" s="282"/>
+      <c r="B10" s="278"/>
+      <c r="C10" s="278"/>
+      <c r="D10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="279"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
@@ -7592,18 +7587,18 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="280" t="s">
+      <c r="A21" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
-      <c r="H21" s="281"/>
-      <c r="I21" s="281"/>
-      <c r="J21" s="282"/>
+      <c r="B21" s="278"/>
+      <c r="C21" s="278"/>
+      <c r="D21" s="278"/>
+      <c r="E21" s="278"/>
+      <c r="F21" s="278"/>
+      <c r="G21" s="278"/>
+      <c r="H21" s="278"/>
+      <c r="I21" s="278"/>
+      <c r="J21" s="279"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
@@ -7666,25 +7661,25 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="280" t="s">
+      <c r="A25" s="277" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="281"/>
-      <c r="C25" s="281"/>
-      <c r="D25" s="281"/>
-      <c r="E25" s="281"/>
-      <c r="F25" s="281"/>
-      <c r="G25" s="281"/>
-      <c r="H25" s="281"/>
-      <c r="I25" s="281"/>
-      <c r="J25" s="282"/>
+      <c r="B25" s="278"/>
+      <c r="C25" s="278"/>
+      <c r="D25" s="278"/>
+      <c r="E25" s="278"/>
+      <c r="F25" s="278"/>
+      <c r="G25" s="278"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="279"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="198" t="s">
-        <v>362</v>
+      <c r="B26" s="197" t="s">
+        <v>360</v>
       </c>
       <c r="C26" s="132" t="s">
         <v>324</v>
@@ -7692,8 +7687,8 @@
       <c r="D26" s="132" t="s">
         <v>262</v>
       </c>
-      <c r="E26" s="194" t="s">
-        <v>362</v>
+      <c r="E26" s="193" t="s">
+        <v>360</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7713,7 +7708,7 @@
         <v>152</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7723,13 +7718,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="213" t="s">
-        <v>483</v>
+      <c r="B28" s="210" t="s">
+        <v>481</v>
       </c>
       <c r="C28" s="190"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7739,70 +7734,70 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="277" t="s">
+      <c r="A30" s="274" t="s">
         <v>276</v>
       </c>
-      <c r="B30" s="278"/>
-      <c r="C30" s="278"/>
-      <c r="D30" s="278"/>
-      <c r="E30" s="278"/>
-      <c r="F30" s="278"/>
-      <c r="G30" s="278"/>
-      <c r="H30" s="279"/>
+      <c r="B30" s="275"/>
+      <c r="C30" s="275"/>
+      <c r="D30" s="275"/>
+      <c r="E30" s="275"/>
+      <c r="F30" s="275"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="276"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="271" t="s">
-        <v>356</v>
-      </c>
-      <c r="B31" s="272"/>
-      <c r="C31" s="272"/>
-      <c r="D31" s="272"/>
-      <c r="E31" s="272"/>
-      <c r="F31" s="272"/>
-      <c r="G31" s="272"/>
-      <c r="H31" s="273"/>
+      <c r="A31" s="268" t="s">
+        <v>354</v>
+      </c>
+      <c r="B31" s="269"/>
+      <c r="C31" s="269"/>
+      <c r="D31" s="269"/>
+      <c r="E31" s="269"/>
+      <c r="F31" s="269"/>
+      <c r="G31" s="269"/>
+      <c r="H31" s="270"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="271"/>
-      <c r="B32" s="272"/>
-      <c r="C32" s="272"/>
-      <c r="D32" s="272"/>
-      <c r="E32" s="272"/>
-      <c r="F32" s="272"/>
-      <c r="G32" s="272"/>
-      <c r="H32" s="273"/>
+      <c r="A32" s="268"/>
+      <c r="B32" s="269"/>
+      <c r="C32" s="269"/>
+      <c r="D32" s="269"/>
+      <c r="E32" s="269"/>
+      <c r="F32" s="269"/>
+      <c r="G32" s="269"/>
+      <c r="H32" s="270"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="271"/>
-      <c r="B33" s="272"/>
-      <c r="C33" s="272"/>
-      <c r="D33" s="272"/>
-      <c r="E33" s="272"/>
-      <c r="F33" s="272"/>
-      <c r="G33" s="272"/>
-      <c r="H33" s="273"/>
+      <c r="A33" s="268"/>
+      <c r="B33" s="269"/>
+      <c r="C33" s="269"/>
+      <c r="D33" s="269"/>
+      <c r="E33" s="269"/>
+      <c r="F33" s="269"/>
+      <c r="G33" s="269"/>
+      <c r="H33" s="270"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="274"/>
-      <c r="B34" s="275"/>
-      <c r="C34" s="275"/>
-      <c r="D34" s="275"/>
-      <c r="E34" s="275"/>
-      <c r="F34" s="275"/>
-      <c r="G34" s="275"/>
-      <c r="H34" s="276"/>
+      <c r="A34" s="271"/>
+      <c r="B34" s="272"/>
+      <c r="C34" s="272"/>
+      <c r="D34" s="272"/>
+      <c r="E34" s="272"/>
+      <c r="F34" s="272"/>
+      <c r="G34" s="272"/>
+      <c r="H34" s="273"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="261" t="s">
+      <c r="A36" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="B36" s="261"/>
-      <c r="C36" s="261"/>
-      <c r="D36" s="261"/>
-      <c r="E36" s="261"/>
-      <c r="F36" s="261"/>
-      <c r="G36" s="261"/>
+      <c r="B36" s="258"/>
+      <c r="C36" s="258"/>
+      <c r="D36" s="258"/>
+      <c r="E36" s="258"/>
+      <c r="F36" s="258"/>
+      <c r="G36" s="258"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
@@ -7814,12 +7809,12 @@
       <c r="C37" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D37" s="260" t="s">
+      <c r="D37" s="257" t="s">
         <v>304</v>
       </c>
-      <c r="E37" s="260"/>
-      <c r="F37" s="260"/>
-      <c r="G37" s="260"/>
+      <c r="E37" s="257"/>
+      <c r="F37" s="257"/>
+      <c r="G37" s="257"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -7829,10 +7824,10 @@
         <v>306</v>
       </c>
       <c r="C38" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -7843,9 +7838,9 @@
         <v>331</v>
       </c>
       <c r="C39" t="s">
-        <v>457</v>
-      </c>
-      <c r="D39" s="193" t="s">
+        <v>455</v>
+      </c>
+      <c r="D39" s="192" t="s">
         <v>328</v>
       </c>
     </row>
@@ -7857,7 +7852,7 @@
         <v>332</v>
       </c>
       <c r="C40" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D40" s="180" t="s">
         <v>329</v>
@@ -7871,10 +7866,10 @@
         <v>333</v>
       </c>
       <c r="C41" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -7885,7 +7880,7 @@
         <v>334</v>
       </c>
       <c r="C42" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D42" s="183" t="s">
         <v>330</v>
@@ -7893,72 +7888,72 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B43" t="s">
         <v>307</v>
       </c>
       <c r="C43" t="s">
-        <v>457</v>
-      </c>
-      <c r="D43" s="193" t="s">
-        <v>366</v>
+        <v>455</v>
+      </c>
+      <c r="D43" s="192" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>365</v>
+      </c>
+      <c r="B44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C44" t="s">
+        <v>455</v>
+      </c>
+      <c r="D44" s="192" t="s">
         <v>367</v>
-      </c>
-      <c r="B44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C44" t="s">
-        <v>457</v>
-      </c>
-      <c r="D44" s="193" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C45" t="s">
-        <v>457</v>
-      </c>
-      <c r="D45" s="193" t="s">
-        <v>456</v>
+        <v>455</v>
+      </c>
+      <c r="D45" s="192" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s">
+        <v>366</v>
+      </c>
+      <c r="C46" t="s">
+        <v>455</v>
+      </c>
+      <c r="D46" s="192" t="s">
         <v>368</v>
-      </c>
-      <c r="C46" t="s">
-        <v>457</v>
-      </c>
-      <c r="D46" s="193" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C47" t="s">
-        <v>457</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>371</v>
+        <v>455</v>
+      </c>
+      <c r="D47" s="192" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -7966,13 +7961,13 @@
         <v>327</v>
       </c>
       <c r="B48" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C48" t="s">
+        <v>455</v>
+      </c>
+      <c r="D48" s="183" t="s">
         <v>457</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>459</v>
       </c>
     </row>
   </sheetData>
@@ -8030,8 +8025,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8056,221 +8051,215 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="202" t="s">
-        <v>349</v>
-      </c>
-      <c r="B2" s="288" t="s">
+      <c r="A2" s="309" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="310"/>
+      <c r="C2" s="310"/>
+      <c r="D2" s="310"/>
+      <c r="E2" s="310"/>
+      <c r="F2" s="311"/>
+      <c r="G2" s="290" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>289</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="201" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="290" t="s">
+      <c r="A3" s="312" t="s">
         <v>288</v>
       </c>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="314"/>
+      <c r="G3" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>294</v>
       </c>
-      <c r="N3" s="201" t="s">
-        <v>362</v>
-      </c>
-      <c r="O3" s="203" t="s">
-        <v>362</v>
-      </c>
-      <c r="P3" s="206"/>
-    </row>
-    <row r="4" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="204">
-        <v>8</v>
-      </c>
-      <c r="B4" s="289" t="s">
+      <c r="N3" s="200" t="s">
+        <v>360</v>
+      </c>
+      <c r="O3" s="201" t="s">
+        <v>360</v>
+      </c>
+      <c r="P3" s="203"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="315" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="316"/>
+      <c r="C4" s="317"/>
+      <c r="D4" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289" t="s">
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283" t="s">
         <v>297</v>
       </c>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>152</v>
       </c>
       <c r="N4" s="166" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="O4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="191"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="286" t="s">
+      <c r="A5" s="318"/>
+      <c r="B5" s="319"/>
+      <c r="C5" s="320"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="284" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="286"/>
-      <c r="I5" s="286"/>
-      <c r="J5" s="286" t="s">
+      <c r="H5" s="284"/>
+      <c r="I5" s="284"/>
+      <c r="J5" s="284" t="s">
         <v>285</v>
       </c>
-      <c r="K5" s="286"/>
-      <c r="L5" s="286"/>
-      <c r="M5" s="200"/>
-      <c r="N5" s="200" t="s">
+      <c r="K5" s="284"/>
+      <c r="L5" s="284"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199" t="s">
+        <v>378</v>
+      </c>
+      <c r="O5" s="204" t="s">
         <v>380</v>
       </c>
-      <c r="O5" s="207" t="s">
-        <v>382</v>
-      </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="191"/>
-      <c r="B6" s="286" t="s">
+      <c r="A6" s="318" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286" t="s">
+      <c r="B6" s="319"/>
+      <c r="C6" s="320"/>
+      <c r="D6" s="284" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286" t="s">
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="284" t="s">
         <v>278</v>
       </c>
-      <c r="H6" s="286"/>
-      <c r="I6" s="286"/>
-      <c r="J6" s="286"/>
-      <c r="K6" s="286"/>
-      <c r="L6" s="286"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200" t="s">
+      <c r="H6" s="284"/>
+      <c r="I6" s="284"/>
+      <c r="J6" s="284"/>
+      <c r="K6" s="284"/>
+      <c r="L6" s="284"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199" t="s">
+        <v>379</v>
+      </c>
+      <c r="O6" s="204" t="s">
         <v>381</v>
       </c>
-      <c r="O6" s="207" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="191"/>
-      <c r="B7" s="286" t="s">
+      <c r="A7" s="318" t="s">
         <v>274</v>
       </c>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286" t="s">
+      <c r="B7" s="319"/>
+      <c r="C7" s="320"/>
+      <c r="D7" s="284" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="286"/>
-      <c r="H7" s="286"/>
-      <c r="I7" s="286"/>
-      <c r="J7" s="286"/>
-      <c r="K7" s="286"/>
-      <c r="L7" s="286"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="284"/>
+      <c r="H7" s="284"/>
+      <c r="I7" s="284"/>
+      <c r="J7" s="284"/>
+      <c r="K7" s="284"/>
+      <c r="L7" s="284"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
       <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="191"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286" t="s">
+      <c r="A8" s="318"/>
+      <c r="B8" s="319"/>
+      <c r="C8" s="320"/>
+      <c r="D8" s="284" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="286"/>
-      <c r="H8" s="286"/>
-      <c r="I8" s="286"/>
-      <c r="J8" s="286"/>
-      <c r="K8" s="286"/>
-      <c r="L8" s="286"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="284"/>
+      <c r="H8" s="284"/>
+      <c r="I8" s="284"/>
+      <c r="J8" s="284"/>
+      <c r="K8" s="284"/>
+      <c r="L8" s="284"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
       <c r="O8" s="164"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>348</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -8279,8 +8268,8 @@
       <c r="B11" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>362</v>
+      <c r="C11" s="193" t="s">
+        <v>360</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>266</v>
@@ -8300,8 +8289,8 @@
       <c r="I11" s="144" t="s">
         <v>272</v>
       </c>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+      <c r="K11" s="191"/>
+      <c r="L11" s="191"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
@@ -8309,7 +8298,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -8353,69 +8342,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>358</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>356</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8427,12 +8416,12 @@
       <c r="C22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8442,10 +8431,10 @@
         <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -8456,9 +8445,9 @@
         <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>444</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>442</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>328</v>
       </c>
     </row>
@@ -8470,7 +8459,7 @@
         <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>329</v>
@@ -8484,10 +8473,10 @@
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -8498,7 +8487,7 @@
         <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>330</v>
@@ -8512,10 +8501,10 @@
         <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>444</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>387</v>
+        <v>442</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -8526,10 +8515,10 @@
         <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>444</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>386</v>
+        <v>442</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -8540,10 +8529,10 @@
         <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>444</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>388</v>
+        <v>442</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -8554,9 +8543,9 @@
         <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>444</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>442</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>337</v>
       </c>
     </row>
@@ -8568,10 +8557,10 @@
         <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>444</v>
-      </c>
-      <c r="D32" s="193" t="s">
-        <v>389</v>
+        <v>442</v>
+      </c>
+      <c r="D32" s="192" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -8582,262 +8571,262 @@
         <v>335</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
-      </c>
-      <c r="D33" s="193" t="s">
-        <v>390</v>
+        <v>442</v>
+      </c>
+      <c r="D33" s="192" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B34" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C34" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D34" s="180" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C35" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D35" s="180" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B36" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D36" s="180" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C37" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D37" s="180" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C38" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D38" s="180" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C39" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D39" s="180" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D40" s="180" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C41" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D41" s="180" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B42" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C42" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D42" s="180" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B43" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C43" t="s">
+        <v>442</v>
+      </c>
+      <c r="D43" s="180" t="s">
         <v>444</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B44" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C44" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D44" s="180" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B45" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C45" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D45" s="180" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C46" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D46" s="180" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B47" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C47" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D47" s="180" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C48" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D48" s="180" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B49" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C49" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D49" s="180" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B50" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C50" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D50" s="180" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B51" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C51" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D51" s="180" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -8848,28 +8837,46 @@
         <v>335</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
-      </c>
-      <c r="D52" s="193" t="s">
-        <v>390</v>
+        <v>442</v>
+      </c>
+      <c r="D52" s="192" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C53" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D53" s="180" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
@@ -8878,29 +8885,11 @@
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8992,101 +8981,101 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="287" t="s">
+      <c r="A1" s="289" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="287"/>
-      <c r="C1" s="287"/>
-      <c r="D1" s="287"/>
-      <c r="E1" s="287"/>
-      <c r="F1" s="287"/>
-      <c r="G1" s="287"/>
-      <c r="H1" s="287"/>
-      <c r="I1" s="287"/>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="287"/>
-      <c r="P1" s="287"/>
+      <c r="B1" s="289"/>
+      <c r="C1" s="289"/>
+      <c r="D1" s="289"/>
+      <c r="E1" s="289"/>
+      <c r="F1" s="289"/>
+      <c r="G1" s="289"/>
+      <c r="H1" s="289"/>
+      <c r="I1" s="289"/>
+      <c r="J1" s="289"/>
+      <c r="K1" s="289"/>
+      <c r="L1" s="289"/>
+      <c r="M1" s="289"/>
+      <c r="N1" s="289"/>
+      <c r="O1" s="289"/>
+      <c r="P1" s="289"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="288" t="s">
+      <c r="A2" s="290" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="288"/>
-      <c r="C2" s="288"/>
-      <c r="D2" s="288"/>
-      <c r="E2" s="288"/>
-      <c r="F2" s="288"/>
-      <c r="G2" s="288" t="s">
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="288"/>
-      <c r="I2" s="288"/>
-      <c r="J2" s="288"/>
-      <c r="K2" s="288"/>
-      <c r="L2" s="288"/>
-      <c r="M2" s="291" t="s">
+      <c r="H2" s="290"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
+      <c r="M2" s="285" t="s">
         <v>287</v>
       </c>
-      <c r="N2" s="291"/>
-      <c r="O2" s="291"/>
-      <c r="P2" s="291"/>
+      <c r="N2" s="285"/>
+      <c r="O2" s="285"/>
+      <c r="P2" s="285"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290" t="s">
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
+      <c r="F3" s="291"/>
+      <c r="G3" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="H3" s="290"/>
-      <c r="I3" s="290"/>
-      <c r="J3" s="290"/>
-      <c r="K3" s="290"/>
-      <c r="L3" s="290"/>
-      <c r="M3" s="201" t="s">
+      <c r="H3" s="291"/>
+      <c r="I3" s="291"/>
+      <c r="J3" s="291"/>
+      <c r="K3" s="291"/>
+      <c r="L3" s="291"/>
+      <c r="M3" s="200" t="s">
         <v>293</v>
       </c>
-      <c r="N3" s="201" t="s">
+      <c r="N3" s="200" t="s">
         <v>292</v>
       </c>
-      <c r="O3" s="201" t="s">
-        <v>362</v>
-      </c>
-      <c r="P3" s="201" t="s">
-        <v>362</v>
-      </c>
-      <c r="Q3" s="205"/>
+      <c r="O3" s="200" t="s">
+        <v>360</v>
+      </c>
+      <c r="P3" s="200" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q3" s="202"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="283" t="s">
         <v>239</v>
       </c>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289" t="s">
+      <c r="B4" s="283"/>
+      <c r="C4" s="283"/>
+      <c r="D4" s="283" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="289" t="s">
+      <c r="E4" s="283"/>
+      <c r="F4" s="283"/>
+      <c r="G4" s="283" t="s">
         <v>243</v>
       </c>
-      <c r="H4" s="289"/>
-      <c r="I4" s="289"/>
-      <c r="J4" s="289"/>
-      <c r="K4" s="289"/>
-      <c r="L4" s="289"/>
+      <c r="H4" s="283"/>
+      <c r="I4" s="283"/>
+      <c r="J4" s="283"/>
+      <c r="K4" s="283"/>
+      <c r="L4" s="283"/>
       <c r="M4" s="166" t="s">
         <v>247</v>
       </c>
@@ -9094,105 +9083,105 @@
         <v>152</v>
       </c>
       <c r="O4" s="166" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P4" s="166" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="295" t="s">
+      <c r="A5" s="284"/>
+      <c r="B5" s="284"/>
+      <c r="C5" s="284"/>
+      <c r="D5" s="284"/>
+      <c r="E5" s="284"/>
+      <c r="F5" s="284"/>
+      <c r="G5" s="292" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="295"/>
-      <c r="K5" s="295"/>
-      <c r="L5" s="295"/>
-      <c r="M5" s="200" t="s">
+      <c r="H5" s="292"/>
+      <c r="I5" s="292"/>
+      <c r="J5" s="292"/>
+      <c r="K5" s="292"/>
+      <c r="L5" s="292"/>
+      <c r="M5" s="199" t="s">
         <v>284</v>
       </c>
-      <c r="N5" s="200"/>
-      <c r="O5" s="200" t="s">
-        <v>384</v>
-      </c>
-      <c r="P5" s="200" t="s">
-        <v>385</v>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199" t="s">
+        <v>382</v>
+      </c>
+      <c r="P5" s="199" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="286"/>
-      <c r="B6" s="286"/>
-      <c r="C6" s="286"/>
-      <c r="D6" s="286"/>
-      <c r="E6" s="286"/>
-      <c r="F6" s="286"/>
-      <c r="G6" s="295"/>
-      <c r="H6" s="295"/>
-      <c r="I6" s="295"/>
-      <c r="J6" s="295"/>
-      <c r="K6" s="295"/>
-      <c r="L6" s="295"/>
-      <c r="M6" s="200"/>
-      <c r="N6" s="200"/>
-      <c r="O6" s="200"/>
+      <c r="A6" s="284"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="284"/>
+      <c r="D6" s="284"/>
+      <c r="E6" s="284"/>
+      <c r="F6" s="284"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="199"/>
+      <c r="N6" s="199"/>
+      <c r="O6" s="199"/>
       <c r="P6" s="167"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="286"/>
-      <c r="B7" s="286"/>
-      <c r="C7" s="286"/>
-      <c r="D7" s="286"/>
-      <c r="E7" s="286"/>
-      <c r="F7" s="286"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295"/>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295"/>
-      <c r="M7" s="200"/>
-      <c r="N7" s="200"/>
-      <c r="O7" s="200"/>
+      <c r="A7" s="284"/>
+      <c r="B7" s="284"/>
+      <c r="C7" s="284"/>
+      <c r="D7" s="284"/>
+      <c r="E7" s="284"/>
+      <c r="F7" s="284"/>
+      <c r="G7" s="292"/>
+      <c r="H7" s="292"/>
+      <c r="I7" s="292"/>
+      <c r="J7" s="292"/>
+      <c r="K7" s="292"/>
+      <c r="L7" s="292"/>
+      <c r="M7" s="199"/>
+      <c r="N7" s="199"/>
+      <c r="O7" s="199"/>
       <c r="P7" s="165"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="286"/>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="286"/>
-      <c r="F8" s="286"/>
-      <c r="G8" s="295"/>
-      <c r="H8" s="295"/>
-      <c r="I8" s="295"/>
-      <c r="J8" s="295"/>
-      <c r="K8" s="295"/>
-      <c r="L8" s="295"/>
-      <c r="M8" s="200"/>
-      <c r="N8" s="200"/>
-      <c r="O8" s="200"/>
+      <c r="A8" s="284"/>
+      <c r="B8" s="284"/>
+      <c r="C8" s="284"/>
+      <c r="D8" s="284"/>
+      <c r="E8" s="284"/>
+      <c r="F8" s="284"/>
+      <c r="G8" s="292"/>
+      <c r="H8" s="292"/>
+      <c r="I8" s="292"/>
+      <c r="J8" s="292"/>
+      <c r="K8" s="292"/>
+      <c r="L8" s="292"/>
+      <c r="M8" s="199"/>
+      <c r="N8" s="199"/>
+      <c r="O8" s="199"/>
       <c r="P8" s="165"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="292" t="s">
+      <c r="A10" s="286" t="s">
         <v>347</v>
       </c>
-      <c r="B10" s="293"/>
-      <c r="C10" s="293"/>
-      <c r="D10" s="293"/>
-      <c r="E10" s="293"/>
-      <c r="F10" s="293"/>
-      <c r="G10" s="293"/>
-      <c r="H10" s="293"/>
-      <c r="I10" s="294"/>
+      <c r="B10" s="287"/>
+      <c r="C10" s="287"/>
+      <c r="D10" s="287"/>
+      <c r="E10" s="287"/>
+      <c r="F10" s="287"/>
+      <c r="G10" s="287"/>
+      <c r="H10" s="287"/>
+      <c r="I10" s="288"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
@@ -9201,8 +9190,8 @@
       <c r="B11" s="132" t="s">
         <v>326</v>
       </c>
-      <c r="C11" s="194" t="s">
-        <v>362</v>
+      <c r="C11" s="193" t="s">
+        <v>360</v>
       </c>
       <c r="D11" s="125" t="s">
         <v>266</v>
@@ -9229,7 +9218,7 @@
         <v>246</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -9274,69 +9263,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="274" t="s">
         <v>276</v>
       </c>
-      <c r="B15" s="278"/>
-      <c r="C15" s="278"/>
-      <c r="D15" s="278"/>
-      <c r="E15" s="278"/>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="279"/>
+      <c r="B15" s="275"/>
+      <c r="C15" s="275"/>
+      <c r="D15" s="275"/>
+      <c r="E15" s="275"/>
+      <c r="F15" s="275"/>
+      <c r="G15" s="275"/>
+      <c r="H15" s="276"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="271" t="s">
-        <v>359</v>
-      </c>
-      <c r="B16" s="272"/>
-      <c r="C16" s="272"/>
-      <c r="D16" s="272"/>
-      <c r="E16" s="272"/>
-      <c r="F16" s="272"/>
-      <c r="G16" s="272"/>
-      <c r="H16" s="273"/>
+      <c r="A16" s="268" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="269"/>
+      <c r="C16" s="269"/>
+      <c r="D16" s="269"/>
+      <c r="E16" s="269"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="270"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="271"/>
-      <c r="B17" s="272"/>
-      <c r="C17" s="272"/>
-      <c r="D17" s="272"/>
-      <c r="E17" s="272"/>
-      <c r="F17" s="272"/>
-      <c r="G17" s="272"/>
-      <c r="H17" s="273"/>
+      <c r="A17" s="268"/>
+      <c r="B17" s="269"/>
+      <c r="C17" s="269"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="270"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="271"/>
-      <c r="B18" s="272"/>
-      <c r="C18" s="272"/>
-      <c r="D18" s="272"/>
-      <c r="E18" s="272"/>
-      <c r="F18" s="272"/>
-      <c r="G18" s="272"/>
-      <c r="H18" s="273"/>
+      <c r="A18" s="268"/>
+      <c r="B18" s="269"/>
+      <c r="C18" s="269"/>
+      <c r="D18" s="269"/>
+      <c r="E18" s="269"/>
+      <c r="F18" s="269"/>
+      <c r="G18" s="269"/>
+      <c r="H18" s="270"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="274"/>
-      <c r="B19" s="275"/>
-      <c r="C19" s="275"/>
-      <c r="D19" s="275"/>
-      <c r="E19" s="275"/>
-      <c r="F19" s="275"/>
-      <c r="G19" s="275"/>
-      <c r="H19" s="276"/>
+      <c r="A19" s="271"/>
+      <c r="B19" s="272"/>
+      <c r="C19" s="272"/>
+      <c r="D19" s="272"/>
+      <c r="E19" s="272"/>
+      <c r="F19" s="272"/>
+      <c r="G19" s="272"/>
+      <c r="H19" s="273"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="261" t="s">
+      <c r="A21" s="258" t="s">
         <v>301</v>
       </c>
-      <c r="B21" s="261"/>
-      <c r="C21" s="261"/>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="258"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9348,12 +9337,12 @@
       <c r="C22" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="260" t="s">
+      <c r="D22" s="257" t="s">
         <v>304</v>
       </c>
-      <c r="E22" s="260"/>
-      <c r="F22" s="260"/>
-      <c r="G22" s="260"/>
+      <c r="E22" s="257"/>
+      <c r="F22" s="257"/>
+      <c r="G22" s="257"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9363,10 +9352,10 @@
         <v>306</v>
       </c>
       <c r="C23" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D23" s="180" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -9377,9 +9366,9 @@
         <v>331</v>
       </c>
       <c r="C24" t="s">
-        <v>454</v>
-      </c>
-      <c r="D24" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D24" s="192" t="s">
         <v>328</v>
       </c>
     </row>
@@ -9391,7 +9380,7 @@
         <v>332</v>
       </c>
       <c r="C25" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D25" s="180" t="s">
         <v>329</v>
@@ -9405,10 +9394,10 @@
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D26" s="180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -9419,7 +9408,7 @@
         <v>334</v>
       </c>
       <c r="C27" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D27" s="183" t="s">
         <v>330</v>
@@ -9433,10 +9422,10 @@
         <v>307</v>
       </c>
       <c r="C28" t="s">
-        <v>454</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>400</v>
+        <v>452</v>
+      </c>
+      <c r="D28" s="192" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -9447,10 +9436,10 @@
         <v>307</v>
       </c>
       <c r="C29" t="s">
-        <v>454</v>
-      </c>
-      <c r="D29" s="193" t="s">
-        <v>386</v>
+        <v>452</v>
+      </c>
+      <c r="D29" s="192" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -9461,10 +9450,10 @@
         <v>307</v>
       </c>
       <c r="C30" t="s">
-        <v>454</v>
-      </c>
-      <c r="D30" s="193" t="s">
-        <v>401</v>
+        <v>452</v>
+      </c>
+      <c r="D30" s="192" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -9475,9 +9464,9 @@
         <v>307</v>
       </c>
       <c r="C31" t="s">
-        <v>454</v>
-      </c>
-      <c r="D31" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="192" t="s">
         <v>339</v>
       </c>
     </row>
@@ -9489,24 +9478,24 @@
         <v>335</v>
       </c>
       <c r="C32" t="s">
-        <v>454</v>
-      </c>
-      <c r="D32" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D32" s="192" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B33" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C33" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D33" s="180" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -9517,24 +9506,14 @@
         <v>342</v>
       </c>
       <c r="C34" t="s">
-        <v>454</v>
-      </c>
-      <c r="D34" s="193" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="192" t="s">
         <v>343</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9551,6 +9530,16 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9632,12 +9621,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="296" t="s">
+      <c r="A1" s="293" t="s">
         <v>244</v>
       </c>
-      <c r="B1" s="297"/>
-      <c r="C1" s="297"/>
-      <c r="D1" s="298"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="295"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9720,25 +9709,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="214" t="s">
-        <v>486</v>
+      <c r="A7" s="211" t="s">
+        <v>484</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C7" s="215"/>
+        <v>485</v>
+      </c>
+      <c r="C7" s="212"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="214" t="s">
-        <v>488</v>
+      <c r="A8" s="211" t="s">
+        <v>486</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C8" s="215"/>
+        <v>487</v>
+      </c>
+      <c r="C8" s="212"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -10398,23 +10387,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="302" t="s">
+      <c r="A1" s="299" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="303"/>
-      <c r="C1" s="303"/>
-      <c r="D1" s="303"/>
-      <c r="E1" s="303"/>
-      <c r="F1" s="303"/>
-      <c r="G1" s="303"/>
-      <c r="H1" s="303"/>
-      <c r="I1" s="303"/>
-      <c r="J1" s="303"/>
-      <c r="K1" s="303"/>
-      <c r="L1" s="303"/>
-      <c r="M1" s="303"/>
-      <c r="N1" s="303"/>
-      <c r="O1" s="303"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="300"/>
+      <c r="I1" s="300"/>
+      <c r="J1" s="300"/>
+      <c r="K1" s="300"/>
+      <c r="L1" s="300"/>
+      <c r="M1" s="300"/>
+      <c r="N1" s="300"/>
+      <c r="O1" s="300"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10432,17 +10421,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10633,21 +10622,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="299" t="s">
+      <c r="B19" s="296" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="300"/>
-      <c r="D19" s="300"/>
-      <c r="E19" s="300"/>
-      <c r="F19" s="300"/>
-      <c r="G19" s="300"/>
-      <c r="H19" s="300"/>
-      <c r="I19" s="300"/>
-      <c r="J19" s="300"/>
-      <c r="K19" s="300"/>
-      <c r="L19" s="300"/>
-      <c r="M19" s="300"/>
-      <c r="N19" s="301"/>
+      <c r="C19" s="297"/>
+      <c r="D19" s="297"/>
+      <c r="E19" s="297"/>
+      <c r="F19" s="297"/>
+      <c r="G19" s="297"/>
+      <c r="H19" s="297"/>
+      <c r="I19" s="297"/>
+      <c r="J19" s="297"/>
+      <c r="K19" s="297"/>
+      <c r="L19" s="297"/>
+      <c r="M19" s="297"/>
+      <c r="N19" s="298"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10849,27 +10838,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="307" t="s">
+      <c r="A1" s="304" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="308"/>
-      <c r="C1" s="308"/>
-      <c r="D1" s="308"/>
-      <c r="E1" s="308"/>
-      <c r="F1" s="308"/>
-      <c r="G1" s="308"/>
-      <c r="H1" s="308"/>
-      <c r="I1" s="308"/>
-      <c r="J1" s="308"/>
-      <c r="K1" s="308"/>
-      <c r="L1" s="308"/>
-      <c r="M1" s="308"/>
-      <c r="N1" s="308"/>
-      <c r="O1" s="308"/>
-      <c r="P1" s="308"/>
-      <c r="Q1" s="308"/>
-      <c r="R1" s="308"/>
-      <c r="S1" s="308"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
+      <c r="G1" s="305"/>
+      <c r="H1" s="305"/>
+      <c r="I1" s="305"/>
+      <c r="J1" s="305"/>
+      <c r="K1" s="305"/>
+      <c r="L1" s="305"/>
+      <c r="M1" s="305"/>
+      <c r="N1" s="305"/>
+      <c r="O1" s="305"/>
+      <c r="P1" s="305"/>
+      <c r="Q1" s="305"/>
+      <c r="R1" s="305"/>
+      <c r="S1" s="305"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10883,26 +10872,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="300"/>
-      <c r="J3" s="301"/>
-      <c r="L3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="297"/>
+      <c r="J3" s="298"/>
+      <c r="L3" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="305"/>
-      <c r="N3" s="305"/>
-      <c r="O3" s="305"/>
-      <c r="P3" s="305"/>
-      <c r="Q3" s="305"/>
-      <c r="R3" s="306"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="302"/>
+      <c r="O3" s="302"/>
+      <c r="P3" s="302"/>
+      <c r="Q3" s="302"/>
+      <c r="R3" s="303"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11133,23 +11122,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="309" t="s">
+      <c r="A1" s="306" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
-      <c r="G1" s="310"/>
-      <c r="H1" s="310"/>
-      <c r="I1" s="310"/>
-      <c r="J1" s="310"/>
-      <c r="K1" s="310"/>
-      <c r="L1" s="310"/>
-      <c r="M1" s="310"/>
-      <c r="N1" s="310"/>
-      <c r="O1" s="311"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="308"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11162,22 +11151,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="299" t="s">
+      <c r="B3" s="296" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="300"/>
-      <c r="D3" s="300"/>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="301"/>
-      <c r="J3" s="304" t="s">
+      <c r="C3" s="297"/>
+      <c r="D3" s="297"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="298"/>
+      <c r="J3" s="301" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="305"/>
-      <c r="L3" s="305"/>
-      <c r="M3" s="305"/>
-      <c r="N3" s="306"/>
+      <c r="K3" s="302"/>
+      <c r="L3" s="302"/>
+      <c r="M3" s="302"/>
+      <c r="N3" s="303"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="491">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -752,12 +752,6 @@
   </si>
   <si>
     <t>Preferences for Transfer Curve Analysis</t>
-  </si>
-  <si>
-    <t>Sample Column Name</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Comparisons</t>
@@ -868,9 +862,6 @@
   </si>
   <si>
     <t>Shortened Key</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                       </t>
   </si>
   <si>
     <t>Optional</t>
@@ -1069,9 +1060,6 @@
   </si>
   <si>
     <t>Preferences potentially unique to each transfer curve analysis</t>
-  </si>
-  <si>
-    <t>Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons.</t>
   </si>
   <si>
     <t>Preferences potentially unique to each plusminus analysis</t>
@@ -1121,30 +1109,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Only samples with a given value for a specific condition/column in "Samples" are considered for analysis. Each group corresponds to a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>separate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <sz val="11"/>
@@ -2040,12 +2004,6 @@
     <t>plusminus2/plots</t>
   </si>
   <si>
-    <t>transfercurve</t>
-  </si>
-  <si>
-    <t>transfercurve/plots</t>
-  </si>
-  <si>
     <t>Missing Output Filename in "Calibration" sheet. Defaulting to exp name.</t>
   </si>
   <si>
@@ -2403,35 +2361,105 @@
   <si>
     <t>if true, output statistics file for batch analysis</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. There can be multiple groups for a single plusminus analysis. More than one plusminus analysis can be executed as long as the Comparison Groups are aligned with the correct Comparisons. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample Column Name=Value</t>
+  </si>
+  <si>
+    <t>DOSE=Low</t>
+  </si>
+  <si>
+    <t>DOSE = High</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only samples with given values for listed condition/column(s) in "Samples" are considered for analysis. Each group corresponds to a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>separate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transfer curve analysis. Leave blank if not applicable. (There should be a Comparison for every Comparison Group.) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FORMAT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: ColName1 = Value1, ColName2 = Value2</t>
+    </r>
+  </si>
+  <si>
+    <t>transfercurve1</t>
+  </si>
+  <si>
+    <t>transfercurve1/plots</t>
+  </si>
+  <si>
+    <t>DOSE = Low, 10xDox = 0.1</t>
+  </si>
+  <si>
+    <t>transfercurve2</t>
+  </si>
+  <si>
+    <t>transfercurve2/plots</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3329,25 +3357,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="321">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3363,7 +3391,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3374,28 +3402,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3416,62 +3444,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3482,54 +3510,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3547,19 +3575,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3568,46 +3596,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3625,83 +3653,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3716,37 +3744,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3755,53 +3783,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3816,20 +3832,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3852,56 +3868,44 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3914,20 +3918,116 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3938,145 +4038,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4097,149 +4101,168 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5092,86 +5115,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="225" t="s">
-        <v>372</v>
-      </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="227"/>
+      <c r="A1" s="228" t="s">
+        <v>367</v>
+      </c>
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="230"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="241" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="242"/>
+      <c r="A3" s="207" t="s">
+        <v>305</v>
+      </c>
+      <c r="B3" s="208"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="240"/>
+      <c r="B4" s="222"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="255" t="s">
+      <c r="A5" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="256"/>
+      <c r="B5" s="224"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="241" t="s">
-        <v>269</v>
-      </c>
-      <c r="B7" s="243"/>
-      <c r="C7" s="243"/>
-      <c r="D7" s="243"/>
-      <c r="E7" s="243"/>
-      <c r="F7" s="243"/>
-      <c r="G7" s="243"/>
-      <c r="H7" s="243"/>
-      <c r="I7" s="243"/>
-      <c r="J7" s="243"/>
-      <c r="K7" s="242"/>
+      <c r="A7" s="207" t="s">
+        <v>266</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="209"/>
+      <c r="D7" s="209"/>
+      <c r="E7" s="209"/>
+      <c r="F7" s="209"/>
+      <c r="G7" s="209"/>
+      <c r="H7" s="209"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="209"/>
+      <c r="K7" s="208"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="231" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="229"/>
-      <c r="C8" s="229"/>
-      <c r="D8" s="229"/>
-      <c r="E8" s="229"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="229"/>
-      <c r="H8" s="229"/>
-      <c r="I8" s="229"/>
-      <c r="J8" s="229"/>
-      <c r="K8" s="230"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="232"/>
+      <c r="D8" s="232"/>
+      <c r="E8" s="232"/>
+      <c r="F8" s="232"/>
+      <c r="G8" s="232"/>
+      <c r="H8" s="232"/>
+      <c r="I8" s="232"/>
+      <c r="J8" s="232"/>
+      <c r="K8" s="233"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="232"/>
-      <c r="C9" s="232"/>
-      <c r="D9" s="232"/>
-      <c r="E9" s="232"/>
-      <c r="F9" s="232"/>
-      <c r="G9" s="232"/>
-      <c r="H9" s="232"/>
-      <c r="I9" s="232"/>
-      <c r="J9" s="232"/>
-      <c r="K9" s="233"/>
+      <c r="A9" s="234"/>
+      <c r="B9" s="235"/>
+      <c r="C9" s="235"/>
+      <c r="D9" s="235"/>
+      <c r="E9" s="235"/>
+      <c r="F9" s="235"/>
+      <c r="G9" s="235"/>
+      <c r="H9" s="235"/>
+      <c r="I9" s="235"/>
+      <c r="J9" s="235"/>
+      <c r="K9" s="236"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="156"/>
@@ -5182,89 +5205,89 @@
       <c r="F10" s="142"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="244" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="245"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="246"/>
+      <c r="A11" s="210" t="s">
+        <v>267</v>
+      </c>
+      <c r="B11" s="211"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="212"/>
       <c r="E11" s="87"/>
       <c r="F11" s="142"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="247" t="s">
+      <c r="A12" s="213" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="248"/>
-      <c r="C12" s="249" t="s">
+      <c r="B12" s="214"/>
+      <c r="C12" s="215" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="250"/>
+      <c r="D12" s="216"/>
       <c r="E12" s="87"/>
       <c r="F12" s="142"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="253"/>
-      <c r="D13" s="254"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="218"/>
+      <c r="C13" s="219"/>
+      <c r="D13" s="220"/>
       <c r="E13" s="87"/>
       <c r="F13" s="142"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="244" t="s">
-        <v>271</v>
-      </c>
-      <c r="B15" s="246"/>
-      <c r="E15" s="244" t="s">
-        <v>309</v>
-      </c>
-      <c r="F15" s="245"/>
-      <c r="G15" s="245"/>
-      <c r="H15" s="245"/>
-      <c r="I15" s="246"/>
+      <c r="A15" s="210" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="212"/>
+      <c r="E15" s="210" t="s">
+        <v>304</v>
+      </c>
+      <c r="F15" s="211"/>
+      <c r="G15" s="211"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="239" t="s">
+      <c r="A16" s="221" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="240"/>
+      <c r="B16" s="222"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="234" t="s">
+      <c r="E16" s="237" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="235"/>
-      <c r="G16" s="235"/>
-      <c r="H16" s="235"/>
-      <c r="I16" s="236"/>
+      <c r="F16" s="238"/>
+      <c r="G16" s="238"/>
+      <c r="H16" s="238"/>
+      <c r="I16" s="239"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="157" t="s">
         <v>230</v>
       </c>
       <c r="B17" s="115" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="237" t="s">
+      <c r="E17" s="240" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="238"/>
-      <c r="G17" s="209" t="s">
+      <c r="F17" s="241"/>
+      <c r="G17" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="209" t="s">
+      <c r="H17" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="194" t="s">
-        <v>350</v>
+      <c r="I17" s="190" t="s">
+        <v>345</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B18" s="90" t="s">
         <v>231</v>
@@ -5280,14 +5303,14 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="213" t="s">
-        <v>482</v>
+      <c r="I18" s="225" t="s">
+        <v>475</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="159" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B19" s="116"/>
       <c r="C19" s="89"/>
@@ -5303,12 +5326,12 @@
       <c r="H19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="213"/>
+      <c r="I19" s="225"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="159" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B20" s="116"/>
       <c r="C20" s="91"/>
@@ -5320,12 +5343,12 @@
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="214"/>
+      <c r="I20" s="226"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="159" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B21" s="116"/>
       <c r="C21" s="32"/>
@@ -5342,32 +5365,32 @@
       <c r="A23" s="161"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="215" t="s">
+      <c r="E23" s="205" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="216"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="216"/>
-      <c r="I23" s="217"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="206"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="215" t="s">
+      <c r="A24" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="217"/>
+      <c r="B24" s="206"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="221" t="s">
+      <c r="E24" s="245" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="222"/>
-      <c r="G24" s="209" t="s">
+      <c r="F24" s="246"/>
+      <c r="G24" s="201" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="209" t="s">
+      <c r="H24" s="201" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="194" t="s">
-        <v>351</v>
+      <c r="I24" s="190" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5375,7 +5398,7 @@
         <v>230</v>
       </c>
       <c r="B25" s="115" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C25" s="32"/>
       <c r="E25" s="83">
@@ -5388,13 +5411,13 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="218" t="s">
-        <v>483</v>
+      <c r="I25" s="242" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="158" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26" s="90" t="s">
         <v>231</v>
@@ -5412,11 +5435,11 @@
       <c r="H26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="219"/>
+      <c r="I26" s="243"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B27" s="116"/>
       <c r="C27" s="91"/>
@@ -5428,11 +5451,11 @@
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="220"/>
+      <c r="I27" s="244"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B28" s="116"/>
       <c r="C28" s="32"/>
@@ -5452,37 +5475,37 @@
       <c r="A30" s="160"/>
       <c r="B30" s="117"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="205" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="216"/>
-      <c r="G30" s="216"/>
-      <c r="H30" s="216"/>
-      <c r="I30" s="217"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="206"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="161"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="223" t="s">
-        <v>459</v>
-      </c>
-      <c r="F31" s="224"/>
-      <c r="G31" s="207" t="s">
+      <c r="E31" s="247" t="s">
+        <v>452</v>
+      </c>
+      <c r="F31" s="248"/>
+      <c r="G31" s="199" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="207" t="s">
+      <c r="H31" s="199" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="194" t="s">
-        <v>352</v>
+      <c r="I31" s="190" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="215" t="s">
+      <c r="A32" s="205" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="217"/>
+      <c r="B32" s="206"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5492,14 +5515,14 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="213"/>
+      <c r="I32" s="225"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="157" t="s">
         <v>230</v>
       </c>
       <c r="B33" s="115" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C33" s="89"/>
       <c r="E33" s="83">
@@ -5512,7 +5535,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="213"/>
+      <c r="I33" s="225"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="158" t="s">
@@ -5527,7 +5550,7 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="213"/>
+      <c r="I34" s="225"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="159" t="s">
@@ -5540,7 +5563,7 @@
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="213"/>
+      <c r="I35" s="225"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="159" t="s">
@@ -5553,7 +5576,7 @@
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="213"/>
+      <c r="I36" s="225"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="159" t="s">
@@ -5566,7 +5589,7 @@
       <c r="F37" s="140"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="214"/>
+      <c r="I37" s="226"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="160" t="s">
@@ -5579,25 +5602,25 @@
       <c r="B39" s="121"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="215" t="s">
+      <c r="E40" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
-      <c r="H40" s="216"/>
-      <c r="I40" s="217"/>
+      <c r="F40" s="227"/>
+      <c r="G40" s="227"/>
+      <c r="H40" s="227"/>
+      <c r="I40" s="206"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="221"/>
-      <c r="F41" s="222"/>
+      <c r="E41" s="245"/>
+      <c r="F41" s="246"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="194" t="s">
-        <v>353</v>
+      <c r="I41" s="190" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -5607,7 +5630,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="213"/>
+      <c r="I42" s="225"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5616,7 +5639,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="213"/>
+      <c r="I43" s="225"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5625,7 +5648,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="213"/>
+      <c r="I44" s="225"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5634,7 +5657,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="213"/>
+      <c r="I45" s="225"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5643,7 +5666,7 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="213"/>
+      <c r="I46" s="225"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
@@ -5652,11 +5675,25 @@
       <c r="F47" s="140"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="214"/>
+      <c r="I47" s="226"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5672,20 +5709,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5725,32 +5748,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
-        <v>373</v>
-      </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="261"/>
+      <c r="A1" s="251" t="s">
+        <v>368</v>
+      </c>
+      <c r="B1" s="252"/>
+      <c r="C1" s="252"/>
+      <c r="D1" s="252"/>
+      <c r="E1" s="252"/>
+      <c r="F1" s="252"/>
+      <c r="G1" s="252"/>
+      <c r="H1" s="252"/>
+      <c r="I1" s="252"/>
+      <c r="J1" s="253"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="262" t="s">
+      <c r="A2" s="254" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="263"/>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="264"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="256"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5758,27 +5781,27 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>245</v>
-      </c>
-      <c r="B3" s="181" t="s">
-        <v>311</v>
-      </c>
-      <c r="C3" s="265" t="s">
-        <v>283</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="181" t="s">
-        <v>312</v>
-      </c>
-      <c r="I3" s="181" t="s">
-        <v>313</v>
-      </c>
-      <c r="J3" s="182" t="s">
-        <v>314</v>
+      <c r="A3" s="174" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="177" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="257" t="s">
+        <v>280</v>
+      </c>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="259"/>
+      <c r="H3" s="177" t="s">
+        <v>307</v>
+      </c>
+      <c r="I3" s="177" t="s">
+        <v>308</v>
+      </c>
+      <c r="J3" s="178" t="s">
+        <v>309</v>
       </c>
       <c r="K3" s="79"/>
       <c r="L3" s="79"/>
@@ -5797,16 +5820,16 @@
         <v>4</v>
       </c>
       <c r="D4" s="139" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E4" s="139" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F4" s="139" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G4" s="139" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="H4" s="139" t="s">
         <v>195</v>
@@ -5814,8 +5837,8 @@
       <c r="I4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="198" t="s">
-        <v>402</v>
+      <c r="J4" s="194" t="s">
+        <v>395</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
@@ -5825,19 +5848,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="C5" s="109">
         <v>0.1</v>
       </c>
       <c r="D5" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E5" s="109" t="s">
         <v>217</v>
       </c>
       <c r="F5" s="109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G5" s="109">
         <v>0.1</v>
@@ -5849,8 +5872,8 @@
         <v>196</v>
       </c>
       <c r="J5" s="112"/>
-      <c r="K5" s="208" t="s">
-        <v>460</v>
+      <c r="K5" s="200" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5865,13 +5888,13 @@
         <v>0.2</v>
       </c>
       <c r="D6" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E6" s="109" t="s">
         <v>218</v>
       </c>
       <c r="F6" s="109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G6" s="109">
         <v>0.2</v>
@@ -5883,8 +5906,8 @@
         <v>197</v>
       </c>
       <c r="J6" s="112"/>
-      <c r="K6" s="208" t="s">
-        <v>461</v>
+      <c r="K6" s="200" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5899,7 +5922,7 @@
         <v>0.5</v>
       </c>
       <c r="D7" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E7" s="109" t="s">
         <v>219</v>
@@ -5913,8 +5936,8 @@
         <v>198</v>
       </c>
       <c r="J7" s="112"/>
-      <c r="K7" s="208" t="s">
-        <v>462</v>
+      <c r="K7" s="200" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5929,13 +5952,13 @@
         <v>1</v>
       </c>
       <c r="D8" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F8" s="109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G8" s="109">
         <v>0.1</v>
@@ -5947,8 +5970,8 @@
         <v>199</v>
       </c>
       <c r="J8" s="112"/>
-      <c r="K8" s="208" t="s">
-        <v>463</v>
+      <c r="K8" s="200" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5963,11 +5986,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="109"/>
       <c r="F9" s="109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G9" s="109">
         <v>0.2</v>
@@ -5979,8 +6002,8 @@
         <v>200</v>
       </c>
       <c r="J9" s="112"/>
-      <c r="K9" s="208" t="s">
-        <v>464</v>
+      <c r="K9" s="200" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -5995,7 +6018,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E10" s="109" t="s">
         <v>217</v>
@@ -6009,8 +6032,8 @@
         <v>201</v>
       </c>
       <c r="J10" s="112"/>
-      <c r="K10" s="208" t="s">
-        <v>465</v>
+      <c r="K10" s="200" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6025,7 +6048,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E11" s="109" t="s">
         <v>218</v>
@@ -6039,8 +6062,8 @@
         <v>202</v>
       </c>
       <c r="J11" s="112"/>
-      <c r="K11" s="208" t="s">
-        <v>466</v>
+      <c r="K11" s="200" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6055,7 +6078,7 @@
         <v>20</v>
       </c>
       <c r="D12" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E12" s="109" t="s">
         <v>219</v>
@@ -6069,8 +6092,8 @@
         <v>203</v>
       </c>
       <c r="J12" s="112"/>
-      <c r="K12" s="208" t="s">
-        <v>467</v>
+      <c r="K12" s="200" t="s">
+        <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6085,7 +6108,7 @@
         <v>50</v>
       </c>
       <c r="D13" s="109" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E13" s="109" t="s">
         <v>220</v>
@@ -6099,8 +6122,8 @@
         <v>204</v>
       </c>
       <c r="J13" s="112"/>
-      <c r="K13" s="208" t="s">
-        <v>468</v>
+      <c r="K13" s="200" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6115,11 +6138,11 @@
         <v>100</v>
       </c>
       <c r="D14" s="109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E14" s="109"/>
       <c r="F14" s="109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G14" s="109">
         <v>100</v>
@@ -6131,8 +6154,8 @@
         <v>205</v>
       </c>
       <c r="J14" s="112"/>
-      <c r="K14" s="208" t="s">
-        <v>469</v>
+      <c r="K14" s="200" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6147,13 +6170,13 @@
         <v>200</v>
       </c>
       <c r="D15" s="109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E15" s="109" t="s">
         <v>217</v>
       </c>
       <c r="F15" s="109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G15" s="109">
         <v>200</v>
@@ -6165,8 +6188,8 @@
         <v>206</v>
       </c>
       <c r="J15" s="112"/>
-      <c r="K15" s="208" t="s">
-        <v>470</v>
+      <c r="K15" s="200" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6181,7 +6204,7 @@
         <v>500</v>
       </c>
       <c r="D16" s="109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E16" s="109" t="s">
         <v>218</v>
@@ -6195,8 +6218,8 @@
         <v>207</v>
       </c>
       <c r="J16" s="112"/>
-      <c r="K16" s="208" t="s">
-        <v>471</v>
+      <c r="K16" s="200" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6211,13 +6234,13 @@
         <v>1000</v>
       </c>
       <c r="D17" s="109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E17" s="109" t="s">
         <v>219</v>
       </c>
       <c r="F17" s="109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G17" s="109">
         <v>100</v>
@@ -6229,8 +6252,8 @@
         <v>208</v>
       </c>
       <c r="J17" s="112"/>
-      <c r="K17" s="208" t="s">
-        <v>472</v>
+      <c r="K17" s="200" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6245,13 +6268,13 @@
         <v>2000</v>
       </c>
       <c r="D18" s="109" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E18" s="109" t="s">
         <v>220</v>
       </c>
       <c r="F18" s="109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G18" s="109">
         <v>200</v>
@@ -6263,8 +6286,8 @@
         <v>209</v>
       </c>
       <c r="J18" s="112"/>
-      <c r="K18" s="208" t="s">
-        <v>473</v>
+      <c r="K18" s="200" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6287,8 +6310,8 @@
       <c r="J19" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="208" t="s">
-        <v>474</v>
+      <c r="K19" s="200" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6311,8 +6334,8 @@
       <c r="J20" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="208" t="s">
-        <v>475</v>
+      <c r="K20" s="200" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6335,8 +6358,8 @@
       <c r="J21" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="208" t="s">
-        <v>476</v>
+      <c r="K21" s="200" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6359,8 +6382,8 @@
       <c r="J22" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="208" t="s">
-        <v>477</v>
+      <c r="K22" s="200" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6383,8 +6406,8 @@
       <c r="J23" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="208" t="s">
-        <v>478</v>
+      <c r="K23" s="200" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -6407,107 +6430,107 @@
       <c r="J24" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="208" t="s">
-        <v>479</v>
+      <c r="K24" s="200" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="172">
+      <c r="A25" s="168">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="173" t="s">
-        <v>300</v>
-      </c>
-      <c r="C25" s="174"/>
-      <c r="D25" s="174"/>
-      <c r="E25" s="174"/>
-      <c r="F25" s="174"/>
-      <c r="G25" s="174"/>
-      <c r="H25" s="175">
+      <c r="B25" s="169" t="s">
+        <v>295</v>
+      </c>
+      <c r="C25" s="170"/>
+      <c r="D25" s="170"/>
+      <c r="E25" s="170"/>
+      <c r="F25" s="170"/>
+      <c r="G25" s="170"/>
+      <c r="H25" s="171">
         <v>2</v>
       </c>
-      <c r="I25" s="176"/>
-      <c r="J25" s="177" t="s">
+      <c r="I25" s="172"/>
+      <c r="J25" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="208" t="s">
-        <v>480</v>
+      <c r="K25" s="200" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="277" t="s">
+      <c r="A27" s="269" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="278"/>
-      <c r="C27" s="278"/>
-      <c r="D27" s="278"/>
-      <c r="E27" s="278"/>
-      <c r="F27" s="278"/>
-      <c r="G27" s="278"/>
-      <c r="H27" s="278"/>
-      <c r="I27" s="278"/>
-      <c r="J27" s="278"/>
-      <c r="K27" s="278"/>
-      <c r="L27" s="278"/>
-      <c r="M27" s="278"/>
-      <c r="N27" s="278"/>
-      <c r="O27" s="278"/>
-      <c r="P27" s="278"/>
-      <c r="Q27" s="279"/>
+      <c r="B27" s="270"/>
+      <c r="C27" s="270"/>
+      <c r="D27" s="270"/>
+      <c r="E27" s="270"/>
+      <c r="F27" s="270"/>
+      <c r="G27" s="270"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="270"/>
+      <c r="J27" s="270"/>
+      <c r="K27" s="270"/>
+      <c r="L27" s="270"/>
+      <c r="M27" s="270"/>
+      <c r="N27" s="270"/>
+      <c r="O27" s="270"/>
+      <c r="P27" s="270"/>
+      <c r="Q27" s="271"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="137" t="s">
-        <v>277</v>
-      </c>
-      <c r="B28" s="195" t="s">
-        <v>358</v>
-      </c>
-      <c r="C28" s="193" t="s">
-        <v>326</v>
-      </c>
-      <c r="D28" s="193" t="s">
-        <v>360</v>
-      </c>
-      <c r="E28" s="193" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="191" t="s">
+        <v>353</v>
+      </c>
+      <c r="C28" s="189" t="s">
+        <v>321</v>
+      </c>
+      <c r="D28" s="189" t="s">
+        <v>355</v>
+      </c>
+      <c r="E28" s="189" t="s">
+        <v>261</v>
+      </c>
+      <c r="F28" s="189" t="s">
+        <v>370</v>
+      </c>
+      <c r="G28" s="189" t="s">
+        <v>422</v>
+      </c>
+      <c r="H28" s="193" t="s">
+        <v>261</v>
+      </c>
+      <c r="I28" s="193" t="s">
+        <v>422</v>
+      </c>
+      <c r="J28" s="193" t="s">
+        <v>434</v>
+      </c>
+      <c r="K28" s="193" t="s">
+        <v>422</v>
+      </c>
+      <c r="L28" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="F28" s="193" t="s">
-        <v>375</v>
-      </c>
-      <c r="G28" s="193" t="s">
-        <v>429</v>
-      </c>
-      <c r="H28" s="197" t="s">
+      <c r="M28" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="I28" s="197" t="s">
-        <v>429</v>
-      </c>
-      <c r="J28" s="197" t="s">
-        <v>441</v>
-      </c>
-      <c r="K28" s="197" t="s">
-        <v>429</v>
-      </c>
-      <c r="L28" s="123" t="s">
-        <v>266</v>
-      </c>
-      <c r="M28" s="123" t="s">
-        <v>266</v>
-      </c>
       <c r="N28" s="123" t="s">
-        <v>266</v>
-      </c>
-      <c r="O28" s="193" t="s">
-        <v>272</v>
-      </c>
-      <c r="P28" s="193" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q28" s="196" t="s">
-        <v>272</v>
+        <v>263</v>
+      </c>
+      <c r="O28" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="P28" s="189" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q28" s="192" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -6516,31 +6539,31 @@
         <v>18</v>
       </c>
       <c r="C29" s="96" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D29" s="96" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E29" s="96" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F29" s="96" t="s">
         <v>152</v>
       </c>
       <c r="G29" s="96" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="H29" s="96" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="I29" s="96" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J29" s="96" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="K29" s="96" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L29" s="96" t="s">
         <v>92</v>
@@ -6552,36 +6575,36 @@
         <v>94</v>
       </c>
       <c r="O29" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q29" s="118" t="s">
         <v>248</v>
-      </c>
-      <c r="P29" s="96" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q29" s="118" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="146"/>
-      <c r="B30" s="205" t="s">
-        <v>432</v>
+      <c r="B30" s="197" t="s">
+        <v>425</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
       <c r="E30" s="153"/>
       <c r="F30" s="153"/>
       <c r="G30" s="153" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="H30" s="153"/>
       <c r="I30" s="153" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J30" s="153">
         <v>3</v>
       </c>
       <c r="K30" s="153" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L30" s="153">
         <v>100</v>
@@ -6602,534 +6625,534 @@
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="274" t="s">
-        <v>276</v>
-      </c>
-      <c r="B32" s="275"/>
-      <c r="C32" s="275"/>
-      <c r="D32" s="275"/>
-      <c r="E32" s="275"/>
-      <c r="F32" s="275"/>
-      <c r="G32" s="275"/>
-      <c r="H32" s="276"/>
+      <c r="A32" s="266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B32" s="267"/>
+      <c r="C32" s="267"/>
+      <c r="D32" s="267"/>
+      <c r="E32" s="267"/>
+      <c r="F32" s="267"/>
+      <c r="G32" s="267"/>
+      <c r="H32" s="268"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268" t="s">
-        <v>355</v>
-      </c>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260" t="s">
+        <v>350</v>
+      </c>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="268"/>
-      <c r="B34" s="269"/>
-      <c r="C34" s="269"/>
-      <c r="D34" s="269"/>
-      <c r="E34" s="269"/>
-      <c r="F34" s="269"/>
-      <c r="G34" s="269"/>
-      <c r="H34" s="270"/>
+      <c r="A34" s="260"/>
+      <c r="B34" s="261"/>
+      <c r="C34" s="261"/>
+      <c r="D34" s="261"/>
+      <c r="E34" s="261"/>
+      <c r="F34" s="261"/>
+      <c r="G34" s="261"/>
+      <c r="H34" s="262"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="268"/>
-      <c r="B35" s="269"/>
-      <c r="C35" s="269"/>
-      <c r="D35" s="269"/>
-      <c r="E35" s="269"/>
-      <c r="F35" s="269"/>
-      <c r="G35" s="269"/>
-      <c r="H35" s="270"/>
+      <c r="A35" s="260"/>
+      <c r="B35" s="261"/>
+      <c r="C35" s="261"/>
+      <c r="D35" s="261"/>
+      <c r="E35" s="261"/>
+      <c r="F35" s="261"/>
+      <c r="G35" s="261"/>
+      <c r="H35" s="262"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="271"/>
-      <c r="B36" s="272"/>
-      <c r="C36" s="272"/>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="273"/>
+      <c r="A36" s="263"/>
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="258" t="s">
-        <v>301</v>
-      </c>
-      <c r="B38" s="258"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
+      <c r="A38" s="250" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" s="250"/>
+      <c r="C38" s="250"/>
+      <c r="D38" s="250"/>
+      <c r="E38" s="250"/>
+      <c r="F38" s="250"/>
+      <c r="G38" s="250"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B39" s="78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C39" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D39" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="E39" s="257"/>
-      <c r="F39" s="257"/>
-      <c r="G39" s="257"/>
+        <v>298</v>
+      </c>
+      <c r="D39" s="249" t="s">
+        <v>299</v>
+      </c>
+      <c r="E39" s="249"/>
+      <c r="F39" s="249"/>
+      <c r="G39" s="249"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>362</v>
+        <v>432</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C41" t="s">
-        <v>439</v>
-      </c>
-      <c r="D41" s="192" t="s">
-        <v>328</v>
+        <v>432</v>
+      </c>
+      <c r="D41" s="188" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>322</v>
+      </c>
+      <c r="B42" t="s">
         <v>327</v>
       </c>
-      <c r="B42" t="s">
-        <v>332</v>
-      </c>
       <c r="C42" t="s">
-        <v>439</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>329</v>
+        <v>432</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B43" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C43" t="s">
-        <v>439</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>349</v>
+        <v>432</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C44" t="s">
-        <v>439</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>330</v>
+        <v>432</v>
+      </c>
+      <c r="D44" s="179" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B45" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C45" t="s">
-        <v>439</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>404</v>
+        <v>432</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B46" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C46" t="s">
-        <v>439</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>384</v>
+        <v>432</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B47" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C47" t="s">
-        <v>439</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>405</v>
+        <v>432</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B48" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
-      </c>
-      <c r="D48" s="192" t="s">
-        <v>407</v>
+        <v>432</v>
+      </c>
+      <c r="D48" s="188" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C49" t="s">
-        <v>439</v>
-      </c>
-      <c r="D49" s="192" t="s">
-        <v>406</v>
+        <v>432</v>
+      </c>
+      <c r="D49" s="188" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B50" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C50" t="s">
-        <v>439</v>
-      </c>
-      <c r="D50" s="192" t="s">
-        <v>408</v>
+        <v>432</v>
+      </c>
+      <c r="D50" s="188" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B51" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C51" t="s">
-        <v>439</v>
-      </c>
-      <c r="D51" s="192" t="s">
-        <v>411</v>
+        <v>432</v>
+      </c>
+      <c r="D51" s="188" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C52" t="s">
-        <v>439</v>
-      </c>
-      <c r="D52" s="180" t="s">
-        <v>440</v>
+        <v>432</v>
+      </c>
+      <c r="D52" s="176" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C53" t="s">
-        <v>439</v>
-      </c>
-      <c r="D53" s="192" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="D53" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C54" t="s">
-        <v>439</v>
-      </c>
-      <c r="D54" s="192" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="D54" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B55" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C55" t="s">
-        <v>439</v>
-      </c>
-      <c r="D55" s="192" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="D55" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B56" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C56" t="s">
-        <v>439</v>
-      </c>
-      <c r="D56" s="192" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="D56" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B57" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C57" t="s">
-        <v>439</v>
-      </c>
-      <c r="D57" s="192" t="s">
-        <v>414</v>
+        <v>432</v>
+      </c>
+      <c r="D57" s="188" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B58" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C58" t="s">
-        <v>439</v>
-      </c>
-      <c r="D58" s="180" t="s">
-        <v>415</v>
+        <v>432</v>
+      </c>
+      <c r="D58" s="176" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B59" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C59" t="s">
-        <v>439</v>
-      </c>
-      <c r="D59" s="180" t="s">
-        <v>416</v>
+        <v>432</v>
+      </c>
+      <c r="D59" s="176" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B60" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C60" t="s">
-        <v>439</v>
-      </c>
-      <c r="D60" s="180" t="s">
-        <v>417</v>
+        <v>432</v>
+      </c>
+      <c r="D60" s="176" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B61" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>439</v>
-      </c>
-      <c r="D61" s="180" t="s">
-        <v>418</v>
+        <v>432</v>
+      </c>
+      <c r="D61" s="176" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B62" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C62" t="s">
-        <v>439</v>
-      </c>
-      <c r="D62" s="180" t="s">
-        <v>419</v>
+        <v>432</v>
+      </c>
+      <c r="D62" s="176" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B63" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C63" t="s">
-        <v>439</v>
-      </c>
-      <c r="D63" s="180" t="s">
-        <v>420</v>
+        <v>432</v>
+      </c>
+      <c r="D63" s="176" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C64" t="s">
-        <v>439</v>
-      </c>
-      <c r="D64" s="180" t="s">
-        <v>421</v>
+        <v>432</v>
+      </c>
+      <c r="D64" s="176" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C65" t="s">
-        <v>439</v>
-      </c>
-      <c r="D65" s="180" t="s">
-        <v>422</v>
+        <v>432</v>
+      </c>
+      <c r="D65" s="176" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C66" t="s">
-        <v>439</v>
-      </c>
-      <c r="D66" s="180" t="s">
-        <v>423</v>
+        <v>432</v>
+      </c>
+      <c r="D66" s="176" t="s">
+        <v>416</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B67" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C67" t="s">
-        <v>439</v>
-      </c>
-      <c r="D67" s="180" t="s">
-        <v>424</v>
+        <v>432</v>
+      </c>
+      <c r="D67" s="176" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B68" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C68" t="s">
-        <v>439</v>
-      </c>
-      <c r="D68" s="180" t="s">
-        <v>425</v>
+        <v>432</v>
+      </c>
+      <c r="D68" s="176" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B69" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C69" t="s">
-        <v>439</v>
-      </c>
-      <c r="D69" s="180" t="s">
-        <v>426</v>
+        <v>432</v>
+      </c>
+      <c r="D69" s="176" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B70" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C70" t="s">
-        <v>439</v>
-      </c>
-      <c r="D70" s="180" t="s">
-        <v>427</v>
+        <v>432</v>
+      </c>
+      <c r="D70" s="176" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B71" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C71" t="s">
-        <v>439</v>
-      </c>
-      <c r="D71" s="180" t="s">
-        <v>428</v>
+        <v>432</v>
+      </c>
+      <c r="D71" s="176" t="s">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -7227,57 +7250,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="280" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1" s="281"/>
-      <c r="C1" s="281"/>
-      <c r="D1" s="281"/>
-      <c r="E1" s="281"/>
-      <c r="F1" s="281"/>
-      <c r="G1" s="281"/>
-      <c r="H1" s="281"/>
-      <c r="I1" s="281"/>
-      <c r="J1" s="282"/>
+      <c r="A1" s="272" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="273"/>
+      <c r="H1" s="273"/>
+      <c r="I1" s="273"/>
+      <c r="J1" s="274"/>
     </row>
     <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="277" t="s">
+      <c r="A2" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="278"/>
-      <c r="C2" s="278"/>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
-      <c r="H2" s="278"/>
-      <c r="I2" s="278"/>
-      <c r="J2" s="279"/>
+      <c r="B2" s="270"/>
+      <c r="C2" s="270"/>
+      <c r="D2" s="270"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="270"/>
+      <c r="J2" s="271"/>
     </row>
     <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="131" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B3" s="131" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C3" s="128" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D3" s="128" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E3" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F3" s="126" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G3" s="132" t="s">
-        <v>316</v>
-      </c>
-      <c r="H3" s="170" t="s">
-        <v>298</v>
+        <v>311</v>
+      </c>
+      <c r="H3" s="166" t="s">
+        <v>293</v>
       </c>
       <c r="I3" s="128"/>
       <c r="J3" s="130"/>
@@ -7290,10 +7313,10 @@
         <v>95</v>
       </c>
       <c r="C4" s="100" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D4" s="100" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E4" s="100" t="s">
         <v>15</v>
@@ -7304,8 +7327,8 @@
       <c r="G4" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="171" t="s">
-        <v>299</v>
+      <c r="H4" s="167" t="s">
+        <v>294</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
@@ -7325,35 +7348,35 @@
         <v>600</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="G5" s="206" t="s">
+        <v>451</v>
+      </c>
+      <c r="G5" s="198" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
+      <c r="H5" s="165"/>
+      <c r="I5" s="165"/>
+      <c r="J5" s="165"/>
     </row>
     <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="277" t="s">
+      <c r="A6" s="269" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="278"/>
-      <c r="C6" s="278"/>
-      <c r="D6" s="278"/>
-      <c r="E6" s="278"/>
-      <c r="F6" s="278"/>
-      <c r="G6" s="278"/>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="279"/>
+      <c r="B6" s="270"/>
+      <c r="C6" s="270"/>
+      <c r="D6" s="270"/>
+      <c r="E6" s="270"/>
+      <c r="F6" s="270"/>
+      <c r="G6" s="270"/>
+      <c r="H6" s="270"/>
+      <c r="I6" s="270"/>
+      <c r="J6" s="271"/>
     </row>
     <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="124" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B7" s="132" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="C7" s="128"/>
       <c r="D7" s="128"/>
@@ -7397,41 +7420,41 @@
       <c r="J9" s="72"/>
     </row>
     <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="277" t="s">
+      <c r="A10" s="269" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="278"/>
-      <c r="C10" s="278"/>
-      <c r="D10" s="278"/>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="279"/>
+      <c r="B10" s="270"/>
+      <c r="C10" s="270"/>
+      <c r="D10" s="270"/>
+      <c r="E10" s="270"/>
+      <c r="F10" s="270"/>
+      <c r="G10" s="270"/>
+      <c r="H10" s="270"/>
+      <c r="I10" s="270"/>
+      <c r="J10" s="271"/>
     </row>
     <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="127"/>
       <c r="B11" s="128" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C11" s="128" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" s="175" t="s">
+        <v>320</v>
+      </c>
+      <c r="E11" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="D11" s="179" t="s">
-        <v>325</v>
-      </c>
-      <c r="E11" s="128" t="s">
-        <v>255</v>
-      </c>
       <c r="F11" s="133" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I11" s="128"/>
       <c r="J11" s="130"/>
@@ -7444,19 +7467,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D12" s="96" t="s">
         <v>150</v>
       </c>
       <c r="E12" s="96" t="s">
+        <v>254</v>
+      </c>
+      <c r="F12" s="96" t="s">
+        <v>255</v>
+      </c>
+      <c r="G12" s="134" t="s">
         <v>256</v>
-      </c>
-      <c r="F12" s="96" t="s">
-        <v>257</v>
-      </c>
-      <c r="G12" s="134" t="s">
-        <v>258</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>227</v>
@@ -7587,31 +7610,31 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="277" t="s">
+      <c r="A21" s="269" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="278"/>
-      <c r="C21" s="278"/>
-      <c r="D21" s="278"/>
-      <c r="E21" s="278"/>
-      <c r="F21" s="278"/>
-      <c r="G21" s="278"/>
-      <c r="H21" s="278"/>
-      <c r="I21" s="278"/>
-      <c r="J21" s="279"/>
+      <c r="B21" s="270"/>
+      <c r="C21" s="270"/>
+      <c r="D21" s="270"/>
+      <c r="E21" s="270"/>
+      <c r="F21" s="270"/>
+      <c r="G21" s="270"/>
+      <c r="H21" s="270"/>
+      <c r="I21" s="270"/>
+      <c r="J21" s="271"/>
     </row>
     <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="131" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B22" s="132" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C22" s="132" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D22" s="132" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E22" s="128"/>
       <c r="F22" s="129"/>
@@ -7625,10 +7648,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="96" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="96" t="s">
         <v>259</v>
-      </c>
-      <c r="C23" s="96" t="s">
-        <v>261</v>
       </c>
       <c r="D23" s="99" t="s">
         <v>227</v>
@@ -7661,34 +7684,34 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="277" t="s">
+      <c r="A25" s="269" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="278"/>
-      <c r="C25" s="278"/>
-      <c r="D25" s="278"/>
-      <c r="E25" s="278"/>
-      <c r="F25" s="278"/>
-      <c r="G25" s="278"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="279"/>
+      <c r="B25" s="270"/>
+      <c r="C25" s="270"/>
+      <c r="D25" s="270"/>
+      <c r="E25" s="270"/>
+      <c r="F25" s="270"/>
+      <c r="G25" s="270"/>
+      <c r="H25" s="270"/>
+      <c r="I25" s="270"/>
+      <c r="J25" s="271"/>
     </row>
     <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="131" t="s">
-        <v>277</v>
-      </c>
-      <c r="B26" s="197" t="s">
-        <v>360</v>
+        <v>274</v>
+      </c>
+      <c r="B26" s="193" t="s">
+        <v>355</v>
       </c>
       <c r="C26" s="132" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D26" s="132" t="s">
-        <v>262</v>
-      </c>
-      <c r="E26" s="193" t="s">
-        <v>360</v>
+        <v>260</v>
+      </c>
+      <c r="E26" s="189" t="s">
+        <v>355</v>
       </c>
       <c r="F26" s="128"/>
       <c r="G26" s="128"/>
@@ -7702,13 +7725,13 @@
         <v>18</v>
       </c>
       <c r="C27" s="147" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D27" s="96" t="s">
         <v>152</v>
       </c>
       <c r="E27" s="96" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F27" s="147"/>
       <c r="G27" s="147"/>
@@ -7718,13 +7741,13 @@
     </row>
     <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="146"/>
-      <c r="B28" s="210" t="s">
-        <v>481</v>
-      </c>
-      <c r="C28" s="190"/>
+      <c r="B28" s="202" t="s">
+        <v>474</v>
+      </c>
+      <c r="C28" s="186"/>
       <c r="D28" s="122"/>
       <c r="E28" s="153" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -7734,240 +7757,240 @@
     </row>
     <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="274" t="s">
-        <v>276</v>
-      </c>
-      <c r="B30" s="275"/>
-      <c r="C30" s="275"/>
-      <c r="D30" s="275"/>
-      <c r="E30" s="275"/>
-      <c r="F30" s="275"/>
-      <c r="G30" s="275"/>
-      <c r="H30" s="276"/>
+      <c r="A30" s="266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B30" s="267"/>
+      <c r="C30" s="267"/>
+      <c r="D30" s="267"/>
+      <c r="E30" s="267"/>
+      <c r="F30" s="267"/>
+      <c r="G30" s="267"/>
+      <c r="H30" s="268"/>
     </row>
     <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="268" t="s">
-        <v>354</v>
-      </c>
-      <c r="B31" s="269"/>
-      <c r="C31" s="269"/>
-      <c r="D31" s="269"/>
-      <c r="E31" s="269"/>
-      <c r="F31" s="269"/>
-      <c r="G31" s="269"/>
-      <c r="H31" s="270"/>
+      <c r="A31" s="260" t="s">
+        <v>349</v>
+      </c>
+      <c r="B31" s="261"/>
+      <c r="C31" s="261"/>
+      <c r="D31" s="261"/>
+      <c r="E31" s="261"/>
+      <c r="F31" s="261"/>
+      <c r="G31" s="261"/>
+      <c r="H31" s="262"/>
     </row>
     <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="268"/>
-      <c r="B32" s="269"/>
-      <c r="C32" s="269"/>
-      <c r="D32" s="269"/>
-      <c r="E32" s="269"/>
-      <c r="F32" s="269"/>
-      <c r="G32" s="269"/>
-      <c r="H32" s="270"/>
+      <c r="A32" s="260"/>
+      <c r="B32" s="261"/>
+      <c r="C32" s="261"/>
+      <c r="D32" s="261"/>
+      <c r="E32" s="261"/>
+      <c r="F32" s="261"/>
+      <c r="G32" s="261"/>
+      <c r="H32" s="262"/>
     </row>
     <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="268"/>
-      <c r="B33" s="269"/>
-      <c r="C33" s="269"/>
-      <c r="D33" s="269"/>
-      <c r="E33" s="269"/>
-      <c r="F33" s="269"/>
-      <c r="G33" s="269"/>
-      <c r="H33" s="270"/>
+      <c r="A33" s="260"/>
+      <c r="B33" s="261"/>
+      <c r="C33" s="261"/>
+      <c r="D33" s="261"/>
+      <c r="E33" s="261"/>
+      <c r="F33" s="261"/>
+      <c r="G33" s="261"/>
+      <c r="H33" s="262"/>
     </row>
     <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="271"/>
-      <c r="B34" s="272"/>
-      <c r="C34" s="272"/>
-      <c r="D34" s="272"/>
-      <c r="E34" s="272"/>
-      <c r="F34" s="272"/>
-      <c r="G34" s="272"/>
-      <c r="H34" s="273"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="258" t="s">
-        <v>301</v>
-      </c>
-      <c r="B36" s="258"/>
-      <c r="C36" s="258"/>
-      <c r="D36" s="258"/>
-      <c r="E36" s="258"/>
-      <c r="F36" s="258"/>
-      <c r="G36" s="258"/>
+      <c r="A36" s="250" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
     </row>
     <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B37" s="78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C37" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D37" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="E37" s="257"/>
-      <c r="F37" s="257"/>
-      <c r="G37" s="257"/>
+        <v>298</v>
+      </c>
+      <c r="D37" s="249" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="249"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B38" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C38" t="s">
-        <v>455</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>362</v>
+        <v>448</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C39" t="s">
-        <v>455</v>
-      </c>
-      <c r="D39" s="192" t="s">
-        <v>328</v>
+        <v>448</v>
+      </c>
+      <c r="D39" s="188" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>322</v>
+      </c>
+      <c r="B40" t="s">
         <v>327</v>
       </c>
-      <c r="B40" t="s">
-        <v>332</v>
-      </c>
       <c r="C40" t="s">
-        <v>455</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>329</v>
+        <v>448</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B41" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C41" t="s">
-        <v>455</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>349</v>
+        <v>448</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B42" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D42" s="183" t="s">
-        <v>330</v>
+        <v>448</v>
+      </c>
+      <c r="D42" s="179" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B43" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C43" t="s">
-        <v>455</v>
-      </c>
-      <c r="D43" s="192" t="s">
-        <v>364</v>
+        <v>448</v>
+      </c>
+      <c r="D43" s="188" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D44" s="192" t="s">
-        <v>367</v>
+        <v>448</v>
+      </c>
+      <c r="D44" s="188" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B45" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C45" t="s">
-        <v>455</v>
-      </c>
-      <c r="D45" s="192" t="s">
-        <v>454</v>
+        <v>448</v>
+      </c>
+      <c r="D45" s="188" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C46" t="s">
-        <v>455</v>
-      </c>
-      <c r="D46" s="192" t="s">
-        <v>368</v>
+        <v>448</v>
+      </c>
+      <c r="D46" s="188" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
-      </c>
-      <c r="D47" s="192" t="s">
-        <v>369</v>
+        <v>448</v>
+      </c>
+      <c r="D47" s="188" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B48" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="C48" t="s">
-        <v>455</v>
-      </c>
-      <c r="D48" s="183" t="s">
-        <v>457</v>
+        <v>448</v>
+      </c>
+      <c r="D48" s="179" t="s">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -8025,8 +8048,8 @@
   </sheetPr>
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:C7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8051,254 +8074,246 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="294" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="309" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="310"/>
-      <c r="C2" s="310"/>
-      <c r="D2" s="310"/>
-      <c r="E2" s="310"/>
-      <c r="F2" s="311"/>
-      <c r="G2" s="290" t="s">
-        <v>241</v>
-      </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
-        <v>289</v>
-      </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
+      <c r="A2" s="295" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="297"/>
+      <c r="G2" s="298" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>285</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
-        <v>288</v>
-      </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="314"/>
-      <c r="G3" s="291" t="s">
-        <v>296</v>
-      </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="200" t="s">
-        <v>294</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>360</v>
-      </c>
-      <c r="O3" s="201" t="s">
-        <v>360</v>
-      </c>
-      <c r="P3" s="203"/>
+      <c r="A3" s="300" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="301"/>
+      <c r="C3" s="301"/>
+      <c r="D3" s="301"/>
+      <c r="E3" s="301"/>
+      <c r="F3" s="302"/>
+      <c r="G3" s="303" t="s">
+        <v>291</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>289</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>355</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="196"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="315" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="316"/>
-      <c r="C4" s="317"/>
-      <c r="D4" s="283" t="s">
+      <c r="A4" s="305" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283" t="s">
-        <v>297</v>
-      </c>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="166" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308" t="s">
+        <v>292</v>
+      </c>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="166" t="s">
-        <v>361</v>
-      </c>
-      <c r="O4" s="166" t="s">
+      <c r="N4" s="309" t="s">
+        <v>356</v>
+      </c>
+      <c r="O4" s="309" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="318"/>
-      <c r="B5" s="319"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="284" t="s">
-        <v>274</v>
-      </c>
-      <c r="H5" s="284"/>
-      <c r="I5" s="284"/>
-      <c r="J5" s="284" t="s">
-        <v>285</v>
-      </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="284"/>
-      <c r="M5" s="199"/>
-      <c r="N5" s="199" t="s">
-        <v>378</v>
-      </c>
-      <c r="O5" s="204" t="s">
-        <v>380</v>
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="313" t="s">
+        <v>271</v>
+      </c>
+      <c r="H5" s="313"/>
+      <c r="I5" s="313"/>
+      <c r="J5" s="313" t="s">
+        <v>282</v>
+      </c>
+      <c r="K5" s="313"/>
+      <c r="L5" s="313"/>
+      <c r="M5" s="314"/>
+      <c r="N5" s="314" t="s">
+        <v>373</v>
+      </c>
+      <c r="O5" s="315" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="318" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="319"/>
-      <c r="C6" s="320"/>
-      <c r="D6" s="284" t="s">
-        <v>281</v>
-      </c>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="284" t="s">
-        <v>278</v>
-      </c>
-      <c r="H6" s="284"/>
-      <c r="I6" s="284"/>
-      <c r="J6" s="284"/>
-      <c r="K6" s="284"/>
-      <c r="L6" s="284"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199" t="s">
-        <v>379</v>
-      </c>
-      <c r="O6" s="204" t="s">
-        <v>381</v>
+      <c r="A6" s="310" t="s">
+        <v>483</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="313" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="313"/>
+      <c r="K6" s="313"/>
+      <c r="L6" s="313"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314" t="s">
+        <v>374</v>
+      </c>
+      <c r="O6" s="315" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="318" t="s">
-        <v>274</v>
-      </c>
-      <c r="B7" s="319"/>
-      <c r="C7" s="320"/>
-      <c r="D7" s="284" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="284"/>
-      <c r="H7" s="284"/>
-      <c r="I7" s="284"/>
-      <c r="J7" s="284"/>
-      <c r="K7" s="284"/>
-      <c r="L7" s="284"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="164"/>
+      <c r="A7" s="310" t="s">
+        <v>484</v>
+      </c>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="313"/>
+      <c r="H7" s="313"/>
+      <c r="I7" s="313"/>
+      <c r="J7" s="313"/>
+      <c r="K7" s="313"/>
+      <c r="L7" s="313"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="315"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="318"/>
-      <c r="B8" s="319"/>
-      <c r="C8" s="320"/>
-      <c r="D8" s="284" t="s">
-        <v>265</v>
-      </c>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="284"/>
-      <c r="H8" s="284"/>
-      <c r="I8" s="284"/>
-      <c r="J8" s="284"/>
-      <c r="K8" s="284"/>
-      <c r="L8" s="284"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="164"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="313"/>
+      <c r="H8" s="313"/>
+      <c r="I8" s="313"/>
+      <c r="J8" s="313"/>
+      <c r="K8" s="313"/>
+      <c r="L8" s="313"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
-        <v>348</v>
-      </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="A10" s="275" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>360</v>
+        <v>321</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>355</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="191"/>
-      <c r="L11" s="191"/>
+        <v>269</v>
+      </c>
+      <c r="K11" s="187"/>
+      <c r="L11" s="187"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -8310,13 +8325,13 @@
         <v>94</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>248</v>
-      </c>
-      <c r="H12" s="147" t="s">
-        <v>249</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -8342,554 +8357,549 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>356</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>351</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>298</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>362</v>
+        <v>435</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>442</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>328</v>
+        <v>435</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
         <v>327</v>
       </c>
-      <c r="B25" t="s">
-        <v>332</v>
-      </c>
       <c r="C25" t="s">
-        <v>442</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>329</v>
+        <v>435</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>442</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>349</v>
+        <v>435</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>442</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>330</v>
+        <v>435</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>442</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>385</v>
+        <v>435</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>442</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>384</v>
+        <v>435</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
-        <v>442</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>386</v>
+        <v>435</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>337</v>
+        <v>435</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B32" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C32" t="s">
-        <v>442</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>387</v>
+        <v>435</v>
+      </c>
+      <c r="D32" s="188" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C33" t="s">
-        <v>442</v>
-      </c>
-      <c r="D33" s="192" t="s">
-        <v>388</v>
+        <v>435</v>
+      </c>
+      <c r="D33" s="188" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B34" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C34" t="s">
-        <v>442</v>
-      </c>
-      <c r="D34" s="180" t="s">
-        <v>389</v>
+        <v>435</v>
+      </c>
+      <c r="D34" s="176" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B35" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C35" t="s">
-        <v>442</v>
-      </c>
-      <c r="D35" s="180" t="s">
-        <v>390</v>
+        <v>435</v>
+      </c>
+      <c r="D35" s="176" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B36" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C36" t="s">
-        <v>442</v>
-      </c>
-      <c r="D36" s="180" t="s">
-        <v>391</v>
+        <v>435</v>
+      </c>
+      <c r="D36" s="176" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B37" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C37" t="s">
-        <v>442</v>
-      </c>
-      <c r="D37" s="180" t="s">
-        <v>392</v>
+        <v>435</v>
+      </c>
+      <c r="D37" s="176" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B38" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C38" t="s">
-        <v>442</v>
-      </c>
-      <c r="D38" s="180" t="s">
-        <v>393</v>
+        <v>435</v>
+      </c>
+      <c r="D38" s="176" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B39" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C39" t="s">
-        <v>442</v>
-      </c>
-      <c r="D39" s="180" t="s">
-        <v>394</v>
+        <v>435</v>
+      </c>
+      <c r="D39" s="176" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B40" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
-      </c>
-      <c r="D40" s="180" t="s">
-        <v>395</v>
+        <v>435</v>
+      </c>
+      <c r="D40" s="176" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B41" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C41" t="s">
-        <v>442</v>
-      </c>
-      <c r="D41" s="180" t="s">
-        <v>443</v>
+        <v>435</v>
+      </c>
+      <c r="D41" s="176" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C42" t="s">
-        <v>442</v>
-      </c>
-      <c r="D42" s="180" t="s">
-        <v>396</v>
+        <v>435</v>
+      </c>
+      <c r="D42" s="176" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C43" t="s">
-        <v>442</v>
-      </c>
-      <c r="D43" s="180" t="s">
-        <v>444</v>
+        <v>435</v>
+      </c>
+      <c r="D43" s="176" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C44" t="s">
-        <v>442</v>
-      </c>
-      <c r="D44" s="180" t="s">
-        <v>396</v>
+        <v>435</v>
+      </c>
+      <c r="D44" s="176" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C45" t="s">
-        <v>442</v>
-      </c>
-      <c r="D45" s="180" t="s">
-        <v>445</v>
+        <v>435</v>
+      </c>
+      <c r="D45" s="176" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B46" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C46" t="s">
-        <v>442</v>
-      </c>
-      <c r="D46" s="180" t="s">
-        <v>446</v>
+        <v>435</v>
+      </c>
+      <c r="D46" s="176" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
-      </c>
-      <c r="D47" s="180" t="s">
-        <v>447</v>
+        <v>435</v>
+      </c>
+      <c r="D47" s="176" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B48" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C48" t="s">
-        <v>442</v>
-      </c>
-      <c r="D48" s="180" t="s">
-        <v>448</v>
+        <v>435</v>
+      </c>
+      <c r="D48" s="176" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C49" t="s">
+        <v>435</v>
+      </c>
+      <c r="D49" s="176" t="s">
         <v>442</v>
-      </c>
-      <c r="D49" s="180" t="s">
-        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C50" t="s">
-        <v>442</v>
-      </c>
-      <c r="D50" s="180" t="s">
-        <v>450</v>
+        <v>435</v>
+      </c>
+      <c r="D50" s="176" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B51" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="C51" t="s">
-        <v>442</v>
-      </c>
-      <c r="D51" s="180" t="s">
-        <v>451</v>
+        <v>435</v>
+      </c>
+      <c r="D51" s="176" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C52" t="s">
-        <v>442</v>
-      </c>
-      <c r="D52" s="192" t="s">
-        <v>388</v>
+        <v>435</v>
+      </c>
+      <c r="D52" s="188" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B53" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
-      </c>
-      <c r="D53" s="180" t="s">
-        <v>397</v>
+        <v>435</v>
+      </c>
+      <c r="D53" s="176" t="s">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D4:F4"/>
+  <mergeCells count="26">
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="A16:H19"/>
-    <mergeCell ref="D8:F8"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8955,8 +8965,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8981,244 +8991,250 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="294" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="289"/>
-      <c r="C1" s="289"/>
-      <c r="D1" s="289"/>
-      <c r="E1" s="289"/>
-      <c r="F1" s="289"/>
-      <c r="G1" s="289"/>
-      <c r="H1" s="289"/>
-      <c r="I1" s="289"/>
-      <c r="J1" s="289"/>
-      <c r="K1" s="289"/>
-      <c r="L1" s="289"/>
-      <c r="M1" s="289"/>
-      <c r="N1" s="289"/>
-      <c r="O1" s="289"/>
-      <c r="P1" s="289"/>
+      <c r="B1" s="294"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="294"/>
+      <c r="E1" s="294"/>
+      <c r="F1" s="294"/>
+      <c r="G1" s="294"/>
+      <c r="H1" s="294"/>
+      <c r="I1" s="294"/>
+      <c r="J1" s="294"/>
+      <c r="K1" s="294"/>
+      <c r="L1" s="294"/>
+      <c r="M1" s="294"/>
+      <c r="N1" s="294"/>
+      <c r="O1" s="294"/>
+      <c r="P1" s="294"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="290" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="290"/>
-      <c r="C2" s="290"/>
-      <c r="D2" s="290"/>
-      <c r="E2" s="290"/>
-      <c r="F2" s="290"/>
-      <c r="G2" s="290" t="s">
+      <c r="A2" s="298" t="s">
+        <v>272</v>
+      </c>
+      <c r="B2" s="298"/>
+      <c r="C2" s="298"/>
+      <c r="D2" s="298"/>
+      <c r="E2" s="298"/>
+      <c r="F2" s="298"/>
+      <c r="G2" s="298" t="s">
+        <v>239</v>
+      </c>
+      <c r="H2" s="298"/>
+      <c r="I2" s="298"/>
+      <c r="J2" s="298"/>
+      <c r="K2" s="298"/>
+      <c r="L2" s="298"/>
+      <c r="M2" s="299" t="s">
+        <v>284</v>
+      </c>
+      <c r="N2" s="299"/>
+      <c r="O2" s="299"/>
+      <c r="P2" s="299"/>
+      <c r="Q2" s="88"/>
+    </row>
+    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="303" t="s">
+        <v>485</v>
+      </c>
+      <c r="B3" s="303"/>
+      <c r="C3" s="303"/>
+      <c r="D3" s="303"/>
+      <c r="E3" s="303"/>
+      <c r="F3" s="303"/>
+      <c r="G3" s="303" t="s">
+        <v>286</v>
+      </c>
+      <c r="H3" s="303"/>
+      <c r="I3" s="303"/>
+      <c r="J3" s="303"/>
+      <c r="K3" s="303"/>
+      <c r="L3" s="303"/>
+      <c r="M3" s="304" t="s">
+        <v>288</v>
+      </c>
+      <c r="N3" s="304" t="s">
+        <v>287</v>
+      </c>
+      <c r="O3" s="304" t="s">
+        <v>355</v>
+      </c>
+      <c r="P3" s="304" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q3" s="195"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="305" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" s="306"/>
+      <c r="C4" s="306"/>
+      <c r="D4" s="306"/>
+      <c r="E4" s="306"/>
+      <c r="F4" s="307"/>
+      <c r="G4" s="308" t="s">
         <v>241</v>
       </c>
-      <c r="H2" s="290"/>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
-      <c r="M2" s="285" t="s">
-        <v>287</v>
-      </c>
-      <c r="N2" s="285"/>
-      <c r="O2" s="285"/>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="88"/>
-    </row>
-    <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="291" t="s">
-        <v>291</v>
-      </c>
-      <c r="B3" s="291"/>
-      <c r="C3" s="291"/>
-      <c r="D3" s="291"/>
-      <c r="E3" s="291"/>
-      <c r="F3" s="291"/>
-      <c r="G3" s="291" t="s">
-        <v>290</v>
-      </c>
-      <c r="H3" s="291"/>
-      <c r="I3" s="291"/>
-      <c r="J3" s="291"/>
-      <c r="K3" s="291"/>
-      <c r="L3" s="291"/>
-      <c r="M3" s="200" t="s">
-        <v>293</v>
-      </c>
-      <c r="N3" s="200" t="s">
-        <v>292</v>
-      </c>
-      <c r="O3" s="200" t="s">
-        <v>360</v>
-      </c>
-      <c r="P3" s="200" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q3" s="202"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="283" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="283"/>
-      <c r="C4" s="283"/>
-      <c r="D4" s="283" t="s">
-        <v>240</v>
-      </c>
-      <c r="E4" s="283"/>
-      <c r="F4" s="283"/>
-      <c r="G4" s="283" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="283"/>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
-      <c r="M4" s="166" t="s">
-        <v>247</v>
-      </c>
-      <c r="N4" s="166" t="s">
+      <c r="H4" s="308"/>
+      <c r="I4" s="308"/>
+      <c r="J4" s="308"/>
+      <c r="K4" s="308"/>
+      <c r="L4" s="308"/>
+      <c r="M4" s="309" t="s">
+        <v>245</v>
+      </c>
+      <c r="N4" s="309" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="166" t="s">
-        <v>361</v>
-      </c>
-      <c r="P4" s="166" t="s">
+      <c r="O4" s="309" t="s">
+        <v>356</v>
+      </c>
+      <c r="P4" s="309" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="284"/>
-      <c r="B5" s="284"/>
-      <c r="C5" s="284"/>
-      <c r="D5" s="284"/>
-      <c r="E5" s="284"/>
-      <c r="F5" s="284"/>
-      <c r="G5" s="292" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="316" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="292"/>
-      <c r="I5" s="292"/>
-      <c r="J5" s="292"/>
-      <c r="K5" s="292"/>
-      <c r="L5" s="292"/>
-      <c r="M5" s="199" t="s">
-        <v>284</v>
-      </c>
-      <c r="N5" s="199"/>
-      <c r="O5" s="199" t="s">
-        <v>382</v>
-      </c>
-      <c r="P5" s="199" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="284"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="284"/>
-      <c r="E6" s="284"/>
-      <c r="F6" s="284"/>
-      <c r="G6" s="292"/>
-      <c r="H6" s="292"/>
-      <c r="I6" s="292"/>
-      <c r="J6" s="292"/>
-      <c r="K6" s="292"/>
-      <c r="L6" s="292"/>
-      <c r="M6" s="199"/>
-      <c r="N6" s="199"/>
-      <c r="O6" s="199"/>
-      <c r="P6" s="167"/>
+      <c r="H5" s="316"/>
+      <c r="I5" s="316"/>
+      <c r="J5" s="316"/>
+      <c r="K5" s="316"/>
+      <c r="L5" s="316"/>
+      <c r="M5" s="314" t="s">
+        <v>281</v>
+      </c>
+      <c r="N5" s="314"/>
+      <c r="O5" s="314" t="s">
+        <v>486</v>
+      </c>
+      <c r="P5" s="314" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="310" t="s">
+        <v>488</v>
+      </c>
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="316" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="316"/>
+      <c r="I6" s="316"/>
+      <c r="J6" s="316"/>
+      <c r="K6" s="316"/>
+      <c r="L6" s="316"/>
+      <c r="M6" s="314"/>
+      <c r="N6" s="314"/>
+      <c r="O6" s="314" t="s">
+        <v>489</v>
+      </c>
+      <c r="P6" s="314" t="s">
+        <v>490</v>
+      </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="284"/>
-      <c r="B7" s="284"/>
-      <c r="C7" s="284"/>
-      <c r="D7" s="284"/>
-      <c r="E7" s="284"/>
-      <c r="F7" s="284"/>
-      <c r="G7" s="292"/>
-      <c r="H7" s="292"/>
-      <c r="I7" s="292"/>
-      <c r="J7" s="292"/>
-      <c r="K7" s="292"/>
-      <c r="L7" s="292"/>
-      <c r="M7" s="199"/>
-      <c r="N7" s="199"/>
-      <c r="O7" s="199"/>
-      <c r="P7" s="165"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="316"/>
+      <c r="H7" s="316"/>
+      <c r="I7" s="316"/>
+      <c r="J7" s="316"/>
+      <c r="K7" s="316"/>
+      <c r="L7" s="316"/>
+      <c r="M7" s="314"/>
+      <c r="N7" s="314"/>
+      <c r="O7" s="314"/>
+      <c r="P7" s="315"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="284"/>
-      <c r="B8" s="284"/>
-      <c r="C8" s="284"/>
-      <c r="D8" s="284"/>
-      <c r="E8" s="284"/>
-      <c r="F8" s="284"/>
-      <c r="G8" s="292"/>
-      <c r="H8" s="292"/>
-      <c r="I8" s="292"/>
-      <c r="J8" s="292"/>
-      <c r="K8" s="292"/>
-      <c r="L8" s="292"/>
-      <c r="M8" s="199"/>
-      <c r="N8" s="199"/>
-      <c r="O8" s="199"/>
-      <c r="P8" s="165"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="316"/>
+      <c r="H8" s="316"/>
+      <c r="I8" s="316"/>
+      <c r="J8" s="316"/>
+      <c r="K8" s="316"/>
+      <c r="L8" s="316"/>
+      <c r="M8" s="314"/>
+      <c r="N8" s="314"/>
+      <c r="O8" s="314"/>
+      <c r="P8" s="315"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="286" t="s">
-        <v>347</v>
-      </c>
-      <c r="B10" s="287"/>
-      <c r="C10" s="287"/>
-      <c r="D10" s="287"/>
-      <c r="E10" s="287"/>
-      <c r="F10" s="287"/>
-      <c r="G10" s="287"/>
-      <c r="H10" s="287"/>
-      <c r="I10" s="288"/>
+      <c r="A10" s="275" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="276"/>
+      <c r="C10" s="276"/>
+      <c r="D10" s="276"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="276"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="276"/>
+      <c r="I10" s="277"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B11" s="132" t="s">
-        <v>326</v>
-      </c>
-      <c r="C11" s="193" t="s">
-        <v>360</v>
+        <v>321</v>
+      </c>
+      <c r="C11" s="189" t="s">
+        <v>355</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F11" s="125" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G11" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H11" s="132" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="I11" s="144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="148"/>
       <c r="B12" s="147" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C12" s="96" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D12" s="147" t="s">
         <v>92</v>
@@ -9230,15 +9246,15 @@
         <v>94</v>
       </c>
       <c r="G12" s="147" t="s">
+        <v>246</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="149" t="s">
         <v>248</v>
       </c>
-      <c r="H12" s="147" t="s">
-        <v>249</v>
-      </c>
-      <c r="I12" s="149" t="s">
-        <v>250</v>
-      </c>
-      <c r="K12" s="168"/>
+      <c r="K12" s="164"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="146"/>
@@ -9263,283 +9279,278 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="274" t="s">
-        <v>276</v>
-      </c>
-      <c r="B15" s="275"/>
-      <c r="C15" s="275"/>
-      <c r="D15" s="275"/>
-      <c r="E15" s="275"/>
-      <c r="F15" s="275"/>
-      <c r="G15" s="275"/>
-      <c r="H15" s="276"/>
+      <c r="A15" s="266" t="s">
+        <v>273</v>
+      </c>
+      <c r="B15" s="267"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="267"/>
+      <c r="E15" s="267"/>
+      <c r="F15" s="267"/>
+      <c r="G15" s="267"/>
+      <c r="H15" s="268"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="268" t="s">
-        <v>357</v>
-      </c>
-      <c r="B16" s="269"/>
-      <c r="C16" s="269"/>
-      <c r="D16" s="269"/>
-      <c r="E16" s="269"/>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="270"/>
+      <c r="A16" s="260" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" s="261"/>
+      <c r="C16" s="261"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="262"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="268"/>
-      <c r="B17" s="269"/>
-      <c r="C17" s="269"/>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="270"/>
+      <c r="A17" s="260"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="261"/>
+      <c r="D17" s="261"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="G17" s="261"/>
+      <c r="H17" s="262"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="268"/>
-      <c r="B18" s="269"/>
-      <c r="C18" s="269"/>
-      <c r="D18" s="269"/>
-      <c r="E18" s="269"/>
-      <c r="F18" s="269"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="270"/>
+      <c r="A18" s="260"/>
+      <c r="B18" s="261"/>
+      <c r="C18" s="261"/>
+      <c r="D18" s="261"/>
+      <c r="E18" s="261"/>
+      <c r="F18" s="261"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="262"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="271"/>
-      <c r="B19" s="272"/>
-      <c r="C19" s="272"/>
-      <c r="D19" s="272"/>
-      <c r="E19" s="272"/>
-      <c r="F19" s="272"/>
-      <c r="G19" s="272"/>
-      <c r="H19" s="273"/>
+      <c r="A19" s="263"/>
+      <c r="B19" s="264"/>
+      <c r="C19" s="264"/>
+      <c r="D19" s="264"/>
+      <c r="E19" s="264"/>
+      <c r="F19" s="264"/>
+      <c r="G19" s="264"/>
+      <c r="H19" s="265"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="258" t="s">
-        <v>301</v>
-      </c>
-      <c r="B21" s="258"/>
-      <c r="C21" s="258"/>
-      <c r="D21" s="258"/>
-      <c r="E21" s="258"/>
-      <c r="F21" s="258"/>
-      <c r="G21" s="258"/>
+      <c r="A21" s="250" t="s">
+        <v>296</v>
+      </c>
+      <c r="B21" s="250"/>
+      <c r="C21" s="250"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="250"/>
+      <c r="F21" s="250"/>
+      <c r="G21" s="250"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B22" s="78" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C22" s="78" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="257" t="s">
-        <v>304</v>
-      </c>
-      <c r="E22" s="257"/>
-      <c r="F22" s="257"/>
-      <c r="G22" s="257"/>
+        <v>298</v>
+      </c>
+      <c r="D22" s="249" t="s">
+        <v>299</v>
+      </c>
+      <c r="E22" s="249"/>
+      <c r="F22" s="249"/>
+      <c r="G22" s="249"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C23" t="s">
-        <v>452</v>
-      </c>
-      <c r="D23" s="180" t="s">
-        <v>362</v>
+        <v>445</v>
+      </c>
+      <c r="D23" s="176" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B24" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C24" t="s">
-        <v>452</v>
-      </c>
-      <c r="D24" s="192" t="s">
-        <v>328</v>
+        <v>445</v>
+      </c>
+      <c r="D24" s="188" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
         <v>327</v>
       </c>
-      <c r="B25" t="s">
-        <v>332</v>
-      </c>
       <c r="C25" t="s">
-        <v>452</v>
-      </c>
-      <c r="D25" s="180" t="s">
-        <v>329</v>
+        <v>445</v>
+      </c>
+      <c r="D25" s="176" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B26" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C26" t="s">
-        <v>452</v>
-      </c>
-      <c r="D26" s="180" t="s">
-        <v>349</v>
+        <v>445</v>
+      </c>
+      <c r="D26" s="176" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B27" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C27" t="s">
-        <v>452</v>
-      </c>
-      <c r="D27" s="183" t="s">
-        <v>330</v>
+        <v>445</v>
+      </c>
+      <c r="D27" s="179" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C28" t="s">
-        <v>452</v>
-      </c>
-      <c r="D28" s="192" t="s">
-        <v>398</v>
+        <v>445</v>
+      </c>
+      <c r="D28" s="188" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B29" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C29" t="s">
-        <v>452</v>
-      </c>
-      <c r="D29" s="192" t="s">
-        <v>384</v>
+        <v>445</v>
+      </c>
+      <c r="D29" s="188" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B30" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C30" t="s">
-        <v>452</v>
-      </c>
-      <c r="D30" s="192" t="s">
-        <v>399</v>
+        <v>445</v>
+      </c>
+      <c r="D30" s="188" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B31" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C31" t="s">
-        <v>452</v>
-      </c>
-      <c r="D31" s="192" t="s">
-        <v>339</v>
+        <v>445</v>
+      </c>
+      <c r="D31" s="188" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" s="188" t="s">
         <v>335</v>
-      </c>
-      <c r="C32" t="s">
-        <v>452</v>
-      </c>
-      <c r="D32" s="192" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B33" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C33" t="s">
-        <v>452</v>
-      </c>
-      <c r="D33" s="180" t="s">
-        <v>400</v>
+        <v>445</v>
+      </c>
+      <c r="D33" s="176" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B34" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C34" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="192" t="s">
-        <v>343</v>
+        <v>445</v>
+      </c>
+      <c r="D34" s="188" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="21">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="A7:F7"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
     <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
     <mergeCell ref="A15:H15"/>
     <mergeCell ref="A16:H19"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9613,7 +9624,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="189" customWidth="1"/>
+    <col min="3" max="3" width="16" style="185" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9621,12 +9632,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="293" t="s">
-        <v>244</v>
-      </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="295"/>
+      <c r="A1" s="278" t="s">
+        <v>242</v>
+      </c>
+      <c r="B1" s="279"/>
+      <c r="C1" s="279"/>
+      <c r="D1" s="280"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9661,7 +9672,7 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="186"/>
+      <c r="C3" s="182"/>
       <c r="D3" s="23"/>
       <c r="F3" s="136" t="s">
         <v>77</v>
@@ -9674,7 +9685,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="187"/>
+      <c r="C4" s="183"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9689,7 +9700,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="187"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9701,7 +9712,7 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="187">
+      <c r="C6" s="183">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9709,25 +9720,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>484</v>
+      <c r="A7" s="203" t="s">
+        <v>477</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C7" s="212"/>
+        <v>478</v>
+      </c>
+      <c r="C7" s="204"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="211" t="s">
-        <v>486</v>
+      <c r="A8" s="203" t="s">
+        <v>479</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C8" s="212"/>
+        <v>480</v>
+      </c>
+      <c r="C8" s="204"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -9739,7 +9750,7 @@
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="187"/>
+      <c r="C9" s="183"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9749,7 +9760,7 @@
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="186"/>
+      <c r="C10" s="182"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9759,7 +9770,7 @@
       <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="187"/>
+      <c r="C11" s="183"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9771,7 +9782,7 @@
       <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="187"/>
+      <c r="C12" s="183"/>
       <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
@@ -9783,7 +9794,7 @@
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="187"/>
+      <c r="C13" s="183"/>
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
@@ -9795,7 +9806,7 @@
       <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="187"/>
+      <c r="C14" s="183"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9807,7 +9818,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="187"/>
+      <c r="C15" s="183"/>
       <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
@@ -9819,7 +9830,7 @@
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="186"/>
+      <c r="C16" s="182"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9829,7 +9840,7 @@
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="187"/>
+      <c r="C17" s="183"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9839,7 +9850,7 @@
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="187"/>
+      <c r="C18" s="183"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9849,7 +9860,7 @@
       <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="187"/>
+      <c r="C19" s="183"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9859,7 +9870,7 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="187"/>
+      <c r="C20" s="183"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9869,7 +9880,7 @@
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="187"/>
+      <c r="C21" s="183"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9881,7 +9892,7 @@
       <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="187"/>
+      <c r="C22" s="183"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9891,7 +9902,7 @@
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="187"/>
+      <c r="C23" s="183"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9901,7 +9912,7 @@
       <c r="B24" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="187"/>
+      <c r="C24" s="183"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9911,7 +9922,7 @@
       <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="186"/>
+      <c r="C25" s="182"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9921,7 +9932,7 @@
       <c r="B26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="187"/>
+      <c r="C26" s="183"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9933,7 +9944,7 @@
       <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="187"/>
+      <c r="C27" s="183"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9945,7 +9956,7 @@
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="187"/>
+      <c r="C28" s="183"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9957,7 +9968,7 @@
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="187"/>
+      <c r="C29" s="183"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -9969,7 +9980,7 @@
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="187"/>
+      <c r="C30" s="183"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9979,7 +9990,7 @@
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="187"/>
+      <c r="C31" s="183"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -9989,7 +10000,7 @@
       <c r="B32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="187"/>
+      <c r="C32" s="183"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -9999,7 +10010,7 @@
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="186"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10009,7 +10020,7 @@
       <c r="B34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="187"/>
+      <c r="C34" s="183"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10019,7 +10030,7 @@
       <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="187"/>
+      <c r="C35" s="183"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10031,7 +10042,7 @@
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="187"/>
+      <c r="C36" s="183"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10041,7 +10052,7 @@
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="187"/>
+      <c r="C37" s="183"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10051,7 +10062,7 @@
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="187"/>
+      <c r="C38" s="183"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10061,7 +10072,7 @@
       <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="187"/>
+      <c r="C39" s="183"/>
       <c r="D39" s="25" t="s">
         <v>70</v>
       </c>
@@ -10073,7 +10084,7 @@
       <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="187"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10085,7 +10096,7 @@
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="186"/>
+      <c r="C41" s="182"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10093,7 +10104,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="187"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10103,7 +10114,7 @@
       <c r="B43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="187"/>
+      <c r="C43" s="183"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10113,7 +10124,7 @@
       <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="187"/>
+      <c r="C44" s="183"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10123,7 +10134,7 @@
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="187"/>
+      <c r="C45" s="183"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10133,7 +10144,7 @@
       <c r="B46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="187"/>
+      <c r="C46" s="183"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10143,7 +10154,7 @@
       <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="187"/>
+      <c r="C47" s="183"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10153,7 +10164,7 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="187"/>
+      <c r="C48" s="183"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10163,7 +10174,7 @@
       <c r="B49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="187"/>
+      <c r="C49" s="183"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10173,7 +10184,7 @@
       <c r="B50" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="187"/>
+      <c r="C50" s="183"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10183,7 +10194,7 @@
       <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="187"/>
+      <c r="C51" s="183"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10193,7 +10204,7 @@
       <c r="B52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="187"/>
+      <c r="C52" s="183"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10203,7 +10214,7 @@
       <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="187"/>
+      <c r="C53" s="183"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10215,7 +10226,7 @@
       <c r="B54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="187"/>
+      <c r="C54" s="183"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10227,7 +10238,7 @@
       <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="187"/>
+      <c r="C55" s="183"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10239,7 +10250,7 @@
       <c r="B56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="187"/>
+      <c r="C56" s="183"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10251,7 +10262,7 @@
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="187"/>
+      <c r="C57" s="183"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10263,7 +10274,7 @@
       <c r="B58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="187"/>
+      <c r="C58" s="183"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10275,7 +10286,7 @@
       <c r="B59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="187"/>
+      <c r="C59" s="183"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10285,7 +10296,7 @@
       <c r="B60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="187"/>
+      <c r="C60" s="183"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10295,8 +10306,8 @@
       <c r="B61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="186"/>
-      <c r="D61" s="185"/>
+      <c r="C61" s="182"/>
+      <c r="D61" s="181"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10305,27 +10316,27 @@
       <c r="B62" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="187"/>
+      <c r="C62" s="183"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="B63" s="184"/>
-      <c r="C63" s="186"/>
-      <c r="D63" s="185"/>
+        <v>339</v>
+      </c>
+      <c r="B63" s="180"/>
+      <c r="C63" s="182"/>
+      <c r="D63" s="181"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="C64" s="187"/>
+        <v>341</v>
+      </c>
+      <c r="C64" s="183"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10337,8 +10348,8 @@
       <c r="B65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="186"/>
-      <c r="D65" s="185"/>
+      <c r="C65" s="182"/>
+      <c r="D65" s="181"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10347,7 +10358,7 @@
       <c r="B66" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="188"/>
+      <c r="C66" s="184"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10387,23 +10398,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="299" t="s">
+      <c r="A1" s="284" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="300"/>
-      <c r="C1" s="300"/>
-      <c r="D1" s="300"/>
-      <c r="E1" s="300"/>
-      <c r="F1" s="300"/>
-      <c r="G1" s="300"/>
-      <c r="H1" s="300"/>
-      <c r="I1" s="300"/>
-      <c r="J1" s="300"/>
-      <c r="K1" s="300"/>
-      <c r="L1" s="300"/>
-      <c r="M1" s="300"/>
-      <c r="N1" s="300"/>
-      <c r="O1" s="300"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
+      <c r="I1" s="285"/>
+      <c r="J1" s="285"/>
+      <c r="K1" s="285"/>
+      <c r="L1" s="285"/>
+      <c r="M1" s="285"/>
+      <c r="N1" s="285"/>
+      <c r="O1" s="285"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10421,17 +10432,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10622,21 +10633,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="296" t="s">
+      <c r="B19" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
-      <c r="F19" s="297"/>
-      <c r="G19" s="297"/>
-      <c r="H19" s="297"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="297"/>
-      <c r="K19" s="297"/>
-      <c r="L19" s="297"/>
-      <c r="M19" s="297"/>
-      <c r="N19" s="298"/>
+      <c r="C19" s="282"/>
+      <c r="D19" s="282"/>
+      <c r="E19" s="282"/>
+      <c r="F19" s="282"/>
+      <c r="G19" s="282"/>
+      <c r="H19" s="282"/>
+      <c r="I19" s="282"/>
+      <c r="J19" s="282"/>
+      <c r="K19" s="282"/>
+      <c r="L19" s="282"/>
+      <c r="M19" s="282"/>
+      <c r="N19" s="283"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10838,27 +10849,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="304" t="s">
+      <c r="A1" s="289" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="305"/>
-      <c r="C1" s="305"/>
-      <c r="D1" s="305"/>
-      <c r="E1" s="305"/>
-      <c r="F1" s="305"/>
-      <c r="G1" s="305"/>
-      <c r="H1" s="305"/>
-      <c r="I1" s="305"/>
-      <c r="J1" s="305"/>
-      <c r="K1" s="305"/>
-      <c r="L1" s="305"/>
-      <c r="M1" s="305"/>
-      <c r="N1" s="305"/>
-      <c r="O1" s="305"/>
-      <c r="P1" s="305"/>
-      <c r="Q1" s="305"/>
-      <c r="R1" s="305"/>
-      <c r="S1" s="305"/>
+      <c r="B1" s="290"/>
+      <c r="C1" s="290"/>
+      <c r="D1" s="290"/>
+      <c r="E1" s="290"/>
+      <c r="F1" s="290"/>
+      <c r="G1" s="290"/>
+      <c r="H1" s="290"/>
+      <c r="I1" s="290"/>
+      <c r="J1" s="290"/>
+      <c r="K1" s="290"/>
+      <c r="L1" s="290"/>
+      <c r="M1" s="290"/>
+      <c r="N1" s="290"/>
+      <c r="O1" s="290"/>
+      <c r="P1" s="290"/>
+      <c r="Q1" s="290"/>
+      <c r="R1" s="290"/>
+      <c r="S1" s="290"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10872,26 +10883,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="297"/>
-      <c r="J3" s="298"/>
-      <c r="L3" s="301" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="282"/>
+      <c r="I3" s="282"/>
+      <c r="J3" s="283"/>
+      <c r="L3" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="302"/>
-      <c r="N3" s="302"/>
-      <c r="O3" s="302"/>
-      <c r="P3" s="302"/>
-      <c r="Q3" s="302"/>
-      <c r="R3" s="303"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="287"/>
+      <c r="O3" s="287"/>
+      <c r="P3" s="287"/>
+      <c r="Q3" s="287"/>
+      <c r="R3" s="288"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11122,23 +11133,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="291" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="308"/>
+      <c r="B1" s="292"/>
+      <c r="C1" s="292"/>
+      <c r="D1" s="292"/>
+      <c r="E1" s="292"/>
+      <c r="F1" s="292"/>
+      <c r="G1" s="292"/>
+      <c r="H1" s="292"/>
+      <c r="I1" s="292"/>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="293"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11151,22 +11162,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="296" t="s">
+      <c r="B3" s="281" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="298"/>
-      <c r="J3" s="301" t="s">
+      <c r="C3" s="282"/>
+      <c r="D3" s="282"/>
+      <c r="E3" s="282"/>
+      <c r="F3" s="282"/>
+      <c r="G3" s="282"/>
+      <c r="H3" s="283"/>
+      <c r="J3" s="286" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="302"/>
-      <c r="L3" s="302"/>
-      <c r="M3" s="302"/>
-      <c r="N3" s="303"/>
+      <c r="K3" s="287"/>
+      <c r="L3" s="287"/>
+      <c r="M3" s="287"/>
+      <c r="N3" s="288"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="937" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="498">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2452,14 +2452,72 @@
   <si>
     <t>transfercurve2/plots</t>
   </si>
+  <si>
+    <t>Non-fluorescence Channels (unprocessed)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel
+</t>
+  </si>
+  <si>
+    <t>Non-fluorescence Channels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excitation wavelength </t>
+  </si>
+  <si>
+    <t>Size Beads</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Options can be found in BeadCatalog</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optional</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Defaults to FSC</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3357,25 +3415,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="317">
+  <cellXfs count="349">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3391,7 +3449,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3402,28 +3460,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3444,62 +3502,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3510,20 +3568,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3532,32 +3590,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3575,19 +3633,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3596,46 +3654,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3653,83 +3708,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3744,37 +3799,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3783,41 +3838,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3832,20 +3887,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -3868,47 +3923,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3918,10 +3973,102 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3942,145 +4089,67 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4101,22 +4170,38 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4128,140 +4213,224 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4454,13 +4623,13 @@
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>26</xdr:row>
+          <xdr:row>31</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9525</xdr:colOff>
-          <xdr:row>27</xdr:row>
+          <xdr:row>32</xdr:row>
           <xdr:rowOff>190500</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -5099,12 +5268,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="155" customWidth="1"/>
+    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
     <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
     <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="141" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
     <col min="9" max="9" width="20" style="85" customWidth="1"/>
@@ -5115,178 +5284,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="228" t="s">
+      <c r="A1" s="220" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="230"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="222"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="86"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="207" t="s">
+      <c r="A3" s="236" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="208"/>
+      <c r="B3" s="237"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="221" t="s">
+      <c r="A4" s="234" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="222"/>
+      <c r="B4" s="235"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="250" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="224"/>
+      <c r="B5" s="251"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="86"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="207" t="s">
+      <c r="A7" s="236" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="209"/>
-      <c r="C7" s="209"/>
-      <c r="D7" s="209"/>
-      <c r="E7" s="209"/>
-      <c r="F7" s="209"/>
-      <c r="G7" s="209"/>
-      <c r="H7" s="209"/>
-      <c r="I7" s="209"/>
-      <c r="J7" s="209"/>
-      <c r="K7" s="208"/>
+      <c r="B7" s="238"/>
+      <c r="C7" s="238"/>
+      <c r="D7" s="238"/>
+      <c r="E7" s="238"/>
+      <c r="F7" s="238"/>
+      <c r="G7" s="238"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="238"/>
+      <c r="J7" s="238"/>
+      <c r="K7" s="237"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="231" t="s">
+      <c r="A8" s="223" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="232"/>
-      <c r="C8" s="232"/>
-      <c r="D8" s="232"/>
-      <c r="E8" s="232"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="232"/>
-      <c r="H8" s="232"/>
-      <c r="I8" s="232"/>
-      <c r="J8" s="232"/>
-      <c r="K8" s="233"/>
+      <c r="B8" s="224"/>
+      <c r="C8" s="224"/>
+      <c r="D8" s="224"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="224"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="224"/>
+      <c r="I8" s="224"/>
+      <c r="J8" s="224"/>
+      <c r="K8" s="225"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="234"/>
-      <c r="B9" s="235"/>
-      <c r="C9" s="235"/>
-      <c r="D9" s="235"/>
-      <c r="E9" s="235"/>
-      <c r="F9" s="235"/>
-      <c r="G9" s="235"/>
-      <c r="H9" s="235"/>
-      <c r="I9" s="235"/>
-      <c r="J9" s="235"/>
-      <c r="K9" s="236"/>
+      <c r="A9" s="226"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="228"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="156"/>
+      <c r="A10" s="155"/>
       <c r="B10" s="87"/>
       <c r="C10" s="87"/>
       <c r="D10" s="87"/>
       <c r="E10" s="87"/>
-      <c r="F10" s="142"/>
+      <c r="F10" s="141"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="210" t="s">
+      <c r="A11" s="239" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="211"/>
-      <c r="C11" s="211"/>
-      <c r="D11" s="212"/>
+      <c r="B11" s="240"/>
+      <c r="C11" s="240"/>
+      <c r="D11" s="241"/>
       <c r="E11" s="87"/>
-      <c r="F11" s="142"/>
+      <c r="F11" s="141"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="213" t="s">
+      <c r="A12" s="242" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="214"/>
-      <c r="C12" s="215" t="s">
+      <c r="B12" s="243"/>
+      <c r="C12" s="244" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="216"/>
+      <c r="D12" s="245"/>
       <c r="E12" s="87"/>
-      <c r="F12" s="142"/>
+      <c r="F12" s="141"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="217"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="219"/>
-      <c r="D13" s="220"/>
+      <c r="A13" s="246"/>
+      <c r="B13" s="247"/>
+      <c r="C13" s="248"/>
+      <c r="D13" s="249"/>
       <c r="E13" s="87"/>
-      <c r="F13" s="142"/>
+      <c r="F13" s="141"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="210" t="s">
+      <c r="A15" s="239" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="212"/>
-      <c r="E15" s="210" t="s">
+      <c r="B15" s="241"/>
+      <c r="E15" s="239" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="211"/>
-      <c r="G15" s="211"/>
-      <c r="H15" s="211"/>
-      <c r="I15" s="212"/>
+      <c r="F15" s="240"/>
+      <c r="G15" s="240"/>
+      <c r="H15" s="240"/>
+      <c r="I15" s="241"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="221" t="s">
+      <c r="A16" s="234" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="222"/>
+      <c r="B16" s="235"/>
       <c r="D16" s="88"/>
-      <c r="E16" s="237" t="s">
+      <c r="E16" s="229" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="238"/>
-      <c r="G16" s="238"/>
-      <c r="H16" s="238"/>
-      <c r="I16" s="239"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="230"/>
+      <c r="I16" s="231"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="157" t="s">
+      <c r="A17" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="115" t="s">
+      <c r="B17" s="114" t="s">
         <v>271</v>
       </c>
       <c r="C17" s="89"/>
-      <c r="E17" s="240" t="s">
+      <c r="E17" s="232" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="241"/>
-      <c r="G17" s="201" t="s">
+      <c r="F17" s="233"/>
+      <c r="G17" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="201" t="s">
+      <c r="H17" s="200" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="190" t="s">
+      <c r="I17" s="189" t="s">
         <v>345</v>
       </c>
       <c r="J17" s="81"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="158" t="s">
+      <c r="A18" s="157" t="s">
         <v>262</v>
       </c>
       <c r="B18" s="90" t="s">
@@ -5303,16 +5472,16 @@
       <c r="H18" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="225" t="s">
+      <c r="I18" s="208" t="s">
         <v>475</v>
       </c>
       <c r="J18" s="81"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="159" t="s">
+      <c r="A19" s="158" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="116"/>
+      <c r="B19" s="115"/>
       <c r="C19" s="89"/>
       <c r="E19" s="83">
         <v>2</v>
@@ -5326,78 +5495,78 @@
       <c r="H19" s="74" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="225"/>
+      <c r="I19" s="208"/>
       <c r="J19" s="81"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="158" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="116"/>
+      <c r="B20" s="115"/>
       <c r="C20" s="91"/>
       <c r="E20" s="84">
         <v>3</v>
       </c>
-      <c r="F20" s="140" t="s">
+      <c r="F20" s="139" t="s">
         <v>170</v>
       </c>
       <c r="G20" s="71"/>
       <c r="H20" s="71"/>
-      <c r="I20" s="226"/>
+      <c r="I20" s="209"/>
       <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="159" t="s">
+      <c r="A21" s="158" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="116"/>
+      <c r="B21" s="115"/>
       <c r="C21" s="32"/>
       <c r="I21" s="81"/>
       <c r="J21" s="81"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="160"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="159"/>
+      <c r="B22" s="116"/>
       <c r="C22" s="89"/>
       <c r="J22" s="81"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="161"/>
+      <c r="A23" s="160"/>
       <c r="B23" s="92"/>
       <c r="C23" s="91"/>
-      <c r="E23" s="205" t="s">
+      <c r="E23" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="227"/>
-      <c r="G23" s="227"/>
-      <c r="H23" s="227"/>
-      <c r="I23" s="206"/>
+      <c r="F23" s="211"/>
+      <c r="G23" s="211"/>
+      <c r="H23" s="211"/>
+      <c r="I23" s="212"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="205" t="s">
+      <c r="A24" s="210" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="206"/>
+      <c r="B24" s="212"/>
       <c r="C24" s="32"/>
-      <c r="E24" s="245" t="s">
+      <c r="E24" s="216" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="246"/>
-      <c r="G24" s="201" t="s">
+      <c r="F24" s="217"/>
+      <c r="G24" s="200" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="201" t="s">
+      <c r="H24" s="200" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="190" t="s">
+      <c r="I24" s="189" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="157" t="s">
+      <c r="A25" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="115" t="s">
+      <c r="B25" s="114" t="s">
         <v>275</v>
       </c>
       <c r="C25" s="32"/>
@@ -5411,12 +5580,12 @@
       <c r="H25" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="242" t="s">
+      <c r="I25" s="213" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="158" t="s">
+      <c r="A26" s="157" t="s">
         <v>262</v>
       </c>
       <c r="B26" s="90" t="s">
@@ -5435,77 +5604,77 @@
       <c r="H26" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="243"/>
+      <c r="I26" s="214"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="159" t="s">
+      <c r="A27" s="158" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="116"/>
+      <c r="B27" s="115"/>
       <c r="C27" s="91"/>
       <c r="E27" s="84">
         <v>3</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="139" t="s">
         <v>170</v>
       </c>
       <c r="G27" s="71"/>
       <c r="H27" s="71"/>
-      <c r="I27" s="244"/>
+      <c r="I27" s="215"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="159" t="s">
+      <c r="A28" s="158" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="116"/>
+      <c r="B28" s="115"/>
       <c r="C28" s="32"/>
       <c r="E28" s="94"/>
-      <c r="F28" s="143"/>
+      <c r="F28" s="142"/>
       <c r="G28" s="94"/>
       <c r="H28" s="94"/>
       <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="159"/>
-      <c r="B29" s="116"/>
+      <c r="A29" s="158"/>
+      <c r="B29" s="115"/>
       <c r="C29" s="32"/>
       <c r="I29" s="81"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="160"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="159"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="89"/>
-      <c r="E30" s="205" t="s">
+      <c r="E30" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="206"/>
+      <c r="F30" s="211"/>
+      <c r="G30" s="211"/>
+      <c r="H30" s="211"/>
+      <c r="I30" s="212"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="161"/>
+      <c r="A31" s="160"/>
       <c r="B31" s="91"/>
       <c r="C31" s="91"/>
-      <c r="E31" s="247" t="s">
+      <c r="E31" s="218" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="248"/>
-      <c r="G31" s="199" t="s">
+      <c r="F31" s="219"/>
+      <c r="G31" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="199" t="s">
+      <c r="H31" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="190" t="s">
+      <c r="I31" s="189" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="205" t="s">
+      <c r="A32" s="210" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="206"/>
+      <c r="B32" s="212"/>
       <c r="C32" s="32"/>
       <c r="E32" s="83">
         <v>1</v>
@@ -5515,13 +5684,13 @@
       </c>
       <c r="G32" s="33"/>
       <c r="H32" s="74"/>
-      <c r="I32" s="225"/>
+      <c r="I32" s="208"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="157" t="s">
+      <c r="A33" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="114" t="s">
         <v>282</v>
       </c>
       <c r="C33" s="89"/>
@@ -5535,10 +5704,10 @@
         <v>5</v>
       </c>
       <c r="H33" s="33"/>
-      <c r="I33" s="225"/>
+      <c r="I33" s="208"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="158" t="s">
+      <c r="A34" s="157" t="s">
         <v>232</v>
       </c>
       <c r="B34" s="90" t="s">
@@ -5550,76 +5719,76 @@
       <c r="F34" s="93"/>
       <c r="G34" s="33"/>
       <c r="H34" s="74"/>
-      <c r="I34" s="225"/>
+      <c r="I34" s="208"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="159" t="s">
+      <c r="A35" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="116"/>
+      <c r="B35" s="115"/>
       <c r="E35" s="83">
         <v>4</v>
       </c>
       <c r="F35" s="93"/>
       <c r="G35" s="33"/>
       <c r="H35" s="33"/>
-      <c r="I35" s="225"/>
+      <c r="I35" s="208"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="159" t="s">
+      <c r="A36" s="158" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="116"/>
+      <c r="B36" s="115"/>
       <c r="E36" s="83">
         <v>5</v>
       </c>
       <c r="F36" s="93"/>
       <c r="G36" s="33"/>
       <c r="H36" s="33"/>
-      <c r="I36" s="225"/>
+      <c r="I36" s="208"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="158" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="116"/>
+      <c r="B37" s="115"/>
       <c r="E37" s="84">
         <v>6</v>
       </c>
-      <c r="F37" s="140"/>
+      <c r="F37" s="139"/>
       <c r="G37" s="71"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="226"/>
+      <c r="I37" s="209"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="160" t="s">
+      <c r="A38" s="159" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="117"/>
+      <c r="B38" s="116"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="162"/>
-      <c r="B39" s="121"/>
+      <c r="A39" s="161"/>
+      <c r="B39" s="120"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="205" t="s">
+      <c r="E40" s="210" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="227"/>
-      <c r="G40" s="227"/>
-      <c r="H40" s="227"/>
-      <c r="I40" s="206"/>
+      <c r="F40" s="211"/>
+      <c r="G40" s="211"/>
+      <c r="H40" s="211"/>
+      <c r="I40" s="212"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="245"/>
-      <c r="F41" s="246"/>
+      <c r="E41" s="216"/>
+      <c r="F41" s="217"/>
       <c r="G41" s="82" t="s">
         <v>157</v>
       </c>
       <c r="H41" s="82" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="190" t="s">
+      <c r="I41" s="189" t="s">
         <v>348</v>
       </c>
     </row>
@@ -5630,7 +5799,7 @@
       <c r="F42" s="93"/>
       <c r="G42" s="33"/>
       <c r="H42" s="74"/>
-      <c r="I42" s="225"/>
+      <c r="I42" s="208"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="83">
@@ -5639,7 +5808,7 @@
       <c r="F43" s="93"/>
       <c r="G43" s="33"/>
       <c r="H43" s="33"/>
-      <c r="I43" s="225"/>
+      <c r="I43" s="208"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="83">
@@ -5648,7 +5817,7 @@
       <c r="F44" s="93"/>
       <c r="G44" s="33"/>
       <c r="H44" s="74"/>
-      <c r="I44" s="225"/>
+      <c r="I44" s="208"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="83">
@@ -5657,7 +5826,7 @@
       <c r="F45" s="93"/>
       <c r="G45" s="33"/>
       <c r="H45" s="33"/>
-      <c r="I45" s="225"/>
+      <c r="I45" s="208"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="83">
@@ -5666,34 +5835,20 @@
       <c r="F46" s="93"/>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
-      <c r="I46" s="225"/>
+      <c r="I46" s="208"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="84">
         <v>6</v>
       </c>
-      <c r="F47" s="140"/>
+      <c r="F47" s="139"/>
       <c r="G47" s="71"/>
       <c r="H47" s="71"/>
-      <c r="I47" s="226"/>
+      <c r="I47" s="209"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5709,6 +5864,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5748,32 +5917,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+      <c r="A1" s="254" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-      <c r="I1" s="252"/>
-      <c r="J1" s="253"/>
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+      <c r="I1" s="255"/>
+      <c r="J1" s="256"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="257" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="255"/>
-      <c r="C2" s="255"/>
-      <c r="D2" s="255"/>
-      <c r="E2" s="255"/>
-      <c r="F2" s="255"/>
-      <c r="G2" s="255"/>
-      <c r="H2" s="255"/>
-      <c r="I2" s="255"/>
-      <c r="J2" s="256"/>
+      <c r="B2" s="258"/>
+      <c r="C2" s="258"/>
+      <c r="D2" s="258"/>
+      <c r="E2" s="258"/>
+      <c r="F2" s="258"/>
+      <c r="G2" s="258"/>
+      <c r="H2" s="258"/>
+      <c r="I2" s="258"/>
+      <c r="J2" s="259"/>
       <c r="K2" s="79"/>
       <c r="L2" s="79"/>
       <c r="M2" s="75"/>
@@ -5781,26 +5950,26 @@
       <c r="O2" s="76"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="173" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="177" t="s">
+      <c r="B3" s="176" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="257" t="s">
+      <c r="C3" s="260" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="259"/>
-      <c r="H3" s="177" t="s">
+      <c r="D3" s="261"/>
+      <c r="E3" s="261"/>
+      <c r="F3" s="261"/>
+      <c r="G3" s="262"/>
+      <c r="H3" s="176" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="177" t="s">
+      <c r="I3" s="176" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="178" t="s">
+      <c r="J3" s="177" t="s">
         <v>309</v>
       </c>
       <c r="K3" s="79"/>
@@ -5810,488 +5979,488 @@
       <c r="O3" s="76"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="138" t="s">
+      <c r="A4" s="137" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="138" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="139" t="s">
+      <c r="C4" s="138" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="139" t="s">
+      <c r="D4" s="138" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="139" t="s">
+      <c r="E4" s="138" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="139" t="s">
+      <c r="F4" s="138" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="139" t="s">
+      <c r="G4" s="138" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="139" t="s">
+      <c r="H4" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="139" t="s">
+      <c r="I4" s="138" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="194" t="s">
+      <c r="J4" s="193" t="s">
         <v>395</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="108">
+      <c r="A5" s="107">
         <v>1</v>
       </c>
       <c r="B5" s="78" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="109">
+      <c r="C5" s="108">
         <v>0.1</v>
       </c>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="109">
+      <c r="G5" s="108">
         <v>0.1</v>
       </c>
-      <c r="H5" s="110">
+      <c r="H5" s="109">
         <v>1</v>
       </c>
-      <c r="I5" s="111" t="s">
+      <c r="I5" s="110" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="112"/>
-      <c r="K5" s="200" t="s">
+      <c r="J5" s="111"/>
+      <c r="K5" s="199" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="108">
+      <c r="A6" s="107">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="109">
+      <c r="C6" s="108">
         <v>0.2</v>
       </c>
-      <c r="D6" s="109" t="s">
+      <c r="D6" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="109" t="s">
+      <c r="F6" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="109">
+      <c r="G6" s="108">
         <v>0.2</v>
       </c>
-      <c r="H6" s="110">
+      <c r="H6" s="109">
         <v>1</v>
       </c>
-      <c r="I6" s="111" t="s">
+      <c r="I6" s="110" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="112"/>
-      <c r="K6" s="200" t="s">
+      <c r="J6" s="111"/>
+      <c r="K6" s="199" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="108">
+      <c r="A7" s="107">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="109">
+      <c r="C7" s="108">
         <v>0.5</v>
       </c>
-      <c r="D7" s="109" t="s">
+      <c r="D7" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="110">
+      <c r="F7" s="108"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109">
         <v>1</v>
       </c>
-      <c r="I7" s="111" t="s">
+      <c r="I7" s="110" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="112"/>
-      <c r="K7" s="200" t="s">
+      <c r="J7" s="111"/>
+      <c r="K7" s="199" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="108">
+      <c r="A8" s="107">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B8" s="78" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="109">
+      <c r="C8" s="108">
         <v>1</v>
       </c>
-      <c r="D8" s="109" t="s">
+      <c r="D8" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="109" t="s">
+      <c r="F8" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="108">
         <v>0.1</v>
       </c>
-      <c r="H8" s="110">
+      <c r="H8" s="109">
         <v>1</v>
       </c>
-      <c r="I8" s="111" t="s">
+      <c r="I8" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="112"/>
-      <c r="K8" s="200" t="s">
+      <c r="J8" s="111"/>
+      <c r="K8" s="199" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108">
+      <c r="A9" s="107">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="109">
+      <c r="C9" s="108">
         <v>2</v>
       </c>
-      <c r="D9" s="109" t="s">
+      <c r="D9" s="108" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109" t="s">
+      <c r="E9" s="108"/>
+      <c r="F9" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="109">
+      <c r="G9" s="108">
         <v>0.2</v>
       </c>
-      <c r="H9" s="110">
+      <c r="H9" s="109">
         <v>1</v>
       </c>
-      <c r="I9" s="111" t="s">
+      <c r="I9" s="110" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="112"/>
-      <c r="K9" s="200" t="s">
+      <c r="J9" s="111"/>
+      <c r="K9" s="199" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="108">
+      <c r="A10" s="107">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="109">
+      <c r="C10" s="108">
         <v>5</v>
       </c>
-      <c r="D10" s="109" t="s">
+      <c r="D10" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="109" t="s">
+      <c r="E10" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="109"/>
-      <c r="G10" s="109"/>
-      <c r="H10" s="110">
+      <c r="F10" s="108"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="109">
         <v>1</v>
       </c>
-      <c r="I10" s="111" t="s">
+      <c r="I10" s="110" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="112"/>
-      <c r="K10" s="200" t="s">
+      <c r="J10" s="111"/>
+      <c r="K10" s="199" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108">
+      <c r="A11" s="107">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B11" s="78" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="109">
+      <c r="C11" s="108">
         <v>10</v>
       </c>
-      <c r="D11" s="109" t="s">
+      <c r="D11" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="109"/>
-      <c r="G11" s="109"/>
-      <c r="H11" s="110">
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="109">
         <v>1</v>
       </c>
-      <c r="I11" s="111" t="s">
+      <c r="I11" s="110" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="112"/>
-      <c r="K11" s="200" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="199" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="108">
+      <c r="A12" s="107">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B12" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="109">
+      <c r="C12" s="108">
         <v>20</v>
       </c>
-      <c r="D12" s="109" t="s">
+      <c r="D12" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E12" s="109" t="s">
+      <c r="E12" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="110">
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="109">
         <v>1</v>
       </c>
-      <c r="I12" s="111" t="s">
+      <c r="I12" s="110" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="112"/>
-      <c r="K12" s="200" t="s">
+      <c r="J12" s="111"/>
+      <c r="K12" s="199" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="108">
+      <c r="A13" s="107">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B13" s="78" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="109">
+      <c r="C13" s="108">
         <v>50</v>
       </c>
-      <c r="D13" s="109" t="s">
+      <c r="D13" s="108" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="109" t="s">
+      <c r="E13" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110">
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="109">
         <v>1</v>
       </c>
-      <c r="I13" s="111" t="s">
+      <c r="I13" s="110" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="112"/>
-      <c r="K13" s="200" t="s">
+      <c r="J13" s="111"/>
+      <c r="K13" s="199" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108">
+      <c r="A14" s="107">
         <f>A13+1</f>
         <v>10</v>
       </c>
       <c r="B14" s="78" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="109">
+      <c r="C14" s="108">
         <v>100</v>
       </c>
-      <c r="D14" s="109" t="s">
+      <c r="D14" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109" t="s">
+      <c r="E14" s="108"/>
+      <c r="F14" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="109">
+      <c r="G14" s="108">
         <v>100</v>
       </c>
-      <c r="H14" s="110">
+      <c r="H14" s="109">
         <v>1</v>
       </c>
-      <c r="I14" s="111" t="s">
+      <c r="I14" s="110" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="112"/>
-      <c r="K14" s="200" t="s">
+      <c r="J14" s="111"/>
+      <c r="K14" s="199" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="108">
+      <c r="A15" s="107">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
       <c r="B15" s="78" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="109">
+      <c r="C15" s="108">
         <v>200</v>
       </c>
-      <c r="D15" s="109" t="s">
+      <c r="D15" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="109" t="s">
+      <c r="E15" s="108" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="109" t="s">
+      <c r="F15" s="108" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="109">
+      <c r="G15" s="108">
         <v>200</v>
       </c>
-      <c r="H15" s="110">
+      <c r="H15" s="109">
         <v>1</v>
       </c>
-      <c r="I15" s="111" t="s">
+      <c r="I15" s="110" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="112"/>
-      <c r="K15" s="200" t="s">
+      <c r="J15" s="111"/>
+      <c r="K15" s="199" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="108">
+      <c r="A16" s="107">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="78" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="109">
+      <c r="C16" s="108">
         <v>500</v>
       </c>
-      <c r="D16" s="109" t="s">
+      <c r="D16" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="E16" s="108" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="110">
+      <c r="F16" s="108"/>
+      <c r="G16" s="108"/>
+      <c r="H16" s="109">
         <v>1</v>
       </c>
-      <c r="I16" s="111" t="s">
+      <c r="I16" s="110" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="112"/>
-      <c r="K16" s="200" t="s">
+      <c r="J16" s="111"/>
+      <c r="K16" s="199" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="108">
+      <c r="A17" s="107">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="78" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="109">
+      <c r="C17" s="108">
         <v>1000</v>
       </c>
-      <c r="D17" s="109" t="s">
+      <c r="D17" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="E17" s="108" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="109" t="s">
+      <c r="F17" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="109">
+      <c r="G17" s="108">
         <v>100</v>
       </c>
-      <c r="H17" s="110">
+      <c r="H17" s="109">
         <v>1</v>
       </c>
-      <c r="I17" s="111" t="s">
+      <c r="I17" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="112"/>
-      <c r="K17" s="200" t="s">
+      <c r="J17" s="111"/>
+      <c r="K17" s="199" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="108">
+      <c r="A18" s="107">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="78" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="109">
+      <c r="C18" s="108">
         <v>2000</v>
       </c>
-      <c r="D18" s="109" t="s">
+      <c r="D18" s="108" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="108" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="109">
+      <c r="G18" s="108">
         <v>200</v>
       </c>
-      <c r="H18" s="110">
+      <c r="H18" s="109">
         <v>1</v>
       </c>
-      <c r="I18" s="111" t="s">
+      <c r="I18" s="110" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="112"/>
-      <c r="K18" s="200" t="s">
+      <c r="J18" s="111"/>
+      <c r="K18" s="199" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="108">
+      <c r="A19" s="107">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
@@ -6299,23 +6468,23 @@
         <v>210</v>
       </c>
       <c r="C19" s="77"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="110">
+      <c r="D19" s="108"/>
+      <c r="E19" s="162"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109">
         <v>2</v>
       </c>
-      <c r="I19" s="111"/>
-      <c r="J19" s="112" t="s">
+      <c r="I19" s="110"/>
+      <c r="J19" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="200" t="s">
+      <c r="K19" s="199" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="108">
+      <c r="A20" s="107">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
@@ -6323,23 +6492,23 @@
         <v>172</v>
       </c>
       <c r="C20" s="77"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="163"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="110">
+      <c r="D20" s="108"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="108"/>
+      <c r="H20" s="109">
         <v>2</v>
       </c>
-      <c r="I20" s="111"/>
-      <c r="J20" s="112" t="s">
+      <c r="I20" s="110"/>
+      <c r="J20" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="200" t="s">
+      <c r="K20" s="199" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="108">
+      <c r="A21" s="107">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
@@ -6347,23 +6516,23 @@
         <v>211</v>
       </c>
       <c r="C21" s="77"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="163"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110">
+      <c r="D21" s="108"/>
+      <c r="E21" s="162"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="108"/>
+      <c r="H21" s="109">
         <v>2</v>
       </c>
-      <c r="I21" s="111"/>
-      <c r="J21" s="112" t="s">
+      <c r="I21" s="110"/>
+      <c r="J21" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="200" t="s">
+      <c r="K21" s="199" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="108">
+      <c r="A22" s="107">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
@@ -6371,170 +6540,170 @@
         <v>212</v>
       </c>
       <c r="C22" s="77"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110">
+      <c r="D22" s="108"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="108"/>
+      <c r="H22" s="109">
         <v>2</v>
       </c>
-      <c r="I22" s="111"/>
-      <c r="J22" s="112" t="s">
+      <c r="I22" s="110"/>
+      <c r="J22" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="200" t="s">
+      <c r="K22" s="199" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="108">
+      <c r="A23" s="107">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="B23" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="163"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="109"/>
-      <c r="H23" s="110">
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="109">
         <v>2</v>
       </c>
-      <c r="I23" s="111"/>
-      <c r="J23" s="112" t="s">
+      <c r="I23" s="110"/>
+      <c r="J23" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="200" t="s">
+      <c r="K23" s="199" t="s">
         <v>471</v>
       </c>
     </row>
     <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="108">
+      <c r="A24" s="107">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="B24" s="78" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="109"/>
-      <c r="D24" s="109"/>
-      <c r="E24" s="163"/>
-      <c r="F24" s="109"/>
-      <c r="G24" s="109"/>
-      <c r="H24" s="110">
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="109">
         <v>2</v>
       </c>
-      <c r="I24" s="111"/>
-      <c r="J24" s="112" t="s">
+      <c r="I24" s="110"/>
+      <c r="J24" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="200" t="s">
+      <c r="K24" s="199" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="168">
+      <c r="A25" s="167">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="169" t="s">
+      <c r="B25" s="168" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="170"/>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171">
+      <c r="C25" s="169"/>
+      <c r="D25" s="169"/>
+      <c r="E25" s="169"/>
+      <c r="F25" s="169"/>
+      <c r="G25" s="169"/>
+      <c r="H25" s="170">
         <v>2</v>
       </c>
-      <c r="I25" s="172"/>
-      <c r="J25" s="173" t="s">
+      <c r="I25" s="171"/>
+      <c r="J25" s="172" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="200" t="s">
+      <c r="K25" s="199" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="269" t="s">
+      <c r="A27" s="272" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="270"/>
-      <c r="C27" s="270"/>
-      <c r="D27" s="270"/>
-      <c r="E27" s="270"/>
-      <c r="F27" s="270"/>
-      <c r="G27" s="270"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="270"/>
-      <c r="J27" s="270"/>
-      <c r="K27" s="270"/>
-      <c r="L27" s="270"/>
-      <c r="M27" s="270"/>
-      <c r="N27" s="270"/>
-      <c r="O27" s="270"/>
-      <c r="P27" s="270"/>
-      <c r="Q27" s="271"/>
+      <c r="B27" s="273"/>
+      <c r="C27" s="273"/>
+      <c r="D27" s="273"/>
+      <c r="E27" s="273"/>
+      <c r="F27" s="273"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="273"/>
+      <c r="I27" s="273"/>
+      <c r="J27" s="273"/>
+      <c r="K27" s="273"/>
+      <c r="L27" s="273"/>
+      <c r="M27" s="273"/>
+      <c r="N27" s="273"/>
+      <c r="O27" s="273"/>
+      <c r="P27" s="273"/>
+      <c r="Q27" s="274"/>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="137" t="s">
+      <c r="A28" s="136" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="190" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="189" t="s">
+      <c r="C28" s="188" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="189" t="s">
+      <c r="D28" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="E28" s="189" t="s">
+      <c r="E28" s="188" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="189" t="s">
+      <c r="F28" s="188" t="s">
         <v>370</v>
       </c>
-      <c r="G28" s="189" t="s">
+      <c r="G28" s="188" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="193" t="s">
+      <c r="H28" s="192" t="s">
         <v>261</v>
       </c>
-      <c r="I28" s="193" t="s">
+      <c r="I28" s="192" t="s">
         <v>422</v>
       </c>
-      <c r="J28" s="193" t="s">
+      <c r="J28" s="192" t="s">
         <v>434</v>
       </c>
-      <c r="K28" s="193" t="s">
+      <c r="K28" s="192" t="s">
         <v>422</v>
       </c>
-      <c r="L28" s="123" t="s">
+      <c r="L28" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="M28" s="123" t="s">
+      <c r="M28" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="N28" s="123" t="s">
+      <c r="N28" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="O28" s="189" t="s">
+      <c r="O28" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="P28" s="189" t="s">
+      <c r="P28" s="188" t="s">
         <v>269</v>
       </c>
-      <c r="Q28" s="192" t="s">
+      <c r="Q28" s="191" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="145"/>
+      <c r="A29" s="144"/>
       <c r="B29" s="96" t="s">
         <v>18</v>
       </c>
@@ -6580,115 +6749,115 @@
       <c r="P29" s="96" t="s">
         <v>247</v>
       </c>
-      <c r="Q29" s="118" t="s">
+      <c r="Q29" s="117" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="146"/>
-      <c r="B30" s="197" t="s">
+      <c r="A30" s="145"/>
+      <c r="B30" s="196" t="s">
         <v>425</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="97"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153" t="s">
+      <c r="E30" s="152"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="152" t="s">
         <v>424</v>
       </c>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153" t="s">
+      <c r="H30" s="152"/>
+      <c r="I30" s="152" t="s">
         <v>427</v>
       </c>
-      <c r="J30" s="153">
+      <c r="J30" s="152">
         <v>3</v>
       </c>
-      <c r="K30" s="153" t="s">
+      <c r="K30" s="152" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="153">
+      <c r="L30" s="152">
         <v>100</v>
       </c>
-      <c r="M30" s="153">
+      <c r="M30" s="152">
         <v>0</v>
       </c>
-      <c r="N30" s="153"/>
-      <c r="O30" s="153">
+      <c r="N30" s="152"/>
+      <c r="O30" s="152">
         <v>4</v>
       </c>
-      <c r="P30" s="153">
+      <c r="P30" s="152">
         <v>10</v>
       </c>
-      <c r="Q30" s="154">
+      <c r="Q30" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="266" t="s">
+      <c r="A32" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="267"/>
-      <c r="C32" s="267"/>
-      <c r="D32" s="267"/>
-      <c r="E32" s="267"/>
-      <c r="F32" s="267"/>
-      <c r="G32" s="267"/>
-      <c r="H32" s="268"/>
+      <c r="B32" s="270"/>
+      <c r="C32" s="270"/>
+      <c r="D32" s="270"/>
+      <c r="E32" s="270"/>
+      <c r="F32" s="270"/>
+      <c r="G32" s="270"/>
+      <c r="H32" s="271"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260" t="s">
+      <c r="A33" s="263" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
+      <c r="B33" s="264"/>
+      <c r="C33" s="264"/>
+      <c r="D33" s="264"/>
+      <c r="E33" s="264"/>
+      <c r="F33" s="264"/>
+      <c r="G33" s="264"/>
+      <c r="H33" s="265"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="260"/>
-      <c r="B34" s="261"/>
-      <c r="C34" s="261"/>
-      <c r="D34" s="261"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="261"/>
-      <c r="H34" s="262"/>
+      <c r="A34" s="263"/>
+      <c r="B34" s="264"/>
+      <c r="C34" s="264"/>
+      <c r="D34" s="264"/>
+      <c r="E34" s="264"/>
+      <c r="F34" s="264"/>
+      <c r="G34" s="264"/>
+      <c r="H34" s="265"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="260"/>
-      <c r="B35" s="261"/>
-      <c r="C35" s="261"/>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="262"/>
+      <c r="A35" s="263"/>
+      <c r="B35" s="264"/>
+      <c r="C35" s="264"/>
+      <c r="D35" s="264"/>
+      <c r="E35" s="264"/>
+      <c r="F35" s="264"/>
+      <c r="G35" s="264"/>
+      <c r="H35" s="265"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="263"/>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
+      <c r="A36" s="266"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="267"/>
+      <c r="D36" s="267"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
+      <c r="H36" s="268"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="250" t="s">
+      <c r="A38" s="253" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="250"/>
-      <c r="C38" s="250"/>
-      <c r="D38" s="250"/>
-      <c r="E38" s="250"/>
-      <c r="F38" s="250"/>
-      <c r="G38" s="250"/>
+      <c r="B38" s="253"/>
+      <c r="C38" s="253"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="253"/>
+      <c r="F38" s="253"/>
+      <c r="G38" s="253"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="78" t="s">
@@ -6700,12 +6869,12 @@
       <c r="C39" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="249" t="s">
+      <c r="D39" s="252" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="249"/>
-      <c r="F39" s="249"/>
-      <c r="G39" s="249"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6717,7 +6886,7 @@
       <c r="C40" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6731,7 +6900,7 @@
       <c r="C41" t="s">
         <v>432</v>
       </c>
-      <c r="D41" s="188" t="s">
+      <c r="D41" s="187" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6745,7 +6914,7 @@
       <c r="C42" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6759,7 +6928,7 @@
       <c r="C43" t="s">
         <v>432</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6773,7 +6942,7 @@
       <c r="C44" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="179" t="s">
+      <c r="D44" s="178" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6787,7 +6956,7 @@
       <c r="C45" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="188" t="s">
+      <c r="D45" s="187" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6801,7 +6970,7 @@
       <c r="C46" t="s">
         <v>432</v>
       </c>
-      <c r="D46" s="188" t="s">
+      <c r="D46" s="187" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6815,7 +6984,7 @@
       <c r="C47" t="s">
         <v>432</v>
       </c>
-      <c r="D47" s="188" t="s">
+      <c r="D47" s="187" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6829,7 +6998,7 @@
       <c r="C48" t="s">
         <v>432</v>
       </c>
-      <c r="D48" s="188" t="s">
+      <c r="D48" s="187" t="s">
         <v>400</v>
       </c>
     </row>
@@ -6843,7 +7012,7 @@
       <c r="C49" t="s">
         <v>432</v>
       </c>
-      <c r="D49" s="188" t="s">
+      <c r="D49" s="187" t="s">
         <v>399</v>
       </c>
     </row>
@@ -6857,7 +7026,7 @@
       <c r="C50" t="s">
         <v>432</v>
       </c>
-      <c r="D50" s="188" t="s">
+      <c r="D50" s="187" t="s">
         <v>401</v>
       </c>
     </row>
@@ -6871,7 +7040,7 @@
       <c r="C51" t="s">
         <v>432</v>
       </c>
-      <c r="D51" s="188" t="s">
+      <c r="D51" s="187" t="s">
         <v>404</v>
       </c>
     </row>
@@ -6885,7 +7054,7 @@
       <c r="C52" t="s">
         <v>432</v>
       </c>
-      <c r="D52" s="176" t="s">
+      <c r="D52" s="175" t="s">
         <v>433</v>
       </c>
     </row>
@@ -6899,7 +7068,7 @@
       <c r="C53" t="s">
         <v>432</v>
       </c>
-      <c r="D53" s="188" t="s">
+      <c r="D53" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6913,7 +7082,7 @@
       <c r="C54" t="s">
         <v>432</v>
       </c>
-      <c r="D54" s="188" t="s">
+      <c r="D54" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6927,7 +7096,7 @@
       <c r="C55" t="s">
         <v>432</v>
       </c>
-      <c r="D55" s="188" t="s">
+      <c r="D55" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6941,7 +7110,7 @@
       <c r="C56" t="s">
         <v>432</v>
       </c>
-      <c r="D56" s="188" t="s">
+      <c r="D56" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6955,7 +7124,7 @@
       <c r="C57" t="s">
         <v>432</v>
       </c>
-      <c r="D57" s="188" t="s">
+      <c r="D57" s="187" t="s">
         <v>407</v>
       </c>
     </row>
@@ -6969,7 +7138,7 @@
       <c r="C58" t="s">
         <v>432</v>
       </c>
-      <c r="D58" s="176" t="s">
+      <c r="D58" s="175" t="s">
         <v>408</v>
       </c>
     </row>
@@ -6983,7 +7152,7 @@
       <c r="C59" t="s">
         <v>432</v>
       </c>
-      <c r="D59" s="176" t="s">
+      <c r="D59" s="175" t="s">
         <v>409</v>
       </c>
     </row>
@@ -6997,7 +7166,7 @@
       <c r="C60" t="s">
         <v>432</v>
       </c>
-      <c r="D60" s="176" t="s">
+      <c r="D60" s="175" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7011,7 +7180,7 @@
       <c r="C61" t="s">
         <v>432</v>
       </c>
-      <c r="D61" s="176" t="s">
+      <c r="D61" s="175" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7025,7 +7194,7 @@
       <c r="C62" t="s">
         <v>432</v>
       </c>
-      <c r="D62" s="176" t="s">
+      <c r="D62" s="175" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7039,7 +7208,7 @@
       <c r="C63" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="176" t="s">
+      <c r="D63" s="175" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7053,7 +7222,7 @@
       <c r="C64" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="176" t="s">
+      <c r="D64" s="175" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7067,7 +7236,7 @@
       <c r="C65" t="s">
         <v>432</v>
       </c>
-      <c r="D65" s="176" t="s">
+      <c r="D65" s="175" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7081,7 +7250,7 @@
       <c r="C66" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="176" t="s">
+      <c r="D66" s="175" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7095,7 +7264,7 @@
       <c r="C67" t="s">
         <v>432</v>
       </c>
-      <c r="D67" s="176" t="s">
+      <c r="D67" s="175" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7109,7 +7278,7 @@
       <c r="C68" t="s">
         <v>432</v>
       </c>
-      <c r="D68" s="176" t="s">
+      <c r="D68" s="175" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7123,7 +7292,7 @@
       <c r="C69" t="s">
         <v>432</v>
       </c>
-      <c r="D69" s="176" t="s">
+      <c r="D69" s="175" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7137,7 +7306,7 @@
       <c r="C70" t="s">
         <v>432</v>
       </c>
-      <c r="D70" s="176" t="s">
+      <c r="D70" s="175" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7151,7 +7320,7 @@
       <c r="C71" t="s">
         <v>432</v>
       </c>
-      <c r="D71" s="176" t="s">
+      <c r="D71" s="175" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7228,10 +7397,10 @@
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7249,63 +7418,63 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="272" t="s">
+    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="275" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="273"/>
-      <c r="H1" s="273"/>
-      <c r="I1" s="273"/>
-      <c r="J1" s="274"/>
-    </row>
-    <row r="2" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="269" t="s">
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+      <c r="H1" s="276"/>
+      <c r="I1" s="276"/>
+      <c r="J1" s="277"/>
+    </row>
+    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="272" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="270"/>
-      <c r="C2" s="270"/>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270"/>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270"/>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270"/>
-      <c r="J2" s="271"/>
-    </row>
-    <row r="3" spans="1:10" s="113" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="131" t="s">
+      <c r="B2" s="273"/>
+      <c r="C2" s="273"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
+      <c r="F2" s="273"/>
+      <c r="G2" s="273"/>
+      <c r="H2" s="273"/>
+      <c r="I2" s="273"/>
+      <c r="J2" s="274"/>
+    </row>
+    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="130" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="130" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="128" t="s">
+      <c r="D3" s="127" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="126" t="s">
+      <c r="F3" s="125" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="132" t="s">
+      <c r="G3" s="131" t="s">
         <v>311</v>
       </c>
-      <c r="H3" s="166" t="s">
+      <c r="H3" s="165" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="128"/>
-      <c r="J3" s="130"/>
-    </row>
-    <row r="4" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="I3" s="127"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="98" t="s">
         <v>96</v>
       </c>
@@ -7327,13 +7496,13 @@
       <c r="G4" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="167" t="s">
+      <c r="H4" s="166" t="s">
         <v>294</v>
       </c>
       <c r="I4" s="101"/>
       <c r="J4" s="102"/>
     </row>
-    <row r="5" spans="1:10" s="113" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="73" t="s">
         <v>171</v>
       </c>
@@ -7350,44 +7519,44 @@
       <c r="F5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="197" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="165"/>
-      <c r="I5" s="165"/>
-      <c r="J5" s="165"/>
-    </row>
-    <row r="6" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="269" t="s">
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+    </row>
+    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="272" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="270"/>
-      <c r="C6" s="270"/>
-      <c r="D6" s="270"/>
-      <c r="E6" s="270"/>
-      <c r="F6" s="270"/>
-      <c r="G6" s="270"/>
-      <c r="H6" s="270"/>
-      <c r="I6" s="270"/>
-      <c r="J6" s="271"/>
-    </row>
-    <row r="7" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="124" t="s">
+      <c r="B6" s="273"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="274"/>
+    </row>
+    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="131" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="128"/>
-      <c r="D7" s="128"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="128"/>
-      <c r="H7" s="128"/>
-      <c r="I7" s="128"/>
-      <c r="J7" s="130"/>
-    </row>
-    <row r="8" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="128"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="129"/>
+    </row>
+    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="95" t="s">
         <v>149</v>
       </c>
@@ -7403,7 +7572,7 @@
       <c r="I8" s="104"/>
       <c r="J8" s="105"/>
     </row>
-    <row r="9" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="68" t="s">
         <v>0</v>
       </c>
@@ -7419,47 +7588,47 @@
       <c r="I9" s="71"/>
       <c r="J9" s="72"/>
     </row>
-    <row r="10" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="269" t="s">
+    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="270"/>
-      <c r="E10" s="270"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
-      <c r="H10" s="270"/>
-      <c r="I10" s="270"/>
-      <c r="J10" s="271"/>
-    </row>
-    <row r="11" spans="1:10" s="113" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="127"/>
-      <c r="B11" s="128" t="s">
+      <c r="B10" s="273"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
+      <c r="G10" s="273"/>
+      <c r="H10" s="273"/>
+      <c r="I10" s="273"/>
+      <c r="J10" s="274"/>
+    </row>
+    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="126"/>
+      <c r="B11" s="127" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="128" t="s">
+      <c r="C11" s="127" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="174" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="128" t="s">
+      <c r="E11" s="127" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="132" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>315</v>
       </c>
-      <c r="I11" s="128"/>
-      <c r="J11" s="130"/>
-    </row>
-    <row r="12" spans="1:10" s="113" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I11" s="127"/>
+      <c r="J11" s="129"/>
+    </row>
+    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="95" t="s">
         <v>1</v>
       </c>
@@ -7478,16 +7647,16 @@
       <c r="F12" s="96" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="134" t="s">
+      <c r="G12" s="133" t="s">
         <v>256</v>
       </c>
       <c r="H12" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="120"/>
-    </row>
-    <row r="13" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="118"/>
+      <c r="J12" s="119"/>
+    </row>
+    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="106" t="s">
         <v>14</v>
       </c>
@@ -7511,7 +7680,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106">
         <v>2</v>
       </c>
@@ -7525,7 +7694,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="106">
         <v>3</v>
       </c>
@@ -7539,7 +7708,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="106">
         <v>4</v>
       </c>
@@ -7553,458 +7722,585 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="106">
-        <v>5</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="5"/>
-    </row>
-    <row r="18" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106">
-        <v>6</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="5"/>
-    </row>
-    <row r="19" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
-        <v>7</v>
-      </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="5"/>
-    </row>
-    <row r="20" spans="1:10" s="113" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="107">
-        <v>8</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" s="113" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="269" t="s">
+    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="316" t="s">
+        <v>491</v>
+      </c>
+      <c r="B17" s="317"/>
+      <c r="C17" s="317"/>
+      <c r="D17" s="317"/>
+      <c r="E17" s="317"/>
+      <c r="F17" s="317"/>
+      <c r="G17" s="317"/>
+      <c r="H17" s="317"/>
+      <c r="I17" s="317"/>
+      <c r="J17" s="318"/>
+    </row>
+    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="319"/>
+      <c r="B18" s="320" t="s">
+        <v>270</v>
+      </c>
+      <c r="C18" s="320" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="320" t="s">
+        <v>253</v>
+      </c>
+      <c r="E18" s="321" t="s">
+        <v>314</v>
+      </c>
+      <c r="F18" s="322" t="s">
+        <v>313</v>
+      </c>
+      <c r="G18" s="322"/>
+      <c r="H18" s="323"/>
+      <c r="I18" s="323"/>
+      <c r="J18" s="324"/>
+    </row>
+    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="325" t="s">
+        <v>492</v>
+      </c>
+      <c r="B19" s="326" t="s">
+        <v>493</v>
+      </c>
+      <c r="C19" s="327" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="327" t="s">
+        <v>494</v>
+      </c>
+      <c r="E19" s="327" t="s">
+        <v>255</v>
+      </c>
+      <c r="F19" s="328" t="s">
+        <v>256</v>
+      </c>
+      <c r="G19" s="326"/>
+      <c r="H19" s="329"/>
+      <c r="I19" s="329"/>
+      <c r="J19" s="330"/>
+    </row>
+    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="331"/>
+      <c r="B20" s="332"/>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="332"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="332"/>
+      <c r="J20" s="333"/>
+    </row>
+    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="331"/>
+      <c r="B21" s="332"/>
+      <c r="C21" s="332"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="332"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="332"/>
+      <c r="J21" s="333"/>
+    </row>
+    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="272" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="270"/>
-      <c r="C21" s="270"/>
-      <c r="D21" s="270"/>
-      <c r="E21" s="270"/>
-      <c r="F21" s="270"/>
-      <c r="G21" s="270"/>
-      <c r="H21" s="270"/>
-      <c r="I21" s="270"/>
-      <c r="J21" s="271"/>
-    </row>
-    <row r="22" spans="1:10" s="113" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="131" t="s">
+      <c r="B22" s="273"/>
+      <c r="C22" s="273"/>
+      <c r="D22" s="273"/>
+      <c r="E22" s="273"/>
+      <c r="F22" s="273"/>
+      <c r="G22" s="273"/>
+      <c r="H22" s="273"/>
+      <c r="I22" s="273"/>
+      <c r="J22" s="274"/>
+    </row>
+    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="130" t="s">
         <v>316</v>
       </c>
-      <c r="B22" s="132" t="s">
+      <c r="B23" s="131" t="s">
         <v>317</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C23" s="131" t="s">
         <v>265</v>
       </c>
-      <c r="D22" s="132" t="s">
+      <c r="D23" s="131" t="s">
         <v>318</v>
       </c>
-      <c r="E22" s="128"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="130"/>
-    </row>
-    <row r="23" spans="1:10" s="113" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+      <c r="E23" s="127"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="129"/>
+    </row>
+    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="96" t="s">
+      <c r="B24" s="96" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C24" s="96" t="s">
         <v>259</v>
       </c>
-      <c r="D23" s="99" t="s">
+      <c r="D24" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="E23" s="114"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
-    </row>
-    <row r="24" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E24" s="113"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+    </row>
+    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30">
         <v>1</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="153" t="s">
+      <c r="D25" s="152" t="s">
         <v>213</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" s="113" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="269" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="316" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" s="317"/>
+      <c r="C26" s="317"/>
+      <c r="D26" s="317"/>
+      <c r="E26" s="317"/>
+      <c r="F26" s="317"/>
+      <c r="G26" s="317"/>
+      <c r="H26" s="317"/>
+      <c r="I26" s="317"/>
+      <c r="J26" s="318"/>
+    </row>
+    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="334" t="s">
+        <v>496</v>
+      </c>
+      <c r="B27" s="335" t="s">
+        <v>496</v>
+      </c>
+      <c r="C27" s="336" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" s="336" t="s">
+        <v>264</v>
+      </c>
+      <c r="E27" s="337" t="s">
+        <v>263</v>
+      </c>
+      <c r="F27" s="338" t="s">
+        <v>497</v>
+      </c>
+      <c r="G27" s="337" t="s">
+        <v>263</v>
+      </c>
+      <c r="H27" s="339"/>
+      <c r="I27" s="339"/>
+      <c r="J27" s="340"/>
+    </row>
+    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="341" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" s="326" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="342" t="s">
+        <v>249</v>
+      </c>
+      <c r="D28" s="342" t="s">
+        <v>250</v>
+      </c>
+      <c r="E28" s="342" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="342" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="326" t="s">
+        <v>227</v>
+      </c>
+      <c r="H28" s="343"/>
+      <c r="I28" s="343"/>
+      <c r="J28" s="344"/>
+    </row>
+    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="345"/>
+      <c r="B29" s="346"/>
+      <c r="C29" s="347"/>
+      <c r="D29" s="347"/>
+      <c r="E29" s="347"/>
+      <c r="F29" s="347"/>
+      <c r="G29" s="347"/>
+      <c r="H29" s="347"/>
+      <c r="I29" s="347"/>
+      <c r="J29" s="348"/>
+    </row>
+    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="272" t="s">
         <v>151</v>
       </c>
-      <c r="B25" s="270"/>
-      <c r="C25" s="270"/>
-      <c r="D25" s="270"/>
-      <c r="E25" s="270"/>
-      <c r="F25" s="270"/>
-      <c r="G25" s="270"/>
-      <c r="H25" s="270"/>
-      <c r="I25" s="270"/>
-      <c r="J25" s="271"/>
-    </row>
-    <row r="26" spans="1:10" s="113" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="131" t="s">
+      <c r="B30" s="273"/>
+      <c r="C30" s="273"/>
+      <c r="D30" s="273"/>
+      <c r="E30" s="273"/>
+      <c r="F30" s="273"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
+      <c r="I30" s="273"/>
+      <c r="J30" s="274"/>
+    </row>
+    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B26" s="193" t="s">
+      <c r="B31" s="192" t="s">
         <v>355</v>
       </c>
-      <c r="C26" s="132" t="s">
+      <c r="C31" s="131" t="s">
         <v>319</v>
       </c>
-      <c r="D26" s="132" t="s">
+      <c r="D31" s="131" t="s">
         <v>260</v>
       </c>
-      <c r="E26" s="189" t="s">
+      <c r="E31" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" spans="1:10" s="113" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="148"/>
-      <c r="B27" s="147" t="s">
+      <c r="F31" s="127"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="127"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="150"/>
+    </row>
+    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="147"/>
+      <c r="B32" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="147" t="s">
+      <c r="C32" s="146" t="s">
         <v>258</v>
       </c>
-      <c r="D27" s="96" t="s">
+      <c r="D32" s="96" t="s">
         <v>152</v>
       </c>
-      <c r="E27" s="96" t="s">
+      <c r="E32" s="96" t="s">
         <v>356</v>
       </c>
-      <c r="F27" s="147"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="152"/>
-    </row>
-    <row r="28" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="146"/>
-      <c r="B28" s="202" t="s">
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="151"/>
+    </row>
+    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="145"/>
+      <c r="B33" s="201" t="s">
         <v>474</v>
       </c>
-      <c r="C28" s="186"/>
-      <c r="D28" s="122"/>
-      <c r="E28" s="153" t="s">
+      <c r="C33" s="185"/>
+      <c r="D33" s="121"/>
+      <c r="E33" s="152" t="s">
         <v>446</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" s="113" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:10" s="113" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A30" s="266" t="s">
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="9"/>
+    </row>
+    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="B30" s="267"/>
-      <c r="C30" s="267"/>
-      <c r="D30" s="267"/>
-      <c r="E30" s="267"/>
-      <c r="F30" s="267"/>
-      <c r="G30" s="267"/>
-      <c r="H30" s="268"/>
-    </row>
-    <row r="31" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="260" t="s">
+      <c r="B35" s="270"/>
+      <c r="C35" s="270"/>
+      <c r="D35" s="270"/>
+      <c r="E35" s="270"/>
+      <c r="F35" s="270"/>
+      <c r="G35" s="270"/>
+      <c r="H35" s="271"/>
+    </row>
+    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="263" t="s">
         <v>349</v>
       </c>
-      <c r="B31" s="261"/>
-      <c r="C31" s="261"/>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="262"/>
-    </row>
-    <row r="32" spans="1:10" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="260"/>
-      <c r="B32" s="261"/>
-      <c r="C32" s="261"/>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="262"/>
-    </row>
-    <row r="33" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="260"/>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="262"/>
-    </row>
-    <row r="34" spans="1:8" s="113" customFormat="1" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
-    </row>
-    <row r="35" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:8" s="113" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="250" t="s">
+      <c r="B36" s="264"/>
+      <c r="C36" s="264"/>
+      <c r="D36" s="264"/>
+      <c r="E36" s="264"/>
+      <c r="F36" s="264"/>
+      <c r="G36" s="264"/>
+      <c r="H36" s="265"/>
+    </row>
+    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="263"/>
+      <c r="B37" s="264"/>
+      <c r="C37" s="264"/>
+      <c r="D37" s="264"/>
+      <c r="E37" s="264"/>
+      <c r="F37" s="264"/>
+      <c r="G37" s="264"/>
+      <c r="H37" s="265"/>
+    </row>
+    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="263"/>
+      <c r="B38" s="264"/>
+      <c r="C38" s="264"/>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="265"/>
+    </row>
+    <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="266"/>
+      <c r="B39" s="267"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="268"/>
+      <c r="I39" s="112"/>
+      <c r="J39" s="112"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="112"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="112"/>
+      <c r="J40" s="112"/>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="253" t="s">
         <v>296</v>
       </c>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-    </row>
-    <row r="37" spans="1:8" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
+      <c r="B41" s="253"/>
+      <c r="C41" s="253"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="112"/>
+      <c r="J41" s="112"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="78" t="s">
         <v>303</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B42" s="78" t="s">
         <v>297</v>
       </c>
-      <c r="C37" s="78" t="s">
+      <c r="C42" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D37" s="249" t="s">
+      <c r="D42" s="252" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="249"/>
-      <c r="F37" s="249"/>
-      <c r="G37" s="249"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="252"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="112"/>
+      <c r="J42" s="112"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>300</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>301</v>
-      </c>
-      <c r="C38" t="s">
-        <v>448</v>
-      </c>
-      <c r="D38" s="176" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>322</v>
-      </c>
-      <c r="B39" t="s">
-        <v>326</v>
-      </c>
-      <c r="C39" t="s">
-        <v>448</v>
-      </c>
-      <c r="D39" s="188" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>322</v>
-      </c>
-      <c r="B40" t="s">
-        <v>327</v>
-      </c>
-      <c r="C40" t="s">
-        <v>448</v>
-      </c>
-      <c r="D40" s="176" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>322</v>
-      </c>
-      <c r="B41" t="s">
-        <v>328</v>
-      </c>
-      <c r="C41" t="s">
-        <v>448</v>
-      </c>
-      <c r="D41" s="176" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>322</v>
-      </c>
-      <c r="B42" t="s">
-        <v>329</v>
-      </c>
-      <c r="C42" t="s">
-        <v>448</v>
-      </c>
-      <c r="D42" s="179" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>358</v>
-      </c>
-      <c r="B43" t="s">
-        <v>302</v>
       </c>
       <c r="C43" t="s">
         <v>448</v>
       </c>
-      <c r="D43" s="188" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D43" s="175" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B44" t="s">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="C44" t="s">
         <v>448</v>
       </c>
-      <c r="D44" s="188" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D44" s="187" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B45" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
       <c r="C45" t="s">
         <v>448</v>
       </c>
-      <c r="D45" s="188" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D45" s="175" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B46" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C46" t="s">
         <v>448</v>
       </c>
-      <c r="D46" s="188" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="175" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>360</v>
+        <v>322</v>
       </c>
       <c r="B47" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="C47" t="s">
         <v>448</v>
       </c>
-      <c r="D47" s="188" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="178" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s">
-        <v>449</v>
+        <v>302</v>
       </c>
       <c r="C48" t="s">
         <v>448</v>
       </c>
-      <c r="D48" s="179" t="s">
+      <c r="D48" s="187" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" t="s">
+        <v>361</v>
+      </c>
+      <c r="C49" t="s">
+        <v>448</v>
+      </c>
+      <c r="D49" s="187" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>360</v>
+      </c>
+      <c r="B50" t="s">
+        <v>361</v>
+      </c>
+      <c r="C50" t="s">
+        <v>448</v>
+      </c>
+      <c r="D50" s="187" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>360</v>
+      </c>
+      <c r="B51" t="s">
+        <v>361</v>
+      </c>
+      <c r="C51" t="s">
+        <v>448</v>
+      </c>
+      <c r="D51" s="187" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>360</v>
+      </c>
+      <c r="B52" t="s">
+        <v>361</v>
+      </c>
+      <c r="C52" t="s">
+        <v>448</v>
+      </c>
+      <c r="D52" s="187" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>322</v>
+      </c>
+      <c r="B53" t="s">
+        <v>449</v>
+      </c>
+      <c r="C53" t="s">
+        <v>448</v>
+      </c>
+      <c r="D53" s="178" t="s">
         <v>450</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="D37:G37"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="A31:H34"/>
-    <mergeCell ref="A25:J25"/>
+  <mergeCells count="12">
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A36:H39"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A6:J6"/>
     <mergeCell ref="A10:J10"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A41:G41"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A26:J26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8021,13 +8317,13 @@
                   <from>
                     <xdr:col>0</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>26</xdr:row>
+                    <xdr:row>31</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>9525</xdr:colOff>
-                    <xdr:row>27</xdr:row>
+                    <xdr:row>32</xdr:row>
                     <xdr:rowOff>190500</xdr:rowOff>
                   </to>
                 </anchor>
@@ -8074,352 +8370,352 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="295" t="s">
+      <c r="A2" s="283" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="297"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="284"/>
+      <c r="C2" s="284"/>
+      <c r="D2" s="284"/>
+      <c r="E2" s="284"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="279" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="279"/>
       <c r="P2" s="88"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="300" t="s">
+      <c r="A3" s="286" t="s">
         <v>481</v>
       </c>
-      <c r="B3" s="301"/>
-      <c r="C3" s="301"/>
-      <c r="D3" s="301"/>
-      <c r="E3" s="301"/>
-      <c r="F3" s="302"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="287"/>
+      <c r="C3" s="287"/>
+      <c r="D3" s="287"/>
+      <c r="E3" s="287"/>
+      <c r="F3" s="288"/>
+      <c r="G3" s="298" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="204" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="P3" s="196"/>
+      <c r="P3" s="195"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="289" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="297" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="205" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="313" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="278" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="313"/>
-      <c r="I5" s="313"/>
-      <c r="J5" s="313" t="s">
+      <c r="H5" s="278"/>
+      <c r="I5" s="278"/>
+      <c r="J5" s="278" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="313"/>
-      <c r="L5" s="313"/>
-      <c r="M5" s="314"/>
-      <c r="N5" s="314" t="s">
+      <c r="K5" s="278"/>
+      <c r="L5" s="278"/>
+      <c r="M5" s="206"/>
+      <c r="N5" s="206" t="s">
         <v>373</v>
       </c>
-      <c r="O5" s="315" t="s">
+      <c r="O5" s="207" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="292" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="313" t="s">
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="278" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="313"/>
-      <c r="I6" s="313"/>
-      <c r="J6" s="313"/>
-      <c r="K6" s="313"/>
-      <c r="L6" s="313"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314" t="s">
+      <c r="H6" s="278"/>
+      <c r="I6" s="278"/>
+      <c r="J6" s="278"/>
+      <c r="K6" s="278"/>
+      <c r="L6" s="278"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206" t="s">
         <v>374</v>
       </c>
-      <c r="O6" s="315" t="s">
+      <c r="O6" s="207" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="292" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="313"/>
-      <c r="H7" s="313"/>
-      <c r="I7" s="313"/>
-      <c r="J7" s="313"/>
-      <c r="K7" s="313"/>
-      <c r="L7" s="313"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="315"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="278"/>
+      <c r="H7" s="278"/>
+      <c r="I7" s="278"/>
+      <c r="J7" s="278"/>
+      <c r="K7" s="278"/>
+      <c r="L7" s="278"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="207"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="313"/>
-      <c r="H8" s="313"/>
-      <c r="I8" s="313"/>
-      <c r="J8" s="313"/>
-      <c r="K8" s="313"/>
-      <c r="L8" s="313"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="315"/>
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="280" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="282"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
+      <c r="K11" s="186"/>
+      <c r="L11" s="186"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>244</v>
       </c>
       <c r="C12" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -8431,12 +8727,12 @@
       <c r="C22" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8448,7 +8744,7 @@
       <c r="C23" t="s">
         <v>435</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8462,7 +8758,7 @@
       <c r="C24" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8476,7 +8772,7 @@
       <c r="C25" t="s">
         <v>435</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8490,7 +8786,7 @@
       <c r="C26" t="s">
         <v>435</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8504,7 +8800,7 @@
       <c r="C27" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8518,7 +8814,7 @@
       <c r="C28" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8532,7 +8828,7 @@
       <c r="C29" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8546,7 +8842,7 @@
       <c r="C30" t="s">
         <v>435</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8560,7 +8856,7 @@
       <c r="C31" t="s">
         <v>435</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8574,7 +8870,7 @@
       <c r="C32" t="s">
         <v>435</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8588,7 +8884,7 @@
       <c r="C33" t="s">
         <v>435</v>
       </c>
-      <c r="D33" s="188" t="s">
+      <c r="D33" s="187" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8602,7 +8898,7 @@
       <c r="C34" t="s">
         <v>435</v>
       </c>
-      <c r="D34" s="176" t="s">
+      <c r="D34" s="175" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8616,7 +8912,7 @@
       <c r="C35" t="s">
         <v>435</v>
       </c>
-      <c r="D35" s="176" t="s">
+      <c r="D35" s="175" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8630,7 +8926,7 @@
       <c r="C36" t="s">
         <v>435</v>
       </c>
-      <c r="D36" s="176" t="s">
+      <c r="D36" s="175" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8644,7 +8940,7 @@
       <c r="C37" t="s">
         <v>435</v>
       </c>
-      <c r="D37" s="176" t="s">
+      <c r="D37" s="175" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8658,7 +8954,7 @@
       <c r="C38" t="s">
         <v>435</v>
       </c>
-      <c r="D38" s="176" t="s">
+      <c r="D38" s="175" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8672,7 +8968,7 @@
       <c r="C39" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="176" t="s">
+      <c r="D39" s="175" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8686,7 +8982,7 @@
       <c r="C40" t="s">
         <v>435</v>
       </c>
-      <c r="D40" s="176" t="s">
+      <c r="D40" s="175" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8700,7 +8996,7 @@
       <c r="C41" t="s">
         <v>435</v>
       </c>
-      <c r="D41" s="176" t="s">
+      <c r="D41" s="175" t="s">
         <v>436</v>
       </c>
     </row>
@@ -8714,7 +9010,7 @@
       <c r="C42" t="s">
         <v>435</v>
       </c>
-      <c r="D42" s="176" t="s">
+      <c r="D42" s="175" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8728,7 +9024,7 @@
       <c r="C43" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="176" t="s">
+      <c r="D43" s="175" t="s">
         <v>437</v>
       </c>
     </row>
@@ -8742,7 +9038,7 @@
       <c r="C44" t="s">
         <v>435</v>
       </c>
-      <c r="D44" s="176" t="s">
+      <c r="D44" s="175" t="s">
         <v>389</v>
       </c>
     </row>
@@ -8756,7 +9052,7 @@
       <c r="C45" t="s">
         <v>435</v>
       </c>
-      <c r="D45" s="176" t="s">
+      <c r="D45" s="175" t="s">
         <v>438</v>
       </c>
     </row>
@@ -8770,7 +9066,7 @@
       <c r="C46" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="176" t="s">
+      <c r="D46" s="175" t="s">
         <v>439</v>
       </c>
     </row>
@@ -8784,7 +9080,7 @@
       <c r="C47" t="s">
         <v>435</v>
       </c>
-      <c r="D47" s="176" t="s">
+      <c r="D47" s="175" t="s">
         <v>440</v>
       </c>
     </row>
@@ -8798,7 +9094,7 @@
       <c r="C48" t="s">
         <v>435</v>
       </c>
-      <c r="D48" s="176" t="s">
+      <c r="D48" s="175" t="s">
         <v>441</v>
       </c>
     </row>
@@ -8812,7 +9108,7 @@
       <c r="C49" t="s">
         <v>435</v>
       </c>
-      <c r="D49" s="176" t="s">
+      <c r="D49" s="175" t="s">
         <v>442</v>
       </c>
     </row>
@@ -8826,7 +9122,7 @@
       <c r="C50" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="176" t="s">
+      <c r="D50" s="175" t="s">
         <v>443</v>
       </c>
     </row>
@@ -8840,7 +9136,7 @@
       <c r="C51" t="s">
         <v>435</v>
       </c>
-      <c r="D51" s="176" t="s">
+      <c r="D51" s="175" t="s">
         <v>444</v>
       </c>
     </row>
@@ -8854,7 +9150,7 @@
       <c r="C52" t="s">
         <v>435</v>
       </c>
-      <c r="D52" s="188" t="s">
+      <c r="D52" s="187" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8868,12 +9164,26 @@
       <c r="C53" t="s">
         <v>435</v>
       </c>
-      <c r="D53" s="176" t="s">
+      <c r="D53" s="175" t="s">
         <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -8886,20 +9196,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8965,7 +9261,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -8991,357 +9287,357 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="295" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="294"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="294"/>
-      <c r="E1" s="294"/>
-      <c r="F1" s="294"/>
-      <c r="G1" s="294"/>
-      <c r="H1" s="294"/>
-      <c r="I1" s="294"/>
-      <c r="J1" s="294"/>
-      <c r="K1" s="294"/>
-      <c r="L1" s="294"/>
-      <c r="M1" s="294"/>
-      <c r="N1" s="294"/>
-      <c r="O1" s="294"/>
-      <c r="P1" s="294"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="295"/>
+      <c r="I1" s="295"/>
+      <c r="J1" s="295"/>
+      <c r="K1" s="295"/>
+      <c r="L1" s="295"/>
+      <c r="M1" s="295"/>
+      <c r="N1" s="295"/>
+      <c r="O1" s="295"/>
+      <c r="P1" s="295"/>
       <c r="Q1" s="31"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="298" t="s">
+      <c r="A2" s="296" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="298"/>
-      <c r="C2" s="298"/>
-      <c r="D2" s="298"/>
-      <c r="E2" s="298"/>
-      <c r="F2" s="298"/>
-      <c r="G2" s="298" t="s">
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="298"/>
-      <c r="I2" s="298"/>
-      <c r="J2" s="298"/>
-      <c r="K2" s="298"/>
-      <c r="L2" s="298"/>
-      <c r="M2" s="299" t="s">
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="279" t="s">
         <v>284</v>
       </c>
-      <c r="N2" s="299"/>
-      <c r="O2" s="299"/>
-      <c r="P2" s="299"/>
+      <c r="N2" s="279"/>
+      <c r="O2" s="279"/>
+      <c r="P2" s="279"/>
       <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="303" t="s">
+      <c r="A3" s="298" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="303"/>
-      <c r="C3" s="303"/>
-      <c r="D3" s="303"/>
-      <c r="E3" s="303"/>
-      <c r="F3" s="303"/>
-      <c r="G3" s="303" t="s">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="303"/>
-      <c r="I3" s="303"/>
-      <c r="J3" s="303"/>
-      <c r="K3" s="303"/>
-      <c r="L3" s="303"/>
-      <c r="M3" s="304" t="s">
+      <c r="H3" s="298"/>
+      <c r="I3" s="298"/>
+      <c r="J3" s="298"/>
+      <c r="K3" s="298"/>
+      <c r="L3" s="298"/>
+      <c r="M3" s="204" t="s">
         <v>288</v>
       </c>
-      <c r="N3" s="304" t="s">
+      <c r="N3" s="204" t="s">
         <v>287</v>
       </c>
-      <c r="O3" s="304" t="s">
+      <c r="O3" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="P3" s="304" t="s">
+      <c r="P3" s="204" t="s">
         <v>355</v>
       </c>
-      <c r="Q3" s="195"/>
+      <c r="Q3" s="194"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="305" t="s">
+      <c r="A4" s="289" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="306"/>
-      <c r="C4" s="306"/>
-      <c r="D4" s="306"/>
-      <c r="E4" s="306"/>
-      <c r="F4" s="307"/>
-      <c r="G4" s="308" t="s">
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="291"/>
+      <c r="G4" s="297" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="308"/>
-      <c r="I4" s="308"/>
-      <c r="J4" s="308"/>
-      <c r="K4" s="308"/>
-      <c r="L4" s="308"/>
-      <c r="M4" s="309" t="s">
+      <c r="H4" s="297"/>
+      <c r="I4" s="297"/>
+      <c r="J4" s="297"/>
+      <c r="K4" s="297"/>
+      <c r="L4" s="297"/>
+      <c r="M4" s="205" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="309" t="s">
+      <c r="N4" s="205" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="309" t="s">
+      <c r="O4" s="205" t="s">
         <v>356</v>
       </c>
-      <c r="P4" s="309" t="s">
+      <c r="P4" s="205" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="316" t="s">
+      <c r="A5" s="292"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="294"/>
+      <c r="G5" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="316"/>
-      <c r="I5" s="316"/>
-      <c r="J5" s="316"/>
-      <c r="K5" s="316"/>
-      <c r="L5" s="316"/>
-      <c r="M5" s="314" t="s">
+      <c r="H5" s="299"/>
+      <c r="I5" s="299"/>
+      <c r="J5" s="299"/>
+      <c r="K5" s="299"/>
+      <c r="L5" s="299"/>
+      <c r="M5" s="206" t="s">
         <v>281</v>
       </c>
-      <c r="N5" s="314"/>
-      <c r="O5" s="314" t="s">
+      <c r="N5" s="206"/>
+      <c r="O5" s="206" t="s">
         <v>486</v>
       </c>
-      <c r="P5" s="314" t="s">
+      <c r="P5" s="206" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="292" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="316" t="s">
+      <c r="B6" s="293"/>
+      <c r="C6" s="293"/>
+      <c r="D6" s="293"/>
+      <c r="E6" s="293"/>
+      <c r="F6" s="294"/>
+      <c r="G6" s="299" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="316"/>
-      <c r="I6" s="316"/>
-      <c r="J6" s="316"/>
-      <c r="K6" s="316"/>
-      <c r="L6" s="316"/>
-      <c r="M6" s="314"/>
-      <c r="N6" s="314"/>
-      <c r="O6" s="314" t="s">
+      <c r="H6" s="299"/>
+      <c r="I6" s="299"/>
+      <c r="J6" s="299"/>
+      <c r="K6" s="299"/>
+      <c r="L6" s="299"/>
+      <c r="M6" s="206"/>
+      <c r="N6" s="206"/>
+      <c r="O6" s="206" t="s">
         <v>489</v>
       </c>
-      <c r="P6" s="314" t="s">
+      <c r="P6" s="206" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="316"/>
-      <c r="H7" s="316"/>
-      <c r="I7" s="316"/>
-      <c r="J7" s="316"/>
-      <c r="K7" s="316"/>
-      <c r="L7" s="316"/>
-      <c r="M7" s="314"/>
-      <c r="N7" s="314"/>
-      <c r="O7" s="314"/>
-      <c r="P7" s="315"/>
+      <c r="A7" s="292"/>
+      <c r="B7" s="293"/>
+      <c r="C7" s="293"/>
+      <c r="D7" s="293"/>
+      <c r="E7" s="293"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="299"/>
+      <c r="H7" s="299"/>
+      <c r="I7" s="299"/>
+      <c r="J7" s="299"/>
+      <c r="K7" s="299"/>
+      <c r="L7" s="299"/>
+      <c r="M7" s="206"/>
+      <c r="N7" s="206"/>
+      <c r="O7" s="206"/>
+      <c r="P7" s="207"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="316"/>
-      <c r="H8" s="316"/>
-      <c r="I8" s="316"/>
-      <c r="J8" s="316"/>
-      <c r="K8" s="316"/>
-      <c r="L8" s="316"/>
-      <c r="M8" s="314"/>
-      <c r="N8" s="314"/>
-      <c r="O8" s="314"/>
-      <c r="P8" s="315"/>
+      <c r="A8" s="292"/>
+      <c r="B8" s="293"/>
+      <c r="C8" s="293"/>
+      <c r="D8" s="293"/>
+      <c r="E8" s="293"/>
+      <c r="F8" s="294"/>
+      <c r="G8" s="299"/>
+      <c r="H8" s="299"/>
+      <c r="I8" s="299"/>
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+      <c r="L8" s="299"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="207"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="275" t="s">
+      <c r="A10" s="280" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="276"/>
-      <c r="C10" s="276"/>
-      <c r="D10" s="276"/>
-      <c r="E10" s="276"/>
-      <c r="F10" s="276"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="276"/>
-      <c r="I10" s="277"/>
+      <c r="B10" s="281"/>
+      <c r="C10" s="281"/>
+      <c r="D10" s="281"/>
+      <c r="E10" s="281"/>
+      <c r="F10" s="281"/>
+      <c r="G10" s="281"/>
+      <c r="H10" s="281"/>
+      <c r="I10" s="282"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="131" t="s">
+      <c r="A11" s="130" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="189" t="s">
+      <c r="C11" s="188" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="125" t="s">
+      <c r="D11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="125" t="s">
+      <c r="E11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="125" t="s">
+      <c r="F11" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="132" t="s">
+      <c r="G11" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="H11" s="132" t="s">
+      <c r="H11" s="131" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="144" t="s">
+      <c r="I11" s="143" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="148"/>
-      <c r="B12" s="147" t="s">
+      <c r="A12" s="147"/>
+      <c r="B12" s="146" t="s">
         <v>244</v>
       </c>
       <c r="C12" s="96" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D12" s="146" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="147" t="s">
+      <c r="E12" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="147" t="s">
+      <c r="F12" s="146" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="146" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="149" t="s">
+      <c r="I12" s="148" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="164"/>
+      <c r="K12" s="163"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="146"/>
+      <c r="A13" s="145"/>
       <c r="B13" s="97"/>
       <c r="C13" s="97"/>
-      <c r="D13" s="153">
+      <c r="D13" s="152">
         <v>100</v>
       </c>
-      <c r="E13" s="153">
+      <c r="E13" s="152">
         <v>0</v>
       </c>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153">
+      <c r="F13" s="152"/>
+      <c r="G13" s="152">
         <v>4</v>
       </c>
-      <c r="H13" s="153">
+      <c r="H13" s="152">
         <v>10</v>
       </c>
-      <c r="I13" s="154">
+      <c r="I13" s="153">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="266" t="s">
+      <c r="A15" s="269" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="267"/>
-      <c r="C15" s="267"/>
-      <c r="D15" s="267"/>
-      <c r="E15" s="267"/>
-      <c r="F15" s="267"/>
-      <c r="G15" s="267"/>
-      <c r="H15" s="268"/>
+      <c r="B15" s="270"/>
+      <c r="C15" s="270"/>
+      <c r="D15" s="270"/>
+      <c r="E15" s="270"/>
+      <c r="F15" s="270"/>
+      <c r="G15" s="270"/>
+      <c r="H15" s="271"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="260" t="s">
+      <c r="A16" s="263" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="261"/>
-      <c r="C16" s="261"/>
-      <c r="D16" s="261"/>
-      <c r="E16" s="261"/>
-      <c r="F16" s="261"/>
-      <c r="G16" s="261"/>
-      <c r="H16" s="262"/>
+      <c r="B16" s="264"/>
+      <c r="C16" s="264"/>
+      <c r="D16" s="264"/>
+      <c r="E16" s="264"/>
+      <c r="F16" s="264"/>
+      <c r="G16" s="264"/>
+      <c r="H16" s="265"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="260"/>
-      <c r="B17" s="261"/>
-      <c r="C17" s="261"/>
-      <c r="D17" s="261"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="G17" s="261"/>
-      <c r="H17" s="262"/>
+      <c r="A17" s="263"/>
+      <c r="B17" s="264"/>
+      <c r="C17" s="264"/>
+      <c r="D17" s="264"/>
+      <c r="E17" s="264"/>
+      <c r="F17" s="264"/>
+      <c r="G17" s="264"/>
+      <c r="H17" s="265"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="260"/>
-      <c r="B18" s="261"/>
-      <c r="C18" s="261"/>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="262"/>
+      <c r="A18" s="263"/>
+      <c r="B18" s="264"/>
+      <c r="C18" s="264"/>
+      <c r="D18" s="264"/>
+      <c r="E18" s="264"/>
+      <c r="F18" s="264"/>
+      <c r="G18" s="264"/>
+      <c r="H18" s="265"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="263"/>
-      <c r="B19" s="264"/>
-      <c r="C19" s="264"/>
-      <c r="D19" s="264"/>
-      <c r="E19" s="264"/>
-      <c r="F19" s="264"/>
-      <c r="G19" s="264"/>
-      <c r="H19" s="265"/>
+      <c r="A19" s="266"/>
+      <c r="B19" s="267"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="267"/>
+      <c r="E19" s="267"/>
+      <c r="F19" s="267"/>
+      <c r="G19" s="267"/>
+      <c r="H19" s="268"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="250" t="s">
+      <c r="A21" s="253" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="250"/>
-      <c r="C21" s="250"/>
-      <c r="D21" s="250"/>
-      <c r="E21" s="250"/>
-      <c r="F21" s="250"/>
-      <c r="G21" s="250"/>
+      <c r="B21" s="253"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
@@ -9353,12 +9649,12 @@
       <c r="C22" s="78" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="249" t="s">
+      <c r="D22" s="252" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="249"/>
-      <c r="F22" s="249"/>
-      <c r="G22" s="249"/>
+      <c r="E22" s="252"/>
+      <c r="F22" s="252"/>
+      <c r="G22" s="252"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9370,7 +9666,7 @@
       <c r="C23" t="s">
         <v>445</v>
       </c>
-      <c r="D23" s="176" t="s">
+      <c r="D23" s="175" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9384,7 +9680,7 @@
       <c r="C24" t="s">
         <v>445</v>
       </c>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="187" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9398,7 +9694,7 @@
       <c r="C25" t="s">
         <v>445</v>
       </c>
-      <c r="D25" s="176" t="s">
+      <c r="D25" s="175" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9412,7 +9708,7 @@
       <c r="C26" t="s">
         <v>445</v>
       </c>
-      <c r="D26" s="176" t="s">
+      <c r="D26" s="175" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9426,7 +9722,7 @@
       <c r="C27" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="179" t="s">
+      <c r="D27" s="178" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9440,7 +9736,7 @@
       <c r="C28" t="s">
         <v>445</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="187" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9454,7 +9750,7 @@
       <c r="C29" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="188" t="s">
+      <c r="D29" s="187" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9468,7 +9764,7 @@
       <c r="C30" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="188" t="s">
+      <c r="D30" s="187" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9482,7 +9778,7 @@
       <c r="C31" t="s">
         <v>445</v>
       </c>
-      <c r="D31" s="188" t="s">
+      <c r="D31" s="187" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9496,7 +9792,7 @@
       <c r="C32" t="s">
         <v>445</v>
       </c>
-      <c r="D32" s="188" t="s">
+      <c r="D32" s="187" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9510,7 +9806,7 @@
       <c r="C33" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="176" t="s">
+      <c r="D33" s="175" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9524,12 +9820,21 @@
       <c r="C34" t="s">
         <v>445</v>
       </c>
-      <c r="D34" s="188" t="s">
+      <c r="D34" s="187" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="A16:H19"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:L2"/>
@@ -9542,15 +9847,6 @@
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A10:I10"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="G4:L4"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="A16:H19"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="G7:L7"/>
-    <mergeCell ref="G8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9624,7 +9920,7 @@
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
     <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="185" customWidth="1"/>
+    <col min="3" max="3" width="16" style="184" customWidth="1"/>
     <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
@@ -9632,12 +9928,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="278" t="s">
+      <c r="A1" s="300" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="279"/>
-      <c r="C1" s="279"/>
-      <c r="D1" s="280"/>
+      <c r="B1" s="301"/>
+      <c r="C1" s="301"/>
+      <c r="D1" s="302"/>
       <c r="E1" s="66"/>
       <c r="F1" s="66"/>
       <c r="G1" s="66"/>
@@ -9661,7 +9957,7 @@
       <c r="D2" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="135" t="s">
+      <c r="F2" s="134" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9672,9 +9968,9 @@
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="182"/>
+      <c r="C3" s="181"/>
       <c r="D3" s="23"/>
-      <c r="F3" s="136" t="s">
+      <c r="F3" s="135" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9685,7 +9981,7 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="183"/>
+      <c r="C4" s="182"/>
       <c r="D4" s="24">
         <v>0</v>
       </c>
@@ -9700,7 +9996,7 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="183"/>
+      <c r="C5" s="182"/>
       <c r="D5" s="24">
         <v>7</v>
       </c>
@@ -9712,7 +10008,7 @@
       <c r="B6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="182">
         <v>1</v>
       </c>
       <c r="D6" s="24">
@@ -9720,25 +10016,25 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="203" t="s">
+      <c r="A7" s="202" t="s">
         <v>477</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>478</v>
       </c>
-      <c r="C7" s="204"/>
+      <c r="C7" s="203"/>
       <c r="D7" s="24">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="203" t="s">
+      <c r="A8" s="202" t="s">
         <v>479</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="C8" s="204"/>
+      <c r="C8" s="203"/>
       <c r="D8" s="24">
         <v>1</v>
       </c>
@@ -9750,7 +10046,7 @@
       <c r="B9" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="183"/>
+      <c r="C9" s="182"/>
       <c r="D9" s="24"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -9760,7 +10056,7 @@
       <c r="B10" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="182"/>
+      <c r="C10" s="181"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -9770,7 +10066,7 @@
       <c r="B11" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="183"/>
+      <c r="C11" s="182"/>
       <c r="D11" s="24">
         <v>0</v>
       </c>
@@ -9782,7 +10078,7 @@
       <c r="B12" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="183"/>
+      <c r="C12" s="182"/>
       <c r="D12" s="25" t="s">
         <v>66</v>
       </c>
@@ -9794,7 +10090,7 @@
       <c r="B13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="183"/>
+      <c r="C13" s="182"/>
       <c r="D13" s="25" t="s">
         <v>67</v>
       </c>
@@ -9806,7 +10102,7 @@
       <c r="B14" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="183"/>
+      <c r="C14" s="182"/>
       <c r="D14" s="24">
         <v>0</v>
       </c>
@@ -9818,7 +10114,7 @@
       <c r="B15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="183"/>
+      <c r="C15" s="182"/>
       <c r="D15" s="24" t="s">
         <v>29</v>
       </c>
@@ -9830,7 +10126,7 @@
       <c r="B16" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="182"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -9840,7 +10136,7 @@
       <c r="B17" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="183"/>
+      <c r="C17" s="182"/>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -9850,7 +10146,7 @@
       <c r="B18" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="183"/>
+      <c r="C18" s="182"/>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9860,7 +10156,7 @@
       <c r="B19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="183"/>
+      <c r="C19" s="182"/>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -9870,7 +10166,7 @@
       <c r="B20" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="183"/>
+      <c r="C20" s="182"/>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -9880,7 +10176,7 @@
       <c r="B21" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="183"/>
+      <c r="C21" s="182"/>
       <c r="D21" s="24">
         <v>1</v>
       </c>
@@ -9892,7 +10188,7 @@
       <c r="B22" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="183"/>
+      <c r="C22" s="182"/>
       <c r="D22" s="24"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -9902,7 +10198,7 @@
       <c r="B23" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="183"/>
+      <c r="C23" s="182"/>
       <c r="D23" s="24"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -9912,7 +10208,7 @@
       <c r="B24" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="183"/>
+      <c r="C24" s="182"/>
       <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -9922,7 +10218,7 @@
       <c r="B25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="182"/>
+      <c r="C25" s="181"/>
       <c r="D25" s="23"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -9932,7 +10228,7 @@
       <c r="B26" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="183"/>
+      <c r="C26" s="182"/>
       <c r="D26" s="24">
         <v>100</v>
       </c>
@@ -9944,7 +10240,7 @@
       <c r="B27" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="183"/>
+      <c r="C27" s="182"/>
       <c r="D27" s="24">
         <v>65535</v>
       </c>
@@ -9956,7 +10252,7 @@
       <c r="B28" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="183"/>
+      <c r="C28" s="182"/>
       <c r="D28" s="24">
         <v>10</v>
       </c>
@@ -9968,7 +10264,7 @@
       <c r="B29" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="183"/>
+      <c r="C29" s="182"/>
       <c r="D29" s="24">
         <v>0.1</v>
       </c>
@@ -9980,7 +10276,7 @@
       <c r="B30" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="183"/>
+      <c r="C30" s="182"/>
       <c r="D30" s="24"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -9990,7 +10286,7 @@
       <c r="B31" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C31" s="183"/>
+      <c r="C31" s="182"/>
       <c r="D31" s="24"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -10000,7 +10296,7 @@
       <c r="B32" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="183"/>
+      <c r="C32" s="182"/>
       <c r="D32" s="24"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -10010,7 +10306,7 @@
       <c r="B33" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C33" s="182"/>
+      <c r="C33" s="181"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -10020,7 +10316,7 @@
       <c r="B34" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="183"/>
+      <c r="C34" s="182"/>
       <c r="D34" s="24"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -10030,7 +10326,7 @@
       <c r="B35" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C35" s="183"/>
+      <c r="C35" s="182"/>
       <c r="D35" s="24">
         <v>0.02</v>
       </c>
@@ -10042,7 +10338,7 @@
       <c r="B36" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C36" s="183"/>
+      <c r="C36" s="182"/>
       <c r="D36" s="24"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -10052,7 +10348,7 @@
       <c r="B37" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="183"/>
+      <c r="C37" s="182"/>
       <c r="D37" s="24"/>
     </row>
     <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
@@ -10062,7 +10358,7 @@
       <c r="B38" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="C38" s="183"/>
+      <c r="C38" s="182"/>
       <c r="D38" s="24"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -10072,7 +10368,7 @@
       <c r="B39" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="183"/>
+      <c r="C39" s="182"/>
       <c r="D39" s="25" t="s">
         <v>70</v>
       </c>
@@ -10084,7 +10380,7 @@
       <c r="B40" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="183"/>
+      <c r="C40" s="182"/>
       <c r="D40" s="25">
         <v>0</v>
       </c>
@@ -10096,7 +10392,7 @@
       <c r="B41" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C41" s="182"/>
+      <c r="C41" s="181"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -10104,7 +10400,7 @@
         <v>127</v>
       </c>
       <c r="B42" s="15"/>
-      <c r="C42" s="183"/>
+      <c r="C42" s="182"/>
       <c r="D42" s="24"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -10114,7 +10410,7 @@
       <c r="B43" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="183"/>
+      <c r="C43" s="182"/>
       <c r="D43" s="24"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -10124,7 +10420,7 @@
       <c r="B44" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="183"/>
+      <c r="C44" s="182"/>
       <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -10134,7 +10430,7 @@
       <c r="B45" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="C45" s="183"/>
+      <c r="C45" s="182"/>
       <c r="D45" s="24"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -10144,7 +10440,7 @@
       <c r="B46" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="C46" s="183"/>
+      <c r="C46" s="182"/>
       <c r="D46" s="24"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -10154,7 +10450,7 @@
       <c r="B47" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="C47" s="183"/>
+      <c r="C47" s="182"/>
       <c r="D47" s="24"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -10164,7 +10460,7 @@
       <c r="B48" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C48" s="183"/>
+      <c r="C48" s="182"/>
       <c r="D48" s="24"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -10174,7 +10470,7 @@
       <c r="B49" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="183"/>
+      <c r="C49" s="182"/>
       <c r="D49" s="24"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -10184,7 +10480,7 @@
       <c r="B50" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="182"/>
       <c r="D50" s="24"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -10194,7 +10490,7 @@
       <c r="B51" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="C51" s="183"/>
+      <c r="C51" s="182"/>
       <c r="D51" s="24"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -10204,7 +10500,7 @@
       <c r="B52" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="C52" s="183"/>
+      <c r="C52" s="182"/>
       <c r="D52" s="24"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -10214,7 +10510,7 @@
       <c r="B53" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="183"/>
+      <c r="C53" s="182"/>
       <c r="D53" s="24">
         <v>1</v>
       </c>
@@ -10226,7 +10522,7 @@
       <c r="B54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="183"/>
+      <c r="C54" s="182"/>
       <c r="D54" s="24">
         <v>1</v>
       </c>
@@ -10238,7 +10534,7 @@
       <c r="B55" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="183"/>
+      <c r="C55" s="182"/>
       <c r="D55" s="24">
         <v>1</v>
       </c>
@@ -10250,7 +10546,7 @@
       <c r="B56" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="183"/>
+      <c r="C56" s="182"/>
       <c r="D56" s="24">
         <v>1</v>
       </c>
@@ -10262,7 +10558,7 @@
       <c r="B57" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="183"/>
+      <c r="C57" s="182"/>
       <c r="D57" s="24">
         <v>1</v>
       </c>
@@ -10274,7 +10570,7 @@
       <c r="B58" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="183"/>
+      <c r="C58" s="182"/>
       <c r="D58" s="24">
         <v>0</v>
       </c>
@@ -10286,7 +10582,7 @@
       <c r="B59" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C59" s="183"/>
+      <c r="C59" s="182"/>
       <c r="D59" s="24"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -10296,7 +10592,7 @@
       <c r="B60" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C60" s="183"/>
+      <c r="C60" s="182"/>
       <c r="D60" s="24"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -10306,8 +10602,8 @@
       <c r="B61" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C61" s="182"/>
-      <c r="D61" s="181"/>
+      <c r="C61" s="181"/>
+      <c r="D61" s="180"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
@@ -10316,7 +10612,7 @@
       <c r="B62" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="C62" s="183"/>
+      <c r="C62" s="182"/>
       <c r="D62" s="26">
         <v>0</v>
       </c>
@@ -10325,9 +10621,9 @@
       <c r="A63" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="B63" s="180"/>
-      <c r="C63" s="182"/>
-      <c r="D63" s="181"/>
+      <c r="B63" s="179"/>
+      <c r="C63" s="181"/>
+      <c r="D63" s="180"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
@@ -10336,7 +10632,7 @@
       <c r="B64" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C64" s="183"/>
+      <c r="C64" s="182"/>
       <c r="D64" s="26">
         <v>0</v>
       </c>
@@ -10348,8 +10644,8 @@
       <c r="B65" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="182"/>
-      <c r="D65" s="181"/>
+      <c r="C65" s="181"/>
+      <c r="D65" s="180"/>
     </row>
     <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
@@ -10358,7 +10654,7 @@
       <c r="B66" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="184"/>
+      <c r="C66" s="183"/>
       <c r="D66" s="29">
         <v>0</v>
       </c>
@@ -10398,23 +10694,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="284" t="s">
+      <c r="A1" s="306" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="285"/>
-      <c r="C1" s="285"/>
-      <c r="D1" s="285"/>
-      <c r="E1" s="285"/>
-      <c r="F1" s="285"/>
-      <c r="G1" s="285"/>
-      <c r="H1" s="285"/>
-      <c r="I1" s="285"/>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
+      <c r="B1" s="307"/>
+      <c r="C1" s="307"/>
+      <c r="D1" s="307"/>
+      <c r="E1" s="307"/>
+      <c r="F1" s="307"/>
+      <c r="G1" s="307"/>
+      <c r="H1" s="307"/>
+      <c r="I1" s="307"/>
+      <c r="J1" s="307"/>
+      <c r="K1" s="307"/>
+      <c r="L1" s="307"/>
+      <c r="M1" s="307"/>
+      <c r="N1" s="307"/>
+      <c r="O1" s="307"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -10432,17 +10728,17 @@
       <c r="M2" s="35"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="37"/>
@@ -10633,21 +10929,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="281" t="s">
+      <c r="B19" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="282"/>
-      <c r="D19" s="282"/>
-      <c r="E19" s="282"/>
-      <c r="F19" s="282"/>
-      <c r="G19" s="282"/>
-      <c r="H19" s="282"/>
-      <c r="I19" s="282"/>
-      <c r="J19" s="282"/>
-      <c r="K19" s="282"/>
-      <c r="L19" s="282"/>
-      <c r="M19" s="282"/>
-      <c r="N19" s="283"/>
+      <c r="C19" s="304"/>
+      <c r="D19" s="304"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="304"/>
+      <c r="G19" s="304"/>
+      <c r="H19" s="304"/>
+      <c r="I19" s="304"/>
+      <c r="J19" s="304"/>
+      <c r="K19" s="304"/>
+      <c r="L19" s="304"/>
+      <c r="M19" s="304"/>
+      <c r="N19" s="305"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="37"/>
@@ -10849,27 +11145,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="289" t="s">
+      <c r="A1" s="311" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
-      <c r="F1" s="290"/>
-      <c r="G1" s="290"/>
-      <c r="H1" s="290"/>
-      <c r="I1" s="290"/>
-      <c r="J1" s="290"/>
-      <c r="K1" s="290"/>
-      <c r="L1" s="290"/>
-      <c r="M1" s="290"/>
-      <c r="N1" s="290"/>
-      <c r="O1" s="290"/>
-      <c r="P1" s="290"/>
-      <c r="Q1" s="290"/>
-      <c r="R1" s="290"/>
-      <c r="S1" s="290"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
+      <c r="G1" s="312"/>
+      <c r="H1" s="312"/>
+      <c r="I1" s="312"/>
+      <c r="J1" s="312"/>
+      <c r="K1" s="312"/>
+      <c r="L1" s="312"/>
+      <c r="M1" s="312"/>
+      <c r="N1" s="312"/>
+      <c r="O1" s="312"/>
+      <c r="P1" s="312"/>
+      <c r="Q1" s="312"/>
+      <c r="R1" s="312"/>
+      <c r="S1" s="312"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
@@ -10883,26 +11179,26 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="282"/>
-      <c r="I3" s="282"/>
-      <c r="J3" s="283"/>
-      <c r="L3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="304"/>
+      <c r="J3" s="305"/>
+      <c r="L3" s="308" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="287"/>
-      <c r="N3" s="287"/>
-      <c r="O3" s="287"/>
-      <c r="P3" s="287"/>
-      <c r="Q3" s="287"/>
-      <c r="R3" s="288"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="309"/>
+      <c r="O3" s="309"/>
+      <c r="P3" s="309"/>
+      <c r="Q3" s="309"/>
+      <c r="R3" s="310"/>
       <c r="S3" s="36"/>
       <c r="T3" s="36"/>
     </row>
@@ -11133,23 +11429,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="291" t="s">
+      <c r="A1" s="313" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="293"/>
+      <c r="B1" s="314"/>
+      <c r="C1" s="314"/>
+      <c r="D1" s="314"/>
+      <c r="E1" s="314"/>
+      <c r="F1" s="314"/>
+      <c r="G1" s="314"/>
+      <c r="H1" s="314"/>
+      <c r="I1" s="314"/>
+      <c r="J1" s="314"/>
+      <c r="K1" s="314"/>
+      <c r="L1" s="314"/>
+      <c r="M1" s="314"/>
+      <c r="N1" s="314"/>
+      <c r="O1" s="315"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11162,22 +11458,22 @@
       <c r="H2" s="52"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="281" t="s">
+      <c r="B3" s="303" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="282"/>
-      <c r="D3" s="282"/>
-      <c r="E3" s="282"/>
-      <c r="F3" s="282"/>
-      <c r="G3" s="282"/>
-      <c r="H3" s="283"/>
-      <c r="J3" s="286" t="s">
+      <c r="C3" s="304"/>
+      <c r="D3" s="304"/>
+      <c r="E3" s="304"/>
+      <c r="F3" s="304"/>
+      <c r="G3" s="304"/>
+      <c r="H3" s="305"/>
+      <c r="J3" s="308" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="287"/>
-      <c r="L3" s="287"/>
-      <c r="M3" s="287"/>
-      <c r="N3" s="288"/>
+      <c r="K3" s="309"/>
+      <c r="L3" s="309"/>
+      <c r="M3" s="309"/>
+      <c r="N3" s="310"/>
       <c r="O3" s="36"/>
       <c r="P3" s="36"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -17,11 +17,21 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="14" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="I3010I">0</definedName>
+    <definedName name="I3535I">1</definedName>
+    <definedName name="I3903I">0</definedName>
+    <definedName name="I4018I">0</definedName>
+    <definedName name="I4619I">0</definedName>
+    <definedName name="I4922I">0</definedName>
+    <definedName name="I7577I">1</definedName>
+    <definedName name="I896I">0</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="538">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2503,14 +2513,141 @@
       <t>: Defaults to FSC</t>
     </r>
   </si>
+  <si>
+    <t>flow.maxEvents</t>
+  </si>
+  <si>
+    <t>Drop events above this count to avoid memory issues</t>
+  </si>
+  <si>
+    <t>flow.onThreshold</t>
+  </si>
+  <si>
+    <t>Threshold to differentiate between on and off events. Points with values equal to threshold are placed in the on group.</t>
+  </si>
+  <si>
+    <t>flow.pointCloudFileType</t>
+  </si>
+  <si>
+    <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
+  </si>
+  <si>
+    <t>flow.defaultCSVReadHeader</t>
+  </si>
+  <si>
+    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
+  </si>
+  <si>
+    <t>flow.smallFileWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning that event count is unusually low</t>
+  </si>
+  <si>
+    <t>flow.gateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.preGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning pre-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.postGateDiscardsWarning</t>
+  </si>
+  <si>
+    <t>Threshold for warning post-gates are discarding too high a fraction of events</t>
+  </si>
+  <si>
+    <t>flow.eventRatioWarning</t>
+  </si>
+  <si>
+    <t>Generic threshold for warning about different event counts.</t>
+  </si>
+  <si>
+    <t>flow.replicateEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in replicate event counts.</t>
+  </si>
+  <si>
+    <t>flow.conditionEventRatioWarning</t>
+  </si>
+  <si>
+    <t>Threshold to warn on variation in condition event counts.</t>
+  </si>
+  <si>
+    <t>sizebeads</t>
+  </si>
+  <si>
+    <t>Settings controlling the interpretation of size calibration beads</t>
+  </si>
+  <si>
+    <t>sizebeads.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for finding size bead peaks</t>
+  </si>
+  <si>
+    <t>sizebeads.forceFirstPeak</t>
+  </si>
+  <si>
+    <t>If set to N, lowest observed size bead peak is forced to be interpreted as Nth peak</t>
+  </si>
+  <si>
+    <t>sizebeads.plot</t>
+  </si>
+  <si>
+    <t>When true, make diagnostic plots while computing size bead unit calibration</t>
+  </si>
+  <si>
+    <t>sizebeads.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, size bead unit calibration plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>sizebeads.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for size bead unit calibration figures</t>
+  </si>
+  <si>
+    <t>Settings controlling excel wrapper preferences</t>
+  </si>
+  <si>
+    <t>gating</t>
+  </si>
+  <si>
+    <t>General settings for GMM Gating</t>
+  </si>
+  <si>
+    <t>gating.fixedSeed</t>
+  </si>
+  <si>
+    <t>When true, controls the random seed for GMM Gating</t>
+  </si>
+  <si>
+    <t>Min Valid a.u.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2815,7 +2952,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -3411,29 +3548,47 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="349">
+  <cellXfs count="359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -3449,7 +3604,7 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -3460,28 +3615,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3502,62 +3654,62 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
@@ -3568,20 +3720,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3590,32 +3742,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3633,19 +3785,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3654,43 +3806,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3708,83 +3860,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3799,37 +3951,37 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -3838,41 +3990,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3887,23 +4039,20 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3923,47 +4072,47 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
@@ -3973,34 +4122,235 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4011,145 +4361,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4170,22 +4424,71 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4197,241 +4500,128 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4522,7 +4712,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4588,7 +4778,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4659,7 +4849,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4730,7 +4920,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4796,7 +4986,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4867,7 +5057,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4933,7 +5123,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5268,587 +5458,601 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="154" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="85" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="85" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="85" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="140" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="85" customWidth="1"/>
-    <col min="9" max="9" width="20" style="85" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="85" customWidth="1"/>
-    <col min="11" max="11" width="6" style="85" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="85" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="85"/>
+    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
+    <col min="9" max="9" width="20" style="84" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
+    <col min="11" max="11" width="6" style="84" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="84"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="259" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="222"/>
+      <c r="B1" s="260"/>
+      <c r="C1" s="260"/>
+      <c r="D1" s="260"/>
+      <c r="E1" s="260"/>
+      <c r="F1" s="260"/>
+      <c r="G1" s="260"/>
+      <c r="H1" s="260"/>
+      <c r="I1" s="260"/>
+      <c r="J1" s="260"/>
+      <c r="K1" s="261"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="86"/>
+      <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="236" t="s">
+      <c r="A3" s="238" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="237"/>
+      <c r="B3" s="239"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="234" t="s">
+      <c r="A4" s="252" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="235"/>
+      <c r="B4" s="253"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="254" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="251"/>
+      <c r="B5" s="255"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="86"/>
+      <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="236" t="s">
+      <c r="A7" s="238" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="238"/>
-      <c r="C7" s="238"/>
-      <c r="D7" s="238"/>
-      <c r="E7" s="238"/>
-      <c r="F7" s="238"/>
-      <c r="G7" s="238"/>
-      <c r="H7" s="238"/>
-      <c r="I7" s="238"/>
-      <c r="J7" s="238"/>
-      <c r="K7" s="237"/>
+      <c r="B7" s="240"/>
+      <c r="C7" s="240"/>
+      <c r="D7" s="240"/>
+      <c r="E7" s="240"/>
+      <c r="F7" s="240"/>
+      <c r="G7" s="240"/>
+      <c r="H7" s="240"/>
+      <c r="I7" s="240"/>
+      <c r="J7" s="240"/>
+      <c r="K7" s="239"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="262" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="224"/>
-      <c r="C8" s="224"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="224"/>
-      <c r="I8" s="224"/>
-      <c r="J8" s="224"/>
-      <c r="K8" s="225"/>
+      <c r="B8" s="263"/>
+      <c r="C8" s="263"/>
+      <c r="D8" s="263"/>
+      <c r="E8" s="263"/>
+      <c r="F8" s="263"/>
+      <c r="G8" s="263"/>
+      <c r="H8" s="263"/>
+      <c r="I8" s="263"/>
+      <c r="J8" s="263"/>
+      <c r="K8" s="264"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="226"/>
-      <c r="B9" s="227"/>
-      <c r="C9" s="227"/>
-      <c r="D9" s="227"/>
-      <c r="E9" s="227"/>
-      <c r="F9" s="227"/>
-      <c r="G9" s="227"/>
-      <c r="H9" s="227"/>
-      <c r="I9" s="227"/>
-      <c r="J9" s="227"/>
-      <c r="K9" s="228"/>
+      <c r="A9" s="265"/>
+      <c r="B9" s="266"/>
+      <c r="C9" s="266"/>
+      <c r="D9" s="266"/>
+      <c r="E9" s="266"/>
+      <c r="F9" s="266"/>
+      <c r="G9" s="266"/>
+      <c r="H9" s="266"/>
+      <c r="I9" s="266"/>
+      <c r="J9" s="266"/>
+      <c r="K9" s="267"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="155"/>
-      <c r="B10" s="87"/>
-      <c r="C10" s="87"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="141"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="239" t="s">
+      <c r="A11" s="241" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="240"/>
-      <c r="C11" s="240"/>
-      <c r="D11" s="241"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="141"/>
+      <c r="B11" s="242"/>
+      <c r="C11" s="242"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="242" t="s">
+      <c r="A12" s="244" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="243"/>
-      <c r="C12" s="244" t="s">
+      <c r="B12" s="245"/>
+      <c r="C12" s="246" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="245"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="141"/>
+      <c r="D12" s="247"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="247"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="249"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="141"/>
+      <c r="A13" s="248"/>
+      <c r="B13" s="249"/>
+      <c r="C13" s="250"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="239" t="s">
+      <c r="A15" s="241" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="241"/>
-      <c r="E15" s="239" t="s">
+      <c r="B15" s="243"/>
+      <c r="E15" s="241" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="240"/>
-      <c r="G15" s="240"/>
-      <c r="H15" s="240"/>
-      <c r="I15" s="241"/>
+      <c r="F15" s="242"/>
+      <c r="G15" s="242"/>
+      <c r="H15" s="242"/>
+      <c r="I15" s="243"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="234" t="s">
+      <c r="A16" s="252" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="235"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="229" t="s">
+      <c r="B16" s="253"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="268" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="230"/>
-      <c r="H16" s="230"/>
-      <c r="I16" s="231"/>
+      <c r="F16" s="269"/>
+      <c r="G16" s="269"/>
+      <c r="H16" s="269"/>
+      <c r="I16" s="270"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="156" t="s">
+      <c r="A17" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="114" t="s">
+      <c r="B17" s="113" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="89"/>
-      <c r="E17" s="232" t="s">
+      <c r="C17" s="88"/>
+      <c r="E17" s="271" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="233"/>
-      <c r="G17" s="200" t="s">
+      <c r="F17" s="272"/>
+      <c r="G17" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="200" t="s">
+      <c r="H17" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="189" t="s">
+      <c r="I17" s="187" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="81"/>
+      <c r="J17" s="80"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="157" t="s">
+      <c r="A18" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="90" t="s">
+      <c r="B18" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="E18" s="83">
+      <c r="C18" s="88"/>
+      <c r="E18" s="82">
         <v>1</v>
       </c>
-      <c r="F18" s="93" t="s">
+      <c r="F18" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33" t="s">
+      <c r="G18" s="32"/>
+      <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="208" t="s">
+      <c r="I18" s="256" t="s">
         <v>475</v>
       </c>
-      <c r="J18" s="81"/>
+      <c r="J18" s="80"/>
     </row>
     <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="158" t="s">
+      <c r="A19" s="157" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="115"/>
-      <c r="C19" s="89"/>
-      <c r="E19" s="83">
+      <c r="B19" s="114"/>
+      <c r="C19" s="88"/>
+      <c r="E19" s="82">
         <v>2</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="74" t="s">
+      <c r="H19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="208"/>
-      <c r="J19" s="81"/>
+      <c r="I19" s="256"/>
+      <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="158" t="s">
+      <c r="A20" s="157" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="115"/>
-      <c r="C20" s="91"/>
-      <c r="E20" s="84">
+      <c r="B20" s="114"/>
+      <c r="C20" s="90"/>
+      <c r="E20" s="83">
         <v>3</v>
       </c>
-      <c r="F20" s="139" t="s">
+      <c r="F20" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="209"/>
-      <c r="J20" s="81"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="257"/>
+      <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="158" t="s">
+      <c r="A21" s="157" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="115"/>
-      <c r="C21" s="32"/>
-      <c r="I21" s="81"/>
-      <c r="J21" s="81"/>
+      <c r="B21" s="114"/>
+      <c r="C21" s="31"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="159"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="89"/>
-      <c r="J22" s="81"/>
+      <c r="A22" s="158"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="88"/>
+      <c r="J22" s="80"/>
     </row>
     <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="160"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="91"/>
-      <c r="E23" s="210" t="s">
+      <c r="A23" s="159"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="90"/>
+      <c r="E23" s="236" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="212"/>
+      <c r="F23" s="258"/>
+      <c r="G23" s="258"/>
+      <c r="H23" s="258"/>
+      <c r="I23" s="237"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="210" t="s">
+      <c r="A24" s="236" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="212"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="216" t="s">
+      <c r="B24" s="237"/>
+      <c r="C24" s="31"/>
+      <c r="E24" s="276" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="217"/>
-      <c r="G24" s="200" t="s">
+      <c r="F24" s="277"/>
+      <c r="G24" s="198" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="200" t="s">
+      <c r="H24" s="198" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="189" t="s">
+      <c r="I24" s="187" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="156" t="s">
+      <c r="A25" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="113" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="E25" s="83">
+      <c r="C25" s="31"/>
+      <c r="E25" s="82">
         <v>1</v>
       </c>
-      <c r="F25" s="93" t="s">
+      <c r="F25" s="92" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33" t="s">
+      <c r="G25" s="32"/>
+      <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="213" t="s">
+      <c r="I25" s="273" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="157" t="s">
+      <c r="A26" s="156" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="89"/>
-      <c r="E26" s="83">
+      <c r="C26" s="88"/>
+      <c r="E26" s="82">
         <v>2</v>
       </c>
-      <c r="F26" s="93" t="s">
+      <c r="F26" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="74" t="s">
+      <c r="H26" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="214"/>
+      <c r="I26" s="274"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="158" t="s">
+      <c r="A27" s="157" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="115"/>
-      <c r="C27" s="91"/>
-      <c r="E27" s="84">
+      <c r="B27" s="114"/>
+      <c r="C27" s="90"/>
+      <c r="E27" s="83">
         <v>3</v>
       </c>
-      <c r="F27" s="139" t="s">
+      <c r="F27" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="215"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="275"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="158" t="s">
+      <c r="A28" s="157" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="115"/>
-      <c r="C28" s="32"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="94"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="114"/>
+      <c r="C28" s="31"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="80"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="158"/>
-      <c r="B29" s="115"/>
-      <c r="C29" s="32"/>
-      <c r="I29" s="81"/>
+      <c r="A29" s="157"/>
+      <c r="B29" s="114"/>
+      <c r="C29" s="31"/>
+      <c r="I29" s="80"/>
     </row>
     <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="159"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="89"/>
-      <c r="E30" s="210" t="s">
+      <c r="A30" s="158"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="88"/>
+      <c r="E30" s="236" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="211"/>
-      <c r="G30" s="211"/>
-      <c r="H30" s="211"/>
-      <c r="I30" s="212"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="237"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="160"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="91"/>
-      <c r="E31" s="218" t="s">
+      <c r="A31" s="159"/>
+      <c r="B31" s="90"/>
+      <c r="C31" s="90"/>
+      <c r="E31" s="278" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="219"/>
-      <c r="G31" s="198" t="s">
+      <c r="F31" s="279"/>
+      <c r="G31" s="196" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="198" t="s">
+      <c r="H31" s="196" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="189" t="s">
+      <c r="I31" s="187" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="210" t="s">
+      <c r="A32" s="236" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="212"/>
-      <c r="C32" s="32"/>
-      <c r="E32" s="83">
+      <c r="B32" s="237"/>
+      <c r="C32" s="31"/>
+      <c r="E32" s="82">
         <v>1</v>
       </c>
-      <c r="F32" s="93" t="s">
+      <c r="F32" s="92" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="33"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="208"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="256"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="155" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="114" t="s">
+      <c r="B33" s="113" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="89"/>
-      <c r="E33" s="83">
+      <c r="C33" s="88"/>
+      <c r="E33" s="82">
         <v>2</v>
       </c>
-      <c r="F33" s="93" t="s">
+      <c r="F33" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="33"/>
-      <c r="I33" s="208"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="256"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="156" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="89" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>3</v>
       </c>
-      <c r="F34" s="93"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="74"/>
-      <c r="I34" s="208"/>
+      <c r="F34" s="92"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="256"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="158" t="s">
+      <c r="A35" s="157" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="E35" s="83">
+      <c r="B35" s="114"/>
+      <c r="E35" s="82">
         <v>4</v>
       </c>
-      <c r="F35" s="93"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="208"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="256"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="158" t="s">
+      <c r="A36" s="157" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="115"/>
-      <c r="E36" s="83">
+      <c r="B36" s="114"/>
+      <c r="E36" s="82">
         <v>5</v>
       </c>
-      <c r="F36" s="93"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="208"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="256"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="158" t="s">
+      <c r="A37" s="157" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="E37" s="84">
+      <c r="B37" s="114"/>
+      <c r="E37" s="83">
         <v>6</v>
       </c>
-      <c r="F37" s="139"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="209"/>
+      <c r="F37" s="138"/>
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="257"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="159" t="s">
+      <c r="A38" s="158" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="116"/>
+      <c r="B38" s="115"/>
     </row>
     <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="161"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="160"/>
+      <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="210" t="s">
+      <c r="E40" s="236" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="211"/>
-      <c r="G40" s="211"/>
-      <c r="H40" s="211"/>
-      <c r="I40" s="212"/>
+      <c r="F40" s="258"/>
+      <c r="G40" s="258"/>
+      <c r="H40" s="258"/>
+      <c r="I40" s="237"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="216"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="82" t="s">
+      <c r="E41" s="276"/>
+      <c r="F41" s="277"/>
+      <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="82" t="s">
+      <c r="H41" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="189" t="s">
+      <c r="I41" s="187" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E42" s="83">
+      <c r="E42" s="82">
         <v>1</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="74"/>
-      <c r="I42" s="208"/>
+      <c r="F42" s="92"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="256"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E43" s="83">
+      <c r="E43" s="82">
         <v>2</v>
       </c>
-      <c r="F43" s="93"/>
-      <c r="G43" s="33"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="208"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="256"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E44" s="83">
+      <c r="E44" s="82">
         <v>3</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="208"/>
+      <c r="F44" s="92"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="256"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E45" s="83">
+      <c r="E45" s="82">
         <v>4</v>
       </c>
-      <c r="F45" s="93"/>
-      <c r="G45" s="33"/>
-      <c r="H45" s="33"/>
-      <c r="I45" s="208"/>
+      <c r="F45" s="92"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="256"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E46" s="83">
+      <c r="E46" s="82">
         <v>5</v>
       </c>
-      <c r="F46" s="93"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="208"/>
+      <c r="F46" s="92"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="256"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="84">
+      <c r="E47" s="83">
         <v>6</v>
       </c>
-      <c r="F47" s="139"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="209"/>
+      <c r="F47" s="138"/>
+      <c r="G47" s="70"/>
+      <c r="H47" s="70"/>
+      <c r="I47" s="257"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -5864,20 +6068,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5889,10 +6079,10 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5917,964 +6107,972 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="254" t="s">
+      <c r="A1" s="282" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="256"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="283"/>
+      <c r="H1" s="283"/>
+      <c r="I1" s="283"/>
+      <c r="J1" s="284"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="257" t="s">
+      <c r="A2" s="285" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
-      <c r="E2" s="258"/>
-      <c r="F2" s="258"/>
-      <c r="G2" s="258"/>
-      <c r="H2" s="258"/>
-      <c r="I2" s="258"/>
-      <c r="J2" s="259"/>
-      <c r="K2" s="79"/>
-      <c r="L2" s="79"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="286"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
+      <c r="E2" s="286"/>
+      <c r="F2" s="286"/>
+      <c r="G2" s="286"/>
+      <c r="H2" s="286"/>
+      <c r="I2" s="286"/>
+      <c r="J2" s="287"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="173" t="s">
+      <c r="A3" s="172" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="260" t="s">
+      <c r="C3" s="288" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="261"/>
-      <c r="E3" s="261"/>
-      <c r="F3" s="261"/>
-      <c r="G3" s="262"/>
-      <c r="H3" s="176" t="s">
+      <c r="D3" s="289"/>
+      <c r="E3" s="289"/>
+      <c r="F3" s="289"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="175" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="176" t="s">
+      <c r="I3" s="175" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="177" t="s">
+      <c r="J3" s="176" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
+      <c r="K3" s="78"/>
+      <c r="L3" s="78"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="137" t="s">
+      <c r="A4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="138" t="s">
+      <c r="B4" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="138" t="s">
+      <c r="C4" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="138" t="s">
+      <c r="D4" s="137" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="138" t="s">
+      <c r="E4" s="137" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="138" t="s">
+      <c r="F4" s="137" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="138" t="s">
+      <c r="G4" s="137" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="137" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="193" t="s">
+      <c r="J4" s="191" t="s">
         <v>395</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="106">
         <v>1</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="77" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="108">
+      <c r="C5" s="107">
         <v>0.1</v>
       </c>
-      <c r="D5" s="108" t="s">
+      <c r="D5" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="108" t="s">
+      <c r="E5" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="108" t="s">
+      <c r="F5" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="108">
+      <c r="G5" s="107">
         <v>0.1</v>
       </c>
-      <c r="H5" s="109">
+      <c r="H5" s="108">
         <v>1</v>
       </c>
-      <c r="I5" s="110" t="s">
+      <c r="I5" s="109" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="111"/>
-      <c r="K5" s="199" t="s">
+      <c r="J5" s="110"/>
+      <c r="K5" s="197" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="107">
+      <c r="A6" s="106">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="77" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="108">
+      <c r="C6" s="107">
         <v>0.2</v>
       </c>
-      <c r="D6" s="108" t="s">
+      <c r="D6" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="108" t="s">
+      <c r="E6" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="108" t="s">
+      <c r="F6" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="107">
         <v>0.2</v>
       </c>
-      <c r="H6" s="109">
+      <c r="H6" s="108">
         <v>1</v>
       </c>
-      <c r="I6" s="110" t="s">
+      <c r="I6" s="109" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="111"/>
-      <c r="K6" s="199" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="197" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="107">
+      <c r="A7" s="106">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="108">
+      <c r="C7" s="107">
         <v>0.5</v>
       </c>
-      <c r="D7" s="108" t="s">
+      <c r="D7" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="108" t="s">
+      <c r="E7" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="108"/>
-      <c r="G7" s="108"/>
-      <c r="H7" s="109">
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="108">
         <v>1</v>
       </c>
-      <c r="I7" s="110" t="s">
+      <c r="I7" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="111"/>
-      <c r="K7" s="199" t="s">
+      <c r="J7" s="110"/>
+      <c r="K7" s="197" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="106">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="108">
+      <c r="C8" s="107">
         <v>1</v>
       </c>
-      <c r="D8" s="108" t="s">
+      <c r="D8" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="108" t="s">
+      <c r="E8" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="108" t="s">
+      <c r="F8" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="107">
         <v>0.1</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="108">
         <v>1</v>
       </c>
-      <c r="I8" s="110" t="s">
+      <c r="I8" s="109" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="111"/>
-      <c r="K8" s="199" t="s">
+      <c r="J8" s="110"/>
+      <c r="K8" s="197" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="106">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="108">
+      <c r="C9" s="107">
         <v>2</v>
       </c>
-      <c r="D9" s="108" t="s">
+      <c r="D9" s="107" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108" t="s">
+      <c r="E9" s="107"/>
+      <c r="F9" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="107">
         <v>0.2</v>
       </c>
-      <c r="H9" s="109">
+      <c r="H9" s="108">
         <v>1</v>
       </c>
-      <c r="I9" s="110" t="s">
+      <c r="I9" s="109" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="199" t="s">
+      <c r="J9" s="110"/>
+      <c r="K9" s="197" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="107">
+      <c r="A10" s="106">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="108">
+      <c r="C10" s="107">
         <v>5</v>
       </c>
-      <c r="D10" s="108" t="s">
+      <c r="D10" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="108" t="s">
+      <c r="E10" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="108"/>
-      <c r="G10" s="108"/>
-      <c r="H10" s="109">
+      <c r="F10" s="107"/>
+      <c r="G10" s="107"/>
+      <c r="H10" s="108">
         <v>1</v>
       </c>
-      <c r="I10" s="110" t="s">
+      <c r="I10" s="109" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="199" t="s">
+      <c r="J10" s="110"/>
+      <c r="K10" s="197" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="107">
+      <c r="A11" s="106">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="108">
+      <c r="C11" s="107">
         <v>10</v>
       </c>
-      <c r="D11" s="108" t="s">
+      <c r="D11" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E11" s="108" t="s">
+      <c r="E11" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="109">
+      <c r="F11" s="107"/>
+      <c r="G11" s="107"/>
+      <c r="H11" s="108">
         <v>1</v>
       </c>
-      <c r="I11" s="110" t="s">
+      <c r="I11" s="109" t="s">
         <v>202</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="199" t="s">
+      <c r="J11" s="110"/>
+      <c r="K11" s="197" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="106">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B12" s="78" t="s">
+      <c r="B12" s="77" t="s">
         <v>182</v>
       </c>
-      <c r="C12" s="108">
+      <c r="C12" s="107">
         <v>20</v>
       </c>
-      <c r="D12" s="108" t="s">
+      <c r="D12" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E12" s="108" t="s">
+      <c r="E12" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="109">
+      <c r="F12" s="107"/>
+      <c r="G12" s="107"/>
+      <c r="H12" s="108">
         <v>1</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="I12" s="109" t="s">
         <v>203</v>
       </c>
-      <c r="J12" s="111"/>
-      <c r="K12" s="199" t="s">
+      <c r="J12" s="110"/>
+      <c r="K12" s="197" t="s">
         <v>460</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="106">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="78" t="s">
+      <c r="B13" s="77" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="108">
+      <c r="C13" s="107">
         <v>50</v>
       </c>
-      <c r="D13" s="108" t="s">
+      <c r="D13" s="107" t="s">
         <v>283</v>
       </c>
-      <c r="E13" s="108" t="s">
+      <c r="E13" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F13" s="108"/>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109">
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108">
         <v>1</v>
       </c>
-      <c r="I13" s="110" t="s">
+      <c r="I13" s="109" t="s">
         <v>204</v>
       </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="199" t="s">
+      <c r="J13" s="110"/>
+      <c r="K13" s="197" t="s">
         <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="107">
+      <c r="A14" s="106">
         <f>A13+1</f>
         <v>10</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="108">
+      <c r="C14" s="107">
         <v>100</v>
       </c>
-      <c r="D14" s="108" t="s">
+      <c r="D14" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108" t="s">
+      <c r="E14" s="107"/>
+      <c r="F14" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="G14" s="108">
+      <c r="G14" s="107">
         <v>100</v>
       </c>
-      <c r="H14" s="109">
+      <c r="H14" s="108">
         <v>1</v>
       </c>
-      <c r="I14" s="110" t="s">
+      <c r="I14" s="109" t="s">
         <v>205</v>
       </c>
-      <c r="J14" s="111"/>
-      <c r="K14" s="199" t="s">
+      <c r="J14" s="110"/>
+      <c r="K14" s="197" t="s">
         <v>462</v>
       </c>
     </row>
     <row r="15" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="107">
+      <c r="A15" s="106">
         <f t="shared" ref="A15:A25" si="1">A14+1</f>
         <v>11</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>185</v>
       </c>
-      <c r="C15" s="108">
+      <c r="C15" s="107">
         <v>200</v>
       </c>
-      <c r="D15" s="108" t="s">
+      <c r="D15" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E15" s="108" t="s">
+      <c r="E15" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="108" t="s">
+      <c r="F15" s="107" t="s">
         <v>277</v>
       </c>
-      <c r="G15" s="108">
+      <c r="G15" s="107">
         <v>200</v>
       </c>
-      <c r="H15" s="109">
+      <c r="H15" s="108">
         <v>1</v>
       </c>
-      <c r="I15" s="110" t="s">
+      <c r="I15" s="109" t="s">
         <v>206</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="199" t="s">
+      <c r="J15" s="110"/>
+      <c r="K15" s="197" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="106">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>186</v>
       </c>
-      <c r="C16" s="108">
+      <c r="C16" s="107">
         <v>500</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E16" s="108" t="s">
+      <c r="E16" s="107" t="s">
         <v>218</v>
       </c>
-      <c r="F16" s="108"/>
-      <c r="G16" s="108"/>
-      <c r="H16" s="109">
+      <c r="F16" s="107"/>
+      <c r="G16" s="107"/>
+      <c r="H16" s="108">
         <v>1</v>
       </c>
-      <c r="I16" s="110" t="s">
+      <c r="I16" s="109" t="s">
         <v>207</v>
       </c>
-      <c r="J16" s="111"/>
-      <c r="K16" s="199" t="s">
+      <c r="J16" s="110"/>
+      <c r="K16" s="197" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="106">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>187</v>
       </c>
-      <c r="C17" s="108">
+      <c r="C17" s="107">
         <v>1000</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E17" s="108" t="s">
+      <c r="E17" s="107" t="s">
         <v>219</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="G17" s="108">
+      <c r="G17" s="107">
         <v>100</v>
       </c>
-      <c r="H17" s="109">
+      <c r="H17" s="108">
         <v>1</v>
       </c>
-      <c r="I17" s="110" t="s">
+      <c r="I17" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="199" t="s">
+      <c r="J17" s="110"/>
+      <c r="K17" s="197" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="107">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="106">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>188</v>
       </c>
-      <c r="C18" s="108">
+      <c r="C18" s="107">
         <v>2000</v>
       </c>
-      <c r="D18" s="108" t="s">
+      <c r="D18" s="107" t="s">
         <v>279</v>
       </c>
-      <c r="E18" s="108" t="s">
+      <c r="E18" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="F18" s="108" t="s">
+      <c r="F18" s="107" t="s">
         <v>276</v>
       </c>
-      <c r="G18" s="108">
+      <c r="G18" s="107">
         <v>200</v>
       </c>
-      <c r="H18" s="109">
+      <c r="H18" s="108">
         <v>1</v>
       </c>
-      <c r="I18" s="110" t="s">
+      <c r="I18" s="109" t="s">
         <v>209</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="199" t="s">
+      <c r="J18" s="110"/>
+      <c r="K18" s="197" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="107">
+    <row r="19" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="106">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="77" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="109">
+      <c r="C19" s="76"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="108">
         <v>2</v>
       </c>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111" t="s">
+      <c r="I19" s="109"/>
+      <c r="J19" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="199" t="s">
+      <c r="K19" s="197" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="106">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="109">
+      <c r="C20" s="76"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="107"/>
+      <c r="H20" s="108">
         <v>2</v>
       </c>
-      <c r="I20" s="110"/>
-      <c r="J20" s="111" t="s">
+      <c r="I20" s="109"/>
+      <c r="J20" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K20" s="199" t="s">
+      <c r="K20" s="197" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="106">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="77" t="s">
         <v>211</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="109">
+      <c r="C21" s="76"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108">
         <v>2</v>
       </c>
-      <c r="I21" s="110"/>
-      <c r="J21" s="111" t="s">
+      <c r="I21" s="109"/>
+      <c r="J21" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="199" t="s">
+      <c r="K21" s="197" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="107">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="106">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>212</v>
       </c>
-      <c r="C22" s="77"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="109">
+      <c r="C22" s="76"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="161"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108">
         <v>2</v>
       </c>
-      <c r="I22" s="110"/>
-      <c r="J22" s="111" t="s">
+      <c r="I22" s="109"/>
+      <c r="J22" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K22" s="199" t="s">
+      <c r="K22" s="197" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="107">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="106">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>213</v>
       </c>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="109">
+      <c r="C23" s="107"/>
+      <c r="D23" s="107"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="108">
         <v>2</v>
       </c>
-      <c r="I23" s="110"/>
-      <c r="J23" s="111" t="s">
+      <c r="I23" s="109"/>
+      <c r="J23" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K23" s="199" t="s">
+      <c r="K23" s="197" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="106">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="109">
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="108">
         <v>2</v>
       </c>
-      <c r="I24" s="110"/>
-      <c r="J24" s="111" t="s">
+      <c r="I24" s="109"/>
+      <c r="J24" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="K24" s="199" t="s">
+      <c r="K24" s="197" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="167">
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="166">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="168" t="s">
+      <c r="B25" s="167" t="s">
         <v>295</v>
       </c>
-      <c r="C25" s="169"/>
-      <c r="D25" s="169"/>
-      <c r="E25" s="169"/>
-      <c r="F25" s="169"/>
-      <c r="G25" s="169"/>
-      <c r="H25" s="170">
+      <c r="C25" s="168"/>
+      <c r="D25" s="168"/>
+      <c r="E25" s="168"/>
+      <c r="F25" s="168"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169">
         <v>2</v>
       </c>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172" t="s">
+      <c r="I25" s="170"/>
+      <c r="J25" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="K25" s="199" t="s">
+      <c r="K25" s="197" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="26" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:17" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="272" t="s">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="357" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="273"/>
-      <c r="C27" s="273"/>
-      <c r="D27" s="273"/>
-      <c r="E27" s="273"/>
-      <c r="F27" s="273"/>
-      <c r="G27" s="273"/>
-      <c r="H27" s="273"/>
-      <c r="I27" s="273"/>
-      <c r="J27" s="273"/>
-      <c r="K27" s="273"/>
-      <c r="L27" s="273"/>
-      <c r="M27" s="273"/>
-      <c r="N27" s="273"/>
-      <c r="O27" s="273"/>
-      <c r="P27" s="273"/>
-      <c r="Q27" s="274"/>
-    </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="136" t="s">
+      <c r="B27" s="358"/>
+      <c r="C27" s="358"/>
+      <c r="D27" s="358"/>
+      <c r="E27" s="358"/>
+      <c r="F27" s="358"/>
+      <c r="G27" s="358"/>
+      <c r="H27" s="358"/>
+      <c r="I27" s="358"/>
+      <c r="J27" s="358"/>
+      <c r="K27" s="358"/>
+      <c r="L27" s="358"/>
+      <c r="M27" s="358"/>
+      <c r="N27" s="358"/>
+      <c r="O27" s="358"/>
+      <c r="P27" s="358"/>
+      <c r="Q27" s="358"/>
+      <c r="R27" s="358"/>
+    </row>
+    <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="B28" s="190" t="s">
+      <c r="B28" s="188" t="s">
         <v>353</v>
       </c>
-      <c r="C28" s="188" t="s">
+      <c r="C28" s="186" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="188" t="s">
+      <c r="D28" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="E28" s="188" t="s">
+      <c r="E28" s="186" t="s">
         <v>261</v>
       </c>
-      <c r="F28" s="188" t="s">
+      <c r="F28" s="186" t="s">
         <v>370</v>
       </c>
-      <c r="G28" s="188" t="s">
+      <c r="G28" s="186" t="s">
         <v>422</v>
       </c>
-      <c r="H28" s="192" t="s">
+      <c r="H28" s="190" t="s">
         <v>261</v>
       </c>
-      <c r="I28" s="192" t="s">
+      <c r="I28" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="J28" s="192" t="s">
+      <c r="J28" s="190" t="s">
         <v>434</v>
       </c>
-      <c r="K28" s="192" t="s">
+      <c r="K28" s="190" t="s">
         <v>422</v>
       </c>
-      <c r="L28" s="122" t="s">
+      <c r="L28" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="M28" s="122" t="s">
+      <c r="M28" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="N28" s="122" t="s">
+      <c r="N28" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="O28" s="188" t="s">
+      <c r="O28" s="121" t="s">
+        <v>263</v>
+      </c>
+      <c r="P28" s="186" t="s">
         <v>269</v>
       </c>
-      <c r="P28" s="188" t="s">
+      <c r="Q28" s="186" t="s">
         <v>269</v>
       </c>
-      <c r="Q28" s="191" t="s">
+      <c r="R28" s="189" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="144"/>
-      <c r="B29" s="96" t="s">
+    <row r="29" spans="1:18" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="143"/>
+      <c r="B29" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="96" t="s">
+      <c r="C29" s="95" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="96" t="s">
+      <c r="D29" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="E29" s="96" t="s">
+      <c r="E29" s="95" t="s">
         <v>245</v>
       </c>
-      <c r="F29" s="96" t="s">
+      <c r="F29" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="G29" s="96" t="s">
+      <c r="G29" s="95" t="s">
         <v>356</v>
       </c>
-      <c r="H29" s="96" t="s">
+      <c r="H29" s="95" t="s">
         <v>423</v>
       </c>
-      <c r="I29" s="96" t="s">
+      <c r="I29" s="95" t="s">
         <v>426</v>
       </c>
-      <c r="J29" s="96" t="s">
+      <c r="J29" s="95" t="s">
         <v>428</v>
       </c>
-      <c r="K29" s="96" t="s">
+      <c r="K29" s="95" t="s">
         <v>429</v>
       </c>
-      <c r="L29" s="96" t="s">
+      <c r="L29" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="96" t="s">
+      <c r="M29" s="356" t="s">
+        <v>537</v>
+      </c>
+      <c r="N29" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="N29" s="96" t="s">
+      <c r="O29" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="O29" s="96" t="s">
+      <c r="P29" s="95" t="s">
         <v>246</v>
       </c>
-      <c r="P29" s="96" t="s">
+      <c r="Q29" s="95" t="s">
         <v>247</v>
       </c>
-      <c r="Q29" s="117" t="s">
+      <c r="R29" s="116" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="145"/>
-      <c r="B30" s="196" t="s">
+    <row r="30" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="144"/>
+      <c r="B30" s="194" t="s">
         <v>425</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="152" t="s">
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="151"/>
+      <c r="G30" s="151" t="s">
         <v>424</v>
       </c>
-      <c r="H30" s="152"/>
-      <c r="I30" s="152" t="s">
+      <c r="H30" s="151"/>
+      <c r="I30" s="151" t="s">
         <v>427</v>
       </c>
-      <c r="J30" s="152">
+      <c r="J30" s="151">
         <v>3</v>
       </c>
-      <c r="K30" s="152" t="s">
+      <c r="K30" s="151" t="s">
         <v>430</v>
       </c>
-      <c r="L30" s="152">
+      <c r="L30" s="151">
         <v>100</v>
       </c>
-      <c r="M30" s="152">
+      <c r="M30" s="233"/>
+      <c r="N30" s="151">
         <v>0</v>
       </c>
-      <c r="N30" s="152"/>
-      <c r="O30" s="152">
+      <c r="O30" s="151"/>
+      <c r="P30" s="151">
         <v>4</v>
       </c>
-      <c r="P30" s="152">
+      <c r="Q30" s="151">
         <v>10</v>
       </c>
-      <c r="Q30" s="153">
+      <c r="R30" s="152">
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="32" spans="1:17" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="269" t="s">
+    <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A32" s="297" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="270"/>
-      <c r="C32" s="270"/>
-      <c r="D32" s="270"/>
-      <c r="E32" s="270"/>
-      <c r="F32" s="270"/>
-      <c r="G32" s="270"/>
-      <c r="H32" s="271"/>
+      <c r="B32" s="298"/>
+      <c r="C32" s="298"/>
+      <c r="D32" s="298"/>
+      <c r="E32" s="298"/>
+      <c r="F32" s="298"/>
+      <c r="G32" s="298"/>
+      <c r="H32" s="299"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="263" t="s">
+      <c r="A33" s="291" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="264"/>
-      <c r="C33" s="264"/>
-      <c r="D33" s="264"/>
-      <c r="E33" s="264"/>
-      <c r="F33" s="264"/>
-      <c r="G33" s="264"/>
-      <c r="H33" s="265"/>
+      <c r="B33" s="292"/>
+      <c r="C33" s="292"/>
+      <c r="D33" s="292"/>
+      <c r="E33" s="292"/>
+      <c r="F33" s="292"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="293"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="263"/>
-      <c r="B34" s="264"/>
-      <c r="C34" s="264"/>
-      <c r="D34" s="264"/>
-      <c r="E34" s="264"/>
-      <c r="F34" s="264"/>
-      <c r="G34" s="264"/>
-      <c r="H34" s="265"/>
+      <c r="A34" s="291"/>
+      <c r="B34" s="292"/>
+      <c r="C34" s="292"/>
+      <c r="D34" s="292"/>
+      <c r="E34" s="292"/>
+      <c r="F34" s="292"/>
+      <c r="G34" s="292"/>
+      <c r="H34" s="293"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="263"/>
-      <c r="B35" s="264"/>
-      <c r="C35" s="264"/>
-      <c r="D35" s="264"/>
-      <c r="E35" s="264"/>
-      <c r="F35" s="264"/>
-      <c r="G35" s="264"/>
-      <c r="H35" s="265"/>
+      <c r="A35" s="291"/>
+      <c r="B35" s="292"/>
+      <c r="C35" s="292"/>
+      <c r="D35" s="292"/>
+      <c r="E35" s="292"/>
+      <c r="F35" s="292"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="293"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="266"/>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
-      <c r="H36" s="268"/>
+      <c r="A36" s="294"/>
+      <c r="B36" s="295"/>
+      <c r="C36" s="295"/>
+      <c r="D36" s="295"/>
+      <c r="E36" s="295"/>
+      <c r="F36" s="295"/>
+      <c r="G36" s="295"/>
+      <c r="H36" s="296"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="253" t="s">
+      <c r="A38" s="281" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="253"/>
-      <c r="C38" s="253"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="253"/>
-      <c r="F38" s="253"/>
-      <c r="G38" s="253"/>
+      <c r="B38" s="281"/>
+      <c r="C38" s="281"/>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="281"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78" t="s">
+      <c r="A39" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="252" t="s">
+      <c r="D39" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
+      <c r="E39" s="280"/>
+      <c r="F39" s="280"/>
+      <c r="G39" s="280"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -6886,7 +7084,7 @@
       <c r="C40" t="s">
         <v>432</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>357</v>
       </c>
     </row>
@@ -6900,7 +7098,7 @@
       <c r="C41" t="s">
         <v>432</v>
       </c>
-      <c r="D41" s="187" t="s">
+      <c r="D41" s="185" t="s">
         <v>323</v>
       </c>
     </row>
@@ -6914,7 +7112,7 @@
       <c r="C42" t="s">
         <v>432</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>324</v>
       </c>
     </row>
@@ -6928,7 +7126,7 @@
       <c r="C43" t="s">
         <v>432</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>344</v>
       </c>
     </row>
@@ -6942,7 +7140,7 @@
       <c r="C44" t="s">
         <v>432</v>
       </c>
-      <c r="D44" s="178" t="s">
+      <c r="D44" s="177" t="s">
         <v>325</v>
       </c>
     </row>
@@ -6956,7 +7154,7 @@
       <c r="C45" t="s">
         <v>432</v>
       </c>
-      <c r="D45" s="187" t="s">
+      <c r="D45" s="185" t="s">
         <v>397</v>
       </c>
     </row>
@@ -6970,7 +7168,7 @@
       <c r="C46" t="s">
         <v>432</v>
       </c>
-      <c r="D46" s="187" t="s">
+      <c r="D46" s="185" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6984,7 +7182,7 @@
       <c r="C47" t="s">
         <v>432</v>
       </c>
-      <c r="D47" s="187" t="s">
+      <c r="D47" s="185" t="s">
         <v>398</v>
       </c>
     </row>
@@ -6998,7 +7196,7 @@
       <c r="C48" t="s">
         <v>432</v>
       </c>
-      <c r="D48" s="187" t="s">
+      <c r="D48" s="185" t="s">
         <v>400</v>
       </c>
     </row>
@@ -7012,7 +7210,7 @@
       <c r="C49" t="s">
         <v>432</v>
       </c>
-      <c r="D49" s="187" t="s">
+      <c r="D49" s="185" t="s">
         <v>399</v>
       </c>
     </row>
@@ -7026,7 +7224,7 @@
       <c r="C50" t="s">
         <v>432</v>
       </c>
-      <c r="D50" s="187" t="s">
+      <c r="D50" s="185" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7040,7 +7238,7 @@
       <c r="C51" t="s">
         <v>432</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="185" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7054,7 +7252,7 @@
       <c r="C52" t="s">
         <v>432</v>
       </c>
-      <c r="D52" s="175" t="s">
+      <c r="D52" s="174" t="s">
         <v>433</v>
       </c>
     </row>
@@ -7068,7 +7266,7 @@
       <c r="C53" t="s">
         <v>432</v>
       </c>
-      <c r="D53" s="187" t="s">
+      <c r="D53" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7082,7 +7280,7 @@
       <c r="C54" t="s">
         <v>432</v>
       </c>
-      <c r="D54" s="187" t="s">
+      <c r="D54" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7096,7 +7294,7 @@
       <c r="C55" t="s">
         <v>432</v>
       </c>
-      <c r="D55" s="187" t="s">
+      <c r="D55" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7110,7 +7308,7 @@
       <c r="C56" t="s">
         <v>432</v>
       </c>
-      <c r="D56" s="187" t="s">
+      <c r="D56" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7124,7 +7322,7 @@
       <c r="C57" t="s">
         <v>432</v>
       </c>
-      <c r="D57" s="187" t="s">
+      <c r="D57" s="185" t="s">
         <v>407</v>
       </c>
     </row>
@@ -7138,7 +7336,7 @@
       <c r="C58" t="s">
         <v>432</v>
       </c>
-      <c r="D58" s="175" t="s">
+      <c r="D58" s="174" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7152,7 +7350,7 @@
       <c r="C59" t="s">
         <v>432</v>
       </c>
-      <c r="D59" s="175" t="s">
+      <c r="D59" s="174" t="s">
         <v>409</v>
       </c>
     </row>
@@ -7166,7 +7364,7 @@
       <c r="C60" t="s">
         <v>432</v>
       </c>
-      <c r="D60" s="175" t="s">
+      <c r="D60" s="174" t="s">
         <v>410</v>
       </c>
     </row>
@@ -7180,7 +7378,7 @@
       <c r="C61" t="s">
         <v>432</v>
       </c>
-      <c r="D61" s="175" t="s">
+      <c r="D61" s="174" t="s">
         <v>411</v>
       </c>
     </row>
@@ -7194,7 +7392,7 @@
       <c r="C62" t="s">
         <v>432</v>
       </c>
-      <c r="D62" s="175" t="s">
+      <c r="D62" s="174" t="s">
         <v>412</v>
       </c>
     </row>
@@ -7208,7 +7406,7 @@
       <c r="C63" t="s">
         <v>432</v>
       </c>
-      <c r="D63" s="175" t="s">
+      <c r="D63" s="174" t="s">
         <v>413</v>
       </c>
     </row>
@@ -7222,7 +7420,7 @@
       <c r="C64" t="s">
         <v>432</v>
       </c>
-      <c r="D64" s="175" t="s">
+      <c r="D64" s="174" t="s">
         <v>414</v>
       </c>
     </row>
@@ -7236,7 +7434,7 @@
       <c r="C65" t="s">
         <v>432</v>
       </c>
-      <c r="D65" s="175" t="s">
+      <c r="D65" s="174" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7250,7 +7448,7 @@
       <c r="C66" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="175" t="s">
+      <c r="D66" s="174" t="s">
         <v>416</v>
       </c>
     </row>
@@ -7264,7 +7462,7 @@
       <c r="C67" t="s">
         <v>432</v>
       </c>
-      <c r="D67" s="175" t="s">
+      <c r="D67" s="174" t="s">
         <v>417</v>
       </c>
     </row>
@@ -7278,7 +7476,7 @@
       <c r="C68" t="s">
         <v>432</v>
       </c>
-      <c r="D68" s="175" t="s">
+      <c r="D68" s="174" t="s">
         <v>418</v>
       </c>
     </row>
@@ -7292,7 +7490,7 @@
       <c r="C69" t="s">
         <v>432</v>
       </c>
-      <c r="D69" s="175" t="s">
+      <c r="D69" s="174" t="s">
         <v>419</v>
       </c>
     </row>
@@ -7306,7 +7504,7 @@
       <c r="C70" t="s">
         <v>432</v>
       </c>
-      <c r="D70" s="175" t="s">
+      <c r="D70" s="174" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7320,7 +7518,7 @@
       <c r="C71" t="s">
         <v>432</v>
       </c>
-      <c r="D71" s="175" t="s">
+      <c r="D71" s="174" t="s">
         <v>421</v>
       </c>
     </row>
@@ -7333,7 +7531,7 @@
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A33:H36"/>
     <mergeCell ref="A32:H32"/>
-    <mergeCell ref="A27:Q27"/>
+    <mergeCell ref="A27:R27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7399,7 +7597,7 @@
   </sheetPr>
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -7418,92 +7616,92 @@
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="275" t="s">
+    <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="303" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="276"/>
-      <c r="C1" s="276"/>
-      <c r="D1" s="276"/>
-      <c r="E1" s="276"/>
-      <c r="F1" s="276"/>
-      <c r="G1" s="276"/>
-      <c r="H1" s="276"/>
-      <c r="I1" s="276"/>
-      <c r="J1" s="277"/>
-    </row>
-    <row r="2" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="272" t="s">
+      <c r="B1" s="304"/>
+      <c r="C1" s="304"/>
+      <c r="D1" s="304"/>
+      <c r="E1" s="304"/>
+      <c r="F1" s="304"/>
+      <c r="G1" s="304"/>
+      <c r="H1" s="304"/>
+      <c r="I1" s="304"/>
+      <c r="J1" s="305"/>
+    </row>
+    <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="273"/>
-      <c r="C2" s="273"/>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="274"/>
-    </row>
-    <row r="3" spans="1:10" s="112" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="130" t="s">
+      <c r="B2" s="301"/>
+      <c r="C2" s="301"/>
+      <c r="D2" s="301"/>
+      <c r="E2" s="301"/>
+      <c r="F2" s="301"/>
+      <c r="G2" s="301"/>
+      <c r="H2" s="301"/>
+      <c r="I2" s="301"/>
+      <c r="J2" s="302"/>
+    </row>
+    <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="C3" s="127" t="s">
+      <c r="C3" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="D3" s="127" t="s">
+      <c r="D3" s="126" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="124" t="s">
+      <c r="E3" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="F3" s="125" t="s">
+      <c r="F3" s="124" t="s">
         <v>263</v>
       </c>
-      <c r="G3" s="131" t="s">
+      <c r="G3" s="130" t="s">
         <v>311</v>
       </c>
-      <c r="H3" s="165" t="s">
+      <c r="H3" s="164" t="s">
         <v>293</v>
       </c>
-      <c r="I3" s="127"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="98" t="s">
+      <c r="I3" s="126"/>
+      <c r="J3" s="128"/>
+    </row>
+    <row r="4" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="97" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="D4" s="100" t="s">
+      <c r="D4" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="99" t="s">
+      <c r="G4" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="H4" s="166" t="s">
+      <c r="H4" s="165" t="s">
         <v>294</v>
       </c>
-      <c r="I4" s="101"/>
-      <c r="J4" s="102"/>
-    </row>
-    <row r="5" spans="1:10" s="112" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="I4" s="100"/>
+      <c r="J4" s="101"/>
+    </row>
+    <row r="5" spans="1:10" s="111" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="72" t="s">
         <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7519,145 +7717,145 @@
       <c r="F5" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="G5" s="197" t="s">
+      <c r="G5" s="195" t="s">
         <v>168</v>
       </c>
-      <c r="H5" s="164"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-    </row>
-    <row r="6" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="272" t="s">
+      <c r="H5" s="163"/>
+      <c r="I5" s="163"/>
+      <c r="J5" s="163"/>
+    </row>
+    <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="300" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="273"/>
-      <c r="C6" s="273"/>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="274"/>
-    </row>
-    <row r="7" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="123" t="s">
+      <c r="B6" s="301"/>
+      <c r="C6" s="301"/>
+      <c r="D6" s="301"/>
+      <c r="E6" s="301"/>
+      <c r="F6" s="301"/>
+      <c r="G6" s="301"/>
+      <c r="H6" s="301"/>
+      <c r="I6" s="301"/>
+      <c r="J6" s="302"/>
+    </row>
+    <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="122" t="s">
         <v>263</v>
       </c>
-      <c r="B7" s="131" t="s">
+      <c r="B7" s="130" t="s">
         <v>312</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="128"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="127"/>
-      <c r="J7" s="129"/>
-    </row>
-    <row r="8" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="95" t="s">
+      <c r="C7" s="126"/>
+      <c r="D7" s="126"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="126"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="126"/>
+      <c r="J7" s="128"/>
+    </row>
+    <row r="8" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="94" t="s">
         <v>149</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="104"/>
-      <c r="H8" s="104"/>
-      <c r="I8" s="104"/>
-      <c r="J8" s="105"/>
-    </row>
-    <row r="9" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="102"/>
+      <c r="F8" s="102"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="104"/>
+    </row>
+    <row r="9" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="80" t="s">
+      <c r="B9" s="79" t="s">
         <v>210</v>
       </c>
-      <c r="C9" s="69"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="272" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="71"/>
+    </row>
+    <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="300" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="273"/>
-      <c r="E10" s="273"/>
-      <c r="F10" s="273"/>
-      <c r="G10" s="273"/>
-      <c r="H10" s="273"/>
-      <c r="I10" s="273"/>
-      <c r="J10" s="274"/>
-    </row>
-    <row r="11" spans="1:10" s="112" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="126"/>
-      <c r="B11" s="127" t="s">
+      <c r="B10" s="301"/>
+      <c r="C10" s="301"/>
+      <c r="D10" s="301"/>
+      <c r="E10" s="301"/>
+      <c r="F10" s="301"/>
+      <c r="G10" s="301"/>
+      <c r="H10" s="301"/>
+      <c r="I10" s="301"/>
+      <c r="J10" s="302"/>
+    </row>
+    <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="125"/>
+      <c r="B11" s="126" t="s">
         <v>270</v>
       </c>
-      <c r="C11" s="127" t="s">
+      <c r="C11" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="D11" s="174" t="s">
+      <c r="D11" s="173" t="s">
         <v>320</v>
       </c>
-      <c r="E11" s="127" t="s">
+      <c r="E11" s="126" t="s">
         <v>253</v>
       </c>
-      <c r="F11" s="132" t="s">
+      <c r="F11" s="131" t="s">
         <v>314</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="130" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="H11" s="130" t="s">
         <v>315</v>
       </c>
-      <c r="I11" s="127"/>
-      <c r="J11" s="129"/>
-    </row>
-    <row r="12" spans="1:10" s="112" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="95" t="s">
+      <c r="I11" s="126"/>
+      <c r="J11" s="128"/>
+    </row>
+    <row r="12" spans="1:10" s="111" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>252</v>
       </c>
-      <c r="D12" s="96" t="s">
+      <c r="D12" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E12" s="96" t="s">
+      <c r="E12" s="95" t="s">
         <v>254</v>
       </c>
-      <c r="F12" s="96" t="s">
+      <c r="F12" s="95" t="s">
         <v>255</v>
       </c>
-      <c r="G12" s="133" t="s">
+      <c r="G12" s="132" t="s">
         <v>256</v>
       </c>
-      <c r="H12" s="99" t="s">
+      <c r="H12" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="I12" s="118"/>
-      <c r="J12" s="119"/>
-    </row>
-    <row r="13" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="I12" s="117"/>
+      <c r="J12" s="118"/>
+    </row>
+    <row r="13" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="105" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -7680,8 +7878,8 @@
       <c r="I13" s="4"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106">
+    <row r="14" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
       <c r="B14" s="4"/>
@@ -7694,8 +7892,8 @@
       <c r="I14" s="4"/>
       <c r="J14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+    <row r="15" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
       <c r="B15" s="4"/>
@@ -7708,8 +7906,8 @@
       <c r="I15" s="4"/>
       <c r="J15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106">
+    <row r="16" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
       <c r="B16" s="4"/>
@@ -7722,146 +7920,146 @@
       <c r="I16" s="4"/>
       <c r="J16" s="5"/>
     </row>
-    <row r="17" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="316" t="s">
+    <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="306" t="s">
         <v>491</v>
       </c>
-      <c r="B17" s="317"/>
-      <c r="C17" s="317"/>
-      <c r="D17" s="317"/>
-      <c r="E17" s="317"/>
-      <c r="F17" s="317"/>
-      <c r="G17" s="317"/>
-      <c r="H17" s="317"/>
-      <c r="I17" s="317"/>
-      <c r="J17" s="318"/>
-    </row>
-    <row r="18" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="319"/>
-      <c r="B18" s="320" t="s">
+      <c r="B17" s="307"/>
+      <c r="C17" s="307"/>
+      <c r="D17" s="307"/>
+      <c r="E17" s="307"/>
+      <c r="F17" s="307"/>
+      <c r="G17" s="307"/>
+      <c r="H17" s="307"/>
+      <c r="I17" s="307"/>
+      <c r="J17" s="308"/>
+    </row>
+    <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="206"/>
+      <c r="B18" s="207" t="s">
         <v>270</v>
       </c>
-      <c r="C18" s="320" t="s">
+      <c r="C18" s="207" t="s">
         <v>251</v>
       </c>
-      <c r="D18" s="320" t="s">
+      <c r="D18" s="207" t="s">
         <v>253</v>
       </c>
-      <c r="E18" s="321" t="s">
+      <c r="E18" s="208" t="s">
         <v>314</v>
       </c>
-      <c r="F18" s="322" t="s">
+      <c r="F18" s="209" t="s">
         <v>313</v>
       </c>
-      <c r="G18" s="322"/>
-      <c r="H18" s="323"/>
-      <c r="I18" s="323"/>
-      <c r="J18" s="324"/>
-    </row>
-    <row r="19" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="325" t="s">
+      <c r="G18" s="209"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
+      <c r="J18" s="211"/>
+    </row>
+    <row r="19" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="212" t="s">
         <v>492</v>
       </c>
-      <c r="B19" s="326" t="s">
+      <c r="B19" s="213" t="s">
         <v>493</v>
       </c>
-      <c r="C19" s="327" t="s">
+      <c r="C19" s="214" t="s">
         <v>252</v>
       </c>
-      <c r="D19" s="327" t="s">
+      <c r="D19" s="214" t="s">
         <v>494</v>
       </c>
-      <c r="E19" s="327" t="s">
+      <c r="E19" s="214" t="s">
         <v>255</v>
       </c>
-      <c r="F19" s="328" t="s">
+      <c r="F19" s="215" t="s">
         <v>256</v>
       </c>
-      <c r="G19" s="326"/>
-      <c r="H19" s="329"/>
-      <c r="I19" s="329"/>
-      <c r="J19" s="330"/>
-    </row>
-    <row r="20" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="331"/>
-      <c r="B20" s="332"/>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
-      <c r="J20" s="333"/>
-    </row>
-    <row r="21" spans="1:10" s="112" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="331"/>
-      <c r="B21" s="332"/>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
-      <c r="J21" s="333"/>
-    </row>
-    <row r="22" spans="1:10" s="112" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="272" t="s">
+      <c r="G19" s="213"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
+    </row>
+    <row r="20" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="218"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="219"/>
+      <c r="E20" s="219"/>
+      <c r="F20" s="219"/>
+      <c r="G20" s="219"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="219"/>
+      <c r="J20" s="220"/>
+    </row>
+    <row r="21" spans="1:10" s="111" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="218"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="219"/>
+      <c r="E21" s="219"/>
+      <c r="F21" s="219"/>
+      <c r="G21" s="219"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="219"/>
+      <c r="J21" s="220"/>
+    </row>
+    <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="300" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="273"/>
-      <c r="C22" s="273"/>
-      <c r="D22" s="273"/>
-      <c r="E22" s="273"/>
-      <c r="F22" s="273"/>
-      <c r="G22" s="273"/>
-      <c r="H22" s="273"/>
-      <c r="I22" s="273"/>
-      <c r="J22" s="274"/>
-    </row>
-    <row r="23" spans="1:10" s="112" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="130" t="s">
+      <c r="B22" s="301"/>
+      <c r="C22" s="301"/>
+      <c r="D22" s="301"/>
+      <c r="E22" s="301"/>
+      <c r="F22" s="301"/>
+      <c r="G22" s="301"/>
+      <c r="H22" s="301"/>
+      <c r="I22" s="301"/>
+      <c r="J22" s="302"/>
+    </row>
+    <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="B23" s="131" t="s">
+      <c r="B23" s="130" t="s">
         <v>317</v>
       </c>
-      <c r="C23" s="131" t="s">
+      <c r="C23" s="130" t="s">
         <v>265</v>
       </c>
-      <c r="D23" s="131" t="s">
+      <c r="D23" s="130" t="s">
         <v>318</v>
       </c>
-      <c r="E23" s="127"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="129"/>
-    </row>
-    <row r="24" spans="1:10" s="112" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="E23" s="126"/>
+      <c r="F23" s="127"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="126"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="128"/>
+    </row>
+    <row r="24" spans="1:10" s="111" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="96" t="s">
+      <c r="B24" s="95" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="96" t="s">
+      <c r="C24" s="95" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="99" t="s">
+      <c r="D24" s="98" t="s">
         <v>227</v>
       </c>
-      <c r="E24" s="113"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
-    </row>
-    <row r="25" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30">
+      <c r="E24" s="112"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="103"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="103"/>
+      <c r="J24" s="104"/>
+    </row>
+    <row r="25" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
         <v>1</v>
       </c>
       <c r="B25" s="8" t="s">
@@ -7870,7 +8068,7 @@
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="152" t="s">
+      <c r="D25" s="151" t="s">
         <v>213</v>
       </c>
       <c r="E25" s="8"/>
@@ -7880,148 +8078,148 @@
       <c r="I25" s="8"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="316" t="s">
+    <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="306" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="317"/>
-      <c r="C26" s="317"/>
-      <c r="D26" s="317"/>
-      <c r="E26" s="317"/>
-      <c r="F26" s="317"/>
-      <c r="G26" s="317"/>
-      <c r="H26" s="317"/>
-      <c r="I26" s="317"/>
-      <c r="J26" s="318"/>
-    </row>
-    <row r="27" spans="1:10" s="112" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="334" t="s">
+      <c r="B26" s="307"/>
+      <c r="C26" s="307"/>
+      <c r="D26" s="307"/>
+      <c r="E26" s="307"/>
+      <c r="F26" s="307"/>
+      <c r="G26" s="307"/>
+      <c r="H26" s="307"/>
+      <c r="I26" s="307"/>
+      <c r="J26" s="308"/>
+    </row>
+    <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="221" t="s">
         <v>496</v>
       </c>
-      <c r="B27" s="335" t="s">
+      <c r="B27" s="222" t="s">
         <v>496</v>
       </c>
-      <c r="C27" s="336" t="s">
+      <c r="C27" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="D27" s="336" t="s">
+      <c r="D27" s="223" t="s">
         <v>264</v>
       </c>
-      <c r="E27" s="337" t="s">
+      <c r="E27" s="224" t="s">
         <v>263</v>
       </c>
-      <c r="F27" s="338" t="s">
+      <c r="F27" s="225" t="s">
         <v>497</v>
       </c>
-      <c r="G27" s="337" t="s">
+      <c r="G27" s="224" t="s">
         <v>263</v>
       </c>
-      <c r="H27" s="339"/>
-      <c r="I27" s="339"/>
-      <c r="J27" s="340"/>
-    </row>
-    <row r="28" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="341" t="s">
+      <c r="H27" s="226"/>
+      <c r="I27" s="226"/>
+      <c r="J27" s="227"/>
+    </row>
+    <row r="28" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="228" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="326" t="s">
+      <c r="B28" s="213" t="s">
         <v>95</v>
       </c>
-      <c r="C28" s="342" t="s">
+      <c r="C28" s="229" t="s">
         <v>249</v>
       </c>
-      <c r="D28" s="342" t="s">
+      <c r="D28" s="229" t="s">
         <v>250</v>
       </c>
-      <c r="E28" s="342" t="s">
+      <c r="E28" s="229" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="342" t="s">
+      <c r="F28" s="229" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="326" t="s">
+      <c r="G28" s="213" t="s">
         <v>227</v>
       </c>
-      <c r="H28" s="343"/>
-      <c r="I28" s="343"/>
-      <c r="J28" s="344"/>
-    </row>
-    <row r="29" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="345"/>
-      <c r="B29" s="346"/>
-      <c r="C29" s="347"/>
-      <c r="D29" s="347"/>
-      <c r="E29" s="347"/>
-      <c r="F29" s="347"/>
-      <c r="G29" s="347"/>
-      <c r="H29" s="347"/>
-      <c r="I29" s="347"/>
-      <c r="J29" s="348"/>
-    </row>
-    <row r="30" spans="1:10" s="112" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="272" t="s">
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="231"/>
+    </row>
+    <row r="29" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="232"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="234"/>
+      <c r="E29" s="234"/>
+      <c r="F29" s="234"/>
+      <c r="G29" s="234"/>
+      <c r="H29" s="234"/>
+      <c r="I29" s="234"/>
+      <c r="J29" s="235"/>
+    </row>
+    <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="300" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="273"/>
-      <c r="C30" s="273"/>
-      <c r="D30" s="273"/>
-      <c r="E30" s="273"/>
-      <c r="F30" s="273"/>
-      <c r="G30" s="273"/>
-      <c r="H30" s="273"/>
-      <c r="I30" s="273"/>
-      <c r="J30" s="274"/>
-    </row>
-    <row r="31" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="130" t="s">
+      <c r="B30" s="301"/>
+      <c r="C30" s="301"/>
+      <c r="D30" s="301"/>
+      <c r="E30" s="301"/>
+      <c r="F30" s="301"/>
+      <c r="G30" s="301"/>
+      <c r="H30" s="301"/>
+      <c r="I30" s="301"/>
+      <c r="J30" s="302"/>
+    </row>
+    <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="B31" s="192" t="s">
+      <c r="B31" s="190" t="s">
         <v>355</v>
       </c>
-      <c r="C31" s="131" t="s">
+      <c r="C31" s="130" t="s">
         <v>319</v>
       </c>
-      <c r="D31" s="131" t="s">
+      <c r="D31" s="130" t="s">
         <v>260</v>
       </c>
-      <c r="E31" s="188" t="s">
+      <c r="E31" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="F31" s="127"/>
-      <c r="G31" s="127"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="150"/>
-    </row>
-    <row r="32" spans="1:10" s="112" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="147"/>
-      <c r="B32" s="146" t="s">
+      <c r="F31" s="126"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="126"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="149"/>
+    </row>
+    <row r="32" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="146"/>
+      <c r="B32" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="146" t="s">
+      <c r="C32" s="145" t="s">
         <v>258</v>
       </c>
-      <c r="D32" s="96" t="s">
+      <c r="D32" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="95" t="s">
         <v>356</v>
       </c>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="151"/>
-    </row>
-    <row r="33" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="145"/>
-      <c r="B33" s="201" t="s">
+      <c r="F32" s="145"/>
+      <c r="G32" s="145"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="150"/>
+    </row>
+    <row r="33" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="144"/>
+      <c r="B33" s="199" t="s">
         <v>474</v>
       </c>
-      <c r="C33" s="185"/>
-      <c r="D33" s="121"/>
-      <c r="E33" s="152" t="s">
+      <c r="C33" s="183"/>
+      <c r="D33" s="120"/>
+      <c r="E33" s="151" t="s">
         <v>446</v>
       </c>
       <c r="F33" s="8"/>
@@ -8030,108 +8228,108 @@
       <c r="I33" s="8"/>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" s="112" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="35" spans="1:10" s="112" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="269" t="s">
+    <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="297" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="270"/>
-      <c r="C35" s="270"/>
-      <c r="D35" s="270"/>
-      <c r="E35" s="270"/>
-      <c r="F35" s="270"/>
-      <c r="G35" s="270"/>
-      <c r="H35" s="271"/>
-    </row>
-    <row r="36" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="263" t="s">
+      <c r="B35" s="298"/>
+      <c r="C35" s="298"/>
+      <c r="D35" s="298"/>
+      <c r="E35" s="298"/>
+      <c r="F35" s="298"/>
+      <c r="G35" s="298"/>
+      <c r="H35" s="299"/>
+    </row>
+    <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="291" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="264"/>
-      <c r="C36" s="264"/>
-      <c r="D36" s="264"/>
-      <c r="E36" s="264"/>
-      <c r="F36" s="264"/>
-      <c r="G36" s="264"/>
-      <c r="H36" s="265"/>
-    </row>
-    <row r="37" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="263"/>
-      <c r="B37" s="264"/>
-      <c r="C37" s="264"/>
-      <c r="D37" s="264"/>
-      <c r="E37" s="264"/>
-      <c r="F37" s="264"/>
-      <c r="G37" s="264"/>
-      <c r="H37" s="265"/>
-    </row>
-    <row r="38" spans="1:10" s="112" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="263"/>
-      <c r="B38" s="264"/>
-      <c r="C38" s="264"/>
-      <c r="D38" s="264"/>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="265"/>
+      <c r="B36" s="292"/>
+      <c r="C36" s="292"/>
+      <c r="D36" s="292"/>
+      <c r="E36" s="292"/>
+      <c r="F36" s="292"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="293"/>
+    </row>
+    <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="291"/>
+      <c r="B37" s="292"/>
+      <c r="C37" s="292"/>
+      <c r="D37" s="292"/>
+      <c r="E37" s="292"/>
+      <c r="F37" s="292"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="293"/>
+    </row>
+    <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="291"/>
+      <c r="B38" s="292"/>
+      <c r="C38" s="292"/>
+      <c r="D38" s="292"/>
+      <c r="E38" s="292"/>
+      <c r="F38" s="292"/>
+      <c r="G38" s="292"/>
+      <c r="H38" s="293"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="266"/>
-      <c r="B39" s="267"/>
-      <c r="C39" s="267"/>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="267"/>
-      <c r="H39" s="268"/>
-      <c r="I39" s="112"/>
-      <c r="J39" s="112"/>
+      <c r="A39" s="294"/>
+      <c r="B39" s="295"/>
+      <c r="C39" s="295"/>
+      <c r="D39" s="295"/>
+      <c r="E39" s="295"/>
+      <c r="F39" s="295"/>
+      <c r="G39" s="295"/>
+      <c r="H39" s="296"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="111"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="112"/>
-      <c r="B40" s="112"/>
-      <c r="C40" s="112"/>
-      <c r="D40" s="112"/>
-      <c r="E40" s="112"/>
-      <c r="F40" s="112"/>
-      <c r="G40" s="112"/>
-      <c r="H40" s="112"/>
-      <c r="I40" s="112"/>
-      <c r="J40" s="112"/>
+      <c r="A40" s="111"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="111"/>
+      <c r="D40" s="111"/>
+      <c r="E40" s="111"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="111"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="253" t="s">
+      <c r="A41" s="281" t="s">
         <v>296</v>
       </c>
-      <c r="B41" s="253"/>
-      <c r="C41" s="253"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="253"/>
-      <c r="F41" s="253"/>
-      <c r="G41" s="253"/>
-      <c r="H41" s="112"/>
-      <c r="I41" s="112"/>
-      <c r="J41" s="112"/>
+      <c r="B41" s="281"/>
+      <c r="C41" s="281"/>
+      <c r="D41" s="281"/>
+      <c r="E41" s="281"/>
+      <c r="F41" s="281"/>
+      <c r="G41" s="281"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="111"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="78" t="s">
+      <c r="A42" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="252" t="s">
+      <c r="D42" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252"/>
-      <c r="G42" s="252"/>
-      <c r="H42" s="112"/>
-      <c r="I42" s="112"/>
-      <c r="J42" s="112"/>
+      <c r="E42" s="280"/>
+      <c r="F42" s="280"/>
+      <c r="G42" s="280"/>
+      <c r="H42" s="111"/>
+      <c r="I42" s="111"/>
+      <c r="J42" s="111"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
@@ -8143,7 +8341,7 @@
       <c r="C43" t="s">
         <v>448</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8157,7 +8355,7 @@
       <c r="C44" t="s">
         <v>448</v>
       </c>
-      <c r="D44" s="187" t="s">
+      <c r="D44" s="185" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8171,7 +8369,7 @@
       <c r="C45" t="s">
         <v>448</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8185,7 +8383,7 @@
       <c r="C46" t="s">
         <v>448</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8199,7 +8397,7 @@
       <c r="C47" t="s">
         <v>448</v>
       </c>
-      <c r="D47" s="178" t="s">
+      <c r="D47" s="177" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8213,7 +8411,7 @@
       <c r="C48" t="s">
         <v>448</v>
       </c>
-      <c r="D48" s="187" t="s">
+      <c r="D48" s="185" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8227,7 +8425,7 @@
       <c r="C49" t="s">
         <v>448</v>
       </c>
-      <c r="D49" s="187" t="s">
+      <c r="D49" s="185" t="s">
         <v>362</v>
       </c>
     </row>
@@ -8241,7 +8439,7 @@
       <c r="C50" t="s">
         <v>448</v>
       </c>
-      <c r="D50" s="187" t="s">
+      <c r="D50" s="185" t="s">
         <v>447</v>
       </c>
     </row>
@@ -8255,7 +8453,7 @@
       <c r="C51" t="s">
         <v>448</v>
       </c>
-      <c r="D51" s="187" t="s">
+      <c r="D51" s="185" t="s">
         <v>363</v>
       </c>
     </row>
@@ -8269,7 +8467,7 @@
       <c r="C52" t="s">
         <v>448</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="185" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8283,7 +8481,7 @@
       <c r="C53" t="s">
         <v>448</v>
       </c>
-      <c r="D53" s="178" t="s">
+      <c r="D53" s="177" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8345,7 +8543,7 @@
   <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -8370,369 +8568,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="313" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="283" t="s">
+      <c r="A2" s="321" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="284"/>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="296" t="s">
+      <c r="B2" s="322"/>
+      <c r="C2" s="322"/>
+      <c r="D2" s="322"/>
+      <c r="E2" s="322"/>
+      <c r="F2" s="323"/>
+      <c r="G2" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="279" t="s">
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="317" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="87"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="286" t="s">
+      <c r="A3" s="324" t="s">
         <v>481</v>
       </c>
-      <c r="B3" s="287"/>
-      <c r="C3" s="287"/>
-      <c r="D3" s="287"/>
-      <c r="E3" s="287"/>
-      <c r="F3" s="288"/>
-      <c r="G3" s="298" t="s">
+      <c r="B3" s="325"/>
+      <c r="C3" s="325"/>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="326"/>
+      <c r="G3" s="316" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="P3" s="195"/>
+      <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="297" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="315" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297" t="s">
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="205" t="s">
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>356</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="278" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="309" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="278"/>
-      <c r="I5" s="278"/>
-      <c r="J5" s="278" t="s">
+      <c r="H5" s="309"/>
+      <c r="I5" s="309"/>
+      <c r="J5" s="309" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="278"/>
-      <c r="L5" s="278"/>
-      <c r="M5" s="206"/>
-      <c r="N5" s="206" t="s">
+      <c r="K5" s="309"/>
+      <c r="L5" s="309"/>
+      <c r="M5" s="204"/>
+      <c r="N5" s="204" t="s">
         <v>373</v>
       </c>
-      <c r="O5" s="207" t="s">
+      <c r="O5" s="205" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="310" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="278" t="s">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="309" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="278"/>
-      <c r="I6" s="278"/>
-      <c r="J6" s="278"/>
-      <c r="K6" s="278"/>
-      <c r="L6" s="278"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206" t="s">
+      <c r="H6" s="309"/>
+      <c r="I6" s="309"/>
+      <c r="J6" s="309"/>
+      <c r="K6" s="309"/>
+      <c r="L6" s="309"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204" t="s">
         <v>374</v>
       </c>
-      <c r="O6" s="207" t="s">
+      <c r="O6" s="205" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="292" t="s">
+      <c r="A7" s="310" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="278"/>
-      <c r="H7" s="278"/>
-      <c r="I7" s="278"/>
-      <c r="J7" s="278"/>
-      <c r="K7" s="278"/>
-      <c r="L7" s="278"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="207"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="309"/>
+      <c r="H7" s="309"/>
+      <c r="I7" s="309"/>
+      <c r="J7" s="309"/>
+      <c r="K7" s="309"/>
+      <c r="L7" s="309"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="207"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="309"/>
+      <c r="H8" s="309"/>
+      <c r="I8" s="309"/>
+      <c r="J8" s="309"/>
+      <c r="K8" s="309"/>
+      <c r="L8" s="309"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="318" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="282"/>
+      <c r="B10" s="319"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="I11" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="J11" s="142" t="s">
         <v>269</v>
       </c>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
+      <c r="L11" s="184"/>
+      <c r="M11" s="184"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="356" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="I12" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="J12" s="147" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="144"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="233"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="297" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="291" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="281" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -8744,7 +8949,7 @@
       <c r="C23" t="s">
         <v>435</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>357</v>
       </c>
     </row>
@@ -8758,7 +8963,7 @@
       <c r="C24" t="s">
         <v>435</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="185" t="s">
         <v>323</v>
       </c>
     </row>
@@ -8772,7 +8977,7 @@
       <c r="C25" t="s">
         <v>435</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>324</v>
       </c>
     </row>
@@ -8786,7 +8991,7 @@
       <c r="C26" t="s">
         <v>435</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>344</v>
       </c>
     </row>
@@ -8800,7 +9005,7 @@
       <c r="C27" t="s">
         <v>435</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>325</v>
       </c>
     </row>
@@ -8814,7 +9019,7 @@
       <c r="C28" t="s">
         <v>435</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="185" t="s">
         <v>378</v>
       </c>
     </row>
@@ -8828,7 +9033,7 @@
       <c r="C29" t="s">
         <v>435</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="185" t="s">
         <v>377</v>
       </c>
     </row>
@@ -8842,7 +9047,7 @@
       <c r="C30" t="s">
         <v>435</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="185" t="s">
         <v>379</v>
       </c>
     </row>
@@ -8856,7 +9061,7 @@
       <c r="C31" t="s">
         <v>435</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="185" t="s">
         <v>332</v>
       </c>
     </row>
@@ -8870,7 +9075,7 @@
       <c r="C32" t="s">
         <v>435</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="185" t="s">
         <v>380</v>
       </c>
     </row>
@@ -8884,7 +9089,7 @@
       <c r="C33" t="s">
         <v>435</v>
       </c>
-      <c r="D33" s="187" t="s">
+      <c r="D33" s="185" t="s">
         <v>381</v>
       </c>
     </row>
@@ -8898,7 +9103,7 @@
       <c r="C34" t="s">
         <v>435</v>
       </c>
-      <c r="D34" s="175" t="s">
+      <c r="D34" s="174" t="s">
         <v>382</v>
       </c>
     </row>
@@ -8912,7 +9117,7 @@
       <c r="C35" t="s">
         <v>435</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="174" t="s">
         <v>383</v>
       </c>
     </row>
@@ -8926,7 +9131,7 @@
       <c r="C36" t="s">
         <v>435</v>
       </c>
-      <c r="D36" s="175" t="s">
+      <c r="D36" s="174" t="s">
         <v>384</v>
       </c>
     </row>
@@ -8940,7 +9145,7 @@
       <c r="C37" t="s">
         <v>435</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="174" t="s">
         <v>385</v>
       </c>
     </row>
@@ -8954,7 +9159,7 @@
       <c r="C38" t="s">
         <v>435</v>
       </c>
-      <c r="D38" s="175" t="s">
+      <c r="D38" s="174" t="s">
         <v>386</v>
       </c>
     </row>
@@ -8968,7 +9173,7 @@
       <c r="C39" t="s">
         <v>435</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="174" t="s">
         <v>387</v>
       </c>
     </row>
@@ -8982,7 +9187,7 @@
       <c r="C40" t="s">
         <v>435</v>
       </c>
-      <c r="D40" s="175" t="s">
+      <c r="D40" s="174" t="s">
         <v>388</v>
       </c>
     </row>
@@ -8996,7 +9201,7 @@
       <c r="C41" t="s">
         <v>435</v>
       </c>
-      <c r="D41" s="175" t="s">
+      <c r="D41" s="174" t="s">
         <v>436</v>
       </c>
     </row>
@@ -9010,7 +9215,7 @@
       <c r="C42" t="s">
         <v>435</v>
       </c>
-      <c r="D42" s="175" t="s">
+      <c r="D42" s="174" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9024,7 +9229,7 @@
       <c r="C43" t="s">
         <v>435</v>
       </c>
-      <c r="D43" s="175" t="s">
+      <c r="D43" s="174" t="s">
         <v>437</v>
       </c>
     </row>
@@ -9038,7 +9243,7 @@
       <c r="C44" t="s">
         <v>435</v>
       </c>
-      <c r="D44" s="175" t="s">
+      <c r="D44" s="174" t="s">
         <v>389</v>
       </c>
     </row>
@@ -9052,7 +9257,7 @@
       <c r="C45" t="s">
         <v>435</v>
       </c>
-      <c r="D45" s="175" t="s">
+      <c r="D45" s="174" t="s">
         <v>438</v>
       </c>
     </row>
@@ -9066,7 +9271,7 @@
       <c r="C46" t="s">
         <v>435</v>
       </c>
-      <c r="D46" s="175" t="s">
+      <c r="D46" s="174" t="s">
         <v>439</v>
       </c>
     </row>
@@ -9080,7 +9285,7 @@
       <c r="C47" t="s">
         <v>435</v>
       </c>
-      <c r="D47" s="175" t="s">
+      <c r="D47" s="174" t="s">
         <v>440</v>
       </c>
     </row>
@@ -9094,7 +9299,7 @@
       <c r="C48" t="s">
         <v>435</v>
       </c>
-      <c r="D48" s="175" t="s">
+      <c r="D48" s="174" t="s">
         <v>441</v>
       </c>
     </row>
@@ -9108,7 +9313,7 @@
       <c r="C49" t="s">
         <v>435</v>
       </c>
-      <c r="D49" s="175" t="s">
+      <c r="D49" s="174" t="s">
         <v>442</v>
       </c>
     </row>
@@ -9122,7 +9327,7 @@
       <c r="C50" t="s">
         <v>435</v>
       </c>
-      <c r="D50" s="175" t="s">
+      <c r="D50" s="174" t="s">
         <v>443</v>
       </c>
     </row>
@@ -9136,7 +9341,7 @@
       <c r="C51" t="s">
         <v>435</v>
       </c>
-      <c r="D51" s="175" t="s">
+      <c r="D51" s="174" t="s">
         <v>444</v>
       </c>
     </row>
@@ -9150,7 +9355,7 @@
       <c r="C52" t="s">
         <v>435</v>
       </c>
-      <c r="D52" s="187" t="s">
+      <c r="D52" s="185" t="s">
         <v>381</v>
       </c>
     </row>
@@ -9164,26 +9369,12 @@
       <c r="C53" t="s">
         <v>435</v>
       </c>
-      <c r="D53" s="175" t="s">
+      <c r="D53" s="174" t="s">
         <v>390</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9196,6 +9387,20 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9262,7 +9467,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="A16" sqref="A16:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9287,374 +9492,381 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="313" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="295"/>
-      <c r="I1" s="295"/>
-      <c r="J1" s="295"/>
-      <c r="K1" s="295"/>
-      <c r="L1" s="295"/>
-      <c r="M1" s="295"/>
-      <c r="N1" s="295"/>
-      <c r="O1" s="295"/>
-      <c r="P1" s="295"/>
-      <c r="Q1" s="31"/>
+      <c r="B1" s="313"/>
+      <c r="C1" s="313"/>
+      <c r="D1" s="313"/>
+      <c r="E1" s="313"/>
+      <c r="F1" s="313"/>
+      <c r="G1" s="313"/>
+      <c r="H1" s="313"/>
+      <c r="I1" s="313"/>
+      <c r="J1" s="313"/>
+      <c r="K1" s="313"/>
+      <c r="L1" s="313"/>
+      <c r="M1" s="313"/>
+      <c r="N1" s="313"/>
+      <c r="O1" s="313"/>
+      <c r="P1" s="313"/>
+      <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="296" t="s">
+      <c r="A2" s="314" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
-      <c r="F2" s="296"/>
-      <c r="G2" s="296" t="s">
+      <c r="B2" s="314"/>
+      <c r="C2" s="314"/>
+      <c r="D2" s="314"/>
+      <c r="E2" s="314"/>
+      <c r="F2" s="314"/>
+      <c r="G2" s="314" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="296"/>
-      <c r="I2" s="296"/>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="279" t="s">
+      <c r="H2" s="314"/>
+      <c r="I2" s="314"/>
+      <c r="J2" s="314"/>
+      <c r="K2" s="314"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="317" t="s">
         <v>284</v>
       </c>
-      <c r="N2" s="279"/>
-      <c r="O2" s="279"/>
-      <c r="P2" s="279"/>
-      <c r="Q2" s="88"/>
+      <c r="N2" s="317"/>
+      <c r="O2" s="317"/>
+      <c r="P2" s="317"/>
+      <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="298" t="s">
+      <c r="A3" s="316" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="298" t="s">
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="298"/>
-      <c r="I3" s="298"/>
-      <c r="J3" s="298"/>
-      <c r="K3" s="298"/>
-      <c r="L3" s="298"/>
-      <c r="M3" s="204" t="s">
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="316"/>
+      <c r="K3" s="316"/>
+      <c r="L3" s="316"/>
+      <c r="M3" s="202" t="s">
         <v>288</v>
       </c>
-      <c r="N3" s="204" t="s">
+      <c r="N3" s="202" t="s">
         <v>287</v>
       </c>
-      <c r="O3" s="204" t="s">
+      <c r="O3" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="P3" s="204" t="s">
+      <c r="P3" s="202" t="s">
         <v>355</v>
       </c>
-      <c r="Q3" s="194"/>
+      <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="289" t="s">
+      <c r="A4" s="327" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="297" t="s">
+      <c r="B4" s="328"/>
+      <c r="C4" s="328"/>
+      <c r="D4" s="328"/>
+      <c r="E4" s="328"/>
+      <c r="F4" s="329"/>
+      <c r="G4" s="315" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="297"/>
-      <c r="I4" s="297"/>
-      <c r="J4" s="297"/>
-      <c r="K4" s="297"/>
-      <c r="L4" s="297"/>
-      <c r="M4" s="205" t="s">
+      <c r="H4" s="315"/>
+      <c r="I4" s="315"/>
+      <c r="J4" s="315"/>
+      <c r="K4" s="315"/>
+      <c r="L4" s="315"/>
+      <c r="M4" s="203" t="s">
         <v>245</v>
       </c>
-      <c r="N4" s="205" t="s">
+      <c r="N4" s="203" t="s">
         <v>152</v>
       </c>
-      <c r="O4" s="205" t="s">
+      <c r="O4" s="203" t="s">
         <v>356</v>
       </c>
-      <c r="P4" s="205" t="s">
+      <c r="P4" s="203" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="292"/>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="294"/>
-      <c r="G5" s="299" t="s">
+      <c r="A5" s="310"/>
+      <c r="B5" s="311"/>
+      <c r="C5" s="311"/>
+      <c r="D5" s="311"/>
+      <c r="E5" s="311"/>
+      <c r="F5" s="312"/>
+      <c r="G5" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="299"/>
-      <c r="I5" s="299"/>
-      <c r="J5" s="299"/>
-      <c r="K5" s="299"/>
-      <c r="L5" s="299"/>
-      <c r="M5" s="206" t="s">
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
+      <c r="J5" s="330"/>
+      <c r="K5" s="330"/>
+      <c r="L5" s="330"/>
+      <c r="M5" s="204" t="s">
         <v>281</v>
       </c>
-      <c r="N5" s="206"/>
-      <c r="O5" s="206" t="s">
+      <c r="N5" s="204"/>
+      <c r="O5" s="204" t="s">
         <v>486</v>
       </c>
-      <c r="P5" s="206" t="s">
+      <c r="P5" s="204" t="s">
         <v>487</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="292" t="s">
+      <c r="A6" s="310" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="293"/>
-      <c r="C6" s="293"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="294"/>
-      <c r="G6" s="299" t="s">
+      <c r="B6" s="311"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="311"/>
+      <c r="E6" s="311"/>
+      <c r="F6" s="312"/>
+      <c r="G6" s="330" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="299"/>
-      <c r="I6" s="299"/>
-      <c r="J6" s="299"/>
-      <c r="K6" s="299"/>
-      <c r="L6" s="299"/>
-      <c r="M6" s="206"/>
-      <c r="N6" s="206"/>
-      <c r="O6" s="206" t="s">
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
+      <c r="J6" s="330"/>
+      <c r="K6" s="330"/>
+      <c r="L6" s="330"/>
+      <c r="M6" s="204"/>
+      <c r="N6" s="204"/>
+      <c r="O6" s="204" t="s">
         <v>489</v>
       </c>
-      <c r="P6" s="206" t="s">
+      <c r="P6" s="204" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="292"/>
-      <c r="B7" s="293"/>
-      <c r="C7" s="293"/>
-      <c r="D7" s="293"/>
-      <c r="E7" s="293"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="299"/>
-      <c r="H7" s="299"/>
-      <c r="I7" s="299"/>
-      <c r="J7" s="299"/>
-      <c r="K7" s="299"/>
-      <c r="L7" s="299"/>
-      <c r="M7" s="206"/>
-      <c r="N7" s="206"/>
-      <c r="O7" s="206"/>
-      <c r="P7" s="207"/>
+      <c r="A7" s="310"/>
+      <c r="B7" s="311"/>
+      <c r="C7" s="311"/>
+      <c r="D7" s="311"/>
+      <c r="E7" s="311"/>
+      <c r="F7" s="312"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
+      <c r="J7" s="330"/>
+      <c r="K7" s="330"/>
+      <c r="L7" s="330"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
+      <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="292"/>
-      <c r="B8" s="293"/>
-      <c r="C8" s="293"/>
-      <c r="D8" s="293"/>
-      <c r="E8" s="293"/>
-      <c r="F8" s="294"/>
-      <c r="G8" s="299"/>
-      <c r="H8" s="299"/>
-      <c r="I8" s="299"/>
-      <c r="J8" s="299"/>
-      <c r="K8" s="299"/>
-      <c r="L8" s="299"/>
-      <c r="M8" s="206"/>
-      <c r="N8" s="206"/>
-      <c r="O8" s="206"/>
-      <c r="P8" s="207"/>
+      <c r="A8" s="310"/>
+      <c r="B8" s="311"/>
+      <c r="C8" s="311"/>
+      <c r="D8" s="311"/>
+      <c r="E8" s="311"/>
+      <c r="F8" s="312"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
+      <c r="J8" s="330"/>
+      <c r="K8" s="330"/>
+      <c r="L8" s="330"/>
+      <c r="M8" s="204"/>
+      <c r="N8" s="204"/>
+      <c r="O8" s="204"/>
+      <c r="P8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="280" t="s">
+      <c r="A10" s="318" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="281"/>
-      <c r="H10" s="281"/>
-      <c r="I10" s="282"/>
-    </row>
-    <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="130" t="s">
+      <c r="B10" s="319"/>
+      <c r="C10" s="319"/>
+      <c r="D10" s="319"/>
+      <c r="E10" s="319"/>
+      <c r="F10" s="319"/>
+      <c r="G10" s="319"/>
+      <c r="H10" s="319"/>
+      <c r="I10" s="320"/>
+    </row>
+    <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="129" t="s">
         <v>274</v>
       </c>
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="130" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="188" t="s">
+      <c r="C11" s="186" t="s">
         <v>355</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="355" t="s">
         <v>263</v>
       </c>
-      <c r="F11" s="124" t="s">
+      <c r="F11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="G11" s="131" t="s">
+      <c r="G11" s="123" t="s">
+        <v>263</v>
+      </c>
+      <c r="H11" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="H11" s="131" t="s">
+      <c r="I11" s="130" t="s">
         <v>269</v>
       </c>
-      <c r="I11" s="143" t="s">
+      <c r="J11" s="142" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="147"/>
-      <c r="B12" s="146" t="s">
+      <c r="A12" s="146"/>
+      <c r="B12" s="145" t="s">
         <v>244</v>
       </c>
-      <c r="C12" s="96" t="s">
+      <c r="C12" s="95" t="s">
         <v>354</v>
       </c>
-      <c r="D12" s="146" t="s">
+      <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="146" t="s">
+      <c r="E12" s="356" t="s">
+        <v>537</v>
+      </c>
+      <c r="F12" s="145" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="146" t="s">
+      <c r="G12" s="145" t="s">
         <v>94</v>
       </c>
-      <c r="G12" s="146" t="s">
+      <c r="H12" s="145" t="s">
         <v>246</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="I12" s="145" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="148" t="s">
+      <c r="J12" s="147" t="s">
         <v>248</v>
       </c>
-      <c r="K12" s="163"/>
+      <c r="L12" s="162"/>
     </row>
     <row r="13" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="145"/>
-      <c r="B13" s="97"/>
-      <c r="C13" s="97"/>
-      <c r="D13" s="152">
+      <c r="A13" s="144"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="151">
         <v>100</v>
       </c>
-      <c r="E13" s="152">
+      <c r="E13" s="233"/>
+      <c r="F13" s="151">
         <v>0</v>
       </c>
-      <c r="F13" s="152"/>
-      <c r="G13" s="152">
+      <c r="G13" s="151"/>
+      <c r="H13" s="151">
         <v>4</v>
       </c>
-      <c r="H13" s="152">
+      <c r="I13" s="151">
         <v>10</v>
       </c>
-      <c r="I13" s="153">
+      <c r="J13" s="152">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="269" t="s">
+      <c r="A15" s="297" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="270"/>
-      <c r="C15" s="270"/>
-      <c r="D15" s="270"/>
-      <c r="E15" s="270"/>
-      <c r="F15" s="270"/>
-      <c r="G15" s="270"/>
-      <c r="H15" s="271"/>
+      <c r="B15" s="298"/>
+      <c r="C15" s="298"/>
+      <c r="D15" s="298"/>
+      <c r="E15" s="298"/>
+      <c r="F15" s="298"/>
+      <c r="G15" s="298"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="263" t="s">
+      <c r="A16" s="291" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="264"/>
-      <c r="C16" s="264"/>
-      <c r="D16" s="264"/>
-      <c r="E16" s="264"/>
-      <c r="F16" s="264"/>
-      <c r="G16" s="264"/>
-      <c r="H16" s="265"/>
+      <c r="B16" s="292"/>
+      <c r="C16" s="292"/>
+      <c r="D16" s="292"/>
+      <c r="E16" s="292"/>
+      <c r="F16" s="292"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="293"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="263"/>
-      <c r="B17" s="264"/>
-      <c r="C17" s="264"/>
-      <c r="D17" s="264"/>
-      <c r="E17" s="264"/>
-      <c r="F17" s="264"/>
-      <c r="G17" s="264"/>
-      <c r="H17" s="265"/>
+      <c r="A17" s="291"/>
+      <c r="B17" s="292"/>
+      <c r="C17" s="292"/>
+      <c r="D17" s="292"/>
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="293"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="263"/>
-      <c r="B18" s="264"/>
-      <c r="C18" s="264"/>
-      <c r="D18" s="264"/>
-      <c r="E18" s="264"/>
-      <c r="F18" s="264"/>
-      <c r="G18" s="264"/>
-      <c r="H18" s="265"/>
+      <c r="A18" s="291"/>
+      <c r="B18" s="292"/>
+      <c r="C18" s="292"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="293"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="266"/>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="267"/>
-      <c r="H19" s="268"/>
+      <c r="A19" s="294"/>
+      <c r="B19" s="295"/>
+      <c r="C19" s="295"/>
+      <c r="D19" s="295"/>
+      <c r="E19" s="295"/>
+      <c r="F19" s="295"/>
+      <c r="G19" s="295"/>
+      <c r="H19" s="296"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="253" t="s">
+      <c r="A21" s="281" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="253"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="253"/>
-      <c r="E21" s="253"/>
-      <c r="F21" s="253"/>
-      <c r="G21" s="253"/>
+      <c r="B21" s="281"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="281"/>
+      <c r="F21" s="281"/>
+      <c r="G21" s="281"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="77" t="s">
         <v>303</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>297</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="252" t="s">
+      <c r="D22" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="252"/>
-      <c r="F22" s="252"/>
-      <c r="G22" s="252"/>
+      <c r="E22" s="280"/>
+      <c r="F22" s="280"/>
+      <c r="G22" s="280"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9666,7 +9878,7 @@
       <c r="C23" t="s">
         <v>445</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="174" t="s">
         <v>357</v>
       </c>
     </row>
@@ -9680,7 +9892,7 @@
       <c r="C24" t="s">
         <v>445</v>
       </c>
-      <c r="D24" s="187" t="s">
+      <c r="D24" s="185" t="s">
         <v>323</v>
       </c>
     </row>
@@ -9694,7 +9906,7 @@
       <c r="C25" t="s">
         <v>445</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="174" t="s">
         <v>324</v>
       </c>
     </row>
@@ -9708,7 +9920,7 @@
       <c r="C26" t="s">
         <v>445</v>
       </c>
-      <c r="D26" s="175" t="s">
+      <c r="D26" s="174" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9722,7 +9934,7 @@
       <c r="C27" t="s">
         <v>445</v>
       </c>
-      <c r="D27" s="178" t="s">
+      <c r="D27" s="177" t="s">
         <v>325</v>
       </c>
     </row>
@@ -9736,7 +9948,7 @@
       <c r="C28" t="s">
         <v>445</v>
       </c>
-      <c r="D28" s="187" t="s">
+      <c r="D28" s="185" t="s">
         <v>391</v>
       </c>
     </row>
@@ -9750,7 +9962,7 @@
       <c r="C29" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="187" t="s">
+      <c r="D29" s="185" t="s">
         <v>377</v>
       </c>
     </row>
@@ -9764,7 +9976,7 @@
       <c r="C30" t="s">
         <v>445</v>
       </c>
-      <c r="D30" s="187" t="s">
+      <c r="D30" s="185" t="s">
         <v>392</v>
       </c>
     </row>
@@ -9778,7 +9990,7 @@
       <c r="C31" t="s">
         <v>445</v>
       </c>
-      <c r="D31" s="187" t="s">
+      <c r="D31" s="185" t="s">
         <v>334</v>
       </c>
     </row>
@@ -9792,7 +10004,7 @@
       <c r="C32" t="s">
         <v>445</v>
       </c>
-      <c r="D32" s="187" t="s">
+      <c r="D32" s="185" t="s">
         <v>335</v>
       </c>
     </row>
@@ -9806,7 +10018,7 @@
       <c r="C33" t="s">
         <v>445</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="174" t="s">
         <v>393</v>
       </c>
     </row>
@@ -9820,12 +10032,19 @@
       <c r="C34" t="s">
         <v>445</v>
       </c>
-      <c r="D34" s="187" t="s">
+      <c r="D34" s="185" t="s">
         <v>338</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -9836,16 +10055,9 @@
     <mergeCell ref="G7:L7"/>
     <mergeCell ref="G8:L8"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A7:F7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9910,39 +10122,39 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" style="10" customWidth="1"/>
-    <col min="2" max="2" width="68.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="16" style="184" customWidth="1"/>
-    <col min="4" max="4" width="15.125" style="67" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="16" style="182" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="66" customWidth="1"/>
     <col min="5" max="5" width="9" style="10"/>
     <col min="6" max="6" width="30.625" style="10" customWidth="1"/>
     <col min="7" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="300" t="s">
+      <c r="A1" s="331" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="301"/>
-      <c r="C1" s="301"/>
-      <c r="D1" s="302"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="65"/>
+      <c r="B1" s="332"/>
+      <c r="C1" s="332"/>
+      <c r="D1" s="333"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="64"/>
     </row>
     <row r="2" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -9954,23 +10166,23 @@
       <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="347" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="134" t="s">
+      <c r="F2" s="133" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="23"/>
-      <c r="F3" s="135" t="s">
+      <c r="C3" s="179"/>
+      <c r="D3" s="22"/>
+      <c r="F3" s="134" t="s">
         <v>77</v>
       </c>
     </row>
@@ -9981,8 +10193,8 @@
       <c r="B4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="182"/>
-      <c r="D4" s="24">
+      <c r="C4" s="180"/>
+      <c r="D4" s="23">
         <v>0</v>
       </c>
       <c r="F4" s="11" t="s">
@@ -9996,671 +10208,879 @@
       <c r="B5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="182"/>
-      <c r="D5" s="24">
+      <c r="C5" s="180"/>
+      <c r="D5" s="23">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="200" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C6" s="348"/>
+      <c r="D6" s="23">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>501</v>
+      </c>
+      <c r="C7" s="349"/>
+      <c r="D7" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="182">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="C8" s="350"/>
+      <c r="D8" s="23">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="202" t="s">
-        <v>477</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C7" s="203"/>
-      <c r="D7" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="202" t="s">
-        <v>479</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C8" s="203"/>
-      <c r="D8" s="24">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="24"/>
+        <v>502</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="C9" s="350"/>
+      <c r="D9" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="181"/>
+      <c r="A10" s="200" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>505</v>
+      </c>
+      <c r="C10" s="348"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="182"/>
-      <c r="D11" s="24">
-        <v>0</v>
+        <v>477</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C11" s="201"/>
+      <c r="D11" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="182"/>
-      <c r="D12" s="25" t="s">
-        <v>66</v>
+      <c r="A12" s="200" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>507</v>
+      </c>
+      <c r="C12" s="348"/>
+      <c r="D12" s="23">
+        <v>10000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="182"/>
-      <c r="D13" s="25" t="s">
-        <v>67</v>
+      <c r="A13" s="200" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="C13" s="348"/>
+      <c r="D13" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="182"/>
-      <c r="D14" s="24">
-        <v>0</v>
-      </c>
+      <c r="A14" s="200" t="s">
+        <v>510</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="C14" s="348"/>
+      <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="182"/>
-      <c r="D15" s="24" t="s">
-        <v>29</v>
-      </c>
+      <c r="A15" s="200" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="C15" s="348"/>
+      <c r="D15" s="23"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="181"/>
-      <c r="D16" s="23"/>
+      <c r="A16" s="200" t="s">
+        <v>514</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C16" s="348"/>
+      <c r="D16" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="182"/>
-      <c r="D17" s="24"/>
+      <c r="A17" s="200" t="s">
+        <v>516</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="C17" s="348"/>
+      <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="182"/>
-      <c r="D18" s="24"/>
+      <c r="A18" s="200" t="s">
+        <v>518</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>519</v>
+      </c>
+      <c r="C18" s="348"/>
+      <c r="D18" s="23"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="182"/>
-      <c r="D19" s="24"/>
+        <v>479</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C19" s="201"/>
+      <c r="D19" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="182"/>
-      <c r="D20" s="24"/>
+        <v>100</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="180"/>
+      <c r="D20" s="23"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="182"/>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
+      <c r="A21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="179"/>
+      <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="182"/>
-      <c r="D22" s="24"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="180"/>
+      <c r="D22" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="182"/>
-      <c r="D23" s="24"/>
+        <v>69</v>
+      </c>
+      <c r="C23" s="180"/>
+      <c r="D23" s="24" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="182"/>
-      <c r="D24" s="24"/>
+        <v>68</v>
+      </c>
+      <c r="C24" s="180"/>
+      <c r="D24" s="24" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="181"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="180"/>
+      <c r="D25" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="182"/>
-      <c r="D26" s="24">
-        <v>100</v>
+        <v>30</v>
+      </c>
+      <c r="C26" s="180"/>
+      <c r="D26" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="182"/>
-      <c r="D27" s="24">
-        <v>65535</v>
-      </c>
+      <c r="A27" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="179"/>
+      <c r="D27" s="22"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="182"/>
-      <c r="D28" s="24">
-        <v>10</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C28" s="180"/>
+      <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="182"/>
-      <c r="D29" s="24">
-        <v>0.1</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C30" s="182"/>
-      <c r="D30" s="24"/>
+        <v>35</v>
+      </c>
+      <c r="C30" s="180"/>
+      <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C31" s="182"/>
-      <c r="D31" s="24"/>
+        <v>36</v>
+      </c>
+      <c r="C31" s="180"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="182"/>
-      <c r="D32" s="24"/>
+        <v>37</v>
+      </c>
+      <c r="C32" s="180"/>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="181"/>
+      <c r="A33" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="180"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="182"/>
-      <c r="D34" s="24"/>
+        <v>79</v>
+      </c>
+      <c r="C34" s="180"/>
+      <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="182"/>
-      <c r="D35" s="24">
-        <v>0.02</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C35" s="180"/>
+      <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C36" s="182"/>
-      <c r="D36" s="24"/>
+      <c r="A36" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="179"/>
+      <c r="D36" s="22"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" s="182"/>
-      <c r="D37" s="24"/>
-    </row>
-    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="C37" s="180"/>
+      <c r="D37" s="23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" s="182"/>
-      <c r="D38" s="24"/>
+        <v>42</v>
+      </c>
+      <c r="C38" s="180"/>
+      <c r="D38" s="23">
+        <v>65535</v>
+      </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="C39" s="182"/>
-      <c r="D39" s="25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="C39" s="180"/>
+      <c r="D39" s="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="182"/>
-      <c r="D40" s="25">
-        <v>0</v>
+        <v>44</v>
+      </c>
+      <c r="C40" s="180"/>
+      <c r="D40" s="23">
+        <v>0.1</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="181"/>
+      <c r="A41" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="180"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="15"/>
-      <c r="C42" s="182"/>
-      <c r="D42" s="24"/>
+        <v>119</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="180"/>
+      <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="C43" s="182"/>
-      <c r="D43" s="24"/>
+        <v>81</v>
+      </c>
+      <c r="C43" s="180"/>
+      <c r="D43" s="23"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="182"/>
-      <c r="D44" s="24"/>
+      <c r="A44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="179"/>
+      <c r="D44" s="22"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" s="182"/>
-      <c r="D45" s="24"/>
+        <v>49</v>
+      </c>
+      <c r="C45" s="180"/>
+      <c r="D45" s="23"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>166</v>
+        <v>122</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="C46" s="182"/>
-      <c r="D46" s="24"/>
+        <v>50</v>
+      </c>
+      <c r="C46" s="180"/>
+      <c r="D46" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="182"/>
-      <c r="D47" s="24"/>
+        <v>51</v>
+      </c>
+      <c r="C47" s="180"/>
+      <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="C48" s="182"/>
-      <c r="D48" s="24"/>
+        <v>52</v>
+      </c>
+      <c r="C48" s="180"/>
+      <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="182"/>
-      <c r="D49" s="24"/>
+        <v>53</v>
+      </c>
+      <c r="C49" s="180"/>
+      <c r="D49" s="23"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="182"/>
-      <c r="D50" s="24"/>
+        <v>71</v>
+      </c>
+      <c r="C50" s="180"/>
+      <c r="D50" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="182"/>
-      <c r="D51" s="24"/>
+        <v>165</v>
+      </c>
+      <c r="C51" s="180"/>
+      <c r="D51" s="24">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="182"/>
-      <c r="D52" s="24"/>
+      <c r="A52" s="21" t="s">
+        <v>520</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="C52" s="351"/>
+      <c r="D52" s="352"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B53" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="C53" s="182"/>
-      <c r="D53" s="24">
-        <v>1</v>
+        <v>522</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>523</v>
+      </c>
+      <c r="C53" s="349"/>
+      <c r="D53" s="353">
+        <v>0.02</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" s="182"/>
-      <c r="D54" s="24">
-        <v>1</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>525</v>
+      </c>
+      <c r="C54" s="349"/>
+      <c r="D54" s="353"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C55" s="182"/>
-      <c r="D55" s="24">
-        <v>1</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="C55" s="349"/>
+      <c r="D55" s="353"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C56" s="182"/>
-      <c r="D56" s="24">
-        <v>1</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>529</v>
+      </c>
+      <c r="C56" s="349"/>
+      <c r="D56" s="353"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="B57" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" s="182"/>
-      <c r="D57" s="24">
-        <v>1</v>
+        <v>530</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C57" s="349"/>
+      <c r="D57" s="24" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B58" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C58" s="182"/>
-      <c r="D58" s="24">
-        <v>0</v>
-      </c>
+      <c r="A58" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="179"/>
+      <c r="D58" s="22"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="182"/>
-      <c r="D59" s="24"/>
+        <v>127</v>
+      </c>
+      <c r="B59" s="15"/>
+      <c r="C59" s="180"/>
+      <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="182"/>
-      <c r="D60" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="C60" s="180"/>
+      <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C61" s="181"/>
-      <c r="D61" s="180"/>
+      <c r="A61" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="180"/>
+      <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B62" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C62" s="182"/>
-      <c r="D62" s="26">
-        <v>0</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="180"/>
+      <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="22" t="s">
-        <v>339</v>
-      </c>
-      <c r="B63" s="179"/>
-      <c r="C63" s="181"/>
-      <c r="D63" s="180"/>
+      <c r="A63" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="180"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="180"/>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C65" s="180"/>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C66" s="180"/>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C67" s="180"/>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C68" s="180"/>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C69" s="180"/>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="180"/>
+      <c r="D70" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71" s="180"/>
+      <c r="D71" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="180"/>
+      <c r="D72" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="180"/>
+      <c r="D73" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" s="180"/>
+      <c r="D74" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="180"/>
+      <c r="D75" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C76" s="180"/>
+      <c r="D76" s="23"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" s="180"/>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B78" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="179"/>
+      <c r="D78" s="178"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C79" s="180"/>
+      <c r="D79" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="C80" s="179"/>
+      <c r="D80" s="178"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="B64" s="16" t="s">
+      <c r="B81" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="C64" s="182"/>
-      <c r="D64" s="26">
+      <c r="C81" s="180"/>
+      <c r="D81" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="22" t="s">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21" t="s">
+        <v>533</v>
+      </c>
+      <c r="B82" s="354" t="s">
+        <v>534</v>
+      </c>
+      <c r="C82" s="179"/>
+      <c r="D82" s="178"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>535</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C83" s="180"/>
+      <c r="D83" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21" t="s">
         <v>153</v>
       </c>
-      <c r="B65" s="17" t="s">
+      <c r="B84" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="181"/>
-      <c r="D65" s="180"/>
-    </row>
-    <row r="66" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
+      <c r="C84" s="179"/>
+      <c r="D84" s="178"/>
+    </row>
+    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B85" s="27" t="s">
         <v>156</v>
       </c>
-      <c r="C66" s="183"/>
-      <c r="D66" s="29">
+      <c r="C85" s="181"/>
+      <c r="D85" s="28">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="e8kOAtFlpesjtn2br0yWcMpJ0DR209aE1yKF50VLzsPmXh5YkSkNGPUjF34NepgBd0tNNjIcbP5PGt3vMdgCiw==" saltValue="lwyCEHXZ04Z8PX//kotMKw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -10694,163 +11114,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="306" t="s">
+      <c r="A1" s="337" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="307"/>
-      <c r="C1" s="307"/>
-      <c r="D1" s="307"/>
-      <c r="E1" s="307"/>
-      <c r="F1" s="307"/>
-      <c r="G1" s="307"/>
-      <c r="H1" s="307"/>
-      <c r="I1" s="307"/>
-      <c r="J1" s="307"/>
-      <c r="K1" s="307"/>
-      <c r="L1" s="307"/>
-      <c r="M1" s="307"/>
-      <c r="N1" s="307"/>
-      <c r="O1" s="307"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="336"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B4" s="37"/>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="36"/>
+      <c r="C4" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="H4" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="38" t="s">
+      <c r="I4" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="40">
+      <c r="B5" s="39">
         <v>1</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="40"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="40">
+      <c r="B6" s="39">
         <v>2</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="42"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="40">
+      <c r="B7" s="39">
         <v>3</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="40">
+      <c r="B8" s="39">
         <v>4</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="42"/>
-      <c r="N8" s="36"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="41"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="40">
+      <c r="B9" s="39">
         <v>5</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="42"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B10" s="40">
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="42"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B11" s="43">
+      <c r="B11" s="42">
         <v>7</v>
       </c>
       <c r="C11" s="3"/>
@@ -10860,10 +11280,10 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="44"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B12" s="43">
+      <c r="B12" s="42">
         <v>8</v>
       </c>
       <c r="C12" s="3"/>
@@ -10873,10 +11293,10 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="44"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B13" s="43">
+      <c r="B13" s="42">
         <v>9</v>
       </c>
       <c r="C13" s="3"/>
@@ -10886,10 +11306,10 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="44"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B14" s="43">
+      <c r="B14" s="42">
         <v>10</v>
       </c>
       <c r="C14" s="3"/>
@@ -10899,10 +11319,10 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="44"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:15" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B15" s="43">
+      <c r="B15" s="42">
         <v>11</v>
       </c>
       <c r="C15" s="3"/>
@@ -10912,10 +11332,10 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="44"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:15" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="45">
+      <c r="B16" s="44">
         <v>12</v>
       </c>
       <c r="C16" s="6"/>
@@ -10929,190 +11349,190 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="303" t="s">
+      <c r="B19" s="334" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="304"/>
-      <c r="D19" s="304"/>
-      <c r="E19" s="304"/>
-      <c r="F19" s="304"/>
-      <c r="G19" s="304"/>
-      <c r="H19" s="304"/>
-      <c r="I19" s="304"/>
-      <c r="J19" s="304"/>
-      <c r="K19" s="304"/>
-      <c r="L19" s="304"/>
-      <c r="M19" s="304"/>
-      <c r="N19" s="305"/>
+      <c r="C19" s="335"/>
+      <c r="D19" s="335"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="335"/>
+      <c r="H19" s="335"/>
+      <c r="I19" s="335"/>
+      <c r="J19" s="335"/>
+      <c r="K19" s="335"/>
+      <c r="L19" s="335"/>
+      <c r="M19" s="335"/>
+      <c r="N19" s="336"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B20" s="37"/>
-      <c r="C20" s="46">
+      <c r="B20" s="36"/>
+      <c r="C20" s="45">
         <v>1</v>
       </c>
-      <c r="D20" s="46">
+      <c r="D20" s="45">
         <v>2</v>
       </c>
-      <c r="E20" s="46">
+      <c r="E20" s="45">
         <v>3</v>
       </c>
-      <c r="F20" s="46">
+      <c r="F20" s="45">
         <v>4</v>
       </c>
-      <c r="G20" s="46">
+      <c r="G20" s="45">
         <v>5</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="45">
         <v>6</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="46">
         <v>7</v>
       </c>
-      <c r="J20" s="47">
+      <c r="J20" s="46">
         <v>8</v>
       </c>
-      <c r="K20" s="47">
+      <c r="K20" s="46">
         <v>9</v>
       </c>
-      <c r="L20" s="47">
+      <c r="L20" s="46">
         <v>10</v>
       </c>
-      <c r="M20" s="47">
+      <c r="M20" s="46">
         <v>11</v>
       </c>
-      <c r="N20" s="48">
+      <c r="N20" s="47">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B21" s="49" t="s">
+      <c r="B21" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
-      <c r="N21" s="44"/>
+      <c r="N21" s="43"/>
     </row>
     <row r="22" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
-      <c r="N22" s="44"/>
+      <c r="N22" s="43"/>
     </row>
     <row r="23" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
-      <c r="N23" s="44"/>
+      <c r="N23" s="43"/>
     </row>
     <row r="24" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
-      <c r="N24" s="44"/>
+      <c r="N24" s="43"/>
     </row>
     <row r="25" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="44"/>
+      <c r="N25" s="43"/>
     </row>
     <row r="26" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="48" t="s">
         <v>222</v>
       </c>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
+      <c r="C26" s="40"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="44"/>
+      <c r="N26" s="43"/>
     </row>
     <row r="27" spans="2:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="44"/>
+      <c r="N27" s="43"/>
     </row>
     <row r="28" spans="2:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>224</v>
       </c>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="50"/>
+      <c r="H28" s="50"/>
       <c r="I28" s="6"/>
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
@@ -11145,122 +11565,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="342" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="312"/>
-      <c r="C1" s="312"/>
-      <c r="D1" s="312"/>
-      <c r="E1" s="312"/>
-      <c r="F1" s="312"/>
-      <c r="G1" s="312"/>
-      <c r="H1" s="312"/>
-      <c r="I1" s="312"/>
-      <c r="J1" s="312"/>
-      <c r="K1" s="312"/>
-      <c r="L1" s="312"/>
-      <c r="M1" s="312"/>
-      <c r="N1" s="312"/>
-      <c r="O1" s="312"/>
-      <c r="P1" s="312"/>
-      <c r="Q1" s="312"/>
-      <c r="R1" s="312"/>
-      <c r="S1" s="312"/>
+      <c r="B1" s="343"/>
+      <c r="C1" s="343"/>
+      <c r="D1" s="343"/>
+      <c r="E1" s="343"/>
+      <c r="F1" s="343"/>
+      <c r="G1" s="343"/>
+      <c r="H1" s="343"/>
+      <c r="I1" s="343"/>
+      <c r="J1" s="343"/>
+      <c r="K1" s="343"/>
+      <c r="L1" s="343"/>
+      <c r="M1" s="343"/>
+      <c r="N1" s="343"/>
+      <c r="O1" s="343"/>
+      <c r="P1" s="343"/>
+      <c r="Q1" s="343"/>
+      <c r="R1" s="343"/>
+      <c r="S1" s="343"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="304"/>
-      <c r="I3" s="304"/>
-      <c r="J3" s="305"/>
-      <c r="L3" s="308" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="335"/>
+      <c r="I3" s="335"/>
+      <c r="J3" s="336"/>
+      <c r="L3" s="339" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="309"/>
-      <c r="N3" s="309"/>
-      <c r="O3" s="309"/>
-      <c r="P3" s="309"/>
-      <c r="Q3" s="309"/>
-      <c r="R3" s="310"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="340"/>
+      <c r="O3" s="340"/>
+      <c r="P3" s="340"/>
+      <c r="Q3" s="340"/>
+      <c r="R3" s="341"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
     </row>
     <row r="4" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="58">
+      <c r="B4" s="36"/>
+      <c r="C4" s="57">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>6</v>
       </c>
-      <c r="I4" s="59">
+      <c r="I4" s="58">
         <v>7</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="47">
         <v>8</v>
       </c>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="N4" s="38" t="s">
+      <c r="N4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="38" t="s">
+      <c r="O4" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="P4" s="38" t="s">
+      <c r="P4" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="Q4" s="38" t="s">
+      <c r="Q4" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="38" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="44"/>
-      <c r="L5" s="40">
+      <c r="I5" s="60"/>
+      <c r="J5" s="43"/>
+      <c r="L5" s="39">
         <v>1</v>
       </c>
       <c r="M5" s="3"/>
@@ -11268,21 +11688,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="R5" s="44"/>
+      <c r="R5" s="43"/>
     </row>
     <row r="6" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>218</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="44"/>
-      <c r="L6" s="40">
+      <c r="I6" s="60"/>
+      <c r="J6" s="43"/>
+      <c r="L6" s="39">
         <v>2</v>
       </c>
       <c r="M6" s="3"/>
@@ -11290,21 +11710,21 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="R6" s="44"/>
+      <c r="R6" s="43"/>
     </row>
     <row r="7" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="44"/>
-      <c r="L7" s="40">
+      <c r="I7" s="60"/>
+      <c r="J7" s="43"/>
+      <c r="L7" s="39">
         <v>3</v>
       </c>
       <c r="M7" s="3"/>
@@ -11312,21 +11732,21 @@
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
-      <c r="R7" s="44"/>
+      <c r="R7" s="43"/>
     </row>
     <row r="8" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="44"/>
-      <c r="L8" s="40">
+      <c r="I8" s="60"/>
+      <c r="J8" s="43"/>
+      <c r="L8" s="39">
         <v>4</v>
       </c>
       <c r="M8" s="3"/>
@@ -11334,21 +11754,21 @@
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
-      <c r="R8" s="44"/>
+      <c r="R8" s="43"/>
     </row>
     <row r="9" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="59"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="61"/>
-      <c r="J9" s="44"/>
-      <c r="L9" s="40">
+      <c r="I9" s="60"/>
+      <c r="J9" s="43"/>
+      <c r="L9" s="39">
         <v>5</v>
       </c>
       <c r="M9" s="3"/>
@@ -11356,21 +11776,21 @@
       <c r="O9" s="3"/>
       <c r="P9" s="3"/>
       <c r="Q9" s="3"/>
-      <c r="R9" s="44"/>
+      <c r="R9" s="43"/>
     </row>
     <row r="10" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="63"/>
+      <c r="I10" s="62"/>
       <c r="J10" s="7"/>
-      <c r="L10" s="40">
+      <c r="L10" s="39">
         <v>6</v>
       </c>
       <c r="M10" s="3"/>
@@ -11378,10 +11798,10 @@
       <c r="O10" s="3"/>
       <c r="P10" s="3"/>
       <c r="Q10" s="3"/>
-      <c r="R10" s="44"/>
+      <c r="R10" s="43"/>
     </row>
     <row r="11" spans="1:20" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="L11" s="43">
+      <c r="L11" s="42">
         <v>7</v>
       </c>
       <c r="M11" s="3"/>
@@ -11389,10 +11809,10 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-      <c r="R11" s="44"/>
+      <c r="R11" s="43"/>
     </row>
     <row r="12" spans="1:20" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="L12" s="45">
+      <c r="L12" s="44">
         <v>8</v>
       </c>
       <c r="M12" s="6"/>
@@ -11429,90 +11849,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="344" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="314"/>
-      <c r="C1" s="314"/>
-      <c r="D1" s="314"/>
-      <c r="E1" s="314"/>
-      <c r="F1" s="314"/>
-      <c r="G1" s="314"/>
-      <c r="H1" s="314"/>
-      <c r="I1" s="314"/>
-      <c r="J1" s="314"/>
-      <c r="K1" s="314"/>
-      <c r="L1" s="314"/>
-      <c r="M1" s="314"/>
-      <c r="N1" s="314"/>
-      <c r="O1" s="315"/>
+      <c r="B1" s="345"/>
+      <c r="C1" s="345"/>
+      <c r="D1" s="345"/>
+      <c r="E1" s="345"/>
+      <c r="F1" s="345"/>
+      <c r="G1" s="345"/>
+      <c r="H1" s="345"/>
+      <c r="I1" s="345"/>
+      <c r="J1" s="345"/>
+      <c r="K1" s="345"/>
+      <c r="L1" s="345"/>
+      <c r="M1" s="345"/>
+      <c r="N1" s="345"/>
+      <c r="O1" s="346"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="52"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="303" t="s">
+      <c r="B3" s="334" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="304"/>
-      <c r="D3" s="304"/>
-      <c r="E3" s="304"/>
-      <c r="F3" s="304"/>
-      <c r="G3" s="304"/>
-      <c r="H3" s="305"/>
-      <c r="J3" s="308" t="s">
+      <c r="C3" s="335"/>
+      <c r="D3" s="335"/>
+      <c r="E3" s="335"/>
+      <c r="F3" s="335"/>
+      <c r="G3" s="335"/>
+      <c r="H3" s="336"/>
+      <c r="J3" s="339" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="309"/>
-      <c r="L3" s="309"/>
-      <c r="M3" s="309"/>
-      <c r="N3" s="310"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
+      <c r="K3" s="340"/>
+      <c r="L3" s="340"/>
+      <c r="M3" s="340"/>
+      <c r="N3" s="341"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B4" s="37"/>
-      <c r="C4" s="46">
+      <c r="B4" s="36"/>
+      <c r="C4" s="45">
         <v>1</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>2</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>3</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="45">
         <v>4</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>5</v>
       </c>
-      <c r="H4" s="53">
+      <c r="H4" s="52">
         <v>6</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="K4" s="38" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="38" t="s">
+      <c r="M4" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="38" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="48" t="s">
         <v>217</v>
       </c>
       <c r="C5" s="3"/>
@@ -11520,17 +11940,17 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="J5" s="40">
+      <c r="H5" s="43"/>
+      <c r="J5" s="39">
         <v>1</v>
       </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
     </row>
     <row r="6" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="48" t="s">
         <v>218</v>
       </c>
       <c r="C6" s="3"/>
@@ -11538,17 +11958,17 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="44"/>
-      <c r="J6" s="40">
+      <c r="H6" s="43"/>
+      <c r="J6" s="39">
         <v>2</v>
       </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
-      <c r="N6" s="44"/>
+      <c r="N6" s="43"/>
     </row>
     <row r="7" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="48" t="s">
         <v>219</v>
       </c>
       <c r="C7" s="3"/>
@@ -11556,17 +11976,17 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="44"/>
-      <c r="J7" s="40">
+      <c r="H7" s="43"/>
+      <c r="J7" s="39">
         <v>3</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="44"/>
+      <c r="N7" s="43"/>
     </row>
     <row r="8" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>220</v>
       </c>
       <c r="C8" s="6"/>
@@ -11575,27 +11995,27 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
-      <c r="J8" s="40">
+      <c r="J8" s="39">
         <v>4</v>
       </c>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="44"/>
+      <c r="N8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="H9" s="54"/>
-      <c r="J9" s="40">
+      <c r="H9" s="53"/>
+      <c r="J9" s="39">
         <v>5</v>
       </c>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
-      <c r="N9" s="44"/>
+      <c r="N9" s="43"/>
     </row>
     <row r="10" spans="1:16" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H10" s="55"/>
-      <c r="J10" s="56">
+      <c r="H10" s="54"/>
+      <c r="J10" s="55">
         <v>6</v>
       </c>
       <c r="K10" s="6"/>
@@ -11604,19 +12024,19 @@
       <c r="N10" s="7"/>
     </row>
     <row r="11" spans="1:16" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="H11" s="57"/>
+      <c r="H11" s="56"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H12" s="54"/>
+      <c r="H12" s="53"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H13" s="54"/>
+      <c r="H13" s="53"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="54"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H15" s="54"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="536">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2530,12 +2530,6 @@
   </si>
   <si>
     <t>what type of pathname to write to point-cloud JSON header file. 0 stands for absolute, 1 stands for relative.</t>
-  </si>
-  <si>
-    <t>flow.defaultCSVReadHeader</t>
-  </si>
-  <si>
-    <t>what is absolute filename for the JSON header file needed to read in CSV files</t>
   </si>
   <si>
     <t>flow.smallFileWarning</t>
@@ -4241,10 +4235,123 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4289,89 +4396,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4432,6 +4461,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4464,6 +4499,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4488,45 +4562,6 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4580,47 +4615,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4712,7 +4706,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4778,7 +4772,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4849,7 +4843,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4920,7 +4914,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4986,7 +4980,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5057,7 +5051,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5123,7 +5117,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5474,86 +5468,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="259" t="s">
+      <c r="A1" s="258" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="260"/>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="260"/>
-      <c r="G1" s="260"/>
-      <c r="H1" s="260"/>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="261"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
+      <c r="E1" s="259"/>
+      <c r="F1" s="259"/>
+      <c r="G1" s="259"/>
+      <c r="H1" s="259"/>
+      <c r="I1" s="259"/>
+      <c r="J1" s="259"/>
+      <c r="K1" s="260"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="274" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="239"/>
+      <c r="B3" s="275"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="252" t="s">
+      <c r="A4" s="272" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="253"/>
+      <c r="B4" s="273"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="254" t="s">
+      <c r="A5" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="255"/>
+      <c r="B5" s="289"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="238" t="s">
+      <c r="A7" s="274" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="240"/>
-      <c r="C7" s="240"/>
-      <c r="D7" s="240"/>
-      <c r="E7" s="240"/>
-      <c r="F7" s="240"/>
-      <c r="G7" s="240"/>
-      <c r="H7" s="240"/>
-      <c r="I7" s="240"/>
-      <c r="J7" s="240"/>
-      <c r="K7" s="239"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="275"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="262" t="s">
+      <c r="A8" s="261" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="263"/>
-      <c r="C8" s="263"/>
-      <c r="D8" s="263"/>
-      <c r="E8" s="263"/>
-      <c r="F8" s="263"/>
-      <c r="G8" s="263"/>
-      <c r="H8" s="263"/>
-      <c r="I8" s="263"/>
-      <c r="J8" s="263"/>
-      <c r="K8" s="264"/>
+      <c r="B8" s="262"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="262"/>
+      <c r="E8" s="262"/>
+      <c r="F8" s="262"/>
+      <c r="G8" s="262"/>
+      <c r="H8" s="262"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="263"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="265"/>
-      <c r="B9" s="266"/>
-      <c r="C9" s="266"/>
-      <c r="D9" s="266"/>
-      <c r="E9" s="266"/>
-      <c r="F9" s="266"/>
-      <c r="G9" s="266"/>
-      <c r="H9" s="266"/>
-      <c r="I9" s="266"/>
-      <c r="J9" s="266"/>
-      <c r="K9" s="267"/>
+      <c r="A9" s="264"/>
+      <c r="B9" s="265"/>
+      <c r="C9" s="265"/>
+      <c r="D9" s="265"/>
+      <c r="E9" s="265"/>
+      <c r="F9" s="265"/>
+      <c r="G9" s="265"/>
+      <c r="H9" s="265"/>
+      <c r="I9" s="265"/>
+      <c r="J9" s="265"/>
+      <c r="K9" s="266"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5564,62 +5558,62 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="241" t="s">
+      <c r="A11" s="277" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="242"/>
-      <c r="C11" s="242"/>
-      <c r="D11" s="243"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="244" t="s">
+      <c r="A12" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="245"/>
-      <c r="C12" s="246" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="282" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="247"/>
+      <c r="D12" s="283"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="248"/>
-      <c r="B13" s="249"/>
-      <c r="C13" s="250"/>
-      <c r="D13" s="251"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="241" t="s">
+      <c r="A15" s="277" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="243"/>
-      <c r="E15" s="241" t="s">
+      <c r="B15" s="279"/>
+      <c r="E15" s="277" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="242"/>
-      <c r="G15" s="242"/>
-      <c r="H15" s="242"/>
-      <c r="I15" s="243"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="252" t="s">
+      <c r="A16" s="272" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="253"/>
+      <c r="B16" s="273"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="268" t="s">
+      <c r="E16" s="267" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="269"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="270"/>
+      <c r="F16" s="268"/>
+      <c r="G16" s="268"/>
+      <c r="H16" s="268"/>
+      <c r="I16" s="269"/>
     </row>
     <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
@@ -5629,10 +5623,10 @@
         <v>271</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="271" t="s">
+      <c r="E17" s="270" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="272"/>
+      <c r="F17" s="271"/>
       <c r="G17" s="198" t="s">
         <v>157</v>
       </c>
@@ -5662,7 +5656,7 @@
       <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="256" t="s">
+      <c r="I18" s="246" t="s">
         <v>475</v>
       </c>
       <c r="J18" s="80"/>
@@ -5685,7 +5679,7 @@
       <c r="H19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="256"/>
+      <c r="I19" s="246"/>
       <c r="J19" s="80"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -5702,7 +5696,7 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="257"/>
+      <c r="I20" s="247"/>
       <c r="J20" s="80"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -5724,24 +5718,24 @@
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="236" t="s">
+      <c r="E23" s="248" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="258"/>
-      <c r="G23" s="258"/>
-      <c r="H23" s="258"/>
-      <c r="I23" s="237"/>
+      <c r="F23" s="249"/>
+      <c r="G23" s="249"/>
+      <c r="H23" s="249"/>
+      <c r="I23" s="250"/>
     </row>
     <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="236" t="s">
+      <c r="A24" s="248" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="237"/>
+      <c r="B24" s="250"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="276" t="s">
+      <c r="E24" s="254" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="277"/>
+      <c r="F24" s="255"/>
       <c r="G24" s="198" t="s">
         <v>157</v>
       </c>
@@ -5770,7 +5764,7 @@
       <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="273" t="s">
+      <c r="I25" s="251" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5794,7 +5788,7 @@
       <c r="H26" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="274"/>
+      <c r="I26" s="252"/>
     </row>
     <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
@@ -5810,7 +5804,7 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="275"/>
+      <c r="I27" s="253"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
@@ -5834,22 +5828,22 @@
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="236" t="s">
+      <c r="E30" s="248" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="258"/>
-      <c r="I30" s="237"/>
+      <c r="F30" s="249"/>
+      <c r="G30" s="249"/>
+      <c r="H30" s="249"/>
+      <c r="I30" s="250"/>
     </row>
     <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="278" t="s">
+      <c r="E31" s="256" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="279"/>
+      <c r="F31" s="257"/>
       <c r="G31" s="196" t="s">
         <v>157</v>
       </c>
@@ -5861,10 +5855,10 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="236" t="s">
+      <c r="A32" s="248" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="237"/>
+      <c r="B32" s="250"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5874,7 +5868,7 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="256"/>
+      <c r="I32" s="246"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
@@ -5894,7 +5888,7 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="256"/>
+      <c r="I33" s="246"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
@@ -5909,7 +5903,7 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="256"/>
+      <c r="I34" s="246"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
@@ -5922,7 +5916,7 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="256"/>
+      <c r="I35" s="246"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
@@ -5935,7 +5929,7 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="256"/>
+      <c r="I36" s="246"/>
     </row>
     <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
@@ -5948,7 +5942,7 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="257"/>
+      <c r="I37" s="247"/>
     </row>
     <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
@@ -5961,17 +5955,17 @@
       <c r="B39" s="119"/>
     </row>
     <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="236" t="s">
+      <c r="E40" s="248" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="258"/>
-      <c r="G40" s="258"/>
-      <c r="H40" s="258"/>
-      <c r="I40" s="237"/>
+      <c r="F40" s="249"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="250"/>
     </row>
     <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="276"/>
-      <c r="F41" s="277"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="255"/>
       <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
@@ -5989,7 +5983,7 @@
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="256"/>
+      <c r="I42" s="246"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
@@ -5998,7 +5992,7 @@
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="256"/>
+      <c r="I43" s="246"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
@@ -6007,7 +6001,7 @@
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="256"/>
+      <c r="I44" s="246"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
@@ -6016,7 +6010,7 @@
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="256"/>
+      <c r="I45" s="246"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
@@ -6025,7 +6019,7 @@
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="256"/>
+      <c r="I46" s="246"/>
     </row>
     <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
@@ -6034,25 +6028,11 @@
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="257"/>
+      <c r="I47" s="247"/>
     </row>
     <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6068,6 +6048,20 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6081,7 +6075,7 @@
   </sheetPr>
   <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -6107,32 +6101,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="282" t="s">
+      <c r="A1" s="292" t="s">
         <v>368</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="283"/>
-      <c r="H1" s="283"/>
-      <c r="I1" s="283"/>
-      <c r="J1" s="284"/>
+      <c r="B1" s="293"/>
+      <c r="C1" s="293"/>
+      <c r="D1" s="293"/>
+      <c r="E1" s="293"/>
+      <c r="F1" s="293"/>
+      <c r="G1" s="293"/>
+      <c r="H1" s="293"/>
+      <c r="I1" s="293"/>
+      <c r="J1" s="294"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="285" t="s">
+      <c r="A2" s="295" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="286"/>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="E2" s="286"/>
-      <c r="F2" s="286"/>
-      <c r="G2" s="286"/>
-      <c r="H2" s="286"/>
-      <c r="I2" s="286"/>
-      <c r="J2" s="287"/>
+      <c r="B2" s="296"/>
+      <c r="C2" s="296"/>
+      <c r="D2" s="296"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="296"/>
+      <c r="G2" s="296"/>
+      <c r="H2" s="296"/>
+      <c r="I2" s="296"/>
+      <c r="J2" s="297"/>
       <c r="K2" s="78"/>
       <c r="L2" s="78"/>
       <c r="M2" s="74"/>
@@ -6146,13 +6140,13 @@
       <c r="B3" s="175" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="288" t="s">
+      <c r="C3" s="298" t="s">
         <v>280</v>
       </c>
-      <c r="D3" s="289"/>
-      <c r="E3" s="289"/>
-      <c r="F3" s="289"/>
-      <c r="G3" s="290"/>
+      <c r="D3" s="299"/>
+      <c r="E3" s="299"/>
+      <c r="F3" s="299"/>
+      <c r="G3" s="300"/>
       <c r="H3" s="175" t="s">
         <v>307</v>
       </c>
@@ -6819,26 +6813,26 @@
     </row>
     <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:18" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="357" t="s">
+      <c r="A27" s="310" t="s">
         <v>236</v>
       </c>
-      <c r="B27" s="358"/>
-      <c r="C27" s="358"/>
-      <c r="D27" s="358"/>
-      <c r="E27" s="358"/>
-      <c r="F27" s="358"/>
-      <c r="G27" s="358"/>
-      <c r="H27" s="358"/>
-      <c r="I27" s="358"/>
-      <c r="J27" s="358"/>
-      <c r="K27" s="358"/>
-      <c r="L27" s="358"/>
-      <c r="M27" s="358"/>
-      <c r="N27" s="358"/>
-      <c r="O27" s="358"/>
-      <c r="P27" s="358"/>
-      <c r="Q27" s="358"/>
-      <c r="R27" s="358"/>
+      <c r="B27" s="311"/>
+      <c r="C27" s="311"/>
+      <c r="D27" s="311"/>
+      <c r="E27" s="311"/>
+      <c r="F27" s="311"/>
+      <c r="G27" s="311"/>
+      <c r="H27" s="311"/>
+      <c r="I27" s="311"/>
+      <c r="J27" s="311"/>
+      <c r="K27" s="311"/>
+      <c r="L27" s="311"/>
+      <c r="M27" s="311"/>
+      <c r="N27" s="311"/>
+      <c r="O27" s="311"/>
+      <c r="P27" s="311"/>
+      <c r="Q27" s="311"/>
+      <c r="R27" s="311"/>
     </row>
     <row r="28" spans="1:18" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="135" t="s">
@@ -6877,7 +6871,7 @@
       <c r="L28" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="M28" s="355" t="s">
+      <c r="M28" s="244" t="s">
         <v>263</v>
       </c>
       <c r="N28" s="121" t="s">
@@ -6931,8 +6925,8 @@
       <c r="L29" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="M29" s="356" t="s">
-        <v>537</v>
+      <c r="M29" s="245" t="s">
+        <v>535</v>
       </c>
       <c r="N29" s="95" t="s">
         <v>93</v>
@@ -6992,70 +6986,70 @@
     </row>
     <row r="31" spans="1:18" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:18" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A32" s="297" t="s">
+      <c r="A32" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="B32" s="298"/>
-      <c r="C32" s="298"/>
-      <c r="D32" s="298"/>
-      <c r="E32" s="298"/>
-      <c r="F32" s="298"/>
-      <c r="G32" s="298"/>
-      <c r="H32" s="299"/>
+      <c r="B32" s="308"/>
+      <c r="C32" s="308"/>
+      <c r="D32" s="308"/>
+      <c r="E32" s="308"/>
+      <c r="F32" s="308"/>
+      <c r="G32" s="308"/>
+      <c r="H32" s="309"/>
     </row>
     <row r="33" spans="1:8" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="291" t="s">
+      <c r="A33" s="301" t="s">
         <v>350</v>
       </c>
-      <c r="B33" s="292"/>
-      <c r="C33" s="292"/>
-      <c r="D33" s="292"/>
-      <c r="E33" s="292"/>
-      <c r="F33" s="292"/>
-      <c r="G33" s="292"/>
-      <c r="H33" s="293"/>
+      <c r="B33" s="302"/>
+      <c r="C33" s="302"/>
+      <c r="D33" s="302"/>
+      <c r="E33" s="302"/>
+      <c r="F33" s="302"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="303"/>
     </row>
     <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="291"/>
-      <c r="B34" s="292"/>
-      <c r="C34" s="292"/>
-      <c r="D34" s="292"/>
-      <c r="E34" s="292"/>
-      <c r="F34" s="292"/>
-      <c r="G34" s="292"/>
-      <c r="H34" s="293"/>
+      <c r="A34" s="301"/>
+      <c r="B34" s="302"/>
+      <c r="C34" s="302"/>
+      <c r="D34" s="302"/>
+      <c r="E34" s="302"/>
+      <c r="F34" s="302"/>
+      <c r="G34" s="302"/>
+      <c r="H34" s="303"/>
     </row>
     <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="291"/>
-      <c r="B35" s="292"/>
-      <c r="C35" s="292"/>
-      <c r="D35" s="292"/>
-      <c r="E35" s="292"/>
-      <c r="F35" s="292"/>
-      <c r="G35" s="292"/>
-      <c r="H35" s="293"/>
+      <c r="A35" s="301"/>
+      <c r="B35" s="302"/>
+      <c r="C35" s="302"/>
+      <c r="D35" s="302"/>
+      <c r="E35" s="302"/>
+      <c r="F35" s="302"/>
+      <c r="G35" s="302"/>
+      <c r="H35" s="303"/>
     </row>
     <row r="36" spans="1:8" s="1" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="294"/>
-      <c r="B36" s="295"/>
-      <c r="C36" s="295"/>
-      <c r="D36" s="295"/>
-      <c r="E36" s="295"/>
-      <c r="F36" s="295"/>
-      <c r="G36" s="295"/>
-      <c r="H36" s="296"/>
+      <c r="A36" s="304"/>
+      <c r="B36" s="305"/>
+      <c r="C36" s="305"/>
+      <c r="D36" s="305"/>
+      <c r="E36" s="305"/>
+      <c r="F36" s="305"/>
+      <c r="G36" s="305"/>
+      <c r="H36" s="306"/>
     </row>
     <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="38" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="281" t="s">
+      <c r="A38" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="B38" s="281"/>
-      <c r="C38" s="281"/>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
+      <c r="B38" s="291"/>
+      <c r="C38" s="291"/>
+      <c r="D38" s="291"/>
+      <c r="E38" s="291"/>
+      <c r="F38" s="291"/>
+      <c r="G38" s="291"/>
     </row>
     <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="77" t="s">
@@ -7067,12 +7061,12 @@
       <c r="C39" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D39" s="280" t="s">
+      <c r="D39" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="E39" s="280"/>
-      <c r="F39" s="280"/>
-      <c r="G39" s="280"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="290"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -7617,32 +7611,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="303" t="s">
+      <c r="A1" s="315" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="304"/>
-      <c r="C1" s="304"/>
-      <c r="D1" s="304"/>
-      <c r="E1" s="304"/>
-      <c r="F1" s="304"/>
-      <c r="G1" s="304"/>
-      <c r="H1" s="304"/>
-      <c r="I1" s="304"/>
-      <c r="J1" s="305"/>
+      <c r="B1" s="316"/>
+      <c r="C1" s="316"/>
+      <c r="D1" s="316"/>
+      <c r="E1" s="316"/>
+      <c r="F1" s="316"/>
+      <c r="G1" s="316"/>
+      <c r="H1" s="316"/>
+      <c r="I1" s="316"/>
+      <c r="J1" s="317"/>
     </row>
     <row r="2" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="300" t="s">
+      <c r="A2" s="312" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="301"/>
-      <c r="C2" s="301"/>
-      <c r="D2" s="301"/>
-      <c r="E2" s="301"/>
-      <c r="F2" s="301"/>
-      <c r="G2" s="301"/>
-      <c r="H2" s="301"/>
-      <c r="I2" s="301"/>
-      <c r="J2" s="302"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
+      <c r="G2" s="313"/>
+      <c r="H2" s="313"/>
+      <c r="I2" s="313"/>
+      <c r="J2" s="314"/>
     </row>
     <row r="3" spans="1:10" s="111" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="129" t="s">
@@ -7725,18 +7719,18 @@
       <c r="J5" s="163"/>
     </row>
     <row r="6" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="300" t="s">
+      <c r="A6" s="312" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="301"/>
-      <c r="C6" s="301"/>
-      <c r="D6" s="301"/>
-      <c r="E6" s="301"/>
-      <c r="F6" s="301"/>
-      <c r="G6" s="301"/>
-      <c r="H6" s="301"/>
-      <c r="I6" s="301"/>
-      <c r="J6" s="302"/>
+      <c r="B6" s="313"/>
+      <c r="C6" s="313"/>
+      <c r="D6" s="313"/>
+      <c r="E6" s="313"/>
+      <c r="F6" s="313"/>
+      <c r="G6" s="313"/>
+      <c r="H6" s="313"/>
+      <c r="I6" s="313"/>
+      <c r="J6" s="314"/>
     </row>
     <row r="7" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="122" t="s">
@@ -7787,18 +7781,18 @@
       <c r="J9" s="71"/>
     </row>
     <row r="10" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="300" t="s">
+      <c r="A10" s="312" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="301"/>
-      <c r="C10" s="301"/>
-      <c r="D10" s="301"/>
-      <c r="E10" s="301"/>
-      <c r="F10" s="301"/>
-      <c r="G10" s="301"/>
-      <c r="H10" s="301"/>
-      <c r="I10" s="301"/>
-      <c r="J10" s="302"/>
+      <c r="B10" s="313"/>
+      <c r="C10" s="313"/>
+      <c r="D10" s="313"/>
+      <c r="E10" s="313"/>
+      <c r="F10" s="313"/>
+      <c r="G10" s="313"/>
+      <c r="H10" s="313"/>
+      <c r="I10" s="313"/>
+      <c r="J10" s="314"/>
     </row>
     <row r="11" spans="1:10" s="111" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="125"/>
@@ -7921,18 +7915,18 @@
       <c r="J16" s="5"/>
     </row>
     <row r="17" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="306" t="s">
+      <c r="A17" s="318" t="s">
         <v>491</v>
       </c>
-      <c r="B17" s="307"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="307"/>
-      <c r="E17" s="307"/>
-      <c r="F17" s="307"/>
-      <c r="G17" s="307"/>
-      <c r="H17" s="307"/>
-      <c r="I17" s="307"/>
-      <c r="J17" s="308"/>
+      <c r="B17" s="319"/>
+      <c r="C17" s="319"/>
+      <c r="D17" s="319"/>
+      <c r="E17" s="319"/>
+      <c r="F17" s="319"/>
+      <c r="G17" s="319"/>
+      <c r="H17" s="319"/>
+      <c r="I17" s="319"/>
+      <c r="J17" s="320"/>
     </row>
     <row r="18" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="206"/>
@@ -8005,18 +7999,18 @@
       <c r="J21" s="220"/>
     </row>
     <row r="22" spans="1:10" s="111" customFormat="1" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="300" t="s">
+      <c r="A22" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="301"/>
-      <c r="C22" s="301"/>
-      <c r="D22" s="301"/>
-      <c r="E22" s="301"/>
-      <c r="F22" s="301"/>
-      <c r="G22" s="301"/>
-      <c r="H22" s="301"/>
-      <c r="I22" s="301"/>
-      <c r="J22" s="302"/>
+      <c r="B22" s="313"/>
+      <c r="C22" s="313"/>
+      <c r="D22" s="313"/>
+      <c r="E22" s="313"/>
+      <c r="F22" s="313"/>
+      <c r="G22" s="313"/>
+      <c r="H22" s="313"/>
+      <c r="I22" s="313"/>
+      <c r="J22" s="314"/>
     </row>
     <row r="23" spans="1:10" s="111" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="129" t="s">
@@ -8079,18 +8073,18 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="306" t="s">
+      <c r="A26" s="318" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="307"/>
-      <c r="C26" s="307"/>
-      <c r="D26" s="307"/>
-      <c r="E26" s="307"/>
-      <c r="F26" s="307"/>
-      <c r="G26" s="307"/>
-      <c r="H26" s="307"/>
-      <c r="I26" s="307"/>
-      <c r="J26" s="308"/>
+      <c r="B26" s="319"/>
+      <c r="C26" s="319"/>
+      <c r="D26" s="319"/>
+      <c r="E26" s="319"/>
+      <c r="F26" s="319"/>
+      <c r="G26" s="319"/>
+      <c r="H26" s="319"/>
+      <c r="I26" s="319"/>
+      <c r="J26" s="320"/>
     </row>
     <row r="27" spans="1:10" s="111" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="221" t="s">
@@ -8157,18 +8151,18 @@
       <c r="J29" s="235"/>
     </row>
     <row r="30" spans="1:10" s="111" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="300" t="s">
+      <c r="A30" s="312" t="s">
         <v>151</v>
       </c>
-      <c r="B30" s="301"/>
-      <c r="C30" s="301"/>
-      <c r="D30" s="301"/>
-      <c r="E30" s="301"/>
-      <c r="F30" s="301"/>
-      <c r="G30" s="301"/>
-      <c r="H30" s="301"/>
-      <c r="I30" s="301"/>
-      <c r="J30" s="302"/>
+      <c r="B30" s="313"/>
+      <c r="C30" s="313"/>
+      <c r="D30" s="313"/>
+      <c r="E30" s="313"/>
+      <c r="F30" s="313"/>
+      <c r="G30" s="313"/>
+      <c r="H30" s="313"/>
+      <c r="I30" s="313"/>
+      <c r="J30" s="314"/>
     </row>
     <row r="31" spans="1:10" s="111" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="129" t="s">
@@ -8230,58 +8224,58 @@
     </row>
     <row r="34" spans="1:10" s="111" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="35" spans="1:10" s="111" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="297" t="s">
+      <c r="A35" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="B35" s="298"/>
-      <c r="C35" s="298"/>
-      <c r="D35" s="298"/>
-      <c r="E35" s="298"/>
-      <c r="F35" s="298"/>
-      <c r="G35" s="298"/>
-      <c r="H35" s="299"/>
+      <c r="B35" s="308"/>
+      <c r="C35" s="308"/>
+      <c r="D35" s="308"/>
+      <c r="E35" s="308"/>
+      <c r="F35" s="308"/>
+      <c r="G35" s="308"/>
+      <c r="H35" s="309"/>
     </row>
     <row r="36" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="291" t="s">
+      <c r="A36" s="301" t="s">
         <v>349</v>
       </c>
-      <c r="B36" s="292"/>
-      <c r="C36" s="292"/>
-      <c r="D36" s="292"/>
-      <c r="E36" s="292"/>
-      <c r="F36" s="292"/>
-      <c r="G36" s="292"/>
-      <c r="H36" s="293"/>
+      <c r="B36" s="302"/>
+      <c r="C36" s="302"/>
+      <c r="D36" s="302"/>
+      <c r="E36" s="302"/>
+      <c r="F36" s="302"/>
+      <c r="G36" s="302"/>
+      <c r="H36" s="303"/>
     </row>
     <row r="37" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="291"/>
-      <c r="B37" s="292"/>
-      <c r="C37" s="292"/>
-      <c r="D37" s="292"/>
-      <c r="E37" s="292"/>
-      <c r="F37" s="292"/>
-      <c r="G37" s="292"/>
-      <c r="H37" s="293"/>
+      <c r="A37" s="301"/>
+      <c r="B37" s="302"/>
+      <c r="C37" s="302"/>
+      <c r="D37" s="302"/>
+      <c r="E37" s="302"/>
+      <c r="F37" s="302"/>
+      <c r="G37" s="302"/>
+      <c r="H37" s="303"/>
     </row>
     <row r="38" spans="1:10" s="111" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="291"/>
-      <c r="B38" s="292"/>
-      <c r="C38" s="292"/>
-      <c r="D38" s="292"/>
-      <c r="E38" s="292"/>
-      <c r="F38" s="292"/>
-      <c r="G38" s="292"/>
-      <c r="H38" s="293"/>
+      <c r="A38" s="301"/>
+      <c r="B38" s="302"/>
+      <c r="C38" s="302"/>
+      <c r="D38" s="302"/>
+      <c r="E38" s="302"/>
+      <c r="F38" s="302"/>
+      <c r="G38" s="302"/>
+      <c r="H38" s="303"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="294"/>
-      <c r="B39" s="295"/>
-      <c r="C39" s="295"/>
-      <c r="D39" s="295"/>
-      <c r="E39" s="295"/>
-      <c r="F39" s="295"/>
-      <c r="G39" s="295"/>
-      <c r="H39" s="296"/>
+      <c r="A39" s="304"/>
+      <c r="B39" s="305"/>
+      <c r="C39" s="305"/>
+      <c r="D39" s="305"/>
+      <c r="E39" s="305"/>
+      <c r="F39" s="305"/>
+      <c r="G39" s="305"/>
+      <c r="H39" s="306"/>
       <c r="I39" s="111"/>
       <c r="J39" s="111"/>
     </row>
@@ -8298,15 +8292,15 @@
       <c r="J40" s="111"/>
     </row>
     <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="281" t="s">
+      <c r="A41" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="B41" s="281"/>
-      <c r="C41" s="281"/>
-      <c r="D41" s="281"/>
-      <c r="E41" s="281"/>
-      <c r="F41" s="281"/>
-      <c r="G41" s="281"/>
+      <c r="B41" s="291"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="291"/>
+      <c r="E41" s="291"/>
+      <c r="F41" s="291"/>
+      <c r="G41" s="291"/>
       <c r="H41" s="111"/>
       <c r="I41" s="111"/>
       <c r="J41" s="111"/>
@@ -8321,12 +8315,12 @@
       <c r="C42" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D42" s="280" t="s">
+      <c r="D42" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="E42" s="280"/>
-      <c r="F42" s="280"/>
-      <c r="G42" s="280"/>
+      <c r="E42" s="290"/>
+      <c r="F42" s="290"/>
+      <c r="G42" s="290"/>
       <c r="H42" s="111"/>
       <c r="I42" s="111"/>
       <c r="J42" s="111"/>
@@ -8568,68 +8562,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="338" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="321" t="s">
+      <c r="A2" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="322"/>
-      <c r="C2" s="322"/>
-      <c r="D2" s="322"/>
-      <c r="E2" s="322"/>
-      <c r="F2" s="323"/>
-      <c r="G2" s="314" t="s">
+      <c r="B2" s="327"/>
+      <c r="C2" s="327"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="339" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="317" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="324" t="s">
+      <c r="A3" s="329" t="s">
         <v>481</v>
       </c>
-      <c r="B3" s="325"/>
-      <c r="C3" s="325"/>
-      <c r="D3" s="325"/>
-      <c r="E3" s="325"/>
-      <c r="F3" s="326"/>
-      <c r="G3" s="316" t="s">
+      <c r="B3" s="330"/>
+      <c r="C3" s="330"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="341" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="202" t="s">
         <v>289</v>
       </c>
@@ -8642,24 +8636,24 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="332" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="315" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315" t="s">
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
       <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
@@ -8671,22 +8665,22 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="309" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="321" t="s">
         <v>271</v>
       </c>
-      <c r="H5" s="309"/>
-      <c r="I5" s="309"/>
-      <c r="J5" s="309" t="s">
+      <c r="H5" s="321"/>
+      <c r="I5" s="321"/>
+      <c r="J5" s="321" t="s">
         <v>282</v>
       </c>
-      <c r="K5" s="309"/>
-      <c r="L5" s="309"/>
+      <c r="K5" s="321"/>
+      <c r="L5" s="321"/>
       <c r="M5" s="204"/>
       <c r="N5" s="204" t="s">
         <v>373</v>
@@ -8696,22 +8690,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="335" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="309" t="s">
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="321" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="309"/>
-      <c r="I6" s="309"/>
-      <c r="J6" s="309"/>
-      <c r="K6" s="309"/>
-      <c r="L6" s="309"/>
+      <c r="H6" s="321"/>
+      <c r="I6" s="321"/>
+      <c r="J6" s="321"/>
+      <c r="K6" s="321"/>
+      <c r="L6" s="321"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204" t="s">
         <v>374</v>
@@ -8721,54 +8715,54 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="310" t="s">
+      <c r="A7" s="335" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="309"/>
-      <c r="H7" s="309"/>
-      <c r="I7" s="309"/>
-      <c r="J7" s="309"/>
-      <c r="K7" s="309"/>
-      <c r="L7" s="309"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="321"/>
+      <c r="K7" s="321"/>
+      <c r="L7" s="321"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="309"/>
-      <c r="H8" s="309"/>
-      <c r="I8" s="309"/>
-      <c r="J8" s="309"/>
-      <c r="K8" s="309"/>
-      <c r="L8" s="309"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="321"/>
+      <c r="H8" s="321"/>
+      <c r="I8" s="321"/>
+      <c r="J8" s="321"/>
+      <c r="K8" s="321"/>
+      <c r="L8" s="321"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="205"/>
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="323" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="319"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="320"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -8783,7 +8777,7 @@
       <c r="D11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="355" t="s">
+      <c r="E11" s="244" t="s">
         <v>263</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -8815,8 +8809,8 @@
       <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="356" t="s">
-        <v>537</v>
+      <c r="E12" s="245" t="s">
+        <v>535</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>93</v>
@@ -8858,69 +8852,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="301" t="s">
         <v>351</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="303"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="303"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="303"/>
     </row>
     <row r="19" spans="1:8" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="306"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="281" t="s">
+      <c r="A21" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -8932,12 +8926,12 @@
       <c r="C22" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="280" t="s">
+      <c r="D22" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -9375,6 +9369,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9387,20 +9395,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9492,68 +9486,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="313" t="s">
+      <c r="A1" s="338" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="313"/>
-      <c r="C1" s="313"/>
-      <c r="D1" s="313"/>
-      <c r="E1" s="313"/>
-      <c r="F1" s="313"/>
-      <c r="G1" s="313"/>
-      <c r="H1" s="313"/>
-      <c r="I1" s="313"/>
-      <c r="J1" s="313"/>
-      <c r="K1" s="313"/>
-      <c r="L1" s="313"/>
-      <c r="M1" s="313"/>
-      <c r="N1" s="313"/>
-      <c r="O1" s="313"/>
-      <c r="P1" s="313"/>
+      <c r="B1" s="338"/>
+      <c r="C1" s="338"/>
+      <c r="D1" s="338"/>
+      <c r="E1" s="338"/>
+      <c r="F1" s="338"/>
+      <c r="G1" s="338"/>
+      <c r="H1" s="338"/>
+      <c r="I1" s="338"/>
+      <c r="J1" s="338"/>
+      <c r="K1" s="338"/>
+      <c r="L1" s="338"/>
+      <c r="M1" s="338"/>
+      <c r="N1" s="338"/>
+      <c r="O1" s="338"/>
+      <c r="P1" s="338"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="314" t="s">
+      <c r="A2" s="339" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="314"/>
-      <c r="C2" s="314"/>
-      <c r="D2" s="314"/>
-      <c r="E2" s="314"/>
-      <c r="F2" s="314"/>
-      <c r="G2" s="314" t="s">
+      <c r="B2" s="339"/>
+      <c r="C2" s="339"/>
+      <c r="D2" s="339"/>
+      <c r="E2" s="339"/>
+      <c r="F2" s="339"/>
+      <c r="G2" s="339" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="314"/>
-      <c r="I2" s="314"/>
-      <c r="J2" s="314"/>
-      <c r="K2" s="314"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="317" t="s">
+      <c r="H2" s="339"/>
+      <c r="I2" s="339"/>
+      <c r="J2" s="339"/>
+      <c r="K2" s="339"/>
+      <c r="L2" s="339"/>
+      <c r="M2" s="322" t="s">
         <v>284</v>
       </c>
-      <c r="N2" s="317"/>
-      <c r="O2" s="317"/>
-      <c r="P2" s="317"/>
+      <c r="N2" s="322"/>
+      <c r="O2" s="322"/>
+      <c r="P2" s="322"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="316" t="s">
+      <c r="A3" s="341" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316" t="s">
+      <c r="B3" s="341"/>
+      <c r="C3" s="341"/>
+      <c r="D3" s="341"/>
+      <c r="E3" s="341"/>
+      <c r="F3" s="341"/>
+      <c r="G3" s="341" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="316"/>
-      <c r="L3" s="316"/>
+      <c r="H3" s="341"/>
+      <c r="I3" s="341"/>
+      <c r="J3" s="341"/>
+      <c r="K3" s="341"/>
+      <c r="L3" s="341"/>
       <c r="M3" s="202" t="s">
         <v>288</v>
       </c>
@@ -9569,22 +9563,22 @@
       <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="327" t="s">
+      <c r="A4" s="332" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="328"/>
-      <c r="C4" s="328"/>
-      <c r="D4" s="328"/>
-      <c r="E4" s="328"/>
-      <c r="F4" s="329"/>
-      <c r="G4" s="315" t="s">
+      <c r="B4" s="333"/>
+      <c r="C4" s="333"/>
+      <c r="D4" s="333"/>
+      <c r="E4" s="333"/>
+      <c r="F4" s="334"/>
+      <c r="G4" s="340" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="315"/>
-      <c r="I4" s="315"/>
-      <c r="J4" s="315"/>
-      <c r="K4" s="315"/>
-      <c r="L4" s="315"/>
+      <c r="H4" s="340"/>
+      <c r="I4" s="340"/>
+      <c r="J4" s="340"/>
+      <c r="K4" s="340"/>
+      <c r="L4" s="340"/>
       <c r="M4" s="203" t="s">
         <v>245</v>
       </c>
@@ -9599,20 +9593,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="310"/>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="312"/>
-      <c r="G5" s="330" t="s">
+      <c r="A5" s="335"/>
+      <c r="B5" s="336"/>
+      <c r="C5" s="336"/>
+      <c r="D5" s="336"/>
+      <c r="E5" s="336"/>
+      <c r="F5" s="337"/>
+      <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
-      <c r="J5" s="330"/>
-      <c r="K5" s="330"/>
-      <c r="L5" s="330"/>
+      <c r="H5" s="342"/>
+      <c r="I5" s="342"/>
+      <c r="J5" s="342"/>
+      <c r="K5" s="342"/>
+      <c r="L5" s="342"/>
       <c r="M5" s="204" t="s">
         <v>281</v>
       </c>
@@ -9625,22 +9619,22 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="310" t="s">
+      <c r="A6" s="335" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="311"/>
-      <c r="C6" s="311"/>
-      <c r="D6" s="311"/>
-      <c r="E6" s="311"/>
-      <c r="F6" s="312"/>
-      <c r="G6" s="330" t="s">
+      <c r="B6" s="336"/>
+      <c r="C6" s="336"/>
+      <c r="D6" s="336"/>
+      <c r="E6" s="336"/>
+      <c r="F6" s="337"/>
+      <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
-      <c r="J6" s="330"/>
-      <c r="K6" s="330"/>
-      <c r="L6" s="330"/>
+      <c r="H6" s="342"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="342"/>
       <c r="M6" s="204"/>
       <c r="N6" s="204"/>
       <c r="O6" s="204" t="s">
@@ -9651,36 +9645,36 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="310"/>
-      <c r="B7" s="311"/>
-      <c r="C7" s="311"/>
-      <c r="D7" s="311"/>
-      <c r="E7" s="311"/>
-      <c r="F7" s="312"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
-      <c r="J7" s="330"/>
-      <c r="K7" s="330"/>
-      <c r="L7" s="330"/>
+      <c r="A7" s="335"/>
+      <c r="B7" s="336"/>
+      <c r="C7" s="336"/>
+      <c r="D7" s="336"/>
+      <c r="E7" s="336"/>
+      <c r="F7" s="337"/>
+      <c r="G7" s="342"/>
+      <c r="H7" s="342"/>
+      <c r="I7" s="342"/>
+      <c r="J7" s="342"/>
+      <c r="K7" s="342"/>
+      <c r="L7" s="342"/>
       <c r="M7" s="204"/>
       <c r="N7" s="204"/>
       <c r="O7" s="204"/>
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="310"/>
-      <c r="B8" s="311"/>
-      <c r="C8" s="311"/>
-      <c r="D8" s="311"/>
-      <c r="E8" s="311"/>
-      <c r="F8" s="312"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
-      <c r="J8" s="330"/>
-      <c r="K8" s="330"/>
-      <c r="L8" s="330"/>
+      <c r="A8" s="335"/>
+      <c r="B8" s="336"/>
+      <c r="C8" s="336"/>
+      <c r="D8" s="336"/>
+      <c r="E8" s="336"/>
+      <c r="F8" s="337"/>
+      <c r="G8" s="342"/>
+      <c r="H8" s="342"/>
+      <c r="I8" s="342"/>
+      <c r="J8" s="342"/>
+      <c r="K8" s="342"/>
+      <c r="L8" s="342"/>
       <c r="M8" s="204"/>
       <c r="N8" s="204"/>
       <c r="O8" s="204"/>
@@ -9688,17 +9682,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="318" t="s">
+      <c r="A10" s="323" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="319"/>
-      <c r="C10" s="319"/>
-      <c r="D10" s="319"/>
-      <c r="E10" s="319"/>
-      <c r="F10" s="319"/>
-      <c r="G10" s="319"/>
-      <c r="H10" s="319"/>
-      <c r="I10" s="320"/>
+      <c r="B10" s="324"/>
+      <c r="C10" s="324"/>
+      <c r="D10" s="324"/>
+      <c r="E10" s="324"/>
+      <c r="F10" s="324"/>
+      <c r="G10" s="324"/>
+      <c r="H10" s="324"/>
+      <c r="I10" s="325"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9713,7 +9707,7 @@
       <c r="D11" s="123" t="s">
         <v>263</v>
       </c>
-      <c r="E11" s="355" t="s">
+      <c r="E11" s="244" t="s">
         <v>263</v>
       </c>
       <c r="F11" s="123" t="s">
@@ -9743,8 +9737,8 @@
       <c r="D12" s="145" t="s">
         <v>92</v>
       </c>
-      <c r="E12" s="356" t="s">
-        <v>537</v>
+      <c r="E12" s="245" t="s">
+        <v>535</v>
       </c>
       <c r="F12" s="145" t="s">
         <v>93</v>
@@ -9787,69 +9781,69 @@
     </row>
     <row r="14" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A15" s="297" t="s">
+      <c r="A15" s="307" t="s">
         <v>273</v>
       </c>
-      <c r="B15" s="298"/>
-      <c r="C15" s="298"/>
-      <c r="D15" s="298"/>
-      <c r="E15" s="298"/>
-      <c r="F15" s="298"/>
-      <c r="G15" s="298"/>
-      <c r="H15" s="299"/>
+      <c r="B15" s="308"/>
+      <c r="C15" s="308"/>
+      <c r="D15" s="308"/>
+      <c r="E15" s="308"/>
+      <c r="F15" s="308"/>
+      <c r="G15" s="308"/>
+      <c r="H15" s="309"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="291" t="s">
+      <c r="A16" s="301" t="s">
         <v>352</v>
       </c>
-      <c r="B16" s="292"/>
-      <c r="C16" s="292"/>
-      <c r="D16" s="292"/>
-      <c r="E16" s="292"/>
-      <c r="F16" s="292"/>
-      <c r="G16" s="292"/>
-      <c r="H16" s="293"/>
+      <c r="B16" s="302"/>
+      <c r="C16" s="302"/>
+      <c r="D16" s="302"/>
+      <c r="E16" s="302"/>
+      <c r="F16" s="302"/>
+      <c r="G16" s="302"/>
+      <c r="H16" s="303"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="291"/>
-      <c r="B17" s="292"/>
-      <c r="C17" s="292"/>
-      <c r="D17" s="292"/>
-      <c r="E17" s="292"/>
-      <c r="F17" s="292"/>
-      <c r="G17" s="292"/>
-      <c r="H17" s="293"/>
+      <c r="A17" s="301"/>
+      <c r="B17" s="302"/>
+      <c r="C17" s="302"/>
+      <c r="D17" s="302"/>
+      <c r="E17" s="302"/>
+      <c r="F17" s="302"/>
+      <c r="G17" s="302"/>
+      <c r="H17" s="303"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="291"/>
-      <c r="B18" s="292"/>
-      <c r="C18" s="292"/>
-      <c r="D18" s="292"/>
-      <c r="E18" s="292"/>
-      <c r="F18" s="292"/>
-      <c r="G18" s="292"/>
-      <c r="H18" s="293"/>
+      <c r="A18" s="301"/>
+      <c r="B18" s="302"/>
+      <c r="C18" s="302"/>
+      <c r="D18" s="302"/>
+      <c r="E18" s="302"/>
+      <c r="F18" s="302"/>
+      <c r="G18" s="302"/>
+      <c r="H18" s="303"/>
     </row>
     <row r="19" spans="1:8" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="294"/>
-      <c r="B19" s="295"/>
-      <c r="C19" s="295"/>
-      <c r="D19" s="295"/>
-      <c r="E19" s="295"/>
-      <c r="F19" s="295"/>
-      <c r="G19" s="295"/>
-      <c r="H19" s="296"/>
+      <c r="A19" s="304"/>
+      <c r="B19" s="305"/>
+      <c r="C19" s="305"/>
+      <c r="D19" s="305"/>
+      <c r="E19" s="305"/>
+      <c r="F19" s="305"/>
+      <c r="G19" s="305"/>
+      <c r="H19" s="306"/>
     </row>
     <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="281" t="s">
+      <c r="A21" s="291" t="s">
         <v>296</v>
       </c>
-      <c r="B21" s="281"/>
-      <c r="C21" s="281"/>
-      <c r="D21" s="281"/>
-      <c r="E21" s="281"/>
-      <c r="F21" s="281"/>
-      <c r="G21" s="281"/>
+      <c r="B21" s="291"/>
+      <c r="C21" s="291"/>
+      <c r="D21" s="291"/>
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="s">
@@ -9861,12 +9855,12 @@
       <c r="C22" s="77" t="s">
         <v>298</v>
       </c>
-      <c r="D22" s="280" t="s">
+      <c r="D22" s="290" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="280"/>
-      <c r="F22" s="280"/>
-      <c r="G22" s="280"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="290"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -10038,13 +10032,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10059,6 +10046,13 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10122,10 +10116,10 @@
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:M85"/>
+  <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -10140,12 +10134,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="331" t="s">
+      <c r="A1" s="343" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="333"/>
+      <c r="B1" s="344"/>
+      <c r="C1" s="344"/>
+      <c r="D1" s="345"/>
       <c r="E1" s="65"/>
       <c r="F1" s="65"/>
       <c r="G1" s="65"/>
@@ -10166,7 +10160,7 @@
       <c r="C2" s="20" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="347" t="s">
+      <c r="D2" s="236" t="s">
         <v>73</v>
       </c>
       <c r="F2" s="133" t="s">
@@ -10220,7 +10214,7 @@
       <c r="B6" s="16" t="s">
         <v>499</v>
       </c>
-      <c r="C6" s="348"/>
+      <c r="C6" s="237"/>
       <c r="D6" s="23">
         <v>1000000</v>
       </c>
@@ -10232,7 +10226,7 @@
       <c r="B7" s="16" t="s">
         <v>501</v>
       </c>
-      <c r="C7" s="349"/>
+      <c r="C7" s="238"/>
       <c r="D7" s="23">
         <v>0</v>
       </c>
@@ -10244,7 +10238,7 @@
       <c r="B8" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="350"/>
+      <c r="C8" s="239"/>
       <c r="D8" s="23">
         <v>0</v>
       </c>
@@ -10256,31 +10250,33 @@
       <c r="B9" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="C9" s="350"/>
+      <c r="C9" s="239"/>
       <c r="D9" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C10" s="201"/>
+      <c r="D10" s="23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="200" t="s">
         <v>504</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>505</v>
       </c>
-      <c r="C10" s="348"/>
-      <c r="D10" s="23"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="C11" s="201"/>
+      <c r="C11" s="237"/>
       <c r="D11" s="23">
-        <v>1</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -10290,9 +10286,9 @@
       <c r="B12" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="C12" s="348"/>
+      <c r="C12" s="237"/>
       <c r="D12" s="23">
-        <v>10000</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -10302,10 +10298,8 @@
       <c r="B13" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="C13" s="348"/>
-      <c r="D13" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="C13" s="237"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="200" t="s">
@@ -10314,7 +10308,7 @@
       <c r="B14" s="16" t="s">
         <v>511</v>
       </c>
-      <c r="C14" s="348"/>
+      <c r="C14" s="237"/>
       <c r="D14" s="23"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -10324,8 +10318,10 @@
       <c r="B15" s="16" t="s">
         <v>513</v>
       </c>
-      <c r="C15" s="348"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="237"/>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="200" t="s">
@@ -10334,10 +10330,8 @@
       <c r="B16" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="C16" s="348"/>
-      <c r="D16" s="23">
-        <v>10</v>
-      </c>
+      <c r="C16" s="237"/>
+      <c r="D16" s="23"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="200" t="s">
@@ -10346,386 +10340,388 @@
       <c r="B17" s="16" t="s">
         <v>517</v>
       </c>
-      <c r="C17" s="348"/>
+      <c r="C17" s="237"/>
       <c r="D17" s="23"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="200" t="s">
-        <v>518</v>
+      <c r="A18" s="12" t="s">
+        <v>479</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>519</v>
-      </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="23"/>
+        <v>480</v>
+      </c>
+      <c r="C18" s="201"/>
+      <c r="D18" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>479</v>
+        <v>100</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C19" s="201"/>
-      <c r="D19" s="23">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C19" s="180"/>
+      <c r="D19" s="23"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="180"/>
-      <c r="D20" s="23"/>
+      <c r="A20" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="179"/>
+      <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="179"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="180"/>
+      <c r="D21" s="23">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C22" s="180"/>
-      <c r="D22" s="23">
-        <v>0</v>
+      <c r="D22" s="24" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C23" s="180"/>
       <c r="D23" s="24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C24" s="180"/>
-      <c r="D24" s="24" t="s">
-        <v>67</v>
+      <c r="D24" s="23">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25" s="180"/>
-      <c r="D25" s="23">
-        <v>0</v>
+      <c r="D25" s="23" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="180"/>
-      <c r="D26" s="23" t="s">
-        <v>29</v>
-      </c>
+      <c r="A26" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="179"/>
+      <c r="D26" s="22"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="179"/>
-      <c r="D27" s="22"/>
+      <c r="A27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="180"/>
+      <c r="D27" s="23"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C28" s="180"/>
       <c r="D28" s="23"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C29" s="180"/>
       <c r="D29" s="23"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" s="180"/>
       <c r="D30" s="23"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" s="180"/>
-      <c r="D31" s="23"/>
+      <c r="D31" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C32" s="180"/>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
+      <c r="D32" s="23"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="C33" s="180"/>
       <c r="D33" s="23"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C34" s="180"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="180"/>
-      <c r="D35" s="23"/>
+      <c r="A35" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="179"/>
+      <c r="D35" s="22"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="179"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C36" s="180"/>
+      <c r="D36" s="23">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C37" s="180"/>
       <c r="D37" s="23">
-        <v>100</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C38" s="180"/>
       <c r="D38" s="23">
-        <v>65535</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C39" s="180"/>
       <c r="D39" s="23">
-        <v>10</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C40" s="180"/>
-      <c r="D40" s="23">
-        <v>0.1</v>
-      </c>
+      <c r="D40" s="23"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C41" s="180"/>
       <c r="D41" s="23"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C42" s="180"/>
       <c r="D42" s="23"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="180"/>
-      <c r="D43" s="23"/>
+      <c r="A43" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="179"/>
+      <c r="D43" s="22"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="179"/>
-      <c r="D44" s="22"/>
+      <c r="A44" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="180"/>
+      <c r="D44" s="23"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C45" s="180"/>
-      <c r="D45" s="23"/>
+      <c r="D45" s="23">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C46" s="180"/>
-      <c r="D46" s="23">
-        <v>0.02</v>
-      </c>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C47" s="180"/>
       <c r="D47" s="23"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C48" s="180"/>
       <c r="D48" s="23"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="C49" s="180"/>
-      <c r="D49" s="23"/>
+      <c r="D49" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>71</v>
+        <v>165</v>
       </c>
       <c r="C50" s="180"/>
-      <c r="D50" s="24" t="s">
-        <v>70</v>
+      <c r="D50" s="24">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="C51" s="180"/>
-      <c r="D51" s="24">
-        <v>0</v>
-      </c>
+      <c r="A51" s="21" t="s">
+        <v>518</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C51" s="240"/>
+      <c r="D51" s="241"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="12" t="s">
         <v>520</v>
       </c>
-      <c r="B52" s="17" t="s">
+      <c r="B52" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="C52" s="351"/>
-      <c r="D52" s="352"/>
+      <c r="C52" s="238"/>
+      <c r="D52" s="242">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
@@ -10734,10 +10730,8 @@
       <c r="B53" s="16" t="s">
         <v>523</v>
       </c>
-      <c r="C53" s="349"/>
-      <c r="D53" s="353">
-        <v>0.02</v>
-      </c>
+      <c r="C53" s="238"/>
+      <c r="D53" s="242"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
@@ -10746,8 +10740,8 @@
       <c r="B54" s="16" t="s">
         <v>525</v>
       </c>
-      <c r="C54" s="349"/>
-      <c r="D54" s="353"/>
+      <c r="C54" s="238"/>
+      <c r="D54" s="242"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
@@ -10756,8 +10750,8 @@
       <c r="B55" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="C55" s="349"/>
-      <c r="D55" s="353"/>
+      <c r="C55" s="238"/>
+      <c r="D55" s="242"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
@@ -10766,145 +10760,147 @@
       <c r="B56" s="16" t="s">
         <v>529</v>
       </c>
-      <c r="C56" s="349"/>
-      <c r="D56" s="353"/>
+      <c r="C56" s="238"/>
+      <c r="D56" s="24" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>531</v>
-      </c>
-      <c r="C57" s="349"/>
-      <c r="D57" s="24" t="s">
-        <v>70</v>
-      </c>
+      <c r="A57" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="179"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" s="179"/>
-      <c r="D58" s="22"/>
+      <c r="A58" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="15"/>
+      <c r="C58" s="180"/>
+      <c r="D58" s="23"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="15"/>
+        <v>128</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>83</v>
+      </c>
       <c r="C59" s="180"/>
       <c r="D59" s="23"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="180"/>
       <c r="D60" s="23"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="180"/>
       <c r="D61" s="23"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="C62" s="180"/>
       <c r="D62" s="23"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="C63" s="180"/>
       <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C64" s="180"/>
       <c r="D64" s="23"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C65" s="180"/>
       <c r="D65" s="23"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C66" s="180"/>
       <c r="D66" s="23"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C67" s="180"/>
       <c r="D67" s="23"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C68" s="180"/>
       <c r="D68" s="23"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="C69" s="180"/>
-      <c r="D69" s="23"/>
+      <c r="D69" s="23">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C70" s="180"/>
       <c r="D70" s="23">
@@ -10913,10 +10909,10 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C71" s="180"/>
       <c r="D71" s="23">
@@ -10925,10 +10921,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C72" s="180"/>
       <c r="D72" s="23">
@@ -10937,10 +10933,10 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C73" s="180"/>
       <c r="D73" s="23">
@@ -10949,138 +10945,126 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C74" s="180"/>
       <c r="D74" s="23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="C75" s="180"/>
-      <c r="D75" s="23">
-        <v>0</v>
-      </c>
+      <c r="D75" s="23"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="C76" s="180"/>
       <c r="D76" s="23"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B77" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="C77" s="180"/>
-      <c r="D77" s="23"/>
+      <c r="A77" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" s="179"/>
+      <c r="D77" s="178"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B78" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C78" s="179"/>
-      <c r="D78" s="178"/>
+      <c r="A78" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B78" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C78" s="180"/>
+      <c r="D78" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B79" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C79" s="180"/>
-      <c r="D79" s="25">
+      <c r="A79" s="21" t="s">
+        <v>339</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C79" s="179"/>
+      <c r="D79" s="178"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="B80" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="C80" s="180"/>
+      <c r="D80" s="25">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="B80" s="17" t="s">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>531</v>
+      </c>
+      <c r="B81" s="243" t="s">
         <v>532</v>
       </c>
-      <c r="C80" s="179"/>
-      <c r="D80" s="178"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="B81" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="C81" s="180"/>
-      <c r="D81" s="25">
+      <c r="C81" s="179"/>
+      <c r="D81" s="178"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B82" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="C82" s="180"/>
+      <c r="D82" s="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C83" s="179"/>
+      <c r="D83" s="178"/>
+    </row>
+    <row r="84" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B84" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C84" s="181"/>
+      <c r="D84" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="21" t="s">
-        <v>533</v>
-      </c>
-      <c r="B82" s="354" t="s">
-        <v>534</v>
-      </c>
-      <c r="C82" s="179"/>
-      <c r="D82" s="178"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="B83" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="C83" s="180"/>
-      <c r="D83" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C84" s="179"/>
-      <c r="D84" s="178"/>
-    </row>
-    <row r="85" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="26" t="s">
-        <v>155</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="181"/>
-      <c r="D85" s="28">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="nz+s2XO+ftXiPvDFdCb363Kdxpm8/rTzkaQvNt3hixFy/XzDLwk3vacxi/mnwp2lCzlwAgpdDUMXZxUkXUE4MA==" saltValue="5VzOwROovNDqiQdmD//x7A==" spinCount="100000" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
@@ -11114,23 +11098,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="337" t="s">
+      <c r="A1" s="349" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
+      <c r="B1" s="350"/>
+      <c r="C1" s="350"/>
+      <c r="D1" s="350"/>
+      <c r="E1" s="350"/>
+      <c r="F1" s="350"/>
+      <c r="G1" s="350"/>
+      <c r="H1" s="350"/>
+      <c r="I1" s="350"/>
+      <c r="J1" s="350"/>
+      <c r="K1" s="350"/>
+      <c r="L1" s="350"/>
+      <c r="M1" s="350"/>
+      <c r="N1" s="350"/>
+      <c r="O1" s="350"/>
     </row>
     <row r="2" spans="1:15" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11148,17 +11132,17 @@
       <c r="M2" s="34"/>
     </row>
     <row r="3" spans="1:15" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="336"/>
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B4" s="36"/>
@@ -11349,21 +11333,21 @@
     </row>
     <row r="18" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:14" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B19" s="334" t="s">
+      <c r="B19" s="346" t="s">
         <v>216</v>
       </c>
-      <c r="C19" s="335"/>
-      <c r="D19" s="335"/>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
-      <c r="H19" s="335"/>
-      <c r="I19" s="335"/>
-      <c r="J19" s="335"/>
-      <c r="K19" s="335"/>
-      <c r="L19" s="335"/>
-      <c r="M19" s="335"/>
-      <c r="N19" s="336"/>
+      <c r="C19" s="347"/>
+      <c r="D19" s="347"/>
+      <c r="E19" s="347"/>
+      <c r="F19" s="347"/>
+      <c r="G19" s="347"/>
+      <c r="H19" s="347"/>
+      <c r="I19" s="347"/>
+      <c r="J19" s="347"/>
+      <c r="K19" s="347"/>
+      <c r="L19" s="347"/>
+      <c r="M19" s="347"/>
+      <c r="N19" s="348"/>
     </row>
     <row r="20" spans="2:14" ht="26.25" x14ac:dyDescent="0.4">
       <c r="B20" s="36"/>
@@ -11565,27 +11549,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="354" t="s">
         <v>226</v>
       </c>
-      <c r="B1" s="343"/>
-      <c r="C1" s="343"/>
-      <c r="D1" s="343"/>
-      <c r="E1" s="343"/>
-      <c r="F1" s="343"/>
-      <c r="G1" s="343"/>
-      <c r="H1" s="343"/>
-      <c r="I1" s="343"/>
-      <c r="J1" s="343"/>
-      <c r="K1" s="343"/>
-      <c r="L1" s="343"/>
-      <c r="M1" s="343"/>
-      <c r="N1" s="343"/>
-      <c r="O1" s="343"/>
-      <c r="P1" s="343"/>
-      <c r="Q1" s="343"/>
-      <c r="R1" s="343"/>
-      <c r="S1" s="343"/>
+      <c r="B1" s="355"/>
+      <c r="C1" s="355"/>
+      <c r="D1" s="355"/>
+      <c r="E1" s="355"/>
+      <c r="F1" s="355"/>
+      <c r="G1" s="355"/>
+      <c r="H1" s="355"/>
+      <c r="I1" s="355"/>
+      <c r="J1" s="355"/>
+      <c r="K1" s="355"/>
+      <c r="L1" s="355"/>
+      <c r="M1" s="355"/>
+      <c r="N1" s="355"/>
+      <c r="O1" s="355"/>
+      <c r="P1" s="355"/>
+      <c r="Q1" s="355"/>
+      <c r="R1" s="355"/>
+      <c r="S1" s="355"/>
     </row>
     <row r="2" spans="1:20" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="34"/>
@@ -11599,26 +11583,26 @@
       <c r="I2" s="34"/>
     </row>
     <row r="3" spans="1:20" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="336"/>
-      <c r="L3" s="339" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="347"/>
+      <c r="I3" s="347"/>
+      <c r="J3" s="348"/>
+      <c r="L3" s="351" t="s">
         <v>216</v>
       </c>
-      <c r="M3" s="340"/>
-      <c r="N3" s="340"/>
-      <c r="O3" s="340"/>
-      <c r="P3" s="340"/>
-      <c r="Q3" s="340"/>
-      <c r="R3" s="341"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="352"/>
+      <c r="O3" s="352"/>
+      <c r="P3" s="352"/>
+      <c r="Q3" s="352"/>
+      <c r="R3" s="353"/>
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
     </row>
@@ -11849,23 +11833,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="344" t="s">
+      <c r="A1" s="356" t="s">
         <v>225</v>
       </c>
-      <c r="B1" s="345"/>
-      <c r="C1" s="345"/>
-      <c r="D1" s="345"/>
-      <c r="E1" s="345"/>
-      <c r="F1" s="345"/>
-      <c r="G1" s="345"/>
-      <c r="H1" s="345"/>
-      <c r="I1" s="345"/>
-      <c r="J1" s="345"/>
-      <c r="K1" s="345"/>
-      <c r="L1" s="345"/>
-      <c r="M1" s="345"/>
-      <c r="N1" s="345"/>
-      <c r="O1" s="346"/>
+      <c r="B1" s="357"/>
+      <c r="C1" s="357"/>
+      <c r="D1" s="357"/>
+      <c r="E1" s="357"/>
+      <c r="F1" s="357"/>
+      <c r="G1" s="357"/>
+      <c r="H1" s="357"/>
+      <c r="I1" s="357"/>
+      <c r="J1" s="357"/>
+      <c r="K1" s="357"/>
+      <c r="L1" s="357"/>
+      <c r="M1" s="357"/>
+      <c r="N1" s="357"/>
+      <c r="O1" s="358"/>
     </row>
     <row r="2" spans="1:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
@@ -11878,22 +11862,22 @@
       <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:16" ht="29.25" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="334" t="s">
+      <c r="B3" s="346" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="336"/>
-      <c r="J3" s="339" t="s">
+      <c r="C3" s="347"/>
+      <c r="D3" s="347"/>
+      <c r="E3" s="347"/>
+      <c r="F3" s="347"/>
+      <c r="G3" s="347"/>
+      <c r="H3" s="348"/>
+      <c r="J3" s="351" t="s">
         <v>216</v>
       </c>
-      <c r="K3" s="340"/>
-      <c r="L3" s="340"/>
-      <c r="M3" s="340"/>
-      <c r="N3" s="341"/>
+      <c r="K3" s="352"/>
+      <c r="L3" s="352"/>
+      <c r="M3" s="352"/>
+      <c r="N3" s="353"/>
       <c r="O3" s="35"/>
       <c r="P3" s="35"/>
     </row>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD9300-D7DB-4961-8393-07DA1859C4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -32,17 +33,22 @@
     <definedName name="I7577I">1</definedName>
     <definedName name="I896I">0</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="540">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2627,11 +2633,23 @@
   <si>
     <t>Min Valid a.u.</t>
   </si>
+  <si>
+    <t>CSV Header 1</t>
+  </si>
+  <si>
+    <t>CSV Header 2</t>
+  </si>
+  <si>
+    <t>CSV Header 3</t>
+  </si>
+  <si>
+    <t>CSV Header 4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2946,7 +2964,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -3560,11 +3578,68 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="359">
+  <cellXfs count="373">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4270,41 +4345,74 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4348,59 +4456,26 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4499,45 +4574,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4561,6 +4597,45 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4616,6 +4691,62 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4686,6 +4817,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3074"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000020C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4751,6 +4885,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s3075"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-0000030C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -4823,6 +4960,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003040000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4894,6 +5034,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4098"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002100000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -4959,6 +5102,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s4097"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001100000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5031,6 +5177,9 @@
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7169"/>
                 </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000011C0000}"/>
+                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
@@ -5096,6 +5245,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s7170"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-0000021C0000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -5440,14 +5592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5468,86 +5620,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="258" t="s">
+      <c r="A1" s="269" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="259"/>
-      <c r="C1" s="259"/>
-      <c r="D1" s="259"/>
-      <c r="E1" s="259"/>
-      <c r="F1" s="259"/>
-      <c r="G1" s="259"/>
-      <c r="H1" s="259"/>
-      <c r="I1" s="259"/>
-      <c r="J1" s="259"/>
-      <c r="K1" s="260"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+      <c r="I1" s="270"/>
+      <c r="J1" s="270"/>
+      <c r="K1" s="271"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="85"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="274" t="s">
+      <c r="A3" s="248" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="275"/>
+      <c r="B3" s="249"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="272" t="s">
+      <c r="A4" s="262" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="273"/>
+      <c r="B4" s="263"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="288" t="s">
+      <c r="A5" s="264" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="289"/>
+      <c r="B5" s="265"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="85"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="274" t="s">
+      <c r="A7" s="248" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="276"/>
-      <c r="C7" s="276"/>
-      <c r="D7" s="276"/>
-      <c r="E7" s="276"/>
-      <c r="F7" s="276"/>
-      <c r="G7" s="276"/>
-      <c r="H7" s="276"/>
-      <c r="I7" s="276"/>
-      <c r="J7" s="276"/>
-      <c r="K7" s="275"/>
+      <c r="B7" s="250"/>
+      <c r="C7" s="250"/>
+      <c r="D7" s="250"/>
+      <c r="E7" s="250"/>
+      <c r="F7" s="250"/>
+      <c r="G7" s="250"/>
+      <c r="H7" s="250"/>
+      <c r="I7" s="250"/>
+      <c r="J7" s="250"/>
+      <c r="K7" s="249"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="261" t="s">
+      <c r="A8" s="272" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="263"/>
+      <c r="B8" s="273"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="274"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="264"/>
-      <c r="B9" s="265"/>
-      <c r="C9" s="265"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="265"/>
-      <c r="F9" s="265"/>
-      <c r="G9" s="265"/>
-      <c r="H9" s="265"/>
-      <c r="I9" s="265"/>
-      <c r="J9" s="265"/>
-      <c r="K9" s="266"/>
+      <c r="A9" s="275"/>
+      <c r="B9" s="276"/>
+      <c r="C9" s="276"/>
+      <c r="D9" s="276"/>
+      <c r="E9" s="276"/>
+      <c r="F9" s="276"/>
+      <c r="G9" s="276"/>
+      <c r="H9" s="276"/>
+      <c r="I9" s="276"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="277"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="154"/>
@@ -5558,64 +5710,64 @@
       <c r="F10" s="140"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="277" t="s">
+      <c r="A11" s="251" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="279"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="253"/>
       <c r="E11" s="86"/>
       <c r="F11" s="140"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="280" t="s">
+      <c r="A12" s="254" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282" t="s">
+      <c r="B12" s="255"/>
+      <c r="C12" s="256" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="283"/>
+      <c r="D12" s="257"/>
       <c r="E12" s="86"/>
       <c r="F12" s="140"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="284"/>
-      <c r="B13" s="285"/>
-      <c r="C13" s="286"/>
-      <c r="D13" s="287"/>
+      <c r="A13" s="258"/>
+      <c r="B13" s="259"/>
+      <c r="C13" s="260"/>
+      <c r="D13" s="261"/>
       <c r="E13" s="86"/>
       <c r="F13" s="140"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="277" t="s">
+      <c r="A15" s="251" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="279"/>
-      <c r="E15" s="277" t="s">
+      <c r="B15" s="253"/>
+      <c r="E15" s="251" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="278"/>
-      <c r="G15" s="278"/>
-      <c r="H15" s="278"/>
-      <c r="I15" s="279"/>
+      <c r="F15" s="252"/>
+      <c r="G15" s="252"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="253"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="272" t="s">
+      <c r="A16" s="262" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="273"/>
+      <c r="B16" s="263"/>
       <c r="D16" s="87"/>
-      <c r="E16" s="267" t="s">
+      <c r="E16" s="278" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="268"/>
-      <c r="G16" s="268"/>
-      <c r="H16" s="268"/>
-      <c r="I16" s="269"/>
-    </row>
-    <row r="17" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="280"/>
+    </row>
+    <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="155" t="s">
         <v>230</v>
       </c>
@@ -5623,10 +5775,10 @@
         <v>271</v>
       </c>
       <c r="C17" s="88"/>
-      <c r="E17" s="270" t="s">
+      <c r="E17" s="281" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="271"/>
+      <c r="F17" s="282"/>
       <c r="G17" s="198" t="s">
         <v>157</v>
       </c>
@@ -5636,9 +5788,12 @@
       <c r="I17" s="187" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="80"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J17" s="359" t="s">
+        <v>536</v>
+      </c>
+      <c r="K17" s="360"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="156" t="s">
         <v>262</v>
       </c>
@@ -5656,12 +5811,13 @@
       <c r="H18" s="32" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="246" t="s">
+      <c r="I18" s="266" t="s">
         <v>475</v>
       </c>
-      <c r="J18" s="80"/>
-    </row>
-    <row r="19" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="J18" s="361"/>
+      <c r="K18" s="362"/>
+    </row>
+    <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A19" s="157" t="s">
         <v>278</v>
       </c>
@@ -5679,10 +5835,11 @@
       <c r="H19" s="73" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="246"/>
-      <c r="J19" s="80"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I19" s="266"/>
+      <c r="J19" s="361"/>
+      <c r="K19" s="362"/>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="157" t="s">
         <v>279</v>
       </c>
@@ -5696,10 +5853,11 @@
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="247"/>
-      <c r="J20" s="80"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="267"/>
+      <c r="J20" s="363"/>
+      <c r="K20" s="364"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="157" t="s">
         <v>283</v>
       </c>
@@ -5708,34 +5866,34 @@
       <c r="I21" s="80"/>
       <c r="J21" s="80"/>
     </row>
-    <row r="22" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="158"/>
       <c r="B22" s="115"/>
       <c r="C22" s="88"/>
       <c r="J22" s="80"/>
     </row>
-    <row r="23" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="159"/>
       <c r="B23" s="91"/>
       <c r="C23" s="90"/>
-      <c r="E23" s="248" t="s">
+      <c r="E23" s="246" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="249"/>
-      <c r="G23" s="249"/>
-      <c r="H23" s="249"/>
-      <c r="I23" s="250"/>
-    </row>
-    <row r="24" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="248" t="s">
+      <c r="F23" s="268"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="247"/>
+    </row>
+    <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="250"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="31"/>
-      <c r="E24" s="254" t="s">
+      <c r="E24" s="286" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="255"/>
+      <c r="F24" s="287"/>
       <c r="G24" s="198" t="s">
         <v>157</v>
       </c>
@@ -5745,8 +5903,12 @@
       <c r="I24" s="187" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J24" s="359" t="s">
+        <v>537</v>
+      </c>
+      <c r="K24" s="360"/>
+    </row>
+    <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="155" t="s">
         <v>230</v>
       </c>
@@ -5764,11 +5926,13 @@
       <c r="H25" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="251" t="s">
+      <c r="I25" s="283" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="J25" s="361"/>
+      <c r="K25" s="362"/>
+    </row>
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="156" t="s">
         <v>262</v>
       </c>
@@ -5788,9 +5952,11 @@
       <c r="H26" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="252"/>
-    </row>
-    <row r="27" spans="1:10" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="284"/>
+      <c r="J26" s="361"/>
+      <c r="K26" s="362"/>
+    </row>
+    <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="157" t="s">
         <v>276</v>
       </c>
@@ -5804,9 +5970,11 @@
       </c>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
-      <c r="I27" s="253"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I27" s="285"/>
+      <c r="J27" s="363"/>
+      <c r="K27" s="364"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="157" t="s">
         <v>277</v>
       </c>
@@ -5818,32 +5986,32 @@
       <c r="H28" s="93"/>
       <c r="I28" s="80"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="157"/>
       <c r="B29" s="114"/>
       <c r="C29" s="31"/>
       <c r="I29" s="80"/>
     </row>
-    <row r="30" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="158"/>
       <c r="B30" s="115"/>
       <c r="C30" s="88"/>
-      <c r="E30" s="248" t="s">
+      <c r="E30" s="246" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="249"/>
-      <c r="G30" s="249"/>
-      <c r="H30" s="249"/>
-      <c r="I30" s="250"/>
-    </row>
-    <row r="31" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="247"/>
+    </row>
+    <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="159"/>
       <c r="B31" s="90"/>
       <c r="C31" s="90"/>
-      <c r="E31" s="256" t="s">
+      <c r="E31" s="288" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="257"/>
+      <c r="F31" s="289"/>
       <c r="G31" s="196" t="s">
         <v>157</v>
       </c>
@@ -5853,12 +6021,16 @@
       <c r="I31" s="187" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="248" t="s">
+      <c r="J31" s="365" t="s">
+        <v>538</v>
+      </c>
+      <c r="K31" s="366"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="246" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="250"/>
+      <c r="B32" s="247"/>
       <c r="C32" s="31"/>
       <c r="E32" s="82">
         <v>1</v>
@@ -5868,9 +6040,11 @@
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="73"/>
-      <c r="I32" s="246"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="266"/>
+      <c r="J32" s="367"/>
+      <c r="K32" s="368"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="155" t="s">
         <v>230</v>
       </c>
@@ -5888,9 +6062,11 @@
         <v>5</v>
       </c>
       <c r="H33" s="32"/>
-      <c r="I33" s="246"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="266"/>
+      <c r="J33" s="369"/>
+      <c r="K33" s="370"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="156" t="s">
         <v>232</v>
       </c>
@@ -5903,9 +6079,11 @@
       <c r="F34" s="92"/>
       <c r="G34" s="32"/>
       <c r="H34" s="73"/>
-      <c r="I34" s="246"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="266"/>
+      <c r="J34" s="369"/>
+      <c r="K34" s="370"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="157" t="s">
         <v>217</v>
       </c>
@@ -5916,9 +6094,11 @@
       <c r="F35" s="92"/>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
-      <c r="I35" s="246"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="266"/>
+      <c r="J35" s="369"/>
+      <c r="K35" s="370"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="157" t="s">
         <v>218</v>
       </c>
@@ -5929,9 +6109,11 @@
       <c r="F36" s="92"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
-      <c r="I36" s="246"/>
-    </row>
-    <row r="37" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="266"/>
+      <c r="J36" s="369"/>
+      <c r="K36" s="370"/>
+    </row>
+    <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="157" t="s">
         <v>219</v>
       </c>
@@ -5942,30 +6124,32 @@
       <c r="F37" s="138"/>
       <c r="G37" s="70"/>
       <c r="H37" s="70"/>
-      <c r="I37" s="247"/>
-    </row>
-    <row r="38" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I37" s="267"/>
+      <c r="J37" s="371"/>
+      <c r="K37" s="372"/>
+    </row>
+    <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="158" t="s">
         <v>220</v>
       </c>
       <c r="B38" s="115"/>
     </row>
-    <row r="39" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="160"/>
       <c r="B39" s="119"/>
     </row>
-    <row r="40" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="E40" s="248" t="s">
+    <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="E40" s="246" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="249"/>
-      <c r="G40" s="249"/>
-      <c r="H40" s="249"/>
-      <c r="I40" s="250"/>
-    </row>
-    <row r="41" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="E41" s="254"/>
-      <c r="F41" s="255"/>
+      <c r="F40" s="268"/>
+      <c r="G40" s="268"/>
+      <c r="H40" s="268"/>
+      <c r="I40" s="247"/>
+    </row>
+    <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E41" s="286"/>
+      <c r="F41" s="287"/>
       <c r="G41" s="81" t="s">
         <v>157</v>
       </c>
@@ -5975,64 +6159,101 @@
       <c r="I41" s="187" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="365" t="s">
+        <v>539</v>
+      </c>
+      <c r="K41" s="366"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E42" s="82">
         <v>1</v>
       </c>
       <c r="F42" s="92"/>
       <c r="G42" s="32"/>
       <c r="H42" s="73"/>
-      <c r="I42" s="246"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="266"/>
+      <c r="J42" s="367"/>
+      <c r="K42" s="368"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E43" s="82">
         <v>2</v>
       </c>
       <c r="F43" s="92"/>
       <c r="G43" s="32"/>
       <c r="H43" s="32"/>
-      <c r="I43" s="246"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="266"/>
+      <c r="J43" s="369"/>
+      <c r="K43" s="370"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E44" s="82">
         <v>3</v>
       </c>
       <c r="F44" s="92"/>
       <c r="G44" s="32"/>
       <c r="H44" s="73"/>
-      <c r="I44" s="246"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="266"/>
+      <c r="J44" s="369"/>
+      <c r="K44" s="370"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E45" s="82">
         <v>4</v>
       </c>
       <c r="F45" s="92"/>
       <c r="G45" s="32"/>
       <c r="H45" s="32"/>
-      <c r="I45" s="246"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="266"/>
+      <c r="J45" s="369"/>
+      <c r="K45" s="370"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E46" s="82">
         <v>5</v>
       </c>
       <c r="F46" s="92"/>
       <c r="G46" s="32"/>
       <c r="H46" s="32"/>
-      <c r="I46" s="246"/>
-    </row>
-    <row r="47" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I46" s="266"/>
+      <c r="J46" s="369"/>
+      <c r="K46" s="370"/>
+    </row>
+    <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E47" s="83">
         <v>6</v>
       </c>
       <c r="F47" s="138"/>
       <c r="G47" s="70"/>
       <c r="H47" s="70"/>
-      <c r="I47" s="247"/>
-    </row>
-    <row r="48" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I47" s="267"/>
+      <c r="J47" s="371"/>
+      <c r="K47" s="372"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="37">
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6048,20 +6269,7 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J24:K24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6069,7 +6277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -7585,7 +7793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8530,7 +8738,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -8562,68 +8770,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="325" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
       <c r="P1" s="30"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="333" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="327"/>
-      <c r="C2" s="327"/>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="328"/>
-      <c r="G2" s="339" t="s">
+      <c r="B2" s="334"/>
+      <c r="C2" s="334"/>
+      <c r="D2" s="334"/>
+      <c r="E2" s="334"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="326" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="329" t="s">
         <v>285</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
       <c r="P2" s="87"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="329" t="s">
+      <c r="A3" s="336" t="s">
         <v>481</v>
       </c>
-      <c r="B3" s="330"/>
-      <c r="C3" s="330"/>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="331"/>
-      <c r="G3" s="341" t="s">
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="338"/>
+      <c r="G3" s="328" t="s">
         <v>291</v>
       </c>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>289</v>
       </c>
@@ -8636,24 +8844,24 @@
       <c r="P3" s="193"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="339" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="340" t="s">
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="327" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340" t="s">
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327" t="s">
         <v>292</v>
       </c>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>152</v>
       </c>
@@ -8665,12 +8873,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="335"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="337"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="321" t="s">
         <v>271</v>
       </c>
@@ -8690,14 +8898,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="322" t="s">
         <v>483</v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="337"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="321" t="s">
         <v>275</v>
       </c>
@@ -8715,14 +8923,14 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="335" t="s">
+      <c r="A7" s="322" t="s">
         <v>484</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="321"/>
       <c r="H7" s="321"/>
       <c r="I7" s="321"/>
@@ -8734,12 +8942,12 @@
       <c r="O7" s="205"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="321"/>
       <c r="H8" s="321"/>
       <c r="I8" s="321"/>
@@ -8752,17 +8960,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="330" t="s">
         <v>343</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="332"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -9369,20 +9577,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="A15:H15"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:O1"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="G4:I4"/>
     <mergeCell ref="J7:L7"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="M2:O2"/>
@@ -9395,6 +9589,20 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A7:F7"/>
+    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="A15:H15"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="A8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9454,7 +9662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
@@ -9486,68 +9694,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="338" t="s">
+      <c r="A1" s="325" t="s">
         <v>238</v>
       </c>
-      <c r="B1" s="338"/>
-      <c r="C1" s="338"/>
-      <c r="D1" s="338"/>
-      <c r="E1" s="338"/>
-      <c r="F1" s="338"/>
-      <c r="G1" s="338"/>
-      <c r="H1" s="338"/>
-      <c r="I1" s="338"/>
-      <c r="J1" s="338"/>
-      <c r="K1" s="338"/>
-      <c r="L1" s="338"/>
-      <c r="M1" s="338"/>
-      <c r="N1" s="338"/>
-      <c r="O1" s="338"/>
-      <c r="P1" s="338"/>
+      <c r="B1" s="325"/>
+      <c r="C1" s="325"/>
+      <c r="D1" s="325"/>
+      <c r="E1" s="325"/>
+      <c r="F1" s="325"/>
+      <c r="G1" s="325"/>
+      <c r="H1" s="325"/>
+      <c r="I1" s="325"/>
+      <c r="J1" s="325"/>
+      <c r="K1" s="325"/>
+      <c r="L1" s="325"/>
+      <c r="M1" s="325"/>
+      <c r="N1" s="325"/>
+      <c r="O1" s="325"/>
+      <c r="P1" s="325"/>
       <c r="Q1" s="30"/>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="339" t="s">
+      <c r="A2" s="326" t="s">
         <v>272</v>
       </c>
-      <c r="B2" s="339"/>
-      <c r="C2" s="339"/>
-      <c r="D2" s="339"/>
-      <c r="E2" s="339"/>
-      <c r="F2" s="339"/>
-      <c r="G2" s="339" t="s">
+      <c r="B2" s="326"/>
+      <c r="C2" s="326"/>
+      <c r="D2" s="326"/>
+      <c r="E2" s="326"/>
+      <c r="F2" s="326"/>
+      <c r="G2" s="326" t="s">
         <v>239</v>
       </c>
-      <c r="H2" s="339"/>
-      <c r="I2" s="339"/>
-      <c r="J2" s="339"/>
-      <c r="K2" s="339"/>
-      <c r="L2" s="339"/>
-      <c r="M2" s="322" t="s">
+      <c r="H2" s="326"/>
+      <c r="I2" s="326"/>
+      <c r="J2" s="326"/>
+      <c r="K2" s="326"/>
+      <c r="L2" s="326"/>
+      <c r="M2" s="329" t="s">
         <v>284</v>
       </c>
-      <c r="N2" s="322"/>
-      <c r="O2" s="322"/>
-      <c r="P2" s="322"/>
+      <c r="N2" s="329"/>
+      <c r="O2" s="329"/>
+      <c r="P2" s="329"/>
       <c r="Q2" s="87"/>
     </row>
     <row r="3" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="341" t="s">
+      <c r="A3" s="328" t="s">
         <v>485</v>
       </c>
-      <c r="B3" s="341"/>
-      <c r="C3" s="341"/>
-      <c r="D3" s="341"/>
-      <c r="E3" s="341"/>
-      <c r="F3" s="341"/>
-      <c r="G3" s="341" t="s">
+      <c r="B3" s="328"/>
+      <c r="C3" s="328"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328" t="s">
         <v>286</v>
       </c>
-      <c r="H3" s="341"/>
-      <c r="I3" s="341"/>
-      <c r="J3" s="341"/>
-      <c r="K3" s="341"/>
-      <c r="L3" s="341"/>
+      <c r="H3" s="328"/>
+      <c r="I3" s="328"/>
+      <c r="J3" s="328"/>
+      <c r="K3" s="328"/>
+      <c r="L3" s="328"/>
       <c r="M3" s="202" t="s">
         <v>288</v>
       </c>
@@ -9563,22 +9771,22 @@
       <c r="Q3" s="192"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="332" t="s">
+      <c r="A4" s="339" t="s">
         <v>482</v>
       </c>
-      <c r="B4" s="333"/>
-      <c r="C4" s="333"/>
-      <c r="D4" s="333"/>
-      <c r="E4" s="333"/>
-      <c r="F4" s="334"/>
-      <c r="G4" s="340" t="s">
+      <c r="B4" s="340"/>
+      <c r="C4" s="340"/>
+      <c r="D4" s="340"/>
+      <c r="E4" s="340"/>
+      <c r="F4" s="341"/>
+      <c r="G4" s="327" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="340"/>
-      <c r="I4" s="340"/>
-      <c r="J4" s="340"/>
-      <c r="K4" s="340"/>
-      <c r="L4" s="340"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="327"/>
+      <c r="J4" s="327"/>
+      <c r="K4" s="327"/>
+      <c r="L4" s="327"/>
       <c r="M4" s="203" t="s">
         <v>245</v>
       </c>
@@ -9593,12 +9801,12 @@
       </c>
     </row>
     <row r="5" spans="1:17" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="335"/>
-      <c r="B5" s="336"/>
-      <c r="C5" s="336"/>
-      <c r="D5" s="336"/>
-      <c r="E5" s="336"/>
-      <c r="F5" s="337"/>
+      <c r="A5" s="322"/>
+      <c r="B5" s="323"/>
+      <c r="C5" s="323"/>
+      <c r="D5" s="323"/>
+      <c r="E5" s="323"/>
+      <c r="F5" s="324"/>
       <c r="G5" s="342" t="s">
         <v>4</v>
       </c>
@@ -9619,14 +9827,14 @@
       </c>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="335" t="s">
+      <c r="A6" s="322" t="s">
         <v>488</v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
-      <c r="E6" s="336"/>
-      <c r="F6" s="337"/>
+      <c r="B6" s="323"/>
+      <c r="C6" s="323"/>
+      <c r="D6" s="323"/>
+      <c r="E6" s="323"/>
+      <c r="F6" s="324"/>
       <c r="G6" s="342" t="s">
         <v>4</v>
       </c>
@@ -9645,12 +9853,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="335"/>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
-      <c r="E7" s="336"/>
-      <c r="F7" s="337"/>
+      <c r="A7" s="322"/>
+      <c r="B7" s="323"/>
+      <c r="C7" s="323"/>
+      <c r="D7" s="323"/>
+      <c r="E7" s="323"/>
+      <c r="F7" s="324"/>
       <c r="G7" s="342"/>
       <c r="H7" s="342"/>
       <c r="I7" s="342"/>
@@ -9663,12 +9871,12 @@
       <c r="P7" s="205"/>
     </row>
     <row r="8" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="335"/>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
-      <c r="E8" s="336"/>
-      <c r="F8" s="337"/>
+      <c r="A8" s="322"/>
+      <c r="B8" s="323"/>
+      <c r="C8" s="323"/>
+      <c r="D8" s="323"/>
+      <c r="E8" s="323"/>
+      <c r="F8" s="324"/>
       <c r="G8" s="342"/>
       <c r="H8" s="342"/>
       <c r="I8" s="342"/>
@@ -9682,17 +9890,17 @@
     </row>
     <row r="9" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:17" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="323" t="s">
+      <c r="A10" s="330" t="s">
         <v>342</v>
       </c>
-      <c r="B10" s="324"/>
-      <c r="C10" s="324"/>
-      <c r="D10" s="324"/>
-      <c r="E10" s="324"/>
-      <c r="F10" s="324"/>
-      <c r="G10" s="324"/>
-      <c r="H10" s="324"/>
-      <c r="I10" s="325"/>
+      <c r="B10" s="331"/>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="332"/>
     </row>
     <row r="11" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="129" t="s">
@@ -10032,6 +10240,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:L3"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A21:G21"/>
     <mergeCell ref="D22:G22"/>
@@ -10046,13 +10261,6 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="G5:L5"/>
     <mergeCell ref="A7:F7"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="M2:P2"/>
-    <mergeCell ref="A1:P1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10112,13 +10320,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet6">
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -11074,7 +11282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:O28"/>
   <sheetViews>
@@ -11535,7 +11743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T12"/>
   <sheetViews>
@@ -11817,7 +12025,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:P15"/>
   <sheetViews>

--- a/test_templates/test_batch_template3.xlsx
+++ b/test_templates/test_batch_template3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coverney\Documents\GitHub\TASBEFlowAnalytics\test_templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EFD9300-D7DB-4961-8393-07DA1859C4F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8C08F-DD45-4142-A579-C63724163809}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-50385" yWindow="1080" windowWidth="47745" windowHeight="25665" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiment" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Calibration" sheetId="1" r:id="rId3"/>
     <sheet name="Comparative Analysis" sheetId="12" r:id="rId4"/>
     <sheet name="Transfer Curve Analysis" sheetId="13" r:id="rId5"/>
-    <sheet name="Optional Settings" sheetId="15" r:id="rId6"/>
+    <sheet name="Optional Settings" sheetId="16" r:id="rId6"/>
     <sheet name="96w" sheetId="9" r:id="rId7"/>
     <sheet name="48w" sheetId="11" r:id="rId8"/>
     <sheet name="24w" sheetId="10" r:id="rId9"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1068" uniqueCount="595">
   <si>
     <t>blank plasmid</t>
   </si>
@@ -2644,6 +2644,171 @@
   </si>
   <si>
     <t>CSV Header 4</t>
+  </si>
+  <si>
+    <t>gating.deviations</t>
+  </si>
+  <si>
+    <t>Number of standard deviations within which gate selects data</t>
+  </si>
+  <si>
+    <t>gating.tightening</t>
+  </si>
+  <si>
+    <t>Amount that selected gate components are further tightened (range: [0,1])</t>
+  </si>
+  <si>
+    <t>gating.kComponents</t>
+  </si>
+  <si>
+    <t>Number of gaussian components in a gate</t>
+  </si>
+  <si>
+    <t>gating.channelNames</t>
+  </si>
+  <si>
+    <t>Channels to use for gating</t>
+  </si>
+  <si>
+    <t>FSC-A,SSC-A</t>
+  </si>
+  <si>
+    <t>gating.fraction</t>
+  </si>
+  <si>
+    <t>Fraction of range considered saturated and thus excluded from computation</t>
+  </si>
+  <si>
+    <t>gating.selectedComponents</t>
+  </si>
+  <si>
+    <t>Set to force selection of particular components</t>
+  </si>
+  <si>
+    <t>gating.showNonselected</t>
+  </si>
+  <si>
+    <t>When true, show all gate components; when false, selected components only.</t>
+  </si>
+  <si>
+    <t>gating.largeOutliers</t>
+  </si>
+  <si>
+    <t>When true, plot gate outliers with large dots</t>
+  </si>
+  <si>
+    <t>gating.range</t>
+  </si>
+  <si>
+    <t>Force gate heatmap plotting range of [x_min y_min; x_max y_max]</t>
+  </si>
+  <si>
+    <t>gating.density</t>
+  </si>
+  <si>
+    <t>Gate heatmap style: set to 1 for image, 0 for contour</t>
+  </si>
+  <si>
+    <t>gating.plot</t>
+  </si>
+  <si>
+    <t>Determines whether gating plots should be created</t>
+  </si>
+  <si>
+    <t>gating.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for gating figures</t>
+  </si>
+  <si>
+    <t>gating.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, gating plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence</t>
+  </si>
+  <si>
+    <t>Settings for autofluorescence models</t>
+  </si>
+  <si>
+    <t>autofluorescence.dropFraction</t>
+  </si>
+  <si>
+    <t>Fraction of extrema (high and low) to drop before computing autofluorescence</t>
+  </si>
+  <si>
+    <t>autofluorescence.plot</t>
+  </si>
+  <si>
+    <t>Determines whether autofluorescence plots should be created</t>
+  </si>
+  <si>
+    <t>autofluorescence.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, autofluorescence plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>autofluorescence.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for autofluorescence figures</t>
+  </si>
+  <si>
+    <t>colortranslation</t>
+  </si>
+  <si>
+    <t>Settings for color translation models</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMin</t>
+  </si>
+  <si>
+    <t>Minimum for color translation histogram range (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.rangeMax</t>
+  </si>
+  <si>
+    <t>Maximum in histogram for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.binIncrement</t>
+  </si>
+  <si>
+    <t>Resolution of histogram bins used for computing color translation (log10 scale)</t>
+  </si>
+  <si>
+    <t>colortranslation.minSamples</t>
+  </si>
+  <si>
+    <t>Minimum number of samples in a histogram bin for use in computing color translation</t>
+  </si>
+  <si>
+    <t>colortranslation.channelMinimum</t>
+  </si>
+  <si>
+    <t>If set to [M1, M2, ...] trims channel i values below 10^Mi; otherwise drops those below 10^3</t>
+  </si>
+  <si>
+    <t>colortranslation.plot</t>
+  </si>
+  <si>
+    <t>Determines whether color translation plots should be created</t>
+  </si>
+  <si>
+    <t>colortranslation.visiblePlots</t>
+  </si>
+  <si>
+    <t>If true, color translation plots are visible; otherwise, they are hidden for later saving</t>
+  </si>
+  <si>
+    <t>colortranslation.plotSize</t>
+  </si>
+  <si>
+    <t>Size (in inches) [X Y] for color translation figures</t>
   </si>
 </sst>
 </file>
@@ -2964,7 +3129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="54">
+  <borders count="53">
     <border>
       <left/>
       <right/>
@@ -3553,15 +3718,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -3639,7 +3795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="373">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3702,26 +3858,11 @@
     <xf numFmtId="0" fontId="13" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4122,9 +4263,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -4184,13 +4322,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4310,34 +4441,11 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4345,11 +4453,145 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4393,89 +4635,11 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4537,7 +4701,7 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4574,6 +4738,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4598,45 +4801,6 @@
     <xf numFmtId="0" fontId="17" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="17" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -4692,61 +4856,41 @@
     <xf numFmtId="0" fontId="22" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4840,7 +4984,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4909,7 +5053,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -4983,7 +5127,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5057,7 +5201,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5126,7 +5270,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5200,7 +5344,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5269,7 +5413,7 @@
             </a:ln>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="27432" bIns="27432" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr" rtl="0">
@@ -5598,662 +5742,641 @@
   </sheetPr>
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.875" style="153" customWidth="1"/>
-    <col min="2" max="2" width="14.125" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="84" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" style="84" customWidth="1"/>
-    <col min="5" max="5" width="11.875" style="84" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="139" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="84" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="84" customWidth="1"/>
-    <col min="9" max="9" width="20" style="84" customWidth="1"/>
-    <col min="10" max="10" width="8.625" style="84" customWidth="1"/>
-    <col min="11" max="11" width="6" style="84" customWidth="1"/>
-    <col min="12" max="12" width="21.25" style="84" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="84"/>
+    <col min="1" max="1" width="20.875" style="148" customWidth="1"/>
+    <col min="2" max="2" width="14.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="79" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" style="79" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="79" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="134" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="79" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="79" customWidth="1"/>
+    <col min="9" max="9" width="20" style="79" customWidth="1"/>
+    <col min="10" max="10" width="8.625" style="79" customWidth="1"/>
+    <col min="11" max="11" width="6" style="79" customWidth="1"/>
+    <col min="12" max="12" width="21.25" style="79" customWidth="1"/>
+    <col min="13" max="16384" width="10.875" style="79"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="269" t="s">
+      <c r="A1" s="256" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
-      <c r="I1" s="270"/>
-      <c r="J1" s="270"/>
-      <c r="K1" s="271"/>
+      <c r="B1" s="257"/>
+      <c r="C1" s="257"/>
+      <c r="D1" s="257"/>
+      <c r="E1" s="257"/>
+      <c r="F1" s="257"/>
+      <c r="G1" s="257"/>
+      <c r="H1" s="257"/>
+      <c r="I1" s="257"/>
+      <c r="J1" s="257"/>
+      <c r="K1" s="258"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="85"/>
+      <c r="B2" s="80"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="248" t="s">
+      <c r="A3" s="274" t="s">
         <v>305</v>
       </c>
-      <c r="B3" s="249"/>
+      <c r="B3" s="275"/>
     </row>
     <row r="4" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="270" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="263"/>
+      <c r="B4" s="271"/>
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="264" t="s">
+      <c r="A5" s="288" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="265"/>
+      <c r="B5" s="289"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="85"/>
+      <c r="B6" s="80"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="248" t="s">
+      <c r="A7" s="274" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="250"/>
-      <c r="C7" s="250"/>
-      <c r="D7" s="250"/>
-      <c r="E7" s="250"/>
-      <c r="F7" s="250"/>
-      <c r="G7" s="250"/>
-      <c r="H7" s="250"/>
-      <c r="I7" s="250"/>
-      <c r="J7" s="250"/>
-      <c r="K7" s="249"/>
+      <c r="B7" s="276"/>
+      <c r="C7" s="276"/>
+      <c r="D7" s="276"/>
+      <c r="E7" s="276"/>
+      <c r="F7" s="276"/>
+      <c r="G7" s="276"/>
+      <c r="H7" s="276"/>
+      <c r="I7" s="276"/>
+      <c r="J7" s="276"/>
+      <c r="K7" s="275"/>
     </row>
     <row r="8" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="272" t="s">
+      <c r="A8" s="259" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="274"/>
+      <c r="B8" s="260"/>
+      <c r="C8" s="260"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="261"/>
     </row>
     <row r="9" spans="1:11" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="275"/>
-      <c r="B9" s="276"/>
-      <c r="C9" s="276"/>
-      <c r="D9" s="276"/>
-      <c r="E9" s="276"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="276"/>
-      <c r="H9" s="276"/>
-      <c r="I9" s="276"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="277"/>
+      <c r="A9" s="262"/>
+      <c r="B9" s="263"/>
+      <c r="C9" s="263"/>
+      <c r="D9" s="263"/>
+      <c r="E9" s="263"/>
+      <c r="F9" s="263"/>
+      <c r="G9" s="263"/>
+      <c r="H9" s="263"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="264"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="154"/>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="140"/>
+      <c r="A10" s="149"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="135"/>
     </row>
     <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="251" t="s">
+      <c r="A11" s="277" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="252"/>
-      <c r="C11" s="252"/>
-      <c r="D11" s="253"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="140"/>
+      <c r="B11" s="278"/>
+      <c r="C11" s="278"/>
+      <c r="D11" s="279"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="135"/>
     </row>
     <row r="12" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="254" t="s">
+      <c r="A12" s="280" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="255"/>
-      <c r="C12" s="256" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="282" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="257"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="140"/>
+      <c r="D12" s="283"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="135"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="258"/>
-      <c r="B13" s="259"/>
-      <c r="C13" s="260"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="140"/>
+      <c r="A13" s="284"/>
+      <c r="B13" s="285"/>
+      <c r="C13" s="286"/>
+      <c r="D13" s="287"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="135"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:11" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251" t="s">
+      <c r="A15" s="277" t="s">
         <v>268</v>
       </c>
-      <c r="B15" s="253"/>
-      <c r="E15" s="251" t="s">
+      <c r="B15" s="279"/>
+      <c r="E15" s="277" t="s">
         <v>304</v>
       </c>
-      <c r="F15" s="252"/>
-      <c r="G15" s="252"/>
-      <c r="H15" s="252"/>
-      <c r="I15" s="253"/>
+      <c r="F15" s="278"/>
+      <c r="G15" s="278"/>
+      <c r="H15" s="278"/>
+      <c r="I15" s="279"/>
     </row>
     <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="262" t="s">
+      <c r="A16" s="270" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="263"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="278" t="s">
+      <c r="B16" s="271"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="265" t="s">
         <v>190</v>
       </c>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="280"/>
+      <c r="F16" s="266"/>
+      <c r="G16" s="266"/>
+      <c r="H16" s="266"/>
+      <c r="I16" s="267"/>
     </row>
     <row r="17" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="155" t="s">
+      <c r="A17" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="B17" s="113" t="s">
+      <c r="B17" s="108" t="s">
         <v>271</v>
       </c>
-      <c r="C17" s="88"/>
-      <c r="E17" s="281" t="s">
+      <c r="C17" s="83"/>
+      <c r="E17" s="268" t="s">
         <v>228</v>
       </c>
-      <c r="F17" s="282"/>
-      <c r="G17" s="198" t="s">
+      <c r="F17" s="269"/>
+      <c r="G17" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="H17" s="198" t="s">
+      <c r="H17" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="I17" s="187" t="s">
+      <c r="I17" s="181" t="s">
         <v>345</v>
       </c>
-      <c r="J17" s="359" t="s">
+      <c r="J17" s="272" t="s">
         <v>536</v>
       </c>
-      <c r="K17" s="360"/>
+      <c r="K17" s="273"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="156" t="s">
+      <c r="A18" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="C18" s="88"/>
-      <c r="E18" s="82">
+      <c r="C18" s="83"/>
+      <c r="E18" s="77">
         <v>1</v>
       </c>
-      <c r="F18" s="92" t="s">
+      <c r="F18" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32" t="s">
+      <c r="G18" s="27"/>
+      <c r="H18" s="27" t="s">
         <v>159</v>
       </c>
-      <c r="I18" s="266" t="s">
+      <c r="I18" s="244" t="s">
         <v>475</v>
       </c>
-      <c r="J18" s="361"/>
-      <c r="K18" s="362"/>
+      <c r="J18" s="232"/>
+      <c r="K18" s="233"/>
     </row>
     <row r="19" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="157" t="s">
+      <c r="A19" s="152" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="114"/>
-      <c r="C19" s="88"/>
-      <c r="E19" s="82">
+      <c r="B19" s="109"/>
+      <c r="C19" s="83"/>
+      <c r="E19" s="77">
         <v>2</v>
       </c>
-      <c r="F19" s="92" t="s">
+      <c r="F19" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G19" s="32" t="s">
+      <c r="G19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="266"/>
-      <c r="J19" s="361"/>
-      <c r="K19" s="362"/>
+      <c r="I19" s="244"/>
+      <c r="J19" s="232"/>
+      <c r="K19" s="233"/>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="157" t="s">
+      <c r="A20" s="152" t="s">
         <v>279</v>
       </c>
-      <c r="B20" s="114"/>
-      <c r="C20" s="90"/>
-      <c r="E20" s="83">
+      <c r="B20" s="109"/>
+      <c r="C20" s="85"/>
+      <c r="E20" s="78">
         <v>3</v>
       </c>
-      <c r="F20" s="138" t="s">
+      <c r="F20" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="267"/>
-      <c r="J20" s="363"/>
-      <c r="K20" s="364"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="245"/>
+      <c r="J20" s="234"/>
+      <c r="K20" s="235"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="157" t="s">
+      <c r="A21" s="152" t="s">
         <v>283</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="31"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="26"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="75"/>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="158"/>
-      <c r="B22" s="115"/>
-      <c r="C22" s="88"/>
-      <c r="J22" s="80"/>
+      <c r="A22" s="153"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="83"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="159"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="90"/>
+      <c r="A23" s="154"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="85"/>
       <c r="E23" s="246" t="s">
         <v>191</v>
       </c>
-      <c r="F23" s="268"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="247"/>
+      <c r="I23" s="248"/>
     </row>
     <row r="24" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="246" t="s">
         <v>233</v>
       </c>
-      <c r="B24" s="247"/>
-      <c r="C24" s="31"/>
-      <c r="E24" s="286" t="s">
+      <c r="B24" s="248"/>
+      <c r="C24" s="26"/>
+      <c r="E24" s="252" t="s">
         <v>228</v>
       </c>
-      <c r="F24" s="287"/>
-      <c r="G24" s="198" t="s">
+      <c r="F24" s="253"/>
+      <c r="G24" s="192" t="s">
         <v>157</v>
       </c>
-      <c r="H24" s="198" t="s">
+      <c r="H24" s="192" t="s">
         <v>158</v>
       </c>
-      <c r="I24" s="187" t="s">
+      <c r="I24" s="181" t="s">
         <v>346</v>
       </c>
-      <c r="J24" s="359" t="s">
+      <c r="J24" s="272" t="s">
         <v>537</v>
       </c>
-      <c r="K24" s="360"/>
+      <c r="K24" s="273"/>
     </row>
     <row r="25" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="113" t="s">
+      <c r="B25" s="108" t="s">
         <v>275</v>
       </c>
-      <c r="C25" s="31"/>
-      <c r="E25" s="82">
+      <c r="C25" s="26"/>
+      <c r="E25" s="77">
         <v>1</v>
       </c>
-      <c r="F25" s="92" t="s">
+      <c r="F25" s="87" t="s">
         <v>214</v>
       </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32" t="s">
+      <c r="G25" s="27"/>
+      <c r="H25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="I25" s="283" t="s">
+      <c r="I25" s="249" t="s">
         <v>476</v>
       </c>
-      <c r="J25" s="361"/>
-      <c r="K25" s="362"/>
+      <c r="J25" s="232"/>
+      <c r="K25" s="233"/>
     </row>
     <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="151" t="s">
         <v>262</v>
       </c>
-      <c r="B26" s="89" t="s">
+      <c r="B26" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="C26" s="88"/>
-      <c r="E26" s="82">
+      <c r="C26" s="83"/>
+      <c r="E26" s="77">
         <v>2</v>
       </c>
-      <c r="F26" s="92" t="s">
+      <c r="F26" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="32" t="s">
+      <c r="G26" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H26" s="73" t="s">
+      <c r="H26" s="68" t="s">
         <v>194</v>
       </c>
-      <c r="I26" s="284"/>
-      <c r="J26" s="361"/>
-      <c r="K26" s="362"/>
+      <c r="I26" s="250"/>
+      <c r="J26" s="232"/>
+      <c r="K26" s="233"/>
     </row>
     <row r="27" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="152" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="114"/>
-      <c r="C27" s="90"/>
-      <c r="E27" s="83">
+      <c r="B27" s="109"/>
+      <c r="C27" s="85"/>
+      <c r="E27" s="78">
         <v>3</v>
       </c>
-      <c r="F27" s="138" t="s">
+      <c r="F27" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="285"/>
-      <c r="J27" s="363"/>
-      <c r="K27" s="364"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="251"/>
+      <c r="J27" s="234"/>
+      <c r="K27" s="235"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="157" t="s">
+      <c r="A28" s="152" t="s">
         <v>277</v>
       </c>
-      <c r="B28" s="114"/>
-      <c r="C28" s="31"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="80"/>
+      <c r="B28" s="109"/>
+      <c r="C28" s="26"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="136"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="75"/>
     </row>
     <row r="29" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="157"/>
-      <c r="B29" s="114"/>
-      <c r="C29" s="31"/>
-      <c r="I29" s="80"/>
+      <c r="A29" s="152"/>
+      <c r="B29" s="109"/>
+      <c r="C29" s="26"/>
+      <c r="I29" s="75"/>
     </row>
     <row r="30" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="158"/>
-      <c r="B30" s="115"/>
-      <c r="C30" s="88"/>
+      <c r="A30" s="153"/>
+      <c r="B30" s="110"/>
+      <c r="C30" s="83"/>
       <c r="E30" s="246" t="s">
         <v>192</v>
       </c>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="247"/>
+      <c r="I30" s="248"/>
     </row>
     <row r="31" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="159"/>
-      <c r="B31" s="90"/>
-      <c r="C31" s="90"/>
-      <c r="E31" s="288" t="s">
+      <c r="A31" s="154"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="E31" s="254" t="s">
         <v>452</v>
       </c>
-      <c r="F31" s="289"/>
-      <c r="G31" s="196" t="s">
+      <c r="F31" s="255"/>
+      <c r="G31" s="190" t="s">
         <v>157</v>
       </c>
-      <c r="H31" s="196" t="s">
+      <c r="H31" s="190" t="s">
         <v>158</v>
       </c>
-      <c r="I31" s="187" t="s">
+      <c r="I31" s="181" t="s">
         <v>347</v>
       </c>
-      <c r="J31" s="365" t="s">
+      <c r="J31" s="236" t="s">
         <v>538</v>
       </c>
-      <c r="K31" s="366"/>
+      <c r="K31" s="237"/>
     </row>
     <row r="32" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="246" t="s">
         <v>234</v>
       </c>
-      <c r="B32" s="247"/>
-      <c r="C32" s="31"/>
-      <c r="E32" s="82">
+      <c r="B32" s="248"/>
+      <c r="C32" s="26"/>
+      <c r="E32" s="77">
         <v>1</v>
       </c>
-      <c r="F32" s="92" t="s">
+      <c r="F32" s="87" t="s">
         <v>169</v>
       </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="367"/>
-      <c r="K32" s="368"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="68"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="238"/>
+      <c r="K32" s="239"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="155" t="s">
+      <c r="A33" s="150" t="s">
         <v>230</v>
       </c>
-      <c r="B33" s="113" t="s">
+      <c r="B33" s="108" t="s">
         <v>282</v>
       </c>
-      <c r="C33" s="88"/>
-      <c r="E33" s="82">
+      <c r="C33" s="83"/>
+      <c r="E33" s="77">
         <v>2</v>
       </c>
-      <c r="F33" s="92" t="s">
+      <c r="F33" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="G33" s="32" t="s">
+      <c r="G33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H33" s="32"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="369"/>
-      <c r="K33" s="370"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="244"/>
+      <c r="J33" s="240"/>
+      <c r="K33" s="241"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="156" t="s">
+      <c r="A34" s="151" t="s">
         <v>232</v>
       </c>
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="E34" s="82">
+      <c r="E34" s="77">
         <v>3</v>
       </c>
-      <c r="F34" s="92"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="73"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="369"/>
-      <c r="K34" s="370"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="244"/>
+      <c r="J34" s="240"/>
+      <c r="K34" s="241"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="157" t="s">
+      <c r="A35" s="152" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="114"/>
-      <c r="E35" s="82">
+      <c r="B35" s="109"/>
+      <c r="E35" s="77">
         <v>4</v>
       </c>
-      <c r="F35" s="92"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="369"/>
-      <c r="K35" s="370"/>
+      <c r="F35" s="87"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="244"/>
+      <c r="J35" s="240"/>
+      <c r="K35" s="241"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="157" t="s">
+      <c r="A36" s="152" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="114"/>
-      <c r="E36" s="82">
+      <c r="B36" s="109"/>
+      <c r="E36" s="77">
         <v>5</v>
       </c>
-      <c r="F36" s="92"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="266"/>
-      <c r="J36" s="369"/>
-      <c r="K36" s="370"/>
+      <c r="F36" s="87"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="244"/>
+      <c r="J36" s="240"/>
+      <c r="K36" s="241"/>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="157" t="s">
+      <c r="A37" s="152" t="s">
         <v>219</v>
       </c>
-      <c r="B37" s="114"/>
-      <c r="E37" s="83">
+      <c r="B37" s="109"/>
+      <c r="E37" s="78">
         <v>6</v>
       </c>
-      <c r="F37" s="138"/>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="267"/>
-      <c r="J37" s="371"/>
-      <c r="K37" s="372"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="65"/>
+      <c r="H37" s="65"/>
+      <c r="I37" s="245"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="243"/>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="158" t="s">
+      <c r="A38" s="153" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="115"/>
+      <c r="B38" s="110"/>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="160"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="114"/>
     </row>
     <row r="40" spans="1:11" ht="18.75" x14ac:dyDescent="0.25">
       <c r="E40" s="246" t="s">
         <v>193</v>
       </c>
-      <c r="F40" s="268"/>
-      <c r="G40" s="268"/>
-      <c r="H40" s="268"/>
-      <c r="I40" s="247"/>
+      <c r="F40" s="247"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="248"/>
     </row>
     <row r="41" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="286"/>
-      <c r="F41" s="287"/>
-      <c r="G41" s="81" t="s">
+      <c r="E41" s="252"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="76" t="s">
         <v>157</v>
       </c>
-      <c r="H41" s="81" t="s">
+      <c r="H41" s="76" t="s">
         <v>158</v>
       </c>
-      <c r="I41" s="187" t="s">
+      <c r="I41" s="181" t="s">
         <v>348</v>
       </c>
-      <c r="J41" s="365" t="s">
+      <c r="J41" s="236" t="s">
         <v>539</v>
       </c>
-      <c r="K41" s="366"/>
+      <c r="K41" s="237"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E42" s="82">
+      <c r="E42" s="77">
         <v>1</v>
       </c>
-      <c r="F42" s="92"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="266"/>
-      <c r="J42" s="367"/>
-      <c r="K42" s="368"/>
+      <c r="F42" s="87"/>
+      <c r="G42" s="27"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="238"/>
+      <c r="K42" s="239"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E43" s="82">
+      <c r="E43" s="77">
         <v>2</v>
       </c>
-      <c r="F43" s="92"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="266"/>
-      <c r="J43" s="369"/>
-      <c r="K43" s="370"/>
+      <c r="F43" s="87"/>
+      <c r="G43" s="27"/>
+      <c r="H43" s="27"/>
+      <c r="I43" s="244"/>
+      <c r="J43" s="240"/>
+      <c r="K43" s="241"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E44" s="82">
+      <c r="E44" s="77">
         <v>3</v>
       </c>
-      <c r="F44" s="92"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="266"/>
-      <c r="J44" s="369"/>
-      <c r="K44" s="370"/>
+      <c r="F44" s="87"/>
+      <c r="G44" s="27"/>
+      <c r="H44" s="68"/>
+      <c r="I44" s="244"/>
+      <c r="J44" s="240"/>
+      <c r="K44" s="241"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E45" s="82">
+      <c r="E45" s="77">
         <v>4</v>
       </c>
-      <c r="F45" s="92"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="266"/>
-      <c r="J45" s="369"/>
-      <c r="K45" s="370"/>
+      <c r="F45" s="87"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="244"/>
+      <c r="J45" s="240"/>
+      <c r="K45" s="241"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E46" s="82">
+      <c r="E46" s="77">
         <v>5</v>
       </c>
-      <c r="F46" s="92"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="32"/>
-      <c r="I46" s="266"/>
-      <c r="J46" s="369"/>
-      <c r="K46" s="370"/>
+      <c r="F46" s="87"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="244"/>
+      <c r="J46" s="240"/>
+      <c r="K46" s="241"/>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E47" s="83">
+      <c r="E47" s="78">
         <v>6</v>
       </c>
-      <c r="F47" s="138"/>
-      <c r="G47" s="70"/>
-      <c r="H47" s="70"/>
-      <c r="I47" s="267"/>
-      <c r="J47" s="371"/>
-      <c r="K47" s="372"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="65"/>
+      <c r="H47" s="65"/>
+      <c r="I47" s="245"/>
+      <c r="J47" s="242"/>
+      <c r="K47" s="243"/>
     </row>
     <row r="48" spans="1:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="J25:K27"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="J32:K37"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="J42:K47"/>
-    <mergeCell ref="I42:I47"/>
-    <mergeCell ref="E40:I40"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="I25:I27"/>
-    <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="J18:K20"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="A3:B3"/>
@@ -6270,6 +6393,27 @@
     <mergeCell ref="I32:I37"/>
     <mergeCell ref="E30:I30"/>
     <mergeCell ref="J24:K24"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A8:K8"/>
+    <mergeCell ref="A9:K9"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="J18:K20"/>
+    <mergeCell ref="I42:I47"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="I25:I27"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="J25:K27"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="J32:K37"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="J42:K47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6335,17 +6479,17 @@
       <c r="H2" s="296"/>
       <c r="I2" s="296"/>
       <c r="J2" s="297"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
     </row>
     <row r="3" spans="1:15" s="1" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="172" t="s">
+      <c r="A3" s="167" t="s">
         <v>243</v>
       </c>
-      <c r="B3" s="175" t="s">
+      <c r="B3" s="170" t="s">
         <v>306</v>
       </c>
       <c r="C3" s="298" t="s">
@@ -6355,667 +6499,667 @@
       <c r="E3" s="299"/>
       <c r="F3" s="299"/>
       <c r="G3" s="300"/>
-      <c r="H3" s="175" t="s">
+      <c r="H3" s="170" t="s">
         <v>307</v>
       </c>
-      <c r="I3" s="175" t="s">
+      <c r="I3" s="170" t="s">
         <v>308</v>
       </c>
-      <c r="J3" s="176" t="s">
+      <c r="J3" s="171" t="s">
         <v>309</v>
       </c>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
     </row>
     <row r="4" spans="1:15" s="1" customFormat="1" ht="37.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="136" t="s">
+      <c r="A4" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="137" t="s">
+      <c r="B4" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="137" t="s">
+      <c r="C4" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="137" t="s">
+      <c r="D4" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="132" t="s">
         <v>282</v>
       </c>
-      <c r="F4" s="137" t="s">
+      <c r="F4" s="132" t="s">
         <v>275</v>
       </c>
-      <c r="G4" s="137" t="s">
+      <c r="G4" s="132" t="s">
         <v>290</v>
       </c>
-      <c r="H4" s="137" t="s">
+      <c r="H4" s="132" t="s">
         <v>195</v>
       </c>
-      <c r="I4" s="137" t="s">
+      <c r="I4" s="132" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="191" t="s">
+      <c r="J4" s="185" t="s">
         <v>395</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="106">
+      <c r="A5" s="101">
         <v>1</v>
       </c>
-      <c r="B5" s="77" t="s">
+      <c r="B5" s="72" t="s">
         <v>394</v>
       </c>
-      <c r="C5" s="107">
+      <c r="C5" s="102">
         <v>0.1</v>
       </c>
-      <c r="D5" s="107" t="s">
+      <c r="D5" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E5" s="107" t="s">
+      <c r="E5" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="F5" s="107" t="s">
+      <c r="F5" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="G5" s="107">
+      <c r="G5" s="102">
         <v>0.1</v>
       </c>
-      <c r="H5" s="108">
+      <c r="H5" s="103">
         <v>1</v>
       </c>
-      <c r="I5" s="109" t="s">
+      <c r="I5" s="104" t="s">
         <v>196</v>
       </c>
-      <c r="J5" s="110"/>
-      <c r="K5" s="197" t="s">
+      <c r="J5" s="105"/>
+      <c r="K5" s="191" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="106">
+      <c r="A6" s="101">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="77" t="s">
+      <c r="B6" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="107">
+      <c r="C6" s="102">
         <v>0.2</v>
       </c>
-      <c r="D6" s="107" t="s">
+      <c r="D6" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="107" t="s">
+      <c r="E6" s="102" t="s">
         <v>218</v>
       </c>
-      <c r="F6" s="107" t="s">
+      <c r="F6" s="102" t="s">
         <v>277</v>
       </c>
-      <c r="G6" s="107">
+      <c r="G6" s="102">
         <v>0.2</v>
       </c>
-      <c r="H6" s="108">
+      <c r="H6" s="103">
         <v>1</v>
       </c>
-      <c r="I6" s="109" t="s">
+      <c r="I6" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="197" t="s">
+      <c r="J6" s="105"/>
+      <c r="K6" s="191" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="A7" s="101">
         <f t="shared" ref="A7:A13" si="0">A6+1</f>
         <v>3</v>
       </c>
-      <c r="B7" s="77" t="s">
+      <c r="B7" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="C7" s="107">
+      <c r="C7" s="102">
         <v>0.5</v>
       </c>
-      <c r="D7" s="107" t="s">
+      <c r="D7" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="107" t="s">
+      <c r="E7" s="102" t="s">
         <v>219</v>
       </c>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="108">
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="103">
         <v>1</v>
       </c>
-      <c r="I7" s="109" t="s">
+      <c r="I7" s="104" t="s">
         <v>198</v>
       </c>
-      <c r="J7" s="110"/>
-      <c r="K7" s="197" t="s">
+      <c r="J7" s="105"/>
+      <c r="K7" s="191" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="106">
+      <c r="A8" s="101">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="77" t="s">
+      <c r="B8" s="72" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="107">
+      <c r="C8" s="102">
         <v>1</v>
       </c>
-      <c r="D8" s="107" t="s">
+      <c r="D8" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E8" s="107" t="s">
+      <c r="E8" s="102" t="s">
         <v>220</v>
       </c>
-      <c r="F8" s="107" t="s">
+      <c r="F8" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="G8" s="107">
+      <c r="G8" s="102">
         <v>0.1</v>
       </c>
-      <c r="H8" s="108">
+      <c r="H8" s="103">
         <v>1</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="104" t="s">
         <v>199</v>
       </c>
-      <c r="J8" s="110"/>
-      <c r="K8" s="197" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="191" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="106">
+      <c r="A9" s="101">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="77" t="s">
+      <c r="B9" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="107">
+      <c r="C9" s="102">
         <v>2</v>
       </c>
-      <c r="D9" s="107" t="s">
+      <c r="D9" s="102" t="s">
         <v>278</v>
       </c>
-      <c r="E9" s="107"/>
-      <c r="F9" s="107" t="s">
+      <c r="E9" s="102"/>
+      <c r="F9" s="102" t="s">
         <v>276</v>
       </c>
-      <c r="G9" s="107">
+      <c r="G9" s="102">
         <v>0.2</v>
       </c>
-      <c r="H9" s="108">
+      <c r="H9" s="103">
         <v>1</v>
       </c>
-      <c r="I9" s="109" t="s">
+      <c r="I9" s="104" t="s">
         <v>200</v>
       </c>
-      <c r="J9" s="110"/>
-      <c r="K9" s="197" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="191" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="106">
+      <c r="A10" s="101">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="77" t="s">
+      <c r="B10" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="C10" s="107">
+      <c r="C10" s="102">
         <v>5</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="102" t="s">
         <v>283</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="102" t="s">
         <v>217</v>
       </c>
-      <c r="F10" s="107"/>
-      <c r="G10" s="107"/>
-      <c r="H10" s="108">
+      <c r="F10" s="102"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="103">
         <v>1</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="104" t="s">
         <v>201</v>
       </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="197" t="s">
+      <c r="J10" s="105"/>
+      <c r="K10" s="191" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="A11" s="101">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="C11" s="107">
+      <c r="C11" s="102">
         <v>10</v>
       </c>
-      <c r="D11" s="107" t="s">
+      <c r="D11" s="102" t="s">
         <v>283</v>
    